--- a/PW/masterlog.xlsx
+++ b/PW/masterlog.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9985" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8080" uniqueCount="380">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1161,16 +1161,13 @@
     <t>Lock upper cinema doors (2) with allen key. Pull side stage door shut from inside. Lock booth and turn off all lights. MK2 key</t>
   </si>
   <si>
-    <t>7/31/16</t>
+    <t>7/30/16</t>
   </si>
   <si>
     <t>2200</t>
   </si>
   <si>
     <t>328A</t>
-  </si>
-  <si>
-    <t>8/01/16</t>
   </si>
 </sst>
 </file>
@@ -2014,7 +2011,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H1811"/>
+  <dimension ref="A1:H1430"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1306" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A1335" sqref="A1335:XFD1335"/>
@@ -31289,37 +31286,40 @@
       <c r="H1377" s="95"/>
     </row>
     <row r="1378" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1378" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1378" s="11">
-        <v>42582</v>
+      <c r="B1378" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1378" s="11" t="s">
+        <v>377</v>
       </c>
       <c r="D1378" s="14" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E1378" s="9" t="s">
-        <v>107</v>
+        <v>22</v>
       </c>
       <c r="F1378" s="13" t="s">
-        <v>81</v>
+        <v>297</v>
+      </c>
+      <c r="G1378" s="98" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="1379" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1379" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="C1379" s="11">
-        <v>42582</v>
+      <c r="C1379" s="11" t="s">
+        <v>377</v>
       </c>
       <c r="D1379" s="14" t="s">
-        <v>44</v>
+        <v>220</v>
       </c>
       <c r="E1379" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F1379" s="13" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G1379" s="98" t="s">
         <v>162</v>
@@ -31329,131 +31329,115 @@
       <c r="B1380" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="C1380" s="11">
-        <v>42582</v>
+      <c r="C1380" s="11" t="s">
+        <v>377</v>
       </c>
       <c r="D1380" s="14" t="s">
-        <v>34</v>
+        <v>378</v>
       </c>
       <c r="E1380" s="9" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F1380" s="13" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="1381" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1381" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1381" s="11">
-        <v>42582</v>
+      <c r="B1381" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1381" s="11" t="s">
+        <v>377</v>
       </c>
       <c r="D1381" s="14" t="s">
-        <v>34</v>
+        <v>378</v>
       </c>
       <c r="E1381" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F1381" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1381" s="98" t="s">
-        <v>162</v>
+        <v>379</v>
       </c>
     </row>
     <row r="1382" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1382" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1382" s="11">
-        <v>42582</v>
+      <c r="B1382" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1382" s="11" t="s">
+        <v>377</v>
       </c>
       <c r="D1382" s="14" t="s">
-        <v>34</v>
+        <v>378</v>
       </c>
       <c r="E1382" s="9" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="F1382" s="13" t="s">
-        <v>274</v>
+        <v>304</v>
+      </c>
+      <c r="G1382" s="98" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="1383" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1383" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="C1383" s="11">
-        <v>42582</v>
+      <c r="C1383" s="11" t="s">
+        <v>377</v>
       </c>
       <c r="D1383" s="14" t="s">
-        <v>34</v>
+        <v>378</v>
       </c>
       <c r="E1383" s="9" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="F1383" s="13" t="s">
-        <v>33</v>
+        <v>272</v>
       </c>
       <c r="G1383" s="98" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="1384" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1384" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1384" s="11">
-        <v>42582</v>
-      </c>
-      <c r="D1384" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1384" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="F1384" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="G1384" s="98" t="s">
-        <v>162</v>
-      </c>
+    <row r="1384" spans="2:8" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C1384" s="91"/>
+      <c r="D1384" s="92"/>
+      <c r="F1384" s="93"/>
+      <c r="G1384" s="94"/>
+      <c r="H1384" s="95"/>
     </row>
     <row r="1385" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1385" s="48" t="s">
         <v>27</v>
       </c>
       <c r="C1385" s="11">
-        <v>42582</v>
+        <v>42581</v>
       </c>
       <c r="D1385" s="14" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E1385" s="9" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="F1385" s="13" t="s">
-        <v>239</v>
+        <v>69</v>
       </c>
     </row>
     <row r="1386" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1386" s="70" t="s">
+      <c r="B1386" s="48" t="s">
         <v>27</v>
       </c>
       <c r="C1386" s="11">
-        <v>42582</v>
+        <v>42581</v>
       </c>
       <c r="D1386" s="14" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E1386" s="9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F1386" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="G1386" s="98" t="s">
-        <v>162</v>
+        <v>246</v>
       </c>
     </row>
     <row r="1387" spans="2:8" x14ac:dyDescent="0.25">
@@ -31461,204 +31445,207 @@
         <v>27</v>
       </c>
       <c r="C1387" s="11">
-        <v>42582</v>
+        <v>42581</v>
       </c>
       <c r="D1387" s="14" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E1387" s="9" t="s">
-        <v>26</v>
+        <v>129</v>
       </c>
       <c r="F1387" s="13" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="G1387" s="98" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="1388" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1388" s="48" t="s">
+      <c r="B1388" s="70" t="s">
         <v>27</v>
       </c>
       <c r="C1388" s="11">
-        <v>42582</v>
+        <v>42581</v>
       </c>
       <c r="D1388" s="14" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E1388" s="9" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="F1388" s="13" t="s">
-        <v>189</v>
+        <v>67</v>
+      </c>
+      <c r="G1388" s="98" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="1389" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1389" s="48" t="s">
+      <c r="B1389" s="70" t="s">
         <v>27</v>
       </c>
       <c r="C1389" s="11">
-        <v>42582</v>
+        <v>42581</v>
       </c>
       <c r="D1389" s="14" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E1389" s="9" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="F1389" s="13" t="s">
-        <v>190</v>
+        <v>68</v>
+      </c>
+      <c r="G1389" s="98" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="1390" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1390" s="48" t="s">
+      <c r="B1390" s="70" t="s">
         <v>27</v>
       </c>
       <c r="C1390" s="11">
-        <v>42582</v>
+        <v>42581</v>
       </c>
       <c r="D1390" s="14" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E1390" s="9" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="F1390" s="13" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="1391" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B1391" s="96" t="s">
-        <v>77</v>
+        <v>70</v>
+      </c>
+      <c r="G1390" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1391" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1391" s="70" t="s">
+        <v>27</v>
       </c>
       <c r="C1391" s="11">
-        <v>42582</v>
+        <v>42581</v>
       </c>
       <c r="D1391" s="14" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E1391" s="9" t="s">
-        <v>21</v>
+        <v>129</v>
       </c>
       <c r="F1391" s="13" t="s">
-        <v>330</v>
-      </c>
-      <c r="G1391" s="97" t="s">
-        <v>361</v>
+        <v>71</v>
+      </c>
+      <c r="G1391" s="98" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="1392" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1392" s="48" t="s">
+      <c r="B1392" s="70" t="s">
         <v>27</v>
       </c>
       <c r="C1392" s="11">
-        <v>42582</v>
+        <v>42581</v>
       </c>
       <c r="D1392" s="14" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="E1392" s="9" t="s">
         <v>129</v>
       </c>
       <c r="F1392" s="13" t="s">
-        <v>69</v>
+        <v>72</v>
+      </c>
+      <c r="G1392" s="98" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="1393" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1393" s="48" t="s">
+      <c r="B1393" s="70" t="s">
         <v>27</v>
       </c>
       <c r="C1393" s="11">
-        <v>42582</v>
+        <v>42581</v>
       </c>
       <c r="D1393" s="14" t="s">
         <v>46</v>
       </c>
       <c r="E1393" s="9" t="s">
-        <v>22</v>
+        <v>129</v>
       </c>
       <c r="F1393" s="13" t="s">
-        <v>246</v>
+        <v>302</v>
+      </c>
+      <c r="G1393" s="98" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="1394" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1394" s="70" t="s">
+      <c r="B1394" s="48" t="s">
         <v>27</v>
       </c>
       <c r="C1394" s="11">
-        <v>42582</v>
+        <v>42581</v>
       </c>
       <c r="D1394" s="14" t="s">
         <v>46</v>
       </c>
       <c r="E1394" s="9" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="F1394" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="G1394" s="98" t="s">
-        <v>162</v>
+        <v>111</v>
       </c>
     </row>
     <row r="1395" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1395" s="70" t="s">
+      <c r="B1395" s="48" t="s">
         <v>27</v>
       </c>
       <c r="C1395" s="11">
-        <v>42582</v>
+        <v>42581</v>
       </c>
       <c r="D1395" s="14" t="s">
         <v>46</v>
       </c>
       <c r="E1395" s="9" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="F1395" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="G1395" s="98" t="s">
-        <v>162</v>
+        <v>106</v>
       </c>
     </row>
     <row r="1396" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1396" s="70" t="s">
+      <c r="B1396" s="48" t="s">
         <v>27</v>
       </c>
       <c r="C1396" s="11">
-        <v>42582</v>
+        <v>42581</v>
       </c>
       <c r="D1396" s="14" t="s">
         <v>46</v>
       </c>
       <c r="E1396" s="9" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="F1396" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="G1396" s="98" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="1397" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1397" s="70" t="s">
+      <c r="B1397" s="48" t="s">
         <v>27</v>
       </c>
       <c r="C1397" s="11">
-        <v>42582</v>
+        <v>42581</v>
       </c>
       <c r="D1397" s="14" t="s">
         <v>46</v>
       </c>
       <c r="E1397" s="9" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="F1397" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="G1397" s="98" t="s">
-        <v>162</v>
+        <v>312</v>
       </c>
     </row>
     <row r="1398" spans="2:7" x14ac:dyDescent="0.25">
@@ -31666,16 +31653,16 @@
         <v>27</v>
       </c>
       <c r="C1398" s="11">
-        <v>42582</v>
+        <v>42581</v>
       </c>
       <c r="D1398" s="14" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E1398" s="9" t="s">
-        <v>129</v>
+        <v>21</v>
       </c>
       <c r="F1398" s="13" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="G1398" s="98" t="s">
         <v>162</v>
@@ -31686,16 +31673,16 @@
         <v>27</v>
       </c>
       <c r="C1399" s="11">
-        <v>42582</v>
+        <v>42581</v>
       </c>
       <c r="D1399" s="14" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E1399" s="9" t="s">
-        <v>129</v>
+        <v>22</v>
       </c>
       <c r="F1399" s="13" t="s">
-        <v>72</v>
+        <v>205</v>
       </c>
       <c r="G1399" s="98" t="s">
         <v>162</v>
@@ -31706,16 +31693,16 @@
         <v>27</v>
       </c>
       <c r="C1400" s="11">
-        <v>42582</v>
+        <v>42581</v>
       </c>
       <c r="D1400" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E1400" s="9" t="s">
-        <v>129</v>
+        <v>26</v>
       </c>
       <c r="F1400" s="13" t="s">
-        <v>302</v>
+        <v>37</v>
       </c>
       <c r="G1400" s="98" t="s">
         <v>162</v>
@@ -31726,16 +31713,16 @@
         <v>27</v>
       </c>
       <c r="C1401" s="11">
-        <v>42582</v>
+        <v>42581</v>
       </c>
       <c r="D1401" s="14" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="E1401" s="9" t="s">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="F1401" s="13" t="s">
-        <v>111</v>
+        <v>57</v>
       </c>
     </row>
     <row r="1402" spans="2:7" x14ac:dyDescent="0.25">
@@ -31743,16 +31730,16 @@
         <v>27</v>
       </c>
       <c r="C1402" s="11">
-        <v>42582</v>
+        <v>42581</v>
       </c>
       <c r="D1402" s="14" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="E1402" s="9" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="F1402" s="13" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
     </row>
     <row r="1403" spans="2:7" x14ac:dyDescent="0.25">
@@ -31760,127 +31747,127 @@
         <v>27</v>
       </c>
       <c r="C1403" s="11">
-        <v>42582</v>
+        <v>42581</v>
       </c>
       <c r="D1403" s="14" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="E1403" s="9" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="F1403" s="13" t="s">
-        <v>163</v>
+        <v>117</v>
       </c>
     </row>
     <row r="1404" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1404" s="48" t="s">
+      <c r="B1404" s="70" t="s">
         <v>27</v>
       </c>
       <c r="C1404" s="11">
-        <v>42582</v>
+        <v>42581</v>
       </c>
       <c r="D1404" s="14" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="E1404" s="9" t="s">
         <v>103</v>
       </c>
       <c r="F1404" s="13" t="s">
-        <v>312</v>
+        <v>310</v>
+      </c>
+      <c r="G1404" s="98" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="1405" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1405" s="70" t="s">
+      <c r="B1405" s="48" t="s">
         <v>27</v>
       </c>
       <c r="C1405" s="11">
-        <v>42582</v>
+        <v>42581</v>
       </c>
       <c r="D1405" s="14" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E1405" s="9" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="F1405" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="G1405" s="98" t="s">
-        <v>162</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1406" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1406" s="70" t="s">
+      <c r="B1406" s="48" t="s">
         <v>27</v>
       </c>
       <c r="C1406" s="11">
-        <v>42582</v>
+        <v>42581</v>
       </c>
       <c r="D1406" s="14" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E1406" s="9" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="F1406" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="G1406" s="98" t="s">
-        <v>162</v>
+        <v>313</v>
       </c>
     </row>
     <row r="1407" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1407" s="70" t="s">
+      <c r="B1407" s="48" t="s">
         <v>27</v>
       </c>
       <c r="C1407" s="11">
-        <v>42582</v>
+        <v>42581</v>
       </c>
       <c r="D1407" s="14" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E1407" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F1407" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1407" s="98" t="s">
-        <v>162</v>
+        <v>74</v>
       </c>
     </row>
     <row r="1408" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1408" s="48" t="s">
+      <c r="B1408" s="70" t="s">
         <v>27</v>
       </c>
       <c r="C1408" s="11">
-        <v>42582</v>
+        <v>42581</v>
       </c>
       <c r="D1408" s="14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E1408" s="9" t="s">
         <v>22</v>
       </c>
       <c r="F1408" s="13" t="s">
-        <v>57</v>
+        <v>297</v>
+      </c>
+      <c r="G1408" s="98" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="1409" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1409" s="48" t="s">
+      <c r="B1409" s="70" t="s">
         <v>27</v>
       </c>
       <c r="C1409" s="11">
-        <v>42582</v>
+        <v>42581</v>
       </c>
       <c r="D1409" s="14" t="s">
-        <v>30</v>
+        <v>220</v>
       </c>
       <c r="E1409" s="9" t="s">
-        <v>114</v>
+        <v>24</v>
       </c>
       <c r="F1409" s="13" t="s">
-        <v>116</v>
+        <v>52</v>
+      </c>
+      <c r="G1409" s="98" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="1410" spans="2:8" x14ac:dyDescent="0.25">
@@ -31888,95 +31875,101 @@
         <v>27</v>
       </c>
       <c r="C1410" s="11">
-        <v>42582</v>
+        <v>42581</v>
       </c>
       <c r="D1410" s="14" t="s">
-        <v>30</v>
+        <v>378</v>
       </c>
       <c r="E1410" s="9" t="s">
-        <v>114</v>
+        <v>28</v>
       </c>
       <c r="F1410" s="13" t="s">
-        <v>117</v>
+        <v>250</v>
       </c>
     </row>
     <row r="1411" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1411" s="70" t="s">
+      <c r="B1411" s="48" t="s">
         <v>27</v>
       </c>
       <c r="C1411" s="11">
-        <v>42582</v>
+        <v>42581</v>
       </c>
       <c r="D1411" s="14" t="s">
-        <v>30</v>
+        <v>378</v>
       </c>
       <c r="E1411" s="9" t="s">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="F1411" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="G1411" s="98" t="s">
-        <v>162</v>
+        <v>379</v>
       </c>
     </row>
     <row r="1412" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1412" s="48" t="s">
+      <c r="B1412" s="70" t="s">
         <v>27</v>
       </c>
       <c r="C1412" s="11">
-        <v>42582</v>
+        <v>42581</v>
       </c>
       <c r="D1412" s="14" t="s">
-        <v>30</v>
+        <v>378</v>
       </c>
       <c r="E1412" s="9" t="s">
         <v>103</v>
       </c>
       <c r="F1412" s="13" t="s">
-        <v>73</v>
+        <v>304</v>
+      </c>
+      <c r="G1412" s="98" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="1413" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1413" s="48" t="s">
+      <c r="B1413" s="70" t="s">
         <v>27</v>
       </c>
       <c r="C1413" s="11">
-        <v>42582</v>
+        <v>42581</v>
       </c>
       <c r="D1413" s="14" t="s">
-        <v>30</v>
+        <v>378</v>
       </c>
       <c r="E1413" s="9" t="s">
         <v>103</v>
       </c>
       <c r="F1413" s="13" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="1414" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1414" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1414" s="11">
-        <v>42582</v>
-      </c>
-      <c r="D1414" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1414" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1414" s="13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="1415" spans="2:8" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C1415" s="91"/>
-      <c r="D1415" s="92"/>
-      <c r="F1415" s="93"/>
-      <c r="G1415" s="94"/>
-      <c r="H1415" s="95"/>
+        <v>272</v>
+      </c>
+      <c r="G1413" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1414" spans="2:8" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C1414" s="91"/>
+      <c r="D1414" s="92"/>
+      <c r="F1414" s="93"/>
+      <c r="G1414" s="94"/>
+      <c r="H1414" s="95"/>
+    </row>
+    <row r="1415" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1415" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1415" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1415" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1415" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1415" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1415" s="98" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="1416" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1416" s="48" t="s">
@@ -31986,33 +31979,30 @@
         <v>377</v>
       </c>
       <c r="D1416" s="14" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E1416" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F1416" s="13" t="s">
-        <v>163</v>
+        <v>116</v>
       </c>
     </row>
     <row r="1417" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1417" s="70" t="s">
+      <c r="B1417" s="48" t="s">
         <v>27</v>
       </c>
       <c r="C1417" s="11" t="s">
         <v>377</v>
       </c>
       <c r="D1417" s="14" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E1417" s="9" t="s">
-        <v>26</v>
+        <v>114</v>
       </c>
       <c r="F1417" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1417" s="98" t="s">
-        <v>162</v>
+        <v>117</v>
       </c>
     </row>
     <row r="1418" spans="2:8" x14ac:dyDescent="0.25">
@@ -32023,13 +32013,13 @@
         <v>377</v>
       </c>
       <c r="D1418" s="14" t="s">
-        <v>43</v>
+        <v>220</v>
       </c>
       <c r="E1418" s="9" t="s">
-        <v>110</v>
+        <v>24</v>
       </c>
       <c r="F1418" s="13" t="s">
-        <v>277</v>
+        <v>52</v>
       </c>
       <c r="G1418" s="98" t="s">
         <v>162</v>
@@ -32043,33 +32033,30 @@
         <v>377</v>
       </c>
       <c r="D1419" s="14" t="s">
-        <v>43</v>
+        <v>378</v>
       </c>
       <c r="E1419" s="9" t="s">
-        <v>110</v>
+        <v>28</v>
       </c>
       <c r="F1419" s="13" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
     </row>
     <row r="1420" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1420" s="70" t="s">
+      <c r="B1420" s="48" t="s">
         <v>27</v>
       </c>
       <c r="C1420" s="11" t="s">
         <v>377</v>
       </c>
       <c r="D1420" s="14" t="s">
-        <v>43</v>
+        <v>378</v>
       </c>
       <c r="E1420" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F1420" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="G1420" s="98" t="s">
-        <v>162</v>
+        <v>379</v>
       </c>
     </row>
     <row r="1421" spans="2:8" x14ac:dyDescent="0.25">
@@ -32080,33 +32067,36 @@
         <v>377</v>
       </c>
       <c r="D1421" s="14" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E1421" s="9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F1421" s="13" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="G1421" s="98" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="1422" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1422" s="48" t="s">
+      <c r="B1422" s="70" t="s">
         <v>27</v>
       </c>
       <c r="C1422" s="11" t="s">
         <v>377</v>
       </c>
       <c r="D1422" s="14" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E1422" s="9" t="s">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="F1422" s="13" t="s">
-        <v>189</v>
+        <v>205</v>
+      </c>
+      <c r="G1422" s="98" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="1423" spans="2:8" x14ac:dyDescent="0.25">
@@ -32117,30 +32107,33 @@
         <v>377</v>
       </c>
       <c r="D1423" s="14" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="E1423" s="9" t="s">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="F1423" s="13" t="s">
-        <v>190</v>
+        <v>57</v>
       </c>
     </row>
     <row r="1424" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1424" s="48" t="s">
+      <c r="B1424" s="70" t="s">
         <v>27</v>
       </c>
       <c r="C1424" s="11" t="s">
         <v>377</v>
       </c>
       <c r="D1424" s="14" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="E1424" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F1424" s="13" t="s">
-        <v>191</v>
+        <v>310</v>
+      </c>
+      <c r="G1424" s="98" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="1425" spans="2:7" x14ac:dyDescent="0.25">
@@ -32151,13 +32144,13 @@
         <v>377</v>
       </c>
       <c r="D1425" s="14" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="E1425" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F1425" s="13" t="s">
-        <v>111</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1426" spans="2:7" x14ac:dyDescent="0.25">
@@ -32168,13 +32161,13 @@
         <v>377</v>
       </c>
       <c r="D1426" s="14" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="E1426" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F1426" s="13" t="s">
-        <v>106</v>
+        <v>313</v>
       </c>
     </row>
     <row r="1427" spans="2:7" x14ac:dyDescent="0.25">
@@ -32185,13 +32178,13 @@
         <v>377</v>
       </c>
       <c r="D1427" s="14" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="E1427" s="9" t="s">
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="F1427" s="13" t="s">
-        <v>163</v>
+        <v>74</v>
       </c>
     </row>
     <row r="1428" spans="2:7" x14ac:dyDescent="0.25">
@@ -32202,7017 +32195,56 @@
         <v>377</v>
       </c>
       <c r="D1428" s="14" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="E1428" s="9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F1428" s="13" t="s">
-        <v>37</v>
+        <v>297</v>
       </c>
       <c r="G1428" s="98" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="1429" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1429" s="48" t="s">
+      <c r="B1429" s="70" t="s">
         <v>27</v>
       </c>
       <c r="C1429" s="11" t="s">
         <v>377</v>
       </c>
       <c r="D1429" s="14" t="s">
-        <v>30</v>
+        <v>378</v>
       </c>
       <c r="E1429" s="9" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="F1429" s="13" t="s">
-        <v>116</v>
+        <v>304</v>
+      </c>
+      <c r="G1429" s="98" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="1430" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1430" s="48" t="s">
+      <c r="B1430" s="70" t="s">
         <v>27</v>
       </c>
       <c r="C1430" s="11" t="s">
         <v>377</v>
       </c>
       <c r="D1430" s="14" t="s">
-        <v>30</v>
+        <v>378</v>
       </c>
       <c r="E1430" s="9" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="F1430" s="13" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="1431" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1431" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1431" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1431" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1431" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1431" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G1431" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1432" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1432" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1432" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1432" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1432" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1432" s="13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="1433" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1433" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1433" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1433" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1433" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="F1433" s="13" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="1434" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1434" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1434" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1434" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1434" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1434" s="13" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="1435" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1435" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1435" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1435" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1435" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="F1435" s="13" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="1436" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1436" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1436" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1436" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1436" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="F1436" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1436" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1437" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1437" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1437" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1437" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1437" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1437" s="13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="1438" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1438" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1438" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1438" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1438" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1438" s="13" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="1439" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1439" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1439" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1439" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1439" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1439" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="G1439" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1440" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1440" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1440" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1440" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1440" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1440" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="G1440" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1441" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1441" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1441" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1441" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1441" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1441" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="G1441" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1442" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1442" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1442" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1442" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1442" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1442" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="G1442" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1443" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1443" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1443" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1443" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1443" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1443" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="G1443" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1444" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1444" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1444" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1444" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1444" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1444" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="G1444" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1445" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1445" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1445" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1445" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1445" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1445" s="13" t="s">
-        <v>302</v>
-      </c>
-      <c r="G1445" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1446" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1446" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1446" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1446" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1446" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1446" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="G1446" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1447" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1447" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1447" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1447" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1447" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1447" s="13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="1448" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1448" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1448" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1448" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1448" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1448" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G1448" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1449" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B1449" s="96" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1449" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1449" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1449" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1449" s="13" t="s">
-        <v>330</v>
-      </c>
-      <c r="G1449" s="97" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="1450" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1450" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1450" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1450" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1450" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1450" s="13" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="1451" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1451" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1451" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1451" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1451" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1451" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="G1451" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1452" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1452" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1452" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1452" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1452" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1452" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="G1452" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1453" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1453" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1453" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1453" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1453" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1453" s="13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="1454" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1454" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1454" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1454" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1454" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1454" s="13" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="1455" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1455" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1455" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1455" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1455" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1455" s="13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="1456" spans="2:8" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C1456" s="91"/>
-      <c r="D1456" s="92"/>
-      <c r="F1456" s="93"/>
-      <c r="G1456" s="94"/>
-      <c r="H1456" s="95"/>
-    </row>
-    <row r="1457" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1457" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1457" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1457" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1457" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="F1457" s="13" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="1458" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1458" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1458" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1458" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1458" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1458" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1458" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1459" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1459" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1459" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1459" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1459" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1459" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="G1459" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1460" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1460" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1460" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1460" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1460" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1460" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1460" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1461" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1461" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1461" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1461" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1461" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1461" s="13" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="1462" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1462" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1462" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1462" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1462" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1462" s="13" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="1463" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1463" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1463" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1463" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1463" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1463" s="13" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="1464" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1464" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1464" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1464" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1464" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1464" s="13" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="1465" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1465" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1465" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1465" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1465" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1465" s="13" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="1466" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1466" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1466" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1466" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1466" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1466" s="13" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="1467" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1467" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1467" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1467" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1467" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1467" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1467" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1468" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1468" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1468" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1468" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1468" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="F1468" s="13" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="1469" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1469" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1469" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1469" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1469" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="F1469" s="13" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="1470" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1470" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1470" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1470" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1470" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1470" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G1470" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1471" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1471" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1471" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1471" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1471" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1471" s="13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="1472" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1472" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1472" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1472" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1472" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="F1472" s="13" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="1473" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1473" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1473" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1473" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1473" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1473" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G1473" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1474" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1474" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1474" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1474" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1474" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1474" s="13" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="1475" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1475" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1475" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1475" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1475" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="F1475" s="13" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="1476" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1476" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1476" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1476" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1476" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="F1476" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1476" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1477" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B1477" s="48" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1477" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1477" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1477" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1477" s="13" t="s">
-        <v>330</v>
-      </c>
-      <c r="G1477" s="36" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="1478" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1478" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1478" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1478" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1478" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1478" s="13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="1479" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1479" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1479" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1479" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1479" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1479" s="13" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="1480" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1480" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1480" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1480" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1480" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1480" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="G1480" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1481" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1481" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1481" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1481" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1481" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1481" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="G1481" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1482" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1482" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1482" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1482" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1482" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1482" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="G1482" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1483" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1483" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1483" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1483" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1483" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1483" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="G1483" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1484" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1484" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1484" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1484" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1484" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1484" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="G1484" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1485" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1485" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1485" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1485" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1485" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1485" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="G1485" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1486" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1486" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1486" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1486" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1486" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1486" s="13" t="s">
-        <v>302</v>
-      </c>
-      <c r="G1486" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1487" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1487" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1487" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1487" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1487" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1487" s="13" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="1488" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1488" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1488" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1488" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1488" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1488" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="G1488" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1489" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1489" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1489" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1489" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1489" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1489" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="G1489" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1490" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1490" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1490" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1490" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1490" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1490" s="13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="1491" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1491" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1491" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1491" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1491" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1491" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="G1491" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1492" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1492" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1492" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1492" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1492" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1492" s="13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="1493" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1493" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1493" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1493" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1493" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1493" s="13" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="1494" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1494" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1494" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1494" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1494" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1494" s="13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="1495" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1495" s="10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B1495" s="48" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1495" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1495" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1495" s="9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1495" s="13" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1495" s="36" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1496" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1496" s="10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B1496" s="48" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1496" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1496" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1496" s="9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1496" s="13" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1496" s="36" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1497" spans="1:8" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C1497" s="91"/>
-      <c r="D1497" s="92"/>
-      <c r="F1497" s="93"/>
-      <c r="G1497" s="94"/>
-      <c r="H1497" s="95"/>
-    </row>
-    <row r="1498" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1498" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1498" s="11">
-        <v>42582</v>
-      </c>
-      <c r="D1498" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="E1498" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="F1498" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="G1498" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1499" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1499" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1499" s="11">
-        <v>42582</v>
-      </c>
-      <c r="D1499" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="E1499" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="F1499" s="13" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="1500" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1500" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1500" s="11">
-        <v>42582</v>
-      </c>
-      <c r="D1500" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="E1500" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="F1500" s="13" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="1501" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1501" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1501" s="11">
-        <v>42582</v>
-      </c>
-      <c r="D1501" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1501" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1501" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G1501" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1502" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1502" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1502" s="11">
-        <v>42582</v>
-      </c>
-      <c r="D1502" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1502" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1502" s="13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="1503" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1503" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1503" s="11">
-        <v>42582</v>
-      </c>
-      <c r="D1503" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1503" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="F1503" s="13" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="1504" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1504" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1504" s="11">
-        <v>42582</v>
-      </c>
-      <c r="D1504" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1504" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="F1504" s="13" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="1505" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1505" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1505" s="11">
-        <v>42582</v>
-      </c>
-      <c r="D1505" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1505" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1505" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G1505" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1506" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1506" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1506" s="11">
-        <v>42582</v>
-      </c>
-      <c r="D1506" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1506" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1506" s="13" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="1507" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1507" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1507" s="11">
-        <v>42582</v>
-      </c>
-      <c r="D1507" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1507" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1507" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1507" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1508" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1508" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1508" s="11">
-        <v>42582</v>
-      </c>
-      <c r="D1508" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1508" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="F1508" s="13" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="1509" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1509" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1509" s="11">
-        <v>42582</v>
-      </c>
-      <c r="D1509" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1509" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="F1509" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1509" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1510" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1510" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1510" s="11">
-        <v>42582</v>
-      </c>
-      <c r="D1510" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1510" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="F1510" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="G1510" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1511" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1511" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1511" s="11">
-        <v>42582</v>
-      </c>
-      <c r="D1511" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1511" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="F1511" s="13" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="1512" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1512" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1512" s="11">
-        <v>42582</v>
-      </c>
-      <c r="D1512" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1512" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1512" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="G1512" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1513" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1513" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1513" s="11">
-        <v>42582</v>
-      </c>
-      <c r="D1513" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1513" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1513" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1513" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1514" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1514" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1514" s="11">
-        <v>42582</v>
-      </c>
-      <c r="D1514" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1514" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1514" s="13" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="1515" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1515" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1515" s="11">
-        <v>42582</v>
-      </c>
-      <c r="D1515" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1515" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1515" s="13" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="1516" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1516" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1516" s="11">
-        <v>42582</v>
-      </c>
-      <c r="D1516" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1516" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1516" s="13" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="1517" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B1517" s="48" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1517" s="11">
-        <v>42582</v>
-      </c>
-      <c r="D1517" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1517" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1517" s="13" t="s">
-        <v>330</v>
-      </c>
-      <c r="G1517" s="36" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="1518" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1518" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1518" s="11">
-        <v>42582</v>
-      </c>
-      <c r="D1518" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1518" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1518" s="13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="1519" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1519" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1519" s="11">
-        <v>42582</v>
-      </c>
-      <c r="D1519" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1519" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1519" s="13" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="1520" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1520" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1520" s="11">
-        <v>42582</v>
-      </c>
-      <c r="D1520" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1520" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1520" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="G1520" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1521" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1521" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1521" s="11">
-        <v>42582</v>
-      </c>
-      <c r="D1521" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1521" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1521" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="G1521" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1522" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1522" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1522" s="11">
-        <v>42582</v>
-      </c>
-      <c r="D1522" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1522" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1522" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="G1522" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1523" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1523" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1523" s="11">
-        <v>42582</v>
-      </c>
-      <c r="D1523" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1523" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1523" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="G1523" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1524" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1524" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1524" s="11">
-        <v>42582</v>
-      </c>
-      <c r="D1524" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1524" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1524" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="G1524" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1525" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1525" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1525" s="11">
-        <v>42582</v>
-      </c>
-      <c r="D1525" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1525" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1525" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="G1525" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1526" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1526" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1526" s="11">
-        <v>42582</v>
-      </c>
-      <c r="D1526" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1526" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1526" s="13" t="s">
-        <v>302</v>
-      </c>
-      <c r="G1526" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1527" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1527" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1527" s="11">
-        <v>42582</v>
-      </c>
-      <c r="D1527" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1527" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1527" s="13" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="1528" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1528" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1528" s="11">
-        <v>42582</v>
-      </c>
-      <c r="D1528" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1528" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1528" s="13" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="1529" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1529" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1529" s="11">
-        <v>42582</v>
-      </c>
-      <c r="D1529" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1529" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1529" s="13" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="1530" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1530" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1530" s="11">
-        <v>42582</v>
-      </c>
-      <c r="D1530" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1530" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1530" s="13" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="1531" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1531" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1531" s="11">
-        <v>42582</v>
-      </c>
-      <c r="D1531" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1531" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1531" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="G1531" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1532" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1532" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1532" s="11">
-        <v>42582</v>
-      </c>
-      <c r="D1532" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1532" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1532" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="G1532" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1533" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1533" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1533" s="11">
-        <v>42582</v>
-      </c>
-      <c r="D1533" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1533" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1533" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1533" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1534" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1534" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1534" s="11">
-        <v>42582</v>
-      </c>
-      <c r="D1534" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1534" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1534" s="13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="1535" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1535" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1535" s="11">
-        <v>42582</v>
-      </c>
-      <c r="D1535" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1535" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="F1535" s="13" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="1536" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1536" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1536" s="11">
-        <v>42582</v>
-      </c>
-      <c r="D1536" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1536" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="F1536" s="13" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="1537" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1537" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1537" s="11">
-        <v>42582</v>
-      </c>
-      <c r="D1537" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1537" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1537" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="G1537" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1538" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1538" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1538" s="11">
-        <v>42582</v>
-      </c>
-      <c r="D1538" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1538" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1538" s="13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="1539" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1539" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1539" s="11">
-        <v>42582</v>
-      </c>
-      <c r="D1539" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1539" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1539" s="13" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="1540" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1540" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1540" s="11">
-        <v>42582</v>
-      </c>
-      <c r="D1540" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1540" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1540" s="13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="1541" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1541" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1541" s="11">
-        <v>42582</v>
-      </c>
-      <c r="D1541" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1541" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1541" s="13" t="s">
-        <v>297</v>
-      </c>
-      <c r="G1541" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1542" spans="2:8" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C1542" s="91"/>
-      <c r="D1542" s="92"/>
-      <c r="F1542" s="93"/>
-      <c r="G1542" s="94"/>
-      <c r="H1542" s="95"/>
-    </row>
-    <row r="1543" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1543" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1543" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1543" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="E1543" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="F1543" s="13" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="1544" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1544" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1544" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1544" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="E1544" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="F1544" s="13" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="1545" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1545" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1545" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1545" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1545" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="F1545" s="13" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="1546" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1546" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1546" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1546" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1546" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1546" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1546" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1547" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1547" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1547" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1547" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1547" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1547" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="G1547" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1548" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1548" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1548" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1548" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1548" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1548" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1548" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1549" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1549" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1549" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1549" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1549" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1549" s="13" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="1550" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1550" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1550" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1550" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1550" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1550" s="13" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="1551" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1551" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1551" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1551" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1551" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1551" s="13" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="1552" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1552" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1552" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1552" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1552" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1552" s="13" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="1553" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1553" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1553" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1553" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1553" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1553" s="13" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="1554" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1554" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1554" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1554" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1554" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1554" s="13" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="1555" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1555" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1555" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1555" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1555" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1555" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1555" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1556" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1556" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1556" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1556" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1556" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="F1556" s="13" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="1557" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1557" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1557" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1557" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1557" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="F1557" s="13" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="1558" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1558" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1558" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1558" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="E1558" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="F1558" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="G1558" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1559" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1559" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1559" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1559" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1559" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1559" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G1559" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1560" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1560" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1560" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1560" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1560" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1560" s="13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="1561" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1561" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1561" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1561" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1561" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="F1561" s="13" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="1562" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1562" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1562" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1562" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1562" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1562" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G1562" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1563" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1563" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1563" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1563" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1563" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1563" s="13" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="1564" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1564" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1564" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1564" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1564" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="F1564" s="13" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="1565" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1565" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1565" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1565" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1565" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="F1565" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1565" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1566" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B1566" s="48" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1566" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1566" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1566" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1566" s="13" t="s">
-        <v>330</v>
-      </c>
-      <c r="G1566" s="36" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="1567" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1567" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1567" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1567" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1567" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1567" s="13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="1568" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1568" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1568" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1568" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1568" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1568" s="13" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="1569" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1569" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1569" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1569" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1569" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1569" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="G1569" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1570" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1570" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1570" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1570" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1570" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1570" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="G1570" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1571" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1571" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1571" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1571" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1571" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1571" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="G1571" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1572" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1572" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1572" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1572" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1572" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1572" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="G1572" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1573" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1573" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1573" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1573" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1573" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1573" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="G1573" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1574" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1574" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1574" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1574" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1574" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1574" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="G1574" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1575" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1575" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1575" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1575" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1575" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1575" s="13" t="s">
-        <v>302</v>
-      </c>
-      <c r="G1575" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1576" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1576" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1576" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1576" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1576" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1576" s="13" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="1577" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1577" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1577" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1577" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1577" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1577" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="G1577" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1578" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1578" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1578" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1578" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1578" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1578" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="G1578" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1579" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1579" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1579" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1579" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1579" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1579" s="13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="1580" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1580" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1580" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1580" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1580" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1580" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="G1580" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1581" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1581" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1581" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1581" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1581" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1581" s="13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="1582" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1582" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1582" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1582" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1582" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1582" s="13" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="1583" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1583" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1583" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1583" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1583" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1583" s="13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="1584" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1584" s="10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B1584" s="48" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1584" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1584" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1584" s="9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1584" s="13" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1584" s="36" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1585" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1585" s="10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B1585" s="48" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1585" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1585" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1585" s="9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1585" s="13" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1585" s="36" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1586" spans="1:8" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C1586" s="91"/>
-      <c r="D1586" s="92"/>
-      <c r="F1586" s="93"/>
-      <c r="G1586" s="94"/>
-      <c r="H1586" s="95"/>
-    </row>
-    <row r="1587" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1587" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1587" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1587" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="E1587" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="F1587" s="13" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="1588" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1588" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1588" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1588" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="E1588" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="F1588" s="13" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="1589" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1589" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1589" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1589" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1589" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="F1589" s="13" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="1590" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1590" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1590" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1590" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1590" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1590" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1590" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1591" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1591" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1591" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1591" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1591" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1591" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="G1591" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1592" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1592" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1592" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1592" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1592" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1592" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1592" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1593" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1593" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1593" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1593" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1593" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1593" s="13" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="1594" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1594" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1594" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1594" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1594" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1594" s="13" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="1595" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1595" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1595" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1595" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1595" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1595" s="13" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="1596" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1596" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1596" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1596" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1596" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1596" s="13" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="1597" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1597" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1597" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1597" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1597" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1597" s="13" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="1598" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1598" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1598" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1598" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1598" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1598" s="13" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="1599" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1599" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1599" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1599" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1599" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1599" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1599" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1600" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1600" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1600" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1600" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1600" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="F1600" s="13" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="1601" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1601" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1601" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1601" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1601" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="F1601" s="13" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="1602" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1602" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1602" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1602" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="E1602" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1602" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1602" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1603" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1603" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1603" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1603" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="E1603" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1603" s="13" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="1604" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1604" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1604" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1604" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="E1604" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1604" s="13" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="1605" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1605" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1605" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1605" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="E1605" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="F1605" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="G1605" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1606" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1606" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1606" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1606" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1606" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1606" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G1606" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1607" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1607" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1607" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1607" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1607" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1607" s="13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="1608" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1608" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1608" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1608" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1608" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="F1608" s="13" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="1609" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1609" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1609" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1609" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1609" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1609" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G1609" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1610" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1610" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1610" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1610" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1610" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1610" s="13" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="1611" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1611" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1611" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1611" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1611" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="F1611" s="13" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="1612" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1612" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1612" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1612" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1612" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="F1612" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1612" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1613" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B1613" s="48" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1613" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1613" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1613" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1613" s="13" t="s">
-        <v>330</v>
-      </c>
-      <c r="G1613" s="36" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="1614" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1614" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1614" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1614" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1614" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1614" s="13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="1615" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1615" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1615" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1615" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1615" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1615" s="13" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="1616" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1616" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1616" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1616" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1616" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1616" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="G1616" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1617" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1617" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1617" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1617" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1617" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1617" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="G1617" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1618" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1618" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1618" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1618" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1618" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1618" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="G1618" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1619" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1619" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1619" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1619" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1619" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1619" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="G1619" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1620" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1620" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1620" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1620" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1620" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1620" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="G1620" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1621" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1621" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1621" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1621" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1621" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1621" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="G1621" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1622" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1622" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1622" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1622" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1622" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1622" s="13" t="s">
-        <v>302</v>
-      </c>
-      <c r="G1622" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1623" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1623" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1623" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1623" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1623" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1623" s="13" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="1624" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1624" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1624" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1624" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1624" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1624" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="G1624" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1625" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1625" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1625" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1625" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1625" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1625" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="G1625" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1626" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1626" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1626" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1626" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1626" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1626" s="13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="1627" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1627" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1627" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1627" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1627" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1627" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="G1627" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1628" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1628" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1628" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1628" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1628" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1628" s="13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="1629" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1629" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1629" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1629" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1629" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1629" s="13" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="1630" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1630" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1630" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1630" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1630" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1630" s="13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="1631" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1631" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1631" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1631" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1631" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1631" s="13" t="s">
-        <v>297</v>
-      </c>
-      <c r="G1631" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1632" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1632" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1632" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1632" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="E1632" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1632" s="13" t="s">
-        <v>304</v>
-      </c>
-      <c r="G1632" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1633" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1633" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1633" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1633" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="E1633" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1633" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="G1633" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1634" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1634" s="10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B1634" s="48" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1634" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1634" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1634" s="9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1634" s="13" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1634" s="36" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1635" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1635" s="10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B1635" s="48" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1635" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1635" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1635" s="9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1635" s="13" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1635" s="36" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1636" spans="1:8" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C1636" s="91"/>
-      <c r="D1636" s="92"/>
-      <c r="F1636" s="93"/>
-      <c r="G1636" s="94"/>
-      <c r="H1636" s="95"/>
-    </row>
-    <row r="1637" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1637" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1637" s="11">
-        <v>42582</v>
-      </c>
-      <c r="D1637" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="E1637" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="F1637" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="G1637" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1638" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1638" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1638" s="11">
-        <v>42582</v>
-      </c>
-      <c r="D1638" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="E1638" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="F1638" s="13" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="1639" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1639" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1639" s="11">
-        <v>42582</v>
-      </c>
-      <c r="D1639" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="E1639" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="F1639" s="13" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="1640" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1640" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1640" s="11">
-        <v>42582</v>
-      </c>
-      <c r="D1640" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1640" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1640" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G1640" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1641" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1641" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1641" s="11">
-        <v>42582</v>
-      </c>
-      <c r="D1641" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1641" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1641" s="13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="1642" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1642" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1642" s="11">
-        <v>42582</v>
-      </c>
-      <c r="D1642" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1642" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="F1642" s="13" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="1643" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1643" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1643" s="11">
-        <v>42582</v>
-      </c>
-      <c r="D1643" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1643" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="F1643" s="13" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="1644" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1644" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1644" s="11">
-        <v>42582</v>
-      </c>
-      <c r="D1644" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1644" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1644" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G1644" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1645" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1645" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1645" s="11">
-        <v>42582</v>
-      </c>
-      <c r="D1645" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1645" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1645" s="13" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="1646" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1646" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1646" s="11">
-        <v>42582</v>
-      </c>
-      <c r="D1646" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1646" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1646" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1646" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1647" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1647" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1647" s="11">
-        <v>42582</v>
-      </c>
-      <c r="D1647" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1647" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="F1647" s="13" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="1648" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1648" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1648" s="11">
-        <v>42582</v>
-      </c>
-      <c r="D1648" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1648" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="F1648" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1648" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1649" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1649" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1649" s="11">
-        <v>42582</v>
-      </c>
-      <c r="D1649" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1649" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="F1649" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="G1649" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1650" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1650" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1650" s="11">
-        <v>42582</v>
-      </c>
-      <c r="D1650" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1650" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="F1650" s="13" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="1651" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1651" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1651" s="11">
-        <v>42582</v>
-      </c>
-      <c r="D1651" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1651" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1651" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="G1651" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1652" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1652" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1652" s="11">
-        <v>42582</v>
-      </c>
-      <c r="D1652" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1652" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1652" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1652" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1653" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1653" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1653" s="11">
-        <v>42582</v>
-      </c>
-      <c r="D1653" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1653" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1653" s="13" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="1654" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1654" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1654" s="11">
-        <v>42582</v>
-      </c>
-      <c r="D1654" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1654" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1654" s="13" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="1655" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1655" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1655" s="11">
-        <v>42582</v>
-      </c>
-      <c r="D1655" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1655" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1655" s="13" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="1656" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B1656" s="48" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1656" s="11">
-        <v>42582</v>
-      </c>
-      <c r="D1656" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1656" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1656" s="13" t="s">
-        <v>330</v>
-      </c>
-      <c r="G1656" s="36" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="1657" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1657" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1657" s="11">
-        <v>42582</v>
-      </c>
-      <c r="D1657" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1657" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1657" s="13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="1658" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1658" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1658" s="11">
-        <v>42582</v>
-      </c>
-      <c r="D1658" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1658" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1658" s="13" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="1659" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1659" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1659" s="11">
-        <v>42582</v>
-      </c>
-      <c r="D1659" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1659" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1659" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="G1659" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1660" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1660" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1660" s="11">
-        <v>42582</v>
-      </c>
-      <c r="D1660" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1660" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1660" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="G1660" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1661" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1661" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1661" s="11">
-        <v>42582</v>
-      </c>
-      <c r="D1661" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1661" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1661" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="G1661" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1662" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1662" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1662" s="11">
-        <v>42582</v>
-      </c>
-      <c r="D1662" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1662" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1662" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="G1662" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1663" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1663" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1663" s="11">
-        <v>42582</v>
-      </c>
-      <c r="D1663" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1663" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1663" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="G1663" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1664" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1664" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1664" s="11">
-        <v>42582</v>
-      </c>
-      <c r="D1664" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1664" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1664" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="G1664" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1665" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1665" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1665" s="11">
-        <v>42582</v>
-      </c>
-      <c r="D1665" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1665" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1665" s="13" t="s">
-        <v>302</v>
-      </c>
-      <c r="G1665" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1666" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1666" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1666" s="11">
-        <v>42582</v>
-      </c>
-      <c r="D1666" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1666" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1666" s="13" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="1667" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1667" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1667" s="11">
-        <v>42582</v>
-      </c>
-      <c r="D1667" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1667" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1667" s="13" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="1668" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1668" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1668" s="11">
-        <v>42582</v>
-      </c>
-      <c r="D1668" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1668" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1668" s="13" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="1669" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1669" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1669" s="11">
-        <v>42582</v>
-      </c>
-      <c r="D1669" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1669" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1669" s="13" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="1670" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1670" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1670" s="11">
-        <v>42582</v>
-      </c>
-      <c r="D1670" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1670" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1670" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="G1670" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1671" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1671" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1671" s="11">
-        <v>42582</v>
-      </c>
-      <c r="D1671" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1671" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1671" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="G1671" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1672" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1672" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1672" s="11">
-        <v>42582</v>
-      </c>
-      <c r="D1672" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1672" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1672" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1672" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1673" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1673" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1673" s="11">
-        <v>42582</v>
-      </c>
-      <c r="D1673" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1673" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1673" s="13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="1674" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1674" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1674" s="11">
-        <v>42582</v>
-      </c>
-      <c r="D1674" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1674" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="F1674" s="13" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="1675" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1675" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1675" s="11">
-        <v>42582</v>
-      </c>
-      <c r="D1675" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1675" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="F1675" s="13" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="1676" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1676" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1676" s="11">
-        <v>42582</v>
-      </c>
-      <c r="D1676" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1676" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1676" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="G1676" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1677" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1677" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1677" s="11">
-        <v>42582</v>
-      </c>
-      <c r="D1677" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1677" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1677" s="13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="1678" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1678" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1678" s="11">
-        <v>42582</v>
-      </c>
-      <c r="D1678" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1678" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1678" s="13" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="1679" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1679" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1679" s="11">
-        <v>42582</v>
-      </c>
-      <c r="D1679" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1679" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1679" s="13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="1680" spans="2:8" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C1680" s="91"/>
-      <c r="D1680" s="92"/>
-      <c r="F1680" s="93"/>
-      <c r="G1680" s="94"/>
-      <c r="H1680" s="95"/>
-    </row>
-    <row r="1681" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1681" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1681" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1681" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="E1681" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="F1681" s="13" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="1682" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1682" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1682" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1682" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="E1682" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="F1682" s="13" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="1683" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1683" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1683" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1683" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1683" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="F1683" s="13" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="1684" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1684" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1684" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1684" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1684" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1684" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1684" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1685" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1685" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1685" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1685" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1685" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1685" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="G1685" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1686" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1686" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1686" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1686" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1686" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1686" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1686" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1687" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1687" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1687" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1687" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1687" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1687" s="13" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="1688" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1688" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1688" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1688" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1688" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1688" s="13" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="1689" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1689" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1689" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1689" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1689" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1689" s="13" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="1690" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1690" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1690" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1690" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1690" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1690" s="13" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="1691" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1691" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1691" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1691" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1691" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1691" s="13" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="1692" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1692" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1692" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1692" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1692" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1692" s="13" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="1693" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1693" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1693" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1693" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1693" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1693" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1693" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1694" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1694" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1694" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1694" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1694" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="F1694" s="13" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="1695" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1695" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1695" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1695" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1695" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="F1695" s="13" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="1696" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1696" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1696" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1696" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="E1696" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="F1696" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="G1696" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1697" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1697" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1697" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1697" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1697" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1697" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G1697" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1698" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1698" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1698" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1698" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1698" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1698" s="13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="1699" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1699" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1699" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1699" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1699" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="F1699" s="13" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="1700" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1700" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1700" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1700" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1700" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1700" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G1700" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1701" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1701" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1701" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1701" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1701" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1701" s="13" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="1702" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1702" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1702" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1702" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1702" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="F1702" s="13" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="1703" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1703" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1703" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1703" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1703" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="F1703" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1703" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1704" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B1704" s="48" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1704" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1704" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1704" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1704" s="13" t="s">
-        <v>330</v>
-      </c>
-      <c r="G1704" s="36" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="1705" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1705" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1705" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1705" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1705" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1705" s="13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="1706" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1706" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1706" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1706" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1706" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1706" s="13" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="1707" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1707" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1707" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1707" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1707" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1707" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="G1707" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1708" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1708" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1708" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1708" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1708" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1708" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="G1708" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1709" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1709" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1709" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1709" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1709" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1709" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="G1709" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1710" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1710" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1710" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1710" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1710" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1710" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="G1710" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1711" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1711" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1711" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1711" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1711" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1711" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="G1711" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1712" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1712" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1712" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1712" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1712" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1712" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="G1712" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1713" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1713" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1713" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1713" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1713" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1713" s="13" t="s">
-        <v>302</v>
-      </c>
-      <c r="G1713" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1714" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1714" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1714" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1714" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1714" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1714" s="13" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="1715" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1715" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1715" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1715" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1715" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1715" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="G1715" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1716" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1716" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1716" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1716" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1716" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1716" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="G1716" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1717" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1717" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1717" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1717" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1717" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1717" s="13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="1718" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1718" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1718" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1718" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1718" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1718" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="G1718" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1719" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1719" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1719" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1719" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1719" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1719" s="13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="1720" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1720" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1720" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1720" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1720" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1720" s="13" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="1721" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1721" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1721" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1721" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1721" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1721" s="13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="1722" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1722" s="10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B1722" s="48" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1722" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1722" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1722" s="9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1722" s="13" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1722" s="36" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1723" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1723" s="10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B1723" s="48" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C1723" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1723" s="14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E1723" s="9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F1723" s="13" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G1723" s="36" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1724" spans="1:8" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C1724" s="91"/>
-      <c r="D1724" s="92"/>
-      <c r="F1724" s="93"/>
-      <c r="G1724" s="94"/>
-      <c r="H1724" s="95"/>
-    </row>
-    <row r="1725" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1725" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1725" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1725" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="E1725" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="F1725" s="13" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="1726" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1726" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1726" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1726" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="E1726" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="F1726" s="13" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="1727" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1727" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1727" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1727" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1727" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="F1727" s="13" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="1728" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1728" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1728" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1728" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1728" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1728" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1728" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1729" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1729" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1729" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1729" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1729" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="F1729" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="G1729" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1730" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1730" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1730" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1730" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1730" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="F1730" s="13" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="1731" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1731" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1731" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1731" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1731" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1731" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="G1731" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1732" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1732" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1732" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1732" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1732" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1732" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1732" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1733" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1733" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1733" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1733" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1733" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1733" s="13" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="1734" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1734" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1734" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1734" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1734" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1734" s="13" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="1735" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1735" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1735" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1735" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1735" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1735" s="13" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="1736" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1736" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1736" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1736" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1736" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1736" s="13" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="1737" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1737" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1737" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1737" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1737" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1737" s="13" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="1738" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1738" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1738" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1738" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1738" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1738" s="13" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="1739" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1739" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1739" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1739" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1739" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1739" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1739" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1740" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1740" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1740" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1740" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1740" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="F1740" s="13" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="1741" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1741" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1741" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1741" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1741" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="F1741" s="13" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="1742" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1742" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1742" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1742" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="E1742" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="F1742" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="G1742" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1743" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1743" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1743" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1743" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1743" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1743" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G1743" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1744" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1744" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1744" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1744" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1744" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1744" s="13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="1745" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1745" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1745" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1745" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1745" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="F1745" s="13" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="1746" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1746" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1746" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1746" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1746" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1746" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G1746" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1747" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1747" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1747" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1747" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1747" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1747" s="13" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="1748" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1748" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1748" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1748" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1748" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="F1748" s="13" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="1749" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1749" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1749" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1749" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1749" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="F1749" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1749" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1750" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B1750" s="96" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1750" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1750" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1750" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1750" s="13" t="s">
-        <v>330</v>
-      </c>
-      <c r="G1750" s="97" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="1751" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1751" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1751" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1751" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1751" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1751" s="13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="1752" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1752" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1752" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1752" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1752" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1752" s="13" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="1753" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1753" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1753" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1753" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1753" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1753" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="G1753" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1754" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1754" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1754" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1754" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1754" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1754" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="G1754" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1755" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1755" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1755" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1755" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1755" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1755" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="G1755" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1756" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1756" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1756" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1756" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1756" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1756" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="G1756" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1757" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1757" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1757" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1757" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1757" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1757" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="G1757" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1758" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1758" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1758" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1758" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1758" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1758" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="G1758" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1759" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1759" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1759" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1759" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1759" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1759" s="13" t="s">
-        <v>302</v>
-      </c>
-      <c r="G1759" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1760" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1760" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1760" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1760" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1760" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1760" s="13" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="1761" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1761" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1761" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1761" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1761" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1761" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="G1761" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1762" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1762" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1762" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1762" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1762" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1762" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="G1762" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1763" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1763" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1763" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1763" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1763" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1763" s="13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="1764" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1764" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1764" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1764" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1764" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1764" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="G1764" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1765" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1765" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1765" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1765" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1765" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1765" s="13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="1766" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1766" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1766" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1766" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1766" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1766" s="13" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="1767" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1767" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1767" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1767" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1767" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1767" s="13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="1768" spans="2:8" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C1768" s="91"/>
-      <c r="D1768" s="92"/>
-      <c r="F1768" s="93"/>
-      <c r="G1768" s="94"/>
-      <c r="H1768" s="95"/>
-    </row>
-    <row r="1769" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1769" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1769" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="D1769" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="E1769" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="F1769" s="13" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="1770" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1770" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1770" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="D1770" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="E1770" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="F1770" s="13" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="1771" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1771" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1771" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="D1771" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1771" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="F1771" s="13" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="1772" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1772" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1772" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="D1772" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1772" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1772" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1772" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1773" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1773" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1773" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="D1773" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1773" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="F1773" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="G1773" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1774" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1774" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1774" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="D1774" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1774" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="F1774" s="13" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="1775" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1775" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1775" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="D1775" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1775" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1775" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="G1775" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1776" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1776" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1776" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="D1776" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1776" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1776" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1776" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1777" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1777" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1777" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="D1777" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1777" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1777" s="13" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="1778" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1778" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1778" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="D1778" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1778" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1778" s="13" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="1779" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1779" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1779" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="D1779" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1779" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1779" s="13" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="1780" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1780" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1780" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="D1780" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1780" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1780" s="13" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="1781" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1781" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1781" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="D1781" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1781" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1781" s="13" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="1782" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1782" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1782" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="D1782" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1782" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1782" s="13" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="1783" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1783" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1783" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="D1783" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1783" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1783" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1783" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1784" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1784" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1784" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="D1784" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1784" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="F1784" s="13" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="1785" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1785" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1785" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="D1785" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1785" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="F1785" s="13" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="1786" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1786" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1786" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="D1786" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="E1786" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="F1786" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="G1786" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1787" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1787" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1787" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="D1787" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1787" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1787" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G1787" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1788" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1788" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1788" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="D1788" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1788" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1788" s="13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="1789" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1789" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1789" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="D1789" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1789" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="F1789" s="13" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="1790" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1790" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1790" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="D1790" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1790" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1790" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G1790" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1791" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1791" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1791" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="D1791" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1791" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1791" s="13" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="1792" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1792" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1792" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="D1792" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1792" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="F1792" s="13" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="1793" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1793" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1793" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="D1793" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1793" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="F1793" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1793" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1794" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B1794" s="96" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1794" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="D1794" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1794" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1794" s="13" t="s">
-        <v>330</v>
-      </c>
-      <c r="G1794" s="97" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="1795" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1795" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1795" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="D1795" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1795" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1795" s="13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="1796" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1796" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1796" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="D1796" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1796" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1796" s="13" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="1797" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1797" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1797" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="D1797" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1797" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1797" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="G1797" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1798" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1798" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1798" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="D1798" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1798" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1798" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="G1798" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1799" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1799" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1799" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="D1799" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1799" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1799" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="G1799" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1800" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1800" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1800" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="D1800" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1800" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1800" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="G1800" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1801" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1801" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1801" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="D1801" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1801" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1801" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="G1801" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1802" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1802" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1802" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="D1802" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1802" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1802" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="G1802" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1803" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1803" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1803" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="D1803" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1803" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1803" s="13" t="s">
-        <v>302</v>
-      </c>
-      <c r="G1803" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1804" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1804" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1804" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="D1804" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1804" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1804" s="13" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="1805" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1805" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1805" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="D1805" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1805" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1805" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="G1805" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1806" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1806" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1806" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="D1806" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1806" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1806" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="G1806" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1807" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1807" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1807" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="D1807" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1807" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1807" s="13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="1808" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1808" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1808" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="D1808" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1808" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1808" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="G1808" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1809" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B1809" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1809" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="D1809" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1809" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1809" s="13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="1810" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B1810" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1810" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="D1810" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1810" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1810" s="13" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="1811" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B1811" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1811" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="D1811" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1811" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1811" s="13" t="s">
-        <v>74</v>
+      <c r="G1430" s="98" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/PW/masterlog.xlsx
+++ b/PW/masterlog.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8080" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8317" uniqueCount="380">
   <si>
     <t>Staff Name</t>
   </si>
@@ -2011,7 +2011,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H1430"/>
+  <dimension ref="A1:H1474"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1306" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A1335" sqref="A1335:XFD1335"/>
@@ -32136,7 +32136,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1425" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1425" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1425" s="48" t="s">
         <v>27</v>
       </c>
@@ -32153,7 +32153,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="1426" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1426" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1426" s="48" t="s">
         <v>27</v>
       </c>
@@ -32170,7 +32170,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="1427" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1427" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1427" s="48" t="s">
         <v>27</v>
       </c>
@@ -32187,7 +32187,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1428" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1428" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1428" s="70" t="s">
         <v>27</v>
       </c>
@@ -32207,7 +32207,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1429" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1429" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1429" s="70" t="s">
         <v>27</v>
       </c>
@@ -32227,7 +32227,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1430" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1430" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1430" s="70" t="s">
         <v>27</v>
       </c>
@@ -32244,6 +32244,810 @@
         <v>272</v>
       </c>
       <c r="G1430" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1431" spans="2:8" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C1431" s="91"/>
+      <c r="D1431" s="92"/>
+      <c r="F1431" s="93"/>
+      <c r="G1431" s="94"/>
+      <c r="H1431" s="95"/>
+    </row>
+    <row r="1432" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1432" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1432" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1432" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1432" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1432" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1432" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1433" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1433" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1433" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1433" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1433" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1433" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="G1433" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1434" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1434" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1434" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1434" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1434" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1434" s="13" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="1435" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1435" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1435" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1435" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1435" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1435" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="G1435" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1436" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1436" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1436" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1436" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1436" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1436" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1436" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1437" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1437" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1437" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1437" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1437" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1437" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="1438" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1438" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1438" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1438" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1438" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1438" s="13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="1439" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1439" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1439" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1439" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1439" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1439" s="13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="1440" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1440" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1440" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1440" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1440" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1440" s="13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="1441" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1441" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1441" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1441" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1441" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1441" s="13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="1442" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1442" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1442" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1442" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1442" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1442" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="1443" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1443" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1443" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1443" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1443" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1443" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1443" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1444" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1444" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1444" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1444" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1444" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1444" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1445" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1445" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1445" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1445" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1445" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1445" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="1446" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1446" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1446" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1446" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1446" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1446" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1447" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1447" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1447" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1447" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1447" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1447" s="13" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="1448" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1448" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1448" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1448" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1448" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1448" s="13" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="1449" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1449" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1449" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1449" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1449" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1449" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1449" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1450" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1450" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1450" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1450" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1450" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1450" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="1451" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1451" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1451" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1451" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1451" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1451" s="13" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="1452" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1452" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1452" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1452" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1452" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1452" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1452" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1453" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1453" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1453" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1453" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1453" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1453" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1453" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1454" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1454" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1454" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1454" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1454" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1454" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1454" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1455" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1455" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1455" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1455" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1455" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1455" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1455" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1456" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1456" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1456" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1456" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1456" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1456" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1456" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1457" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1457" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1457" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1457" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1457" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1457" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1457" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1458" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1458" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1458" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1458" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1458" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1458" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="G1458" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1459" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1459" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1459" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1459" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1459" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1459" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="G1459" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1460" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1460" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1460" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1460" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1460" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1460" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="1461" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1461" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1461" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1461" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1461" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1461" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="G1461" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1462" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1462" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1462" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1462" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1462" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1462" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1462" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1463" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1463" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1463" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1463" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="E1463" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1463" s="13" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1464" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1464" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1464" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1464" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="E1464" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1464" s="13" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="1465" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1465" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1465" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1465" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1465" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1465" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1465" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1466" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B1466" s="96" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1466" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1466" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1466" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1466" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="G1466" s="97" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="1467" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1467" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1467" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1467" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1467" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1467" s="13" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="1468" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1468" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1468" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1468" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1468" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1468" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1468" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1469" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1469" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1469" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1469" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1469" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1469" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="G1469" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1470" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1470" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1470" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1470" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1470" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1470" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1471" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1471" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1471" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1471" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1471" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1471" s="13" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="1472" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1472" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1472" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1472" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1472" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1472" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1473" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1473" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1473" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1473" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="E1473" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1473" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="G1473" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1474" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1474" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1474" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1474" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="E1474" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1474" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="G1474" s="98" t="s">
         <v>162</v>
       </c>
     </row>

--- a/PW/masterlog.xlsx
+++ b/PW/masterlog.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8212" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9750" uniqueCount="380">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1163,6 +1163,12 @@
   <si>
     <t>7/31/16</t>
   </si>
+  <si>
+    <t>2200</t>
+  </si>
+  <si>
+    <t>328A</t>
+  </si>
 </sst>
 </file>
 
@@ -2005,7 +2011,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H1455"/>
+  <dimension ref="A1:H1767"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1306" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A1335" sqref="A1335:XFD1335"/>
@@ -32421,7 +32427,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1441" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1441" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1441" s="70" t="s">
         <v>27</v>
       </c>
@@ -32441,7 +32447,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1442" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1442" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1442" s="70" t="s">
         <v>27</v>
       </c>
@@ -32461,7 +32467,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1443" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1443" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1443" s="70" t="s">
         <v>27</v>
       </c>
@@ -32481,7 +32487,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1444" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1444" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1444" s="70" t="s">
         <v>27</v>
       </c>
@@ -32501,7 +32507,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1445" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1445" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1445" s="70" t="s">
         <v>27</v>
       </c>
@@ -32521,7 +32527,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1446" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1446" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1446" s="70" t="s">
         <v>27</v>
       </c>
@@ -32541,7 +32547,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1447" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1447" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1447" s="48" t="s">
         <v>27</v>
       </c>
@@ -32558,7 +32564,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="1448" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1448" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1448" s="70" t="s">
         <v>27</v>
       </c>
@@ -32578,7 +32584,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1449" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="1449" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B1449" s="96" t="s">
         <v>77</v>
       </c>
@@ -32598,7 +32604,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="1450" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1450" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1450" s="48" t="s">
         <v>27</v>
       </c>
@@ -32615,7 +32621,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="1451" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1451" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1451" s="70" t="s">
         <v>27</v>
       </c>
@@ -32635,7 +32641,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1452" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1452" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1452" s="70" t="s">
         <v>27</v>
       </c>
@@ -32655,7 +32661,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1453" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1453" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1453" s="48" t="s">
         <v>27</v>
       </c>
@@ -32672,7 +32678,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="1454" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1454" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1454" s="48" t="s">
         <v>27</v>
       </c>
@@ -32689,7 +32695,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="1455" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1455" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1455" s="48" t="s">
         <v>27</v>
       </c>
@@ -32703,6 +32709,5708 @@
         <v>25</v>
       </c>
       <c r="F1455" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1456" spans="2:8" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C1456" s="91"/>
+      <c r="D1456" s="92"/>
+      <c r="F1456" s="93"/>
+      <c r="G1456" s="94"/>
+      <c r="H1456" s="95"/>
+    </row>
+    <row r="1457" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1457" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1457" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1457" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1457" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1457" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="1458" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1458" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1458" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1458" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1458" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1458" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1458" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1459" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1459" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1459" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1459" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1459" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1459" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="G1459" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1460" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1460" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1460" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1460" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1460" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1460" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1460" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1461" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1461" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1461" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1461" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1461" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1461" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="1462" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1462" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1462" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1462" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1462" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1462" s="13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="1463" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1463" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1463" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1463" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1463" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1463" s="13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="1464" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1464" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1464" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1464" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1464" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1464" s="13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="1465" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1465" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1465" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1465" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1465" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1465" s="13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="1466" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1466" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1466" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1466" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1466" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1466" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="1467" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1467" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1467" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1467" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1467" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1467" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1467" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1468" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1468" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1468" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1468" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1468" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1468" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1469" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1469" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1469" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1469" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1469" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1469" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="1470" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1470" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1470" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1470" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1470" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1470" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1470" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1471" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1471" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1471" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1471" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1471" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1471" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="1472" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1472" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1472" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1472" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1472" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1472" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1473" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1473" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1473" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1473" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1473" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1473" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1473" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1474" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1474" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1474" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1474" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1474" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1474" s="13" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="1475" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1475" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1475" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1475" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1475" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1475" s="13" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="1476" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1476" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1476" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1476" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1476" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1476" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1476" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1477" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B1477" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1477" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1477" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1477" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1477" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="G1477" s="36" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="1478" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1478" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1478" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1478" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1478" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1478" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="1479" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1479" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1479" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1479" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1479" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1479" s="13" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="1480" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1480" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1480" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1480" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1480" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1480" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1480" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1481" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1481" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1481" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1481" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1481" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1481" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1481" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1482" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1482" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1482" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1482" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1482" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1482" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1482" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1483" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1483" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1483" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1483" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1483" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1483" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1483" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1484" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1484" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1484" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1484" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1484" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1484" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1484" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1485" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1485" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1485" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1485" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1485" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1485" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1485" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1486" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1486" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1486" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1486" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1486" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1486" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="G1486" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1487" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1487" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1487" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1487" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1487" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1487" s="13" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="1488" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1488" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1488" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1488" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1488" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1488" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1488" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1489" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1489" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1489" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1489" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1489" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="G1489" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1490" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1490" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1490" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1490" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1490" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1491" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1491" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1491" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1491" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1491" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="G1491" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1492" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1492" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1492" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1492" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1492" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1493" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1493" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1493" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1493" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1493" s="13" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1494" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1494" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1494" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1494" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1494" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1495" s="10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B1495" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C1495" s="11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D1495" s="14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E1495" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F1495" s="13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G1495" s="36" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1496" s="10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B1496" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C1496" s="11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D1496" s="14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E1496" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F1496" s="13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G1496" s="36" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:8" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C1497" s="91"/>
+      <c r="D1497" s="92"/>
+      <c r="F1497" s="93"/>
+      <c r="G1497" s="94"/>
+      <c r="H1497" s="95"/>
+    </row>
+    <row r="1498" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1498" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1498" s="11">
+        <v>42582</v>
+      </c>
+      <c r="D1498" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1498" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1498" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1498" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1499" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1499" s="11">
+        <v>42582</v>
+      </c>
+      <c r="D1499" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1499" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1499" s="13" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1500" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1500" s="11">
+        <v>42582</v>
+      </c>
+      <c r="D1500" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1500" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1500" s="13" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1501" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1501" s="11">
+        <v>42582</v>
+      </c>
+      <c r="D1501" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1501" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1501" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1501" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1502" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1502" s="11">
+        <v>42582</v>
+      </c>
+      <c r="D1502" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1502" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1502" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1503" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1503" s="11">
+        <v>42582</v>
+      </c>
+      <c r="D1503" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1503" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1503" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1504" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1504" s="11">
+        <v>42582</v>
+      </c>
+      <c r="D1504" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1504" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1504" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1505" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1505" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1505" s="11">
+        <v>42582</v>
+      </c>
+      <c r="D1505" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1505" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1505" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1505" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1506" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1506" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1506" s="11">
+        <v>42582</v>
+      </c>
+      <c r="D1506" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1506" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1506" s="13" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="1507" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1507" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1507" s="11">
+        <v>42582</v>
+      </c>
+      <c r="D1507" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1507" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1507" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1507" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1508" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1508" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1508" s="11">
+        <v>42582</v>
+      </c>
+      <c r="D1508" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1508" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1508" s="13" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="1509" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1509" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1509" s="11">
+        <v>42582</v>
+      </c>
+      <c r="D1509" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1509" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1509" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1509" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1510" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1510" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1510" s="11">
+        <v>42582</v>
+      </c>
+      <c r="D1510" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1510" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1510" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="G1510" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1511" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1511" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1511" s="11">
+        <v>42582</v>
+      </c>
+      <c r="D1511" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1511" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1511" s="13" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="1512" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1512" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1512" s="11">
+        <v>42582</v>
+      </c>
+      <c r="D1512" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1512" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1512" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="G1512" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1513" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1513" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1513" s="11">
+        <v>42582</v>
+      </c>
+      <c r="D1513" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1513" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1513" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1513" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1514" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1514" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1514" s="11">
+        <v>42582</v>
+      </c>
+      <c r="D1514" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1514" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1514" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="1515" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1515" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1515" s="11">
+        <v>42582</v>
+      </c>
+      <c r="D1515" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1515" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1515" s="13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="1516" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1516" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1516" s="11">
+        <v>42582</v>
+      </c>
+      <c r="D1516" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1516" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1516" s="13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="1517" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B1517" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1517" s="11">
+        <v>42582</v>
+      </c>
+      <c r="D1517" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1517" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1517" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="G1517" s="36" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="1518" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1518" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1518" s="11">
+        <v>42582</v>
+      </c>
+      <c r="D1518" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1518" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1518" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="1519" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1519" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1519" s="11">
+        <v>42582</v>
+      </c>
+      <c r="D1519" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1519" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1519" s="13" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="1520" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1520" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1520" s="11">
+        <v>42582</v>
+      </c>
+      <c r="D1520" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1520" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1520" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1520" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1521" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1521" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1521" s="11">
+        <v>42582</v>
+      </c>
+      <c r="D1521" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1521" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1521" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1521" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1522" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1522" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1522" s="11">
+        <v>42582</v>
+      </c>
+      <c r="D1522" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1522" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1522" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1522" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1523" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1523" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1523" s="11">
+        <v>42582</v>
+      </c>
+      <c r="D1523" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1523" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1523" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1523" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1524" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1524" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1524" s="11">
+        <v>42582</v>
+      </c>
+      <c r="D1524" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1524" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1524" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1524" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1525" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1525" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1525" s="11">
+        <v>42582</v>
+      </c>
+      <c r="D1525" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1525" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1525" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1525" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1526" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1526" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1526" s="11">
+        <v>42582</v>
+      </c>
+      <c r="D1526" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1526" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1526" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="G1526" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1527" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1527" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1527" s="11">
+        <v>42582</v>
+      </c>
+      <c r="D1527" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1527" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1527" s="13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="1528" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1528" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1528" s="11">
+        <v>42582</v>
+      </c>
+      <c r="D1528" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1528" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1528" s="13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="1529" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1529" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1529" s="11">
+        <v>42582</v>
+      </c>
+      <c r="D1529" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1529" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1529" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="1530" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1530" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1530" s="11">
+        <v>42582</v>
+      </c>
+      <c r="D1530" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1530" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1530" s="13" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="1531" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1531" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1531" s="11">
+        <v>42582</v>
+      </c>
+      <c r="D1531" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1531" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1531" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1531" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1532" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1532" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1532" s="11">
+        <v>42582</v>
+      </c>
+      <c r="D1532" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1532" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1532" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="G1532" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1533" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1533" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1533" s="11">
+        <v>42582</v>
+      </c>
+      <c r="D1533" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1533" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1533" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1533" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1534" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1534" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1534" s="11">
+        <v>42582</v>
+      </c>
+      <c r="D1534" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1534" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1534" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="1535" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1535" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1535" s="11">
+        <v>42582</v>
+      </c>
+      <c r="D1535" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1535" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1535" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1536" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1536" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1536" s="11">
+        <v>42582</v>
+      </c>
+      <c r="D1536" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1536" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1536" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="1537" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1537" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1537" s="11">
+        <v>42582</v>
+      </c>
+      <c r="D1537" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1537" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1537" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="G1537" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1538" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1538" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1538" s="11">
+        <v>42582</v>
+      </c>
+      <c r="D1538" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1538" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1538" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1539" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1539" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1539" s="11">
+        <v>42582</v>
+      </c>
+      <c r="D1539" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1539" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1539" s="13" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="1540" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1540" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1540" s="11">
+        <v>42582</v>
+      </c>
+      <c r="D1540" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1540" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1540" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1541" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1541" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1541" s="11">
+        <v>42582</v>
+      </c>
+      <c r="D1541" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1541" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1541" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="G1541" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1542" spans="2:8" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C1542" s="91"/>
+      <c r="D1542" s="92"/>
+      <c r="F1542" s="93"/>
+      <c r="G1542" s="94"/>
+      <c r="H1542" s="95"/>
+    </row>
+    <row r="1543" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1543" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1543" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1543" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1543" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1543" s="13" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="1544" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1544" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1544" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1544" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1544" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1544" s="13" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="1545" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1545" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1545" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1545" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1545" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1545" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="1546" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1546" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1546" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1546" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1546" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1546" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1546" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1547" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1547" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1547" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1547" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1547" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1547" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="G1547" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1548" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1548" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1548" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1548" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1548" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1548" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1548" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1549" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1549" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1549" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1549" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1549" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1549" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="1550" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1550" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1550" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1550" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1550" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1550" s="13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="1551" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1551" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1551" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1551" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1551" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1551" s="13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="1552" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1552" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1552" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1552" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1552" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1552" s="13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="1553" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1553" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1553" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1553" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1553" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1553" s="13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="1554" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1554" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1554" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1554" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1554" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1554" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="1555" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1555" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1555" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1555" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1555" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1555" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1555" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1556" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1556" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1556" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1556" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1556" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1556" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1557" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1557" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1557" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1557" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1557" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1557" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="1558" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1558" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1558" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1558" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1558" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1558" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1558" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1559" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1559" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1559" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1559" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1559" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1559" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1559" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1560" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1560" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1560" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1560" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1560" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1560" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="1561" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1561" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1561" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1561" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1561" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1561" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1562" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1562" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1562" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1562" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1562" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1562" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1562" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1563" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1563" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1563" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1563" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1563" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1563" s="13" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="1564" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1564" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1564" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1564" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1564" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1564" s="13" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="1565" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1565" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1565" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1565" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1565" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1565" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1565" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1566" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B1566" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1566" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1566" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1566" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1566" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="G1566" s="36" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="1567" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1567" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1567" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1567" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1567" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1567" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="1568" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1568" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1568" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1568" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1568" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1568" s="13" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1569" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1569" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1569" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1569" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1569" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1569" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1570" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1570" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1570" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1570" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1570" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1570" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1571" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1571" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1571" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1571" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1571" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1571" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1572" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1572" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1572" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1572" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1572" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1572" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1573" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1573" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1573" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1573" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1573" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1573" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1574" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1574" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1574" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1574" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1574" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1574" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1575" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1575" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1575" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1575" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1575" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="G1575" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1576" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1576" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1576" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1576" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1576" s="13" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1577" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1577" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1577" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1577" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1577" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1577" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1578" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1578" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1578" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1578" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1578" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="G1578" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1579" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1579" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1579" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1579" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1579" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1580" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1580" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1580" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1580" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1580" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="G1580" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1581" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1581" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1581" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1581" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1581" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1582" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1582" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1582" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1582" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1582" s="13" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="1583" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1583" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1583" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1583" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1583" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1583" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1584" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1584" s="10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B1584" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C1584" s="11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D1584" s="14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E1584" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F1584" s="13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G1584" s="36" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1585" s="10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B1585" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C1585" s="11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D1585" s="14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E1585" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F1585" s="13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G1585" s="36" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:8" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C1586" s="91"/>
+      <c r="D1586" s="92"/>
+      <c r="F1586" s="93"/>
+      <c r="G1586" s="94"/>
+      <c r="H1586" s="95"/>
+    </row>
+    <row r="1587" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1587" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1587" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1587" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1587" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1587" s="13" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1588" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1588" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1588" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1588" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1588" s="13" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1589" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1589" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1589" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1589" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1589" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1590" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1590" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1590" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1590" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1590" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1590" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1591" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1591" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1591" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1591" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1591" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="G1591" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1592" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1592" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1592" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1592" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1592" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1592" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1593" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1593" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1593" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1593" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1593" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1594" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1594" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1594" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1594" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1594" s="13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1595" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1595" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1595" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1595" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1595" s="13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1596" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1596" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1596" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1596" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1596" s="13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1597" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1597" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1597" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1597" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1597" s="13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1598" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1598" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1598" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1598" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1598" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1599" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1599" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1599" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1599" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1599" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1599" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1600" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1600" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1600" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1600" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1600" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1601" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1601" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1601" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1601" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1601" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1601" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="1602" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1602" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1602" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1602" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1602" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1602" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1602" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1603" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1603" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1603" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1603" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="E1603" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1603" s="13" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1604" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1604" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1604" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1604" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="E1604" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1604" s="13" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="1605" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1605" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1605" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1605" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1605" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1605" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1605" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1606" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1606" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1606" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1606" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1606" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1606" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1606" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1607" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1607" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1607" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1607" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1607" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1607" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="1608" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1608" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1608" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1608" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1608" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1608" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1609" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1609" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1609" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1609" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1609" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1609" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1609" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1610" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1610" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1610" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1610" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1610" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1610" s="13" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="1611" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1611" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1611" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1611" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1611" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1611" s="13" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="1612" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1612" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1612" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1612" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1612" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1612" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1612" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1613" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B1613" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1613" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1613" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1613" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1613" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="G1613" s="36" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="1614" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1614" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1614" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1614" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1614" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1614" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="1615" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1615" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1615" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1615" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1615" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1615" s="13" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="1616" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1616" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1616" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1616" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1616" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1616" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1616" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1617" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1617" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1617" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1617" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1617" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1617" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1617" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1618" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1618" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1618" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1618" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1618" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1618" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1618" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1619" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1619" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1619" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1619" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1619" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1619" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1619" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1620" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1620" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1620" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1620" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1620" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1620" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1620" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1621" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1621" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1621" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1621" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1621" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1621" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1621" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1622" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1622" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1622" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1622" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1622" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1622" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="G1622" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1623" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1623" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1623" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1623" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1623" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1623" s="13" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="1624" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1624" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1624" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1624" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1624" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1624" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1624" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1625" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1625" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1625" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1625" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1625" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1625" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="G1625" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1626" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1626" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1626" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1626" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1626" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1626" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="1627" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1627" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1627" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1627" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1627" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1627" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="G1627" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1628" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1628" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1628" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1628" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1628" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1628" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1629" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1629" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1629" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1629" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1629" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1629" s="13" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="1630" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1630" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1630" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1630" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1630" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1630" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1631" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1631" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1631" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1631" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1631" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1631" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="G1631" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1632" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1632" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1632" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1632" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="E1632" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1632" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="G1632" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1633" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1633" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1633" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1633" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="E1633" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1633" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="G1633" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1634" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1634" s="10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B1634" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C1634" s="11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D1634" s="14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E1634" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F1634" s="13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G1634" s="36" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1635" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1635" s="10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B1635" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C1635" s="11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D1635" s="14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E1635" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F1635" s="13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G1635" s="36" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1636" spans="1:8" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C1636" s="91"/>
+      <c r="D1636" s="92"/>
+      <c r="F1636" s="93"/>
+      <c r="G1636" s="94"/>
+      <c r="H1636" s="95"/>
+    </row>
+    <row r="1637" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1637" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1637" s="11">
+        <v>42582</v>
+      </c>
+      <c r="D1637" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1637" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1637" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1637" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1638" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1638" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1638" s="11">
+        <v>42582</v>
+      </c>
+      <c r="D1638" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1638" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1638" s="13" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="1639" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1639" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1639" s="11">
+        <v>42582</v>
+      </c>
+      <c r="D1639" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1639" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1639" s="13" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="1640" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1640" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1640" s="11">
+        <v>42582</v>
+      </c>
+      <c r="D1640" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1640" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1640" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1640" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1641" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1641" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1641" s="11">
+        <v>42582</v>
+      </c>
+      <c r="D1641" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1641" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1641" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="1642" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1642" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1642" s="11">
+        <v>42582</v>
+      </c>
+      <c r="D1642" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1642" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1642" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="1643" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1643" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1643" s="11">
+        <v>42582</v>
+      </c>
+      <c r="D1643" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1643" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1643" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1644" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1644" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1644" s="11">
+        <v>42582</v>
+      </c>
+      <c r="D1644" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1644" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1644" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1644" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1645" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1645" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1645" s="11">
+        <v>42582</v>
+      </c>
+      <c r="D1645" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1645" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1645" s="13" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="1646" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1646" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1646" s="11">
+        <v>42582</v>
+      </c>
+      <c r="D1646" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1646" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1646" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1646" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1647" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1647" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1647" s="11">
+        <v>42582</v>
+      </c>
+      <c r="D1647" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1647" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1647" s="13" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="1648" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1648" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1648" s="11">
+        <v>42582</v>
+      </c>
+      <c r="D1648" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1648" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1648" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1648" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1649" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1649" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1649" s="11">
+        <v>42582</v>
+      </c>
+      <c r="D1649" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1649" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1649" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="G1649" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1650" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1650" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1650" s="11">
+        <v>42582</v>
+      </c>
+      <c r="D1650" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1650" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1650" s="13" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="1651" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1651" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1651" s="11">
+        <v>42582</v>
+      </c>
+      <c r="D1651" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1651" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1651" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="G1651" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1652" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1652" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1652" s="11">
+        <v>42582</v>
+      </c>
+      <c r="D1652" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1652" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1652" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1652" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1653" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1653" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1653" s="11">
+        <v>42582</v>
+      </c>
+      <c r="D1653" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1653" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1653" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="1654" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1654" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1654" s="11">
+        <v>42582</v>
+      </c>
+      <c r="D1654" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1654" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1654" s="13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="1655" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1655" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1655" s="11">
+        <v>42582</v>
+      </c>
+      <c r="D1655" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1655" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1655" s="13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="1656" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B1656" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1656" s="11">
+        <v>42582</v>
+      </c>
+      <c r="D1656" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1656" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1656" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="G1656" s="36" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="1657" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1657" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1657" s="11">
+        <v>42582</v>
+      </c>
+      <c r="D1657" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1657" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1657" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="1658" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1658" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1658" s="11">
+        <v>42582</v>
+      </c>
+      <c r="D1658" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1658" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1658" s="13" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="1659" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1659" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1659" s="11">
+        <v>42582</v>
+      </c>
+      <c r="D1659" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1659" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1659" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1659" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1660" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1660" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1660" s="11">
+        <v>42582</v>
+      </c>
+      <c r="D1660" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1660" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1660" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1660" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1661" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1661" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1661" s="11">
+        <v>42582</v>
+      </c>
+      <c r="D1661" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1661" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1661" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1661" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1662" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1662" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1662" s="11">
+        <v>42582</v>
+      </c>
+      <c r="D1662" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1662" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1662" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1662" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1663" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1663" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1663" s="11">
+        <v>42582</v>
+      </c>
+      <c r="D1663" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1663" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1663" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1663" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1664" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1664" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1664" s="11">
+        <v>42582</v>
+      </c>
+      <c r="D1664" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1664" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1664" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1664" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1665" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1665" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1665" s="11">
+        <v>42582</v>
+      </c>
+      <c r="D1665" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1665" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1665" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="G1665" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1666" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1666" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1666" s="11">
+        <v>42582</v>
+      </c>
+      <c r="D1666" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1666" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1666" s="13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="1667" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1667" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1667" s="11">
+        <v>42582</v>
+      </c>
+      <c r="D1667" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1667" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1667" s="13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="1668" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1668" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1668" s="11">
+        <v>42582</v>
+      </c>
+      <c r="D1668" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1668" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1668" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="1669" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1669" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1669" s="11">
+        <v>42582</v>
+      </c>
+      <c r="D1669" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1669" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1669" s="13" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="1670" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1670" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1670" s="11">
+        <v>42582</v>
+      </c>
+      <c r="D1670" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1670" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1670" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1670" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1671" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1671" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1671" s="11">
+        <v>42582</v>
+      </c>
+      <c r="D1671" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1671" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1671" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="G1671" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1672" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1672" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1672" s="11">
+        <v>42582</v>
+      </c>
+      <c r="D1672" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1672" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1672" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1672" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1673" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1673" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1673" s="11">
+        <v>42582</v>
+      </c>
+      <c r="D1673" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1673" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1673" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="1674" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1674" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1674" s="11">
+        <v>42582</v>
+      </c>
+      <c r="D1674" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1674" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1674" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1675" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1675" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1675" s="11">
+        <v>42582</v>
+      </c>
+      <c r="D1675" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1675" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1675" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="1676" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1676" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1676" s="11">
+        <v>42582</v>
+      </c>
+      <c r="D1676" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1676" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1676" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="G1676" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1677" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1677" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1677" s="11">
+        <v>42582</v>
+      </c>
+      <c r="D1677" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1677" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1677" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1678" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1678" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1678" s="11">
+        <v>42582</v>
+      </c>
+      <c r="D1678" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1678" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1678" s="13" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="1679" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1679" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1679" s="11">
+        <v>42582</v>
+      </c>
+      <c r="D1679" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1679" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1679" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1680" spans="2:8" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C1680" s="91"/>
+      <c r="D1680" s="92"/>
+      <c r="F1680" s="93"/>
+      <c r="G1680" s="94"/>
+      <c r="H1680" s="95"/>
+    </row>
+    <row r="1681" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1681" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1681" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1681" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1681" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1681" s="13" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="1682" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1682" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1682" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1682" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1682" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1682" s="13" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="1683" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1683" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1683" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1683" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1683" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1683" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="1684" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1684" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1684" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1684" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1684" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1684" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1684" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1685" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1685" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1685" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1685" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1685" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1685" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="G1685" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1686" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1686" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1686" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1686" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1686" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1686" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1686" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1687" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1687" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1687" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1687" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1687" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1687" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="1688" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1688" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1688" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1688" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1688" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1688" s="13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="1689" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1689" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1689" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1689" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1689" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1689" s="13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="1690" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1690" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1690" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1690" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1690" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1690" s="13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="1691" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1691" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1691" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1691" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1691" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1691" s="13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="1692" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1692" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1692" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1692" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1692" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1692" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="1693" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1693" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1693" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1693" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1693" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1693" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1693" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1694" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1694" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1694" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1694" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1694" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1694" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1695" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1695" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1695" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1695" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1695" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1695" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="1696" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1696" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1696" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1696" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1696" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1696" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1696" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1697" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1697" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1697" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1697" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1697" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1697" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1697" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1698" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1698" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1698" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1698" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1698" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1698" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="1699" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1699" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1699" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1699" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1699" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1699" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1700" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1700" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1700" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1700" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1700" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1700" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1700" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1701" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1701" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1701" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1701" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1701" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1701" s="13" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="1702" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1702" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1702" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1702" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1702" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1702" s="13" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="1703" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1703" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1703" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1703" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1703" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1703" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1703" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1704" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B1704" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1704" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1704" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1704" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1704" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="G1704" s="36" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="1705" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1705" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1705" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1705" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1705" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1705" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="1706" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1706" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1706" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1706" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1706" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1706" s="13" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="1707" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1707" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1707" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1707" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1707" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1707" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1707" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1708" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1708" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1708" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1708" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1708" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1708" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1708" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1709" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1709" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1709" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1709" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1709" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1709" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1709" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1710" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1710" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1710" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1710" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1710" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1710" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1710" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1711" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1711" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1711" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1711" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1711" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1711" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1711" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1712" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1712" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1712" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1712" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1712" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1712" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1712" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1713" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1713" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1713" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1713" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1713" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1713" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="G1713" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1714" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1714" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1714" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1714" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1714" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1714" s="13" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="1715" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1715" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1715" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1715" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1715" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1715" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1715" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1716" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1716" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1716" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1716" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1716" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1716" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="G1716" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1717" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1717" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1717" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1717" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1717" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1717" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="1718" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1718" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1718" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1718" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1718" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1718" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="G1718" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1719" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1719" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1719" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1719" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1719" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1719" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1720" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1720" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1720" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1720" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1720" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1720" s="13" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="1721" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1721" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1721" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1721" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1721" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1721" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1722" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1722" s="10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B1722" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C1722" s="11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D1722" s="14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E1722" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F1722" s="13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G1722" s="36" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1723" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1723" s="10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B1723" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C1723" s="11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D1723" s="14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E1723" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F1723" s="13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G1723" s="36" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1724" spans="1:8" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C1724" s="91"/>
+      <c r="D1724" s="92"/>
+      <c r="F1724" s="93"/>
+      <c r="G1724" s="94"/>
+      <c r="H1724" s="95"/>
+    </row>
+    <row r="1725" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1725" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1725" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1725" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1725" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1725" s="13" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="1726" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1726" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1726" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1726" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1726" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1726" s="13" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="1727" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1727" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1727" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1727" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1727" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1727" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="1728" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1728" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1728" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1728" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1728" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1728" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1728" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1729" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1729" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1729" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1729" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1729" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1729" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="G1729" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1730" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1730" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1730" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1730" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1730" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1730" s="13" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="1731" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1731" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1731" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1731" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1731" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1731" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="G1731" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1732" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1732" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1732" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1732" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1732" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1732" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1732" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1733" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1733" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1733" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1733" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1733" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1733" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="1734" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1734" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1734" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1734" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1734" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1734" s="13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="1735" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1735" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1735" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1735" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1735" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1735" s="13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="1736" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1736" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1736" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1736" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1736" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1736" s="13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="1737" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1737" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1737" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1737" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1737" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1737" s="13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="1738" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1738" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1738" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1738" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1738" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1738" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="1739" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1739" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1739" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1739" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1739" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1739" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1739" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1740" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1740" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1740" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1740" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1740" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1740" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1741" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1741" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1741" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1741" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1741" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1741" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="1742" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1742" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1742" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1742" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1742" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1742" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1742" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1743" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1743" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1743" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1743" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1743" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1743" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1743" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1744" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1744" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1744" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1744" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1744" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1744" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="1745" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1745" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1745" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1745" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1745" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1745" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1746" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1746" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1746" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1746" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1746" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1746" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1746" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1747" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1747" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1747" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1747" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1747" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1747" s="13" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="1748" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1748" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1748" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1748" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1748" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1748" s="13" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="1749" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1749" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1749" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1749" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1749" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1749" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1749" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1750" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B1750" s="96" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1750" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1750" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1750" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1750" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="G1750" s="97" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="1751" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1751" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1751" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1751" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1751" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1751" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="1752" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1752" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1752" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1752" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1752" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1752" s="13" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="1753" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1753" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1753" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1753" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1753" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1753" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1753" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1754" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1754" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1754" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1754" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1754" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1754" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1754" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1755" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1755" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1755" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1755" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1755" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1755" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1755" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1756" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1756" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1756" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1756" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1756" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1756" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1756" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1757" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1757" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1757" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1757" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1757" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1757" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1757" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1758" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1758" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1758" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1758" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1758" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1758" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1758" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1759" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1759" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1759" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1759" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1759" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1759" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="G1759" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1760" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1760" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1760" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1760" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1760" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1760" s="13" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="1761" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1761" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1761" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1761" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1761" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1761" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1761" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1762" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1762" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1762" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1762" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1762" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1762" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="G1762" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1763" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1763" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1763" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1763" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1763" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1763" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="1764" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1764" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1764" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1764" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1764" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1764" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="G1764" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1765" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1765" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1765" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1765" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1765" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1765" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1766" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1766" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1766" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1766" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1766" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1766" s="13" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="1767" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1767" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1767" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1767" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1767" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1767" s="13" t="s">
         <v>74</v>
       </c>
     </row>

--- a/PW/masterlog.xlsx
+++ b/PW/masterlog.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9750" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9985" uniqueCount="382">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1169,6 +1169,12 @@
   <si>
     <t>328A</t>
   </si>
+  <si>
+    <t>8/01/16</t>
+  </si>
+  <si>
+    <t>8/1/16</t>
+  </si>
 </sst>
 </file>
 
@@ -2011,7 +2017,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H1767"/>
+  <dimension ref="A1:H1811"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1306" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A1335" sqref="A1335:XFD1335"/>
@@ -38286,7 +38292,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="1761" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1761" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1761" s="70" t="s">
         <v>27</v>
       </c>
@@ -38306,7 +38312,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1762" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1762" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1762" s="70" t="s">
         <v>27</v>
       </c>
@@ -38326,7 +38332,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1763" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1763" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1763" s="48" t="s">
         <v>27</v>
       </c>
@@ -38343,7 +38349,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="1764" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1764" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1764" s="70" t="s">
         <v>27</v>
       </c>
@@ -38363,7 +38369,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1765" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1765" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1765" s="48" t="s">
         <v>27</v>
       </c>
@@ -38380,7 +38386,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="1766" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1766" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1766" s="48" t="s">
         <v>27</v>
       </c>
@@ -38397,7 +38403,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="1767" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1767" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1767" s="48" t="s">
         <v>27</v>
       </c>
@@ -38411,6 +38417,804 @@
         <v>25</v>
       </c>
       <c r="F1767" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1768" spans="2:8" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C1768" s="91"/>
+      <c r="D1768" s="92"/>
+      <c r="F1768" s="93"/>
+      <c r="G1768" s="94"/>
+      <c r="H1768" s="95"/>
+    </row>
+    <row r="1769" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1769" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1769" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D1769" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1769" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1769" s="13" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="1770" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1770" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1770" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D1770" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1770" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1770" s="13" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="1771" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1771" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1771" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D1771" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1771" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1771" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="1772" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1772" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1772" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D1772" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1772" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1772" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1772" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1773" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1773" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1773" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D1773" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1773" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1773" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="G1773" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1774" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1774" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1774" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D1774" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1774" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1774" s="13" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="1775" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1775" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1775" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D1775" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1775" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1775" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="G1775" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1776" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1776" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1776" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D1776" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1776" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1776" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1776" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1777" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1777" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1777" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D1777" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1777" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1777" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="1778" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1778" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1778" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D1778" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1778" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1778" s="13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="1779" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1779" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1779" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D1779" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1779" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1779" s="13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="1780" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1780" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1780" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D1780" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1780" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1780" s="13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="1781" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1781" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1781" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D1781" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1781" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1781" s="13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="1782" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1782" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1782" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D1782" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1782" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1782" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="1783" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1783" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1783" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D1783" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1783" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1783" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1783" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1784" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1784" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1784" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D1784" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1784" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1784" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1785" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1785" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1785" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D1785" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1785" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1785" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="1786" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1786" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1786" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D1786" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1786" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1786" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1786" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1787" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1787" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1787" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D1787" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1787" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1787" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1787" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1788" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1788" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1788" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D1788" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1788" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1788" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="1789" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1789" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1789" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D1789" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1789" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1789" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1790" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1790" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1790" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D1790" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1790" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1790" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1790" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1791" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1791" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1791" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D1791" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1791" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1791" s="13" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="1792" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1792" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1792" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D1792" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1792" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1792" s="13" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="1793" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1793" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1793" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D1793" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1793" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1793" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1793" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1794" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B1794" s="96" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1794" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="D1794" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1794" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1794" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="G1794" s="97" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="1795" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1795" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1795" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D1795" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1795" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1795" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="1796" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1796" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1796" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D1796" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1796" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1796" s="13" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="1797" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1797" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1797" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D1797" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1797" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1797" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1797" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1798" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1798" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1798" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D1798" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1798" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1798" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1798" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1799" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1799" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1799" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D1799" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1799" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1799" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1799" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1800" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1800" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1800" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D1800" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1800" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1800" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1800" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1801" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1801" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1801" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D1801" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1801" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1801" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1801" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1802" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1802" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1802" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D1802" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1802" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1802" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1802" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1803" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1803" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1803" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D1803" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1803" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1803" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="G1803" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1804" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1804" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1804" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D1804" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1804" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1804" s="13" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="1805" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1805" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1805" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D1805" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1805" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1805" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1805" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1806" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1806" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1806" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D1806" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1806" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1806" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="G1806" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1807" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1807" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1807" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D1807" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1807" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1807" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="1808" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1808" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1808" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D1808" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1808" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1808" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="G1808" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1809" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B1809" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1809" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D1809" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1809" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1809" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1810" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B1810" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1810" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D1810" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1810" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1810" s="13" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="1811" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B1811" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1811" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D1811" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1811" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1811" s="13" t="s">
         <v>74</v>
       </c>
     </row>

--- a/PW/masterlog.xlsx
+++ b/PW/masterlog.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9750" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9985" uniqueCount="381">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1169,6 +1169,9 @@
   <si>
     <t>328A</t>
   </si>
+  <si>
+    <t>8/01/16</t>
+  </si>
 </sst>
 </file>
 
@@ -2011,7 +2014,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H1767"/>
+  <dimension ref="A1:H1811"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1306" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A1335" sqref="A1335:XFD1335"/>
@@ -38286,7 +38289,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="1761" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1761" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1761" s="70" t="s">
         <v>27</v>
       </c>
@@ -38306,7 +38309,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1762" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1762" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1762" s="70" t="s">
         <v>27</v>
       </c>
@@ -38326,7 +38329,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1763" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1763" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1763" s="48" t="s">
         <v>27</v>
       </c>
@@ -38343,7 +38346,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="1764" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1764" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1764" s="70" t="s">
         <v>27</v>
       </c>
@@ -38363,7 +38366,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1765" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1765" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1765" s="48" t="s">
         <v>27</v>
       </c>
@@ -38380,7 +38383,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="1766" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1766" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1766" s="48" t="s">
         <v>27</v>
       </c>
@@ -38397,7 +38400,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="1767" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1767" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1767" s="48" t="s">
         <v>27</v>
       </c>
@@ -38411,6 +38414,804 @@
         <v>25</v>
       </c>
       <c r="F1767" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1768" spans="2:8" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C1768" s="91"/>
+      <c r="D1768" s="92"/>
+      <c r="F1768" s="93"/>
+      <c r="G1768" s="94"/>
+      <c r="H1768" s="95"/>
+    </row>
+    <row r="1769" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1769" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1769" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D1769" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1769" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1769" s="13" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="1770" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1770" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1770" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D1770" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1770" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1770" s="13" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="1771" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1771" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1771" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D1771" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1771" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1771" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="1772" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1772" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1772" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D1772" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1772" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1772" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1772" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1773" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1773" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1773" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D1773" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1773" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1773" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="G1773" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1774" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1774" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1774" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D1774" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1774" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1774" s="13" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="1775" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1775" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1775" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D1775" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1775" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1775" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="G1775" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1776" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1776" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1776" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D1776" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1776" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1776" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1776" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1777" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1777" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1777" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D1777" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1777" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1777" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="1778" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1778" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1778" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D1778" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1778" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1778" s="13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="1779" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1779" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1779" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D1779" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1779" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1779" s="13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="1780" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1780" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1780" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D1780" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1780" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1780" s="13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="1781" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1781" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1781" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D1781" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1781" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1781" s="13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="1782" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1782" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1782" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D1782" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1782" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1782" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="1783" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1783" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1783" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D1783" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1783" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1783" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1783" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1784" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1784" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1784" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D1784" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1784" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1784" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1785" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1785" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1785" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D1785" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1785" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1785" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="1786" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1786" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1786" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D1786" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1786" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1786" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1786" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1787" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1787" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1787" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D1787" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1787" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1787" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1787" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1788" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1788" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1788" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D1788" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1788" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1788" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="1789" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1789" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1789" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D1789" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1789" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1789" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1790" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1790" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1790" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D1790" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1790" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1790" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1790" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1791" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1791" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1791" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D1791" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1791" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1791" s="13" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="1792" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1792" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1792" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D1792" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1792" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1792" s="13" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="1793" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1793" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1793" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D1793" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1793" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1793" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1793" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1794" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B1794" s="96" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1794" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D1794" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1794" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1794" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="G1794" s="97" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="1795" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1795" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1795" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D1795" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1795" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1795" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="1796" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1796" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1796" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D1796" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1796" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1796" s="13" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="1797" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1797" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1797" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D1797" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1797" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1797" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1797" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1798" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1798" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1798" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D1798" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1798" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1798" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1798" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1799" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1799" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1799" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D1799" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1799" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1799" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1799" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1800" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1800" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1800" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D1800" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1800" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1800" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1800" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1801" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1801" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1801" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D1801" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1801" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1801" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1801" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1802" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1802" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1802" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D1802" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1802" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1802" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1802" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1803" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1803" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1803" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D1803" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1803" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1803" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="G1803" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1804" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1804" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1804" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D1804" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1804" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1804" s="13" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="1805" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1805" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1805" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D1805" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1805" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1805" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1805" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1806" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1806" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1806" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D1806" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1806" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1806" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="G1806" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1807" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1807" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1807" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D1807" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1807" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1807" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="1808" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1808" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1808" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D1808" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1808" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1808" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="G1808" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1809" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B1809" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1809" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D1809" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1809" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1809" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1810" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B1810" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1810" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D1810" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1810" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1810" s="13" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="1811" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B1811" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1811" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D1811" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1811" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1811" s="13" t="s">
         <v>74</v>
       </c>
     </row>

--- a/PW/masterlog.xlsx
+++ b/PW/masterlog.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13907" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14445" uniqueCount="382">
   <si>
     <t>Staff Name</t>
   </si>
@@ -2017,7 +2017,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H2553"/>
+  <dimension ref="A1:H2653"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1306" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A1335" sqref="A1335:XFD1335"/>
@@ -52398,7 +52398,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2545" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2545" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2545" s="48" t="s">
         <v>27</v>
       </c>
@@ -52415,7 +52415,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="2546" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2546" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2546" s="70" t="s">
         <v>27</v>
       </c>
@@ -52435,7 +52435,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2547" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2547" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2547" s="70" t="s">
         <v>27</v>
       </c>
@@ -52455,7 +52455,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2548" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2548" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2548" s="48" t="s">
         <v>27</v>
       </c>
@@ -52472,7 +52472,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2549" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2549" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2549" s="70" t="s">
         <v>27</v>
       </c>
@@ -52492,7 +52492,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2550" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2550" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2550" s="48" t="s">
         <v>27</v>
       </c>
@@ -52509,7 +52509,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2551" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2551" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2551" s="48" t="s">
         <v>27</v>
       </c>
@@ -52526,7 +52526,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="2552" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2552" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2552" s="48" t="s">
         <v>27</v>
       </c>
@@ -52543,7 +52543,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2553" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2553" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2553" s="70" t="s">
         <v>27</v>
       </c>
@@ -52560,6 +52560,1830 @@
         <v>297</v>
       </c>
       <c r="G2553" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2554" spans="2:8" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C2554" s="91"/>
+      <c r="D2554" s="92"/>
+      <c r="F2554" s="93"/>
+      <c r="G2554" s="94"/>
+      <c r="H2554" s="95"/>
+    </row>
+    <row r="2555" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2555" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2555" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2555" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="E2555" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2555" s="13" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2556" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2556" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2556" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2556" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="E2556" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2556" s="13" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="2557" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2557" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2557" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2557" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2557" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2557" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2558" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2558" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2558" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2558" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2558" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2558" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2558" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2559" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2559" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2559" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2559" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2559" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2559" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="G2559" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2560" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2560" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2560" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2560" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2560" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2560" s="13" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="2561" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2561" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2561" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2561" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2561" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2561" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="G2561" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2562" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2562" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2562" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2562" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2562" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2562" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2562" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2563" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2563" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2563" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2563" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2563" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2563" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2564" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2564" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2564" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2564" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2564" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2564" s="13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2565" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2565" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2565" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2565" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2565" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2565" s="13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2566" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2566" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2566" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2566" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2566" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2566" s="13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2567" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2567" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2567" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2567" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2567" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2567" s="13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2568" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2568" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2568" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2568" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2568" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2568" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2569" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2569" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2569" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2569" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2569" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2569" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2569" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2570" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2570" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2570" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2570" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2570" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2570" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2571" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2571" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2571" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2571" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2571" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2571" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2572" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2572" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2572" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2572" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="E2572" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2572" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2572" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2573" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2573" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2573" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2573" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2573" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2573" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2574" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2574" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2574" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2574" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2574" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2574" s="13" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="2575" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2575" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2575" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2575" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2575" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2575" s="13" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="2576" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2576" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2576" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2576" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2576" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2576" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2576" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2577" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2577" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2577" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2577" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2577" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2577" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2578" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2578" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2578" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2578" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2578" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2578" s="13" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="2579" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2579" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2579" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2579" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2579" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2579" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2579" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2580" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2580" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2580" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2580" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2580" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2580" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2580" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2581" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2581" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2581" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2581" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2581" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2581" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2581" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2582" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2582" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2582" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2582" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2582" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2582" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2582" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2583" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2583" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2583" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2583" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2583" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2583" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2583" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2584" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2584" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2584" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2584" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2584" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2584" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2584" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2585" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2585" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2585" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2585" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2585" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2585" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="G2585" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2586" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2586" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2586" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2586" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2586" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2586" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="G2586" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2587" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2587" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2587" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2587" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2587" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2587" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2588" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2588" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2588" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2588" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2588" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2588" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="G2588" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2589" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2589" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2589" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2589" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E2589" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2589" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2589" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2590" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2590" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2590" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2590" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="E2590" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2590" s="13" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="2591" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2591" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2591" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2591" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="E2591" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2591" s="13" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="2592" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2592" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2592" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2592" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2592" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2592" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2592" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2593" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2593" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2593" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2593" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2593" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2593" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2594" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2594" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2594" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2594" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2594" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2594" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2594" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2595" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B2595" s="96" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2595" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2595" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2595" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2595" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="G2595" s="97" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="2596" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2596" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2596" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2596" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2596" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2596" s="13" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="2597" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2597" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2597" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2597" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2597" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2597" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2597" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2598" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2598" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2598" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2598" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2598" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2598" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="G2598" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2599" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2599" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2599" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2599" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2599" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2599" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2600" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2600" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2600" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2600" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2600" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2600" s="13" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="2601" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2601" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2601" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2601" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2601" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2601" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2602" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2602" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2602" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2602" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="E2602" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2602" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="G2602" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2603" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2603" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2603" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2603" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="E2603" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2603" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="G2603" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2604" spans="2:8" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C2604" s="91"/>
+      <c r="D2604" s="92"/>
+      <c r="F2604" s="93"/>
+      <c r="G2604" s="94"/>
+      <c r="H2604" s="95"/>
+    </row>
+    <row r="2605" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2605" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2605" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2605" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="E2605" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2605" s="13" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2606" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2606" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2606" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2606" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="E2606" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2606" s="13" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="2607" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2607" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2607" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2607" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2607" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2607" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2608" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2608" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2608" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2608" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2608" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2608" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2608" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2609" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2609" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2609" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2609" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2609" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2609" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="G2609" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2610" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2610" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2610" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2610" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2610" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2610" s="13" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="2611" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2611" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2611" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2611" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2611" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2611" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="G2611" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2612" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2612" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2612" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2612" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2612" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2612" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2612" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2613" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2613" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2613" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2613" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2613" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2613" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2614" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2614" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2614" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2614" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2614" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2614" s="13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2615" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2615" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2615" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2615" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2615" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2615" s="13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2616" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2616" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2616" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2616" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2616" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2616" s="13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2617" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2617" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2617" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2617" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2617" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2617" s="13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2618" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2618" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2618" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2618" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2618" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2618" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2619" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2619" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2619" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2619" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2619" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2619" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2619" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2620" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2620" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2620" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2620" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2620" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2620" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2621" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2621" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2621" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2621" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2621" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2621" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2622" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2622" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2622" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2622" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E2622" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2622" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2622" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2623" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2623" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2623" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2623" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="E2623" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2623" s="13" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="2624" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2624" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2624" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2624" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="E2624" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2624" s="13" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="2625" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2625" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2625" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2625" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="E2625" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2625" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2625" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2626" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2626" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2626" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2626" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2626" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2626" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2627" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2627" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2627" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2627" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2627" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2627" s="13" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="2628" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2628" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2628" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2628" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2628" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2628" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2628" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2629" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2629" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2629" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2629" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2629" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2629" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2630" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2630" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2630" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2630" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2630" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2630" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2630" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2631" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2631" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2631" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2631" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2631" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2631" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2631" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2632" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2632" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2632" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2632" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2632" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2632" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2632" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2633" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2633" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2633" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2633" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2633" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2633" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2633" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2634" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2634" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2634" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2634" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2634" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2634" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2634" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2635" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2635" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2635" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2635" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2635" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2635" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2635" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2636" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2636" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2636" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2636" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2636" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2636" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="G2636" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2637" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2637" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2637" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2637" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2637" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2637" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2637" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2638" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2638" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2638" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2638" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2638" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2638" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2639" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2639" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2639" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2639" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2639" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2639" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2639" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2640" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2640" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2640" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2640" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2640" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2640" s="13" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="2641" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2641" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2641" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2641" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2641" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2641" s="13" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="2642" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2642" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2642" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2642" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2642" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2642" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="G2642" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2643" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2643" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2643" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2643" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2643" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2643" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2644" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2644" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2644" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2644" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2644" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2644" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2645" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2645" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2645" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2645" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2645" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2645" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="G2645" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2646" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B2646" s="96" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2646" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2646" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2646" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2646" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="G2646" s="97" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="2647" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2647" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2647" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2647" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2647" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2647" s="13" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="2648" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2648" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2648" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2648" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2648" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2648" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2648" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2649" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2649" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2649" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2649" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2649" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2649" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="G2649" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2650" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2650" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2650" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2650" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2650" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2650" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2651" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2651" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2651" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2651" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2651" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2651" s="13" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="2652" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2652" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2652" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2652" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="E2652" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2652" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="G2652" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2653" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2653" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2653" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2653" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="E2653" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2653" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="G2653" s="98" t="s">
         <v>162</v>
       </c>
     </row>

--- a/PW/masterlog.xlsx
+++ b/PW/masterlog.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8389" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8951" uniqueCount="380">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1969,7 +1969,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H1480"/>
+  <dimension ref="A1:H1584"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1306" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A1335" sqref="A1335:XFD1335"/>
@@ -32992,7 +32992,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="1473" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1473" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1473" s="48" t="s">
         <v>27</v>
       </c>
@@ -33009,7 +33009,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="1474" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1474" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1474" s="70" t="s">
         <v>27</v>
       </c>
@@ -33029,7 +33029,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1475" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1475" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1475" s="48" t="s">
         <v>27</v>
       </c>
@@ -33046,7 +33046,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="1476" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1476" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1476" s="48" t="s">
         <v>27</v>
       </c>
@@ -33063,7 +33063,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="1477" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1477" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1477" s="48" t="s">
         <v>27</v>
       </c>
@@ -33080,7 +33080,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1478" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1478" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1478" s="70" t="s">
         <v>27</v>
       </c>
@@ -33100,7 +33100,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1479" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1479" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1479" s="70" t="s">
         <v>27</v>
       </c>
@@ -33120,7 +33120,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1480" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1480" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1480" s="70" t="s">
         <v>27</v>
       </c>
@@ -33137,6 +33137,1910 @@
         <v>272</v>
       </c>
       <c r="G1480" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1481" spans="2:8" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C1481" s="91"/>
+      <c r="D1481" s="92"/>
+      <c r="F1481" s="93"/>
+      <c r="G1481" s="94"/>
+      <c r="H1481" s="95"/>
+    </row>
+    <row r="1482" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1482" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1482" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1482" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1482" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1482" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="1483" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1483" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1483" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1483" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1483" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1483" s="13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="1484" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1484" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1484" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1484" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1484" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1484" s="13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="1485" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1485" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1485" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1485" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1485" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1485" s="13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="1486" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1486" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1486" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1486" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1486" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1486" s="13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="1487" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1487" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1487" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1487" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1487" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1487" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="1488" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1488" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1488" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1488" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1488" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1488" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1488" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1489" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1489" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1489" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1489" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="E1489" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1489" s="13" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1490" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1490" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1490" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1490" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="E1490" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1490" s="13" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="1491" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1491" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1491" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1491" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1491" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1491" s="13" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="1492" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1492" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1492" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1492" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1492" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1492" s="13" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="1493" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1493" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1493" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1493" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1493" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1493" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="1494" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1494" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1494" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1494" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1494" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1494" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1494" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1495" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1495" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1495" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1495" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1495" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1495" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="G1495" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1496" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1496" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1496" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1496" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1496" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1496" s="13" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="1497" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1497" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1497" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1497" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1497" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1497" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="G1497" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1498" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1498" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1498" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1498" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1498" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1498" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1498" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1499" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1499" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1499" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1499" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1499" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1499" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1499" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1500" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1500" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1500" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1500" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1500" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1500" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1501" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1501" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1501" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1501" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1501" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1501" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="1502" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1502" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1502" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1502" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1502" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1502" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1502" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1503" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1503" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1503" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1503" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1503" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1503" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1503" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1504" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1504" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1504" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1504" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1504" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1504" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="1505" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1505" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1505" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1505" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1505" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1505" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1506" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1506" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1506" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1506" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1506" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1506" s="13" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="1507" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1507" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1507" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1507" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1507" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1507" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="1508" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1508" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1508" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1508" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1508" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1508" s="13" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="1509" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1509" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1509" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1509" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1509" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1509" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1509" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1510" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1510" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1510" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1510" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1510" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1510" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1510" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1511" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1511" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1511" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1511" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1511" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1511" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1511" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1512" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1512" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1512" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1512" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1512" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1512" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1512" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1513" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1513" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1513" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1513" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1513" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1513" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1513" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1514" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1514" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1514" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1514" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1514" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1514" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1514" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1515" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1515" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1515" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1515" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1515" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1515" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="G1515" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1516" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1516" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1516" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1516" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1516" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1516" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="G1516" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1517" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B1517" s="96" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1517" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1517" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1517" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1517" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1517" s="97" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="1518" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1518" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1518" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1518" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1518" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1518" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="1519" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1519" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1519" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1519" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1519" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1519" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="G1519" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1520" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1520" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1520" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1520" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1520" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1520" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1520" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1521" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1521" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1521" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1521" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1521" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1521" s="13" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="1522" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1522" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1522" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1522" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1522" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1522" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1522" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1523" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1523" s="96" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1523" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1523" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1523" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1523" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="G1523" s="97" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="1524" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B1524" s="96" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1524" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1524" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1524" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1524" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="G1524" s="97" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="1525" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1525" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1525" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1525" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1525" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1525" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1526" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1526" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1526" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1526" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1526" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1526" s="13" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="1527" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1527" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1527" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1527" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1527" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1527" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1527" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1528" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1528" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1528" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1528" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1528" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1528" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="G1528" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1529" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1529" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1529" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1529" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1529" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1529" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1530" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1530" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1530" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1530" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1530" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1530" s="13" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="1531" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1531" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1531" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1531" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="E1531" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1531" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="G1531" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1532" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1532" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1532" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1532" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="E1532" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1532" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="G1532" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1533" spans="2:8" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C1533" s="91"/>
+      <c r="D1533" s="92"/>
+      <c r="F1533" s="93"/>
+      <c r="G1533" s="94"/>
+      <c r="H1533" s="95"/>
+    </row>
+    <row r="1534" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1534" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1534" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1534" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1534" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1534" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1534" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1535" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1535" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1535" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1535" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="E1535" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1535" s="13" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1536" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1536" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1536" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1536" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="E1536" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1536" s="13" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="1537" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1537" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1537" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1537" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1537" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1537" s="13" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="1538" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1538" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1538" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1538" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1538" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1538" s="13" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="1539" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1539" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1539" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1539" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1539" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1539" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="1540" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1540" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1540" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1540" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1540" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1540" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1540" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1541" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1541" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1541" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1541" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1541" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1541" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="G1541" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1542" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1542" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1542" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1542" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1542" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1542" s="13" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="1543" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1543" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1543" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1543" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1543" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1543" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="G1543" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1544" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1544" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1544" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1544" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1544" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1544" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1544" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1545" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1545" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1545" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1545" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1545" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1545" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1545" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1546" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1546" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1546" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1546" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1546" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1546" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1547" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1547" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1547" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1547" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1547" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1547" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="1548" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1548" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1548" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1548" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1548" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1548" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1548" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1549" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1549" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1549" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1549" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1549" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1549" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1549" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1550" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1550" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1550" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1550" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1550" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1550" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="1551" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1551" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1551" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1551" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1551" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1551" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1552" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1552" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1552" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1552" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1552" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1552" s="13" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="1553" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1553" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1553" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1553" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1553" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1553" s="13" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="1554" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1554" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1554" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1554" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1554" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1554" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1554" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1555" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1555" s="96" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1555" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1555" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1555" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1555" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="G1555" s="97" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="1556" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1556" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1556" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1556" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1556" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1556" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="1557" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1557" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1557" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1557" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1557" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1557" s="13" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="1558" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1558" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1558" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1558" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1558" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1558" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1558" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1559" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1559" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1559" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1559" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1559" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1559" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1559" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1560" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1560" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1560" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1560" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1560" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1560" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1560" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1561" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1561" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1561" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1561" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1561" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1561" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1561" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1562" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1562" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1562" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1562" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1562" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1562" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1562" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1563" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1563" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1563" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1563" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1563" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1563" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1563" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1564" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1564" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1564" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1564" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1564" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1564" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="G1564" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1565" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1565" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1565" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1565" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1565" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1565" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="G1565" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1566" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B1566" s="96" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1566" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1566" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1566" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1566" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1566" s="97" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="1567" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1567" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1567" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1567" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1567" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1567" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="1568" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1568" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1568" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1568" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1568" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1568" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="G1568" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1569" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1569" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1569" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1569" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1569" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1569" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="1570" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1570" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1570" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1570" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1570" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1570" s="13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="1571" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1571" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1571" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1571" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1571" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1571" s="13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="1572" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1572" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1572" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1572" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1572" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1572" s="13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="1573" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1573" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1573" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1573" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1573" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1573" s="13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="1574" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1574" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1574" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1574" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1574" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1574" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="1575" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1575" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1575" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1575" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1575" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1575" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1575" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1576" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1576" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1576" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1576" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1576" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1576" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1577" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B1577" s="96" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1577" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1577" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1577" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1577" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="G1577" s="97" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="1578" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1578" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1578" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1578" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1578" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1578" s="13" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="1579" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1579" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1579" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1579" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1579" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1579" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1579" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1580" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1580" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1580" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1580" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1580" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1580" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="G1580" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1581" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1581" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1581" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1581" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1581" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1581" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1582" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1582" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1582" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1582" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1582" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1582" s="13" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="1583" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1583" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1583" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1583" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="E1583" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1583" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="G1583" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1584" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1584" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1584" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1584" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="E1584" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1584" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="G1584" s="98" t="s">
         <v>162</v>
       </c>
     </row>

--- a/PW/masterlog.xlsx
+++ b/PW/masterlog.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8951" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7827" uniqueCount="377">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1154,15 +1154,6 @@
   </si>
   <si>
     <t>Lock upper cinema doors (2) with allen key. Pull side stage door shut from inside. Lock booth and turn off all lights. MK2 key</t>
-  </si>
-  <si>
-    <t>8/02/16</t>
-  </si>
-  <si>
-    <t>2200</t>
-  </si>
-  <si>
-    <t>328A</t>
   </si>
 </sst>
 </file>
@@ -1969,7 +1960,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H1584"/>
+  <dimension ref="A1:H1376"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1306" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A1335" sqref="A1335:XFD1335"/>
@@ -31234,3814 +31225,6 @@
       </c>
       <c r="F1376" s="13" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="1377" spans="2:8" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C1377" s="91"/>
-      <c r="D1377" s="92"/>
-      <c r="F1377" s="93"/>
-      <c r="G1377" s="94"/>
-      <c r="H1377" s="95"/>
-    </row>
-    <row r="1378" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1378" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1378" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1378" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="E1378" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="F1378" s="13" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="1379" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1379" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1379" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1379" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="E1379" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="F1379" s="13" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="1380" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1380" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1380" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1380" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1380" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="F1380" s="13" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="1381" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1381" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1381" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1381" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1381" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1381" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1381" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1382" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1382" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1382" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1382" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1382" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="F1382" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="G1382" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1383" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1383" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1383" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1383" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1383" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="F1383" s="13" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="1384" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1384" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1384" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1384" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1384" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1384" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="G1384" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1385" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1385" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1385" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1385" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1385" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1385" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1385" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1386" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1386" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1386" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1386" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1386" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1386" s="13" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="1387" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1387" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1387" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1387" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1387" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1387" s="13" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="1388" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1388" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1388" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1388" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1388" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1388" s="13" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="1389" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1389" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1389" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1389" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1389" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1389" s="13" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="1390" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1390" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1390" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1390" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1390" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1390" s="13" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="1391" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1391" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1391" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1391" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1391" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1391" s="13" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="1392" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1392" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1392" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1392" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1392" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1392" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1392" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1393" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1393" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1393" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1393" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1393" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="F1393" s="13" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="1394" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1394" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1394" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1394" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1394" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="F1394" s="13" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="1395" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1395" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1395" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1395" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="E1395" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1395" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1395" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1396" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1396" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1396" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1396" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="E1396" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="F1396" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="G1396" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1397" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1397" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1397" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1397" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1397" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="F1397" s="13" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="1398" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1398" s="96" t="s">
-        <v>139</v>
-      </c>
-      <c r="C1398" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1398" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1398" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="F1398" s="13" t="s">
-        <v>270</v>
-      </c>
-      <c r="G1398" s="97" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="1399" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1399" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1399" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1399" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1399" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1399" s="13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="1400" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1400" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1400" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1400" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1400" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1400" s="13" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="1401" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1401" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1401" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1401" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1401" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1401" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="G1401" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1402" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1402" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1402" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1402" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1402" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1402" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="G1402" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1403" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1403" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1403" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1403" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1403" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1403" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="G1403" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1404" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1404" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1404" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1404" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1404" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1404" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="G1404" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1405" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1405" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1405" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1405" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1405" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1405" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="G1405" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1406" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1406" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1406" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1406" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1406" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1406" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="G1406" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1407" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1407" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1407" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1407" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1407" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1407" s="13" t="s">
-        <v>302</v>
-      </c>
-      <c r="G1407" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1408" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1408" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1408" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1408" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1408" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1408" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="G1408" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1409" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B1409" s="96" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1409" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1409" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="E1409" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1409" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1409" s="97" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="1410" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1410" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1410" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1410" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1410" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1410" s="13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="1411" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1411" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1411" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1411" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1411" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1411" s="13" t="s">
-        <v>297</v>
-      </c>
-      <c r="G1411" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1412" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1412" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1412" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1412" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="E1412" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1412" s="13" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="1413" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1413" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1413" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1413" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="E1413" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1413" s="13" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="1414" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1414" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1414" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1414" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1414" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1414" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G1414" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1415" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1415" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1415" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1415" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1415" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1415" s="13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="1416" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1416" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1416" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1416" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1416" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1416" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G1416" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1417" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1417" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1417" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1417" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1417" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1417" s="13" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="1418" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1418" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1418" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1418" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1418" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="F1418" s="13" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="1419" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1419" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1419" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1419" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1419" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="F1419" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1419" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1420" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B1420" s="96" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1420" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1420" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1420" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1420" s="13" t="s">
-        <v>330</v>
-      </c>
-      <c r="G1420" s="97" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="1421" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1421" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1421" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1421" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1421" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1421" s="13" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="1422" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1422" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1422" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1422" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1422" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1422" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="G1422" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1423" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1423" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1423" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1423" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1423" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1423" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="G1423" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1424" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1424" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1424" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1424" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1424" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1424" s="13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="1425" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1425" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1425" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1425" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1425" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1425" s="13" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="1426" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1426" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1426" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1426" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1426" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1426" s="13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="1427" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1427" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1427" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1427" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="E1427" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1427" s="13" t="s">
-        <v>304</v>
-      </c>
-      <c r="G1427" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1428" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1428" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1428" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1428" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="E1428" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1428" s="13" t="s">
-        <v>272</v>
-      </c>
-      <c r="G1428" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1429" spans="2:8" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C1429" s="91"/>
-      <c r="D1429" s="92"/>
-      <c r="F1429" s="93"/>
-      <c r="G1429" s="94"/>
-      <c r="H1429" s="95"/>
-    </row>
-    <row r="1430" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1430" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1430" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1430" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="E1430" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="F1430" s="13" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="1431" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1431" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1431" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1431" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="E1431" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="F1431" s="13" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="1432" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1432" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1432" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1432" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1432" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="F1432" s="13" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="1433" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1433" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1433" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1433" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1433" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1433" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1433" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1434" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1434" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1434" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1434" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1434" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="F1434" s="13" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="1435" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1435" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1435" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1435" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1435" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="F1435" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1435" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1436" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1436" s="96" t="s">
-        <v>139</v>
-      </c>
-      <c r="C1436" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1436" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1436" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="F1436" s="13" t="s">
-        <v>270</v>
-      </c>
-      <c r="G1436" s="97" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="1437" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1437" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1437" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1437" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1437" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="F1437" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="G1437" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1438" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1438" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1438" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1438" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1438" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="F1438" s="13" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="1439" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1439" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1439" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1439" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1439" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1439" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="G1439" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1440" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1440" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1440" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1440" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1440" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1440" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1440" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1441" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1441" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1441" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1441" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1441" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1441" s="13" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="1442" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1442" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1442" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1442" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1442" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1442" s="13" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="1443" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1443" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1443" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1443" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1443" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1443" s="13" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="1444" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1444" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1444" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1444" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1444" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1444" s="13" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="1445" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1445" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1445" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1445" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1445" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1445" s="13" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="1446" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1446" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1446" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1446" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1446" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1446" s="13" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="1447" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1447" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1447" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1447" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1447" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1447" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1447" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1448" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1448" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1448" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1448" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1448" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="F1448" s="13" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="1449" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1449" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1449" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1449" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1449" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="F1449" s="13" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="1450" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1450" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1450" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1450" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="E1450" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1450" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1450" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1451" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1451" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1451" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1451" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="E1451" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1451" s="13" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="1452" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1452" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1452" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1452" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="E1452" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1452" s="13" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="1453" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1453" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1453" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1453" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="E1453" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="F1453" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="G1453" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1454" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1454" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1454" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1454" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1454" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1454" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G1454" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1455" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1455" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1455" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1455" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1455" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1455" s="13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="1456" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1456" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1456" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1456" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1456" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="F1456" s="13" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="1457" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1457" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1457" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1457" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1457" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1457" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G1457" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1458" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1458" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1458" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1458" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1458" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1458" s="13" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="1459" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B1459" s="96" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1459" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1459" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1459" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1459" s="13" t="s">
-        <v>330</v>
-      </c>
-      <c r="G1459" s="97" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="1460" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1460" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1460" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1460" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1460" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1460" s="13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="1461" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1461" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1461" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1461" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1461" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1461" s="13" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="1462" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1462" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1462" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1462" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1462" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1462" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="G1462" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1463" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1463" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1463" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1463" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1463" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1463" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="G1463" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1464" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1464" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1464" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1464" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1464" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1464" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="G1464" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1465" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1465" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1465" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1465" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1465" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1465" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="G1465" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1466" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1466" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1466" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1466" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1466" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1466" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="G1466" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1467" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1467" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1467" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1467" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1467" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1467" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="G1467" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1468" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1468" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1468" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1468" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1468" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1468" s="13" t="s">
-        <v>302</v>
-      </c>
-      <c r="G1468" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1469" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1469" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1469" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1469" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1469" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1469" s="13" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="1470" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1470" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1470" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1470" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1470" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1470" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="G1470" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1471" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1471" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1471" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1471" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1471" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1471" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="G1471" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1472" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B1472" s="96" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1472" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1472" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="E1472" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1472" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1472" s="97" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="1473" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1473" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1473" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1473" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1473" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1473" s="13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="1474" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1474" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1474" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1474" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1474" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1474" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="G1474" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1475" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1475" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1475" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1475" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1475" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1475" s="13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="1476" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1476" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1476" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1476" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1476" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1476" s="13" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="1477" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1477" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1477" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1477" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1477" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1477" s="13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="1478" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1478" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1478" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1478" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1478" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1478" s="13" t="s">
-        <v>297</v>
-      </c>
-      <c r="G1478" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1479" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1479" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1479" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1479" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="E1479" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1479" s="13" t="s">
-        <v>304</v>
-      </c>
-      <c r="G1479" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1480" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1480" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1480" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1480" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="E1480" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1480" s="13" t="s">
-        <v>272</v>
-      </c>
-      <c r="G1480" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1481" spans="2:8" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C1481" s="91"/>
-      <c r="D1481" s="92"/>
-      <c r="F1481" s="93"/>
-      <c r="G1481" s="94"/>
-      <c r="H1481" s="95"/>
-    </row>
-    <row r="1482" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1482" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1482" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1482" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1482" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1482" s="13" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="1483" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1483" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1483" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1483" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1483" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1483" s="13" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="1484" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1484" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1484" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1484" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1484" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1484" s="13" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="1485" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1485" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1485" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1485" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1485" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1485" s="13" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="1486" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1486" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1486" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1486" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1486" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1486" s="13" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="1487" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1487" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1487" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1487" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1487" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1487" s="13" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="1488" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1488" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1488" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1488" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="E1488" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1488" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1488" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1489" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1489" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1489" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1489" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="E1489" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1489" s="13" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="1490" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1490" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1490" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1490" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="E1490" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1490" s="13" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="1491" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1491" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1491" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1491" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="E1491" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="F1491" s="13" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="1492" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1492" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1492" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1492" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="E1492" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="F1492" s="13" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="1493" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1493" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1493" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1493" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1493" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="F1493" s="13" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="1494" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1494" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1494" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1494" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1494" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1494" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1494" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1495" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1495" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1495" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1495" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1495" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="F1495" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="G1495" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1496" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1496" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1496" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1496" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1496" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="F1496" s="13" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="1497" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1497" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1497" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1497" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1497" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1497" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="G1497" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1498" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1498" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1498" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1498" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1498" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1498" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1498" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1499" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1499" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1499" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1499" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1499" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1499" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1499" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1500" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1500" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1500" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1500" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1500" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="F1500" s="13" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="1501" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1501" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1501" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1501" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1501" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="F1501" s="13" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="1502" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1502" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1502" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1502" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="E1502" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="F1502" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="G1502" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1503" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1503" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1503" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1503" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1503" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1503" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G1503" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1504" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1504" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1504" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1504" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1504" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1504" s="13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="1505" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1505" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1505" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1505" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1505" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="F1505" s="13" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="1506" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1506" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1506" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1506" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1506" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1506" s="13" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="1507" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1507" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1507" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1507" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1507" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1507" s="13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="1508" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1508" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1508" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1508" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1508" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1508" s="13" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="1509" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1509" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1509" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1509" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1509" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1509" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="G1509" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1510" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1510" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1510" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1510" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1510" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1510" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="G1510" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1511" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1511" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1511" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1511" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1511" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1511" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="G1511" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1512" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1512" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1512" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1512" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1512" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1512" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="G1512" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1513" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1513" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1513" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1513" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1513" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1513" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="G1513" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1514" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1514" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1514" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1514" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1514" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1514" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="G1514" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1515" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1515" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1515" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1515" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1515" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1515" s="13" t="s">
-        <v>302</v>
-      </c>
-      <c r="G1515" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1516" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1516" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1516" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1516" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1516" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1516" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="G1516" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1517" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B1517" s="96" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1517" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1517" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="E1517" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1517" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1517" s="97" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="1518" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1518" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1518" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1518" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1518" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1518" s="13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="1519" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1519" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1519" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1519" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1519" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1519" s="13" t="s">
-        <v>297</v>
-      </c>
-      <c r="G1519" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1520" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1520" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1520" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1520" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1520" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1520" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G1520" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1521" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1521" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1521" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1521" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1521" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="F1521" s="13" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="1522" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1522" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1522" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1522" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1522" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="F1522" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1522" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1523" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1523" s="96" t="s">
-        <v>139</v>
-      </c>
-      <c r="C1523" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1523" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1523" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="F1523" s="13" t="s">
-        <v>270</v>
-      </c>
-      <c r="G1523" s="97" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="1524" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B1524" s="96" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1524" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1524" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1524" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1524" s="13" t="s">
-        <v>330</v>
-      </c>
-      <c r="G1524" s="97" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="1525" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1525" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1525" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1525" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1525" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1525" s="13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="1526" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1526" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1526" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1526" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1526" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1526" s="13" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="1527" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1527" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1527" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1527" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1527" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1527" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="G1527" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1528" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1528" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1528" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1528" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1528" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1528" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="G1528" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1529" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1529" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1529" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1529" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1529" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1529" s="13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="1530" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1530" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1530" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1530" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1530" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1530" s="13" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="1531" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1531" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1531" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1531" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="E1531" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1531" s="13" t="s">
-        <v>304</v>
-      </c>
-      <c r="G1531" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1532" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1532" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1532" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1532" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="E1532" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1532" s="13" t="s">
-        <v>272</v>
-      </c>
-      <c r="G1532" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1533" spans="2:8" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C1533" s="91"/>
-      <c r="D1533" s="92"/>
-      <c r="F1533" s="93"/>
-      <c r="G1533" s="94"/>
-      <c r="H1533" s="95"/>
-    </row>
-    <row r="1534" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1534" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1534" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1534" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="E1534" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1534" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1534" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1535" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1535" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1535" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1535" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="E1535" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1535" s="13" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="1536" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1536" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1536" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1536" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="E1536" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1536" s="13" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="1537" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1537" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1537" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1537" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="E1537" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="F1537" s="13" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="1538" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1538" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1538" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1538" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="E1538" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="F1538" s="13" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="1539" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1539" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1539" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1539" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1539" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="F1539" s="13" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="1540" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1540" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1540" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1540" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1540" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1540" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1540" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1541" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1541" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1541" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1541" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1541" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="F1541" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="G1541" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1542" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1542" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1542" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1542" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1542" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="F1542" s="13" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="1543" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1543" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1543" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1543" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1543" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1543" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="G1543" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1544" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1544" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1544" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1544" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1544" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1544" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1544" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1545" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1545" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1545" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1545" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1545" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1545" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1545" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1546" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1546" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1546" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1546" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1546" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="F1546" s="13" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="1547" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1547" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1547" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1547" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1547" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="F1547" s="13" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="1548" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1548" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1548" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1548" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="E1548" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="F1548" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="G1548" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1549" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1549" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1549" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1549" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1549" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1549" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G1549" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1550" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1550" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1550" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1550" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1550" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1550" s="13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="1551" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1551" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1551" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1551" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1551" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="F1551" s="13" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="1552" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1552" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1552" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1552" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1552" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1552" s="13" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="1553" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1553" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1553" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1553" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1553" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="F1553" s="13" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="1554" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1554" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1554" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1554" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1554" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="F1554" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1554" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1555" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1555" s="96" t="s">
-        <v>139</v>
-      </c>
-      <c r="C1555" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1555" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1555" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="F1555" s="13" t="s">
-        <v>270</v>
-      </c>
-      <c r="G1555" s="97" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="1556" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1556" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1556" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1556" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1556" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1556" s="13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="1557" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1557" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1557" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1557" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1557" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1557" s="13" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="1558" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1558" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1558" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1558" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1558" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1558" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="G1558" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1559" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1559" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1559" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1559" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1559" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1559" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="G1559" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1560" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1560" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1560" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1560" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1560" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1560" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="G1560" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1561" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1561" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1561" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1561" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1561" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1561" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="G1561" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1562" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1562" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1562" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1562" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1562" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1562" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="G1562" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1563" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1563" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1563" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1563" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1563" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1563" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="G1563" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1564" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1564" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1564" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1564" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1564" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1564" s="13" t="s">
-        <v>302</v>
-      </c>
-      <c r="G1564" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1565" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1565" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1565" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1565" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1565" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1565" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="G1565" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1566" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B1566" s="96" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1566" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1566" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="E1566" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1566" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1566" s="97" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="1567" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1567" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1567" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1567" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1567" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1567" s="13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="1568" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1568" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1568" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1568" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1568" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1568" s="13" t="s">
-        <v>297</v>
-      </c>
-      <c r="G1568" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1569" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1569" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1569" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1569" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1569" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1569" s="13" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="1570" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1570" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1570" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1570" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1570" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1570" s="13" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="1571" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1571" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1571" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1571" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1571" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1571" s="13" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="1572" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1572" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1572" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1572" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1572" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1572" s="13" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="1573" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1573" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1573" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1573" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1573" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1573" s="13" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="1574" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1574" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1574" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1574" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1574" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1574" s="13" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="1575" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1575" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1575" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1575" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1575" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1575" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G1575" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1576" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1576" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1576" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1576" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1576" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1576" s="13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="1577" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B1577" s="96" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1577" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1577" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1577" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1577" s="13" t="s">
-        <v>330</v>
-      </c>
-      <c r="G1577" s="97" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="1578" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1578" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1578" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1578" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1578" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1578" s="13" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="1579" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1579" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1579" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1579" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1579" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1579" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="G1579" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1580" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1580" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1580" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1580" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1580" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1580" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="G1580" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1581" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1581" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1581" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1581" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1581" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1581" s="13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="1582" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1582" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1582" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1582" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1582" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1582" s="13" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="1583" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1583" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1583" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1583" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="E1583" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1583" s="13" t="s">
-        <v>304</v>
-      </c>
-      <c r="G1583" s="98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1584" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1584" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1584" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1584" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="E1584" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1584" s="13" t="s">
-        <v>272</v>
-      </c>
-      <c r="G1584" s="98" t="s">
-        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/PW/masterlog.xlsx
+++ b/PW/masterlog.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8112" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8627" uniqueCount="379">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1156,10 +1156,10 @@
     <t>Lock upper cinema doors (2) with allen key. Pull side stage door shut from inside. Lock booth and turn off all lights. MK2 key</t>
   </si>
   <si>
-    <t>Log off and make sure neck mic goes back to drawer.</t>
-  </si>
-  <si>
     <t>8/02/16</t>
+  </si>
+  <si>
+    <t> 135</t>
   </si>
 </sst>
 </file>
@@ -1169,7 +1169,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1214,15 +1214,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="15">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1297,11 +1290,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFCC0033"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
       </patternFill>
     </fill>
   </fills>
@@ -1381,14 +1369,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1642,36 +1629,6 @@
     <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="14" borderId="2" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="14" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="14" borderId="4" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="14" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="14" borderId="3" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1690,12 +1647,8 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="Accent2" xfId="4" builtinId="33"/>
+  <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2001,10 +1954,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H1431"/>
+  <dimension ref="A1:H1516"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1363" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1381" sqref="B1381:G1384"/>
+    <sheetView tabSelected="1" topLeftCell="A1348" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G1374" sqref="G1374"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3128,7 +3081,7 @@
       <c r="G50" s="47"/>
     </row>
     <row r="51" spans="1:8" s="39" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B51" s="101"/>
+      <c r="B51" s="91"/>
       <c r="C51" s="40"/>
       <c r="D51" s="41"/>
       <c r="F51" s="42"/>
@@ -3139,7 +3092,7 @@
       <c r="A52" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B52" s="102" t="s">
+      <c r="B52" s="92" t="s">
         <v>27</v>
       </c>
       <c r="C52" s="49">
@@ -3289,7 +3242,7 @@
       <c r="A59" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B59" s="103" t="s">
+      <c r="B59" s="93" t="s">
         <v>27</v>
       </c>
       <c r="C59" s="49">
@@ -3312,7 +3265,7 @@
       <c r="A60" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B60" s="103" t="s">
+      <c r="B60" s="93" t="s">
         <v>27</v>
       </c>
       <c r="C60" s="49">
@@ -3335,7 +3288,7 @@
       <c r="A61" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B61" s="103" t="s">
+      <c r="B61" s="93" t="s">
         <v>27</v>
       </c>
       <c r="C61" s="49">
@@ -3358,7 +3311,7 @@
       <c r="A62" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B62" s="103" t="s">
+      <c r="B62" s="93" t="s">
         <v>27</v>
       </c>
       <c r="C62" s="49">
@@ -3381,7 +3334,7 @@
       <c r="A63" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B63" s="103" t="s">
+      <c r="B63" s="93" t="s">
         <v>27</v>
       </c>
       <c r="C63" s="49">
@@ -3404,7 +3357,7 @@
       <c r="A64" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B64" s="103" t="s">
+      <c r="B64" s="93" t="s">
         <v>27</v>
       </c>
       <c r="C64" s="49">
@@ -3427,7 +3380,7 @@
       <c r="A65" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B65" s="103" t="s">
+      <c r="B65" s="93" t="s">
         <v>27</v>
       </c>
       <c r="C65" s="49">
@@ -3450,7 +3403,7 @@
       <c r="A66" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B66" s="103" t="s">
+      <c r="B66" s="93" t="s">
         <v>27</v>
       </c>
       <c r="C66" s="49">
@@ -3473,7 +3426,7 @@
       <c r="A67" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B67" s="103" t="s">
+      <c r="B67" s="93" t="s">
         <v>27</v>
       </c>
       <c r="C67" s="49">
@@ -3496,7 +3449,7 @@
       <c r="A68" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B68" s="103" t="s">
+      <c r="B68" s="93" t="s">
         <v>27</v>
       </c>
       <c r="C68" s="49">
@@ -3519,7 +3472,7 @@
       <c r="A69" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B69" s="103" t="s">
+      <c r="B69" s="93" t="s">
         <v>27</v>
       </c>
       <c r="C69" s="49">
@@ -3565,7 +3518,7 @@
       <c r="A71" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B71" s="103" t="s">
+      <c r="B71" s="93" t="s">
         <v>27</v>
       </c>
       <c r="C71" s="49">
@@ -3588,7 +3541,7 @@
       <c r="A72" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B72" s="103" t="s">
+      <c r="B72" s="93" t="s">
         <v>27</v>
       </c>
       <c r="C72" s="49">
@@ -3611,7 +3564,7 @@
       <c r="A73" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B73" s="103" t="s">
+      <c r="B73" s="93" t="s">
         <v>27</v>
       </c>
       <c r="C73" s="49">
@@ -3777,7 +3730,7 @@
       <c r="A81" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="B81" s="103" t="s">
+      <c r="B81" s="93" t="s">
         <v>27</v>
       </c>
       <c r="C81" s="49">
@@ -3880,7 +3833,7 @@
       <c r="A86" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="B86" s="103" t="s">
+      <c r="B86" s="93" t="s">
         <v>27</v>
       </c>
       <c r="C86" s="49">
@@ -3903,7 +3856,7 @@
       <c r="A87" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="B87" s="103" t="s">
+      <c r="B87" s="93" t="s">
         <v>27</v>
       </c>
       <c r="C87" s="49">
@@ -3989,7 +3942,7 @@
       <c r="A91" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B91" s="103" t="s">
+      <c r="B91" s="93" t="s">
         <v>27</v>
       </c>
       <c r="C91" s="49">
@@ -4035,7 +3988,7 @@
       <c r="A93" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B93" s="103" t="s">
+      <c r="B93" s="93" t="s">
         <v>27</v>
       </c>
       <c r="C93" s="49">
@@ -4118,7 +4071,7 @@
       <c r="A97" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B97" s="103" t="s">
+      <c r="B97" s="93" t="s">
         <v>27</v>
       </c>
       <c r="C97" s="49">
@@ -4141,7 +4094,7 @@
       <c r="A98" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B98" s="103" t="s">
+      <c r="B98" s="93" t="s">
         <v>27</v>
       </c>
       <c r="C98" s="49">
@@ -4164,7 +4117,7 @@
       <c r="A99" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B99" s="103" t="s">
+      <c r="B99" s="93" t="s">
         <v>27</v>
       </c>
       <c r="C99" s="49">
@@ -4187,7 +4140,7 @@
       <c r="A100" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B100" s="103" t="s">
+      <c r="B100" s="93" t="s">
         <v>27</v>
       </c>
       <c r="C100" s="49">
@@ -4210,7 +4163,7 @@
       <c r="A101" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B101" s="103" t="s">
+      <c r="B101" s="93" t="s">
         <v>27</v>
       </c>
       <c r="C101" s="49">
@@ -4233,7 +4186,7 @@
       <c r="A102" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B102" s="103" t="s">
+      <c r="B102" s="93" t="s">
         <v>27</v>
       </c>
       <c r="C102" s="49">
@@ -4256,7 +4209,7 @@
       <c r="A103" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B103" s="103" t="s">
+      <c r="B103" s="93" t="s">
         <v>27</v>
       </c>
       <c r="C103" s="49">
@@ -4279,7 +4232,7 @@
       <c r="A104" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B104" s="103" t="s">
+      <c r="B104" s="93" t="s">
         <v>27</v>
       </c>
       <c r="C104" s="49">
@@ -4302,7 +4255,7 @@
       <c r="A105" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B105" s="103" t="s">
+      <c r="B105" s="93" t="s">
         <v>27</v>
       </c>
       <c r="C105" s="49">
@@ -4345,7 +4298,7 @@
       <c r="A107" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B107" s="103" t="s">
+      <c r="B107" s="93" t="s">
         <v>27</v>
       </c>
       <c r="C107" s="49">
@@ -4368,7 +4321,7 @@
       <c r="A108" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B108" s="103" t="s">
+      <c r="B108" s="93" t="s">
         <v>27</v>
       </c>
       <c r="C108" s="49">
@@ -4391,7 +4344,7 @@
       <c r="A109" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="B109" s="103" t="s">
+      <c r="B109" s="93" t="s">
         <v>27</v>
       </c>
       <c r="C109" s="49">
@@ -4454,7 +4407,7 @@
       <c r="A112" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="B112" s="103" t="s">
+      <c r="B112" s="93" t="s">
         <v>27</v>
       </c>
       <c r="C112" s="49">
@@ -4497,7 +4450,7 @@
       <c r="A114" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="B114" s="103" t="s">
+      <c r="B114" s="93" t="s">
         <v>27</v>
       </c>
       <c r="C114" s="49">
@@ -4560,7 +4513,7 @@
       <c r="A117" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="B117" s="103" t="s">
+      <c r="B117" s="93" t="s">
         <v>27</v>
       </c>
       <c r="C117" s="49">
@@ -4803,7 +4756,7 @@
       <c r="A129" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="B129" s="103" t="s">
+      <c r="B129" s="93" t="s">
         <v>27</v>
       </c>
       <c r="C129" s="49">
@@ -4846,7 +4799,7 @@
       <c r="A131" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="B131" s="103" t="s">
+      <c r="B131" s="93" t="s">
         <v>27</v>
       </c>
       <c r="C131" s="49">
@@ -4869,7 +4822,7 @@
       <c r="A132" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="B132" s="103" t="s">
+      <c r="B132" s="93" t="s">
         <v>27</v>
       </c>
       <c r="C132" s="49">
@@ -4892,7 +4845,7 @@
       <c r="A133" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="B133" s="103" t="s">
+      <c r="B133" s="93" t="s">
         <v>27</v>
       </c>
       <c r="C133" s="49">
@@ -4915,7 +4868,7 @@
       <c r="A134" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="B134" s="103" t="s">
+      <c r="B134" s="93" t="s">
         <v>27</v>
       </c>
       <c r="C134" s="49">
@@ -4961,7 +4914,7 @@
       <c r="A136" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B136" s="103" t="s">
+      <c r="B136" s="93" t="s">
         <v>27</v>
       </c>
       <c r="C136" s="49">
@@ -5007,7 +4960,7 @@
       <c r="A138" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B138" s="103" t="s">
+      <c r="B138" s="93" t="s">
         <v>27</v>
       </c>
       <c r="C138" s="49">
@@ -5167,7 +5120,7 @@
       </c>
     </row>
     <row r="146" spans="1:8" s="39" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B146" s="101"/>
+      <c r="B146" s="91"/>
       <c r="C146" s="40"/>
       <c r="D146" s="41"/>
       <c r="F146" s="42"/>
@@ -7543,7 +7496,7 @@
       <c r="G254" s="77"/>
     </row>
     <row r="255" spans="1:8" s="59" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B255" s="104"/>
+      <c r="B255" s="94"/>
       <c r="C255" s="60"/>
       <c r="D255" s="61"/>
       <c r="F255" s="62"/>
@@ -9967,7 +9920,7 @@
       </c>
     </row>
     <row r="366" spans="1:8" s="59" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B366" s="104"/>
+      <c r="B366" s="94"/>
       <c r="C366" s="60"/>
       <c r="D366" s="61"/>
       <c r="F366" s="62"/>
@@ -11276,7 +11229,7 @@
       </c>
     </row>
     <row r="426" spans="1:8" s="39" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B426" s="101"/>
+      <c r="B426" s="91"/>
       <c r="C426" s="40"/>
       <c r="D426" s="41"/>
       <c r="F426" s="42"/>
@@ -13243,7 +13196,7 @@
       <c r="G515" s="77"/>
     </row>
     <row r="516" spans="1:8" s="71" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B516" s="105"/>
+      <c r="B516" s="95"/>
       <c r="C516" s="72"/>
       <c r="D516" s="73"/>
       <c r="F516" s="74"/>
@@ -15755,7 +15708,7 @@
       </c>
     </row>
     <row r="631" spans="1:8" s="59" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B631" s="104"/>
+      <c r="B631" s="94"/>
       <c r="C631" s="60"/>
       <c r="D631" s="61"/>
       <c r="F631" s="62"/>
@@ -18152,7 +18105,7 @@
       </c>
     </row>
     <row r="741" spans="1:8" s="81" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B741" s="106"/>
+      <c r="B741" s="96"/>
       <c r="C741" s="82"/>
       <c r="D741" s="83"/>
       <c r="F741" s="84"/>
@@ -20524,7 +20477,7 @@
       </c>
     </row>
     <row r="853" spans="1:8" s="81" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B853" s="106"/>
+      <c r="B853" s="96"/>
       <c r="C853" s="82"/>
       <c r="D853" s="83"/>
       <c r="F853" s="84"/>
@@ -21834,7 +21787,7 @@
       </c>
     </row>
     <row r="914" spans="1:8" s="81" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B914" s="106"/>
+      <c r="B914" s="96"/>
       <c r="C914" s="82"/>
       <c r="D914" s="83"/>
       <c r="F914" s="84"/>
@@ -23457,7 +23410,7 @@
     </row>
     <row r="1003" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1003" s="81"/>
-      <c r="B1003" s="106"/>
+      <c r="B1003" s="96"/>
       <c r="C1003" s="82"/>
       <c r="D1003" s="83"/>
       <c r="E1003" s="81"/>
@@ -25864,7 +25817,7 @@
       </c>
     </row>
     <row r="1116" spans="1:8" s="81" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B1116" s="106"/>
+      <c r="B1116" s="96"/>
       <c r="C1116" s="82"/>
       <c r="D1116" s="83"/>
       <c r="F1116" s="84"/>
@@ -28248,7 +28201,7 @@
       </c>
     </row>
     <row r="1228" spans="1:8" s="81" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B1228" s="106"/>
+      <c r="B1228" s="96"/>
       <c r="C1228" s="82"/>
       <c r="D1228" s="83"/>
       <c r="F1228" s="84"/>
@@ -30497,7 +30450,7 @@
       </c>
     </row>
     <row r="1334" spans="1:8" s="81" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B1334" s="106"/>
+      <c r="B1334" s="96"/>
       <c r="C1334" s="82"/>
       <c r="D1334" s="83"/>
       <c r="F1334" s="84"/>
@@ -30505,6 +30458,9 @@
       <c r="H1334" s="86"/>
     </row>
     <row r="1335" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A1335" s="10" t="s">
+        <v>85</v>
+      </c>
       <c r="B1335" s="65" t="s">
         <v>27</v>
       </c>
@@ -30525,6 +30481,9 @@
       </c>
     </row>
     <row r="1336" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A1336" s="46" t="s">
+        <v>85</v>
+      </c>
       <c r="B1336" s="47" t="s">
         <v>27</v>
       </c>
@@ -30542,6 +30501,9 @@
       </c>
     </row>
     <row r="1337" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1337" s="46" t="s">
+        <v>85</v>
+      </c>
       <c r="B1337" s="47" t="s">
         <v>27</v>
       </c>
@@ -30559,6 +30521,9 @@
       </c>
     </row>
     <row r="1338" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A1338" s="46" t="s">
+        <v>85</v>
+      </c>
       <c r="B1338" s="47" t="s">
         <v>27</v>
       </c>
@@ -30576,6 +30541,9 @@
       </c>
     </row>
     <row r="1339" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A1339" s="46" t="s">
+        <v>85</v>
+      </c>
       <c r="B1339" s="65" t="s">
         <v>27</v>
       </c>
@@ -30596,6 +30564,9 @@
       </c>
     </row>
     <row r="1340" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A1340" s="46" t="s">
+        <v>85</v>
+      </c>
       <c r="B1340" s="87" t="s">
         <v>139</v>
       </c>
@@ -30616,6 +30587,9 @@
       </c>
     </row>
     <row r="1341" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A1341" s="46" t="s">
+        <v>85</v>
+      </c>
       <c r="B1341" s="47" t="s">
         <v>27</v>
       </c>
@@ -30633,6 +30607,9 @@
       </c>
     </row>
     <row r="1342" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A1342" s="46" t="s">
+        <v>85</v>
+      </c>
       <c r="B1342" s="65" t="s">
         <v>27</v>
       </c>
@@ -30653,6 +30630,9 @@
       </c>
     </row>
     <row r="1343" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A1343" s="46" t="s">
+        <v>85</v>
+      </c>
       <c r="B1343" s="47" t="s">
         <v>27</v>
       </c>
@@ -30670,6 +30650,9 @@
       </c>
     </row>
     <row r="1344" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A1344" s="46" t="s">
+        <v>85</v>
+      </c>
       <c r="B1344" s="65" t="s">
         <v>27</v>
       </c>
@@ -30689,7 +30672,10 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1345" spans="2:7" ht="28.9" x14ac:dyDescent="0.3">
+    <row r="1345" spans="1:7" ht="28.9" x14ac:dyDescent="0.3">
+      <c r="A1345" s="46" t="s">
+        <v>85</v>
+      </c>
       <c r="B1345" s="87" t="s">
         <v>139</v>
       </c>
@@ -30709,7 +30695,10 @@
         <v>376</v>
       </c>
     </row>
-    <row r="1346" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1346" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1346" s="46" t="s">
+        <v>85</v>
+      </c>
       <c r="B1346" s="65" t="s">
         <v>27</v>
       </c>
@@ -30729,7 +30718,10 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1347" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1347" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1347" s="46" t="s">
+        <v>85</v>
+      </c>
       <c r="B1347" s="47" t="s">
         <v>27</v>
       </c>
@@ -30746,7 +30738,10 @@
         <v>239</v>
       </c>
     </row>
-    <row r="1348" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1348" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A1348" s="46" t="s">
+        <v>85</v>
+      </c>
       <c r="B1348" s="65" t="s">
         <v>27</v>
       </c>
@@ -30766,7 +30761,10 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1349" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1349" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A1349" s="46" t="s">
+        <v>85</v>
+      </c>
       <c r="B1349" s="65" t="s">
         <v>27</v>
       </c>
@@ -30786,7 +30784,10 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1350" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1350" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1350" s="46" t="s">
+        <v>85</v>
+      </c>
       <c r="B1350" s="47" t="s">
         <v>27</v>
       </c>
@@ -30803,7 +30804,10 @@
         <v>189</v>
       </c>
     </row>
-    <row r="1351" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1351" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1351" s="46" t="s">
+        <v>85</v>
+      </c>
       <c r="B1351" s="47" t="s">
         <v>27</v>
       </c>
@@ -30820,7 +30824,10 @@
         <v>190</v>
       </c>
     </row>
-    <row r="1352" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1352" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1352" s="46" t="s">
+        <v>85</v>
+      </c>
       <c r="B1352" s="47" t="s">
         <v>27</v>
       </c>
@@ -30837,7 +30844,10 @@
         <v>191</v>
       </c>
     </row>
-    <row r="1353" spans="2:7" ht="43.15" x14ac:dyDescent="0.3">
+    <row r="1353" spans="1:7" ht="43.15" x14ac:dyDescent="0.3">
+      <c r="A1353" s="46" t="s">
+        <v>85</v>
+      </c>
       <c r="B1353" s="87" t="s">
         <v>77</v>
       </c>
@@ -30857,7 +30867,10 @@
         <v>361</v>
       </c>
     </row>
-    <row r="1354" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1354" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A1354" s="46" t="s">
+        <v>85</v>
+      </c>
       <c r="B1354" s="47" t="s">
         <v>27</v>
       </c>
@@ -30874,7 +30887,10 @@
         <v>69</v>
       </c>
     </row>
-    <row r="1355" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1355" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A1355" s="46" t="s">
+        <v>85</v>
+      </c>
       <c r="B1355" s="47" t="s">
         <v>27</v>
       </c>
@@ -30891,7 +30907,10 @@
         <v>246</v>
       </c>
     </row>
-    <row r="1356" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1356" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A1356" s="46" t="s">
+        <v>85</v>
+      </c>
       <c r="B1356" s="65" t="s">
         <v>27</v>
       </c>
@@ -30911,7 +30930,10 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1357" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1357" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A1357" s="46" t="s">
+        <v>85</v>
+      </c>
       <c r="B1357" s="65" t="s">
         <v>27</v>
       </c>
@@ -30931,7 +30953,10 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1358" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1358" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A1358" s="46" t="s">
+        <v>85</v>
+      </c>
       <c r="B1358" s="65" t="s">
         <v>27</v>
       </c>
@@ -30951,7 +30976,10 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1359" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1359" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A1359" s="46" t="s">
+        <v>85</v>
+      </c>
       <c r="B1359" s="65" t="s">
         <v>27</v>
       </c>
@@ -30971,7 +30999,10 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1360" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1360" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A1360" s="46" t="s">
+        <v>85</v>
+      </c>
       <c r="B1360" s="65" t="s">
         <v>27</v>
       </c>
@@ -30991,7 +31022,10 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1361" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1361" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A1361" s="46" t="s">
+        <v>85</v>
+      </c>
       <c r="B1361" s="65" t="s">
         <v>27</v>
       </c>
@@ -31011,7 +31045,10 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1362" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1362" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A1362" s="46" t="s">
+        <v>85</v>
+      </c>
       <c r="B1362" s="65" t="s">
         <v>27</v>
       </c>
@@ -31031,7 +31068,10 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1363" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1363" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1363" s="46" t="s">
+        <v>85</v>
+      </c>
       <c r="B1363" s="47" t="s">
         <v>27</v>
       </c>
@@ -31048,7 +31088,10 @@
         <v>111</v>
       </c>
     </row>
-    <row r="1364" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1364" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1364" s="46" t="s">
+        <v>85</v>
+      </c>
       <c r="B1364" s="47" t="s">
         <v>27</v>
       </c>
@@ -31065,7 +31108,10 @@
         <v>106</v>
       </c>
     </row>
-    <row r="1365" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1365" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1365" s="46" t="s">
+        <v>85</v>
+      </c>
       <c r="B1365" s="47" t="s">
         <v>27</v>
       </c>
@@ -31082,7 +31128,10 @@
         <v>163</v>
       </c>
     </row>
-    <row r="1366" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1366" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A1366" s="46" t="s">
+        <v>85</v>
+      </c>
       <c r="B1366" s="47" t="s">
         <v>27</v>
       </c>
@@ -31099,7 +31148,10 @@
         <v>312</v>
       </c>
     </row>
-    <row r="1367" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1367" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A1367" s="46" t="s">
+        <v>85</v>
+      </c>
       <c r="B1367" s="65" t="s">
         <v>27</v>
       </c>
@@ -31119,7 +31171,10 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1368" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1368" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A1368" s="46" t="s">
+        <v>85</v>
+      </c>
       <c r="B1368" s="65" t="s">
         <v>27</v>
       </c>
@@ -31139,7 +31194,10 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1369" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1369" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A1369" s="10" t="s">
+        <v>154</v>
+      </c>
       <c r="B1369" s="65" t="s">
         <v>27</v>
       </c>
@@ -31159,7 +31217,10 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1370" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1370" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A1370" s="46" t="s">
+        <v>154</v>
+      </c>
       <c r="B1370" s="47" t="s">
         <v>27</v>
       </c>
@@ -31176,7 +31237,10 @@
         <v>57</v>
       </c>
     </row>
-    <row r="1371" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1371" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1371" s="46" t="s">
+        <v>154</v>
+      </c>
       <c r="B1371" s="47" t="s">
         <v>27</v>
       </c>
@@ -31193,7 +31257,10 @@
         <v>116</v>
       </c>
     </row>
-    <row r="1372" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1372" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1372" s="46" t="s">
+        <v>154</v>
+      </c>
       <c r="B1372" s="47" t="s">
         <v>27</v>
       </c>
@@ -31210,7 +31277,10 @@
         <v>117</v>
       </c>
     </row>
-    <row r="1373" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1373" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A1373" s="46" t="s">
+        <v>154</v>
+      </c>
       <c r="B1373" s="65" t="s">
         <v>27</v>
       </c>
@@ -31230,7 +31300,10 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1374" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1374" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A1374" s="46" t="s">
+        <v>154</v>
+      </c>
       <c r="B1374" s="47" t="s">
         <v>27</v>
       </c>
@@ -31247,7 +31320,10 @@
         <v>73</v>
       </c>
     </row>
-    <row r="1375" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1375" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A1375" s="46" t="s">
+        <v>154</v>
+      </c>
       <c r="B1375" s="47" t="s">
         <v>27</v>
       </c>
@@ -31264,7 +31340,10 @@
         <v>313</v>
       </c>
     </row>
-    <row r="1376" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1376" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A1376" s="46" t="s">
+        <v>154</v>
+      </c>
       <c r="B1376" s="47" t="s">
         <v>27</v>
       </c>
@@ -31281,302 +31360,299 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1377" spans="1:8" s="95" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B1377" s="107"/>
-      <c r="C1377" s="96"/>
-      <c r="D1377" s="97"/>
-      <c r="F1377" s="98"/>
-      <c r="G1377" s="99"/>
-      <c r="H1377" s="100"/>
-    </row>
-    <row r="1378" spans="1:8" ht="43.15" x14ac:dyDescent="0.3">
-      <c r="A1378" s="47"/>
-      <c r="B1378" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1378" s="91">
-        <v>42584</v>
-      </c>
-      <c r="D1378" s="92" t="s">
+    <row r="1377" spans="2:8" s="81" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1377" s="96"/>
+      <c r="C1377" s="82"/>
+      <c r="D1377" s="83"/>
+      <c r="F1377" s="84"/>
+      <c r="G1377" s="85"/>
+      <c r="H1377" s="86"/>
+    </row>
+    <row r="1378" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1378" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1378" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1378" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1378" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1378" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="G1378" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1379" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1379" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1379" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1379" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1379" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1379" s="13" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="1380" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1380" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1380" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1380" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1380" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1380" s="13" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="1381" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1381" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1381" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1381" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1381" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1381" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1382" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1382" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1382" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1382" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1382" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1382" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="G1382" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1383" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1383" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1383" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1383" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1383" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1383" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="G1383" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1384" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1384" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1384" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1384" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E1378" s="93" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1378" s="94" t="s">
-        <v>330</v>
-      </c>
-      <c r="G1378" s="36" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="1379" spans="1:8" ht="43.15" x14ac:dyDescent="0.3">
-      <c r="B1379" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1379" s="11">
-        <v>42584</v>
-      </c>
-      <c r="D1379" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="E1379" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1379" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1379" s="36" t="s">
-        <v>364</v>
-      </c>
-      <c r="H1379" s="46"/>
-    </row>
-    <row r="1380" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B1380" s="47" t="s">
-        <v>139</v>
-      </c>
-      <c r="C1380" s="11">
-        <v>42584</v>
-      </c>
-      <c r="D1380" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1380" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="F1380" s="13" t="s">
-        <v>270</v>
-      </c>
-      <c r="G1380" s="36" t="s">
-        <v>329</v>
-      </c>
-      <c r="H1380" s="46"/>
-    </row>
-    <row r="1381" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B1381" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1381" s="11">
-        <v>42584</v>
-      </c>
-      <c r="D1381" s="14" t="s">
+      <c r="E1384" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1384" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="G1384" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1385" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1385" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1385" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1385" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E1381" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1381" s="13" t="s">
-        <v>302</v>
-      </c>
-      <c r="G1381" s="36" t="s">
+      <c r="E1385" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1385" s="13" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="1386" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1386" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1386" s="11" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="1382" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B1382" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1382" s="11">
-        <v>42584</v>
-      </c>
-      <c r="D1382" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1382" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1382" s="13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="1383" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B1383" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1383" s="11">
-        <v>42584</v>
-      </c>
-      <c r="D1383" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1383" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1383" s="13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="1384" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B1384" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1384" s="11">
-        <v>42584</v>
-      </c>
-      <c r="D1384" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1384" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1384" s="13" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="1385" spans="1:8" s="81" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B1385" s="106"/>
-      <c r="C1385" s="82"/>
-      <c r="D1385" s="83"/>
-      <c r="F1385" s="84"/>
-      <c r="G1385" s="85"/>
-      <c r="H1385" s="86"/>
-    </row>
-    <row r="1386" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1386" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1386" s="11" t="s">
+      <c r="D1386" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1386" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1386" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="1387" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1387" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1387" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1387" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1387" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1387" s="13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="1388" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1388" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1388" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1388" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1388" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1388" s="13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="1389" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1389" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1389" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1389" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1389" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F1389" s="13" t="s">
         <v>378</v>
       </c>
-      <c r="D1386" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="E1386" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="F1386" s="13" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="1387" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1387" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1387" s="11" t="s">
-        <v>378</v>
-      </c>
-      <c r="D1387" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="E1387" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="F1387" s="13" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="1388" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1388" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1388" s="11" t="s">
-        <v>378</v>
-      </c>
-      <c r="D1388" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1388" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="F1388" s="13" t="s">
+      <c r="G1389" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1390" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1390" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1390" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1390" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1390" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1390" s="13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="1391" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1391" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1391" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1391" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1391" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1391" s="13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="1392" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1392" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1392" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1392" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1392" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1392" s="13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="1393" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1393" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1393" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1393" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1393" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1393" s="13" t="s">
         <v>163</v>
-      </c>
-    </row>
-    <row r="1389" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1389" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1389" s="11" t="s">
-        <v>378</v>
-      </c>
-      <c r="D1389" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1389" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1389" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1389" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1390" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1390" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1390" s="11" t="s">
-        <v>378</v>
-      </c>
-      <c r="D1390" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1390" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="F1390" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="G1390" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1391" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1391" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1391" s="11" t="s">
-        <v>378</v>
-      </c>
-      <c r="D1391" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1391" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="F1391" s="13" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="1392" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1392" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1392" s="11" t="s">
-        <v>378</v>
-      </c>
-      <c r="D1392" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1392" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1392" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="G1392" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1393" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1393" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1393" s="11" t="s">
-        <v>378</v>
-      </c>
-      <c r="D1393" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1393" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1393" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1393" s="89" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="1394" spans="2:7" x14ac:dyDescent="0.25">
@@ -31584,33 +31660,36 @@
         <v>27</v>
       </c>
       <c r="C1394" s="11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D1394" s="14" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E1394" s="9" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="F1394" s="13" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
     </row>
     <row r="1395" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1395" s="47" t="s">
+      <c r="B1395" s="65" t="s">
         <v>27</v>
       </c>
       <c r="C1395" s="11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D1395" s="14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E1395" s="9" t="s">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="F1395" s="13" t="s">
-        <v>190</v>
+        <v>37</v>
+      </c>
+      <c r="G1395" s="89" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="1396" spans="2:7" x14ac:dyDescent="0.25">
@@ -31618,16 +31697,16 @@
         <v>27</v>
       </c>
       <c r="C1396" s="11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D1396" s="14" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="E1396" s="9" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="F1396" s="13" t="s">
-        <v>191</v>
+        <v>116</v>
       </c>
     </row>
     <row r="1397" spans="2:7" x14ac:dyDescent="0.25">
@@ -31635,50 +31714,56 @@
         <v>27</v>
       </c>
       <c r="C1397" s="11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D1397" s="14" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="E1397" s="9" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="F1397" s="13" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="1398" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1398" s="47" t="s">
+      <c r="B1398" s="65" t="s">
         <v>27</v>
       </c>
       <c r="C1398" s="11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D1398" s="14" t="s">
-        <v>46</v>
+        <v>220</v>
       </c>
       <c r="E1398" s="9" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F1398" s="13" t="s">
-        <v>106</v>
+        <v>234</v>
+      </c>
+      <c r="G1398" s="89" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="1399" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1399" s="47" t="s">
+      <c r="B1399" s="65" t="s">
         <v>27</v>
       </c>
       <c r="C1399" s="11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D1399" s="14" t="s">
-        <v>46</v>
+        <v>220</v>
       </c>
       <c r="E1399" s="9" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F1399" s="13" t="s">
-        <v>163</v>
+        <v>177</v>
+      </c>
+      <c r="G1399" s="89" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="1400" spans="2:7" x14ac:dyDescent="0.25">
@@ -31686,36 +31771,39 @@
         <v>27</v>
       </c>
       <c r="C1400" s="11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D1400" s="14" t="s">
-        <v>45</v>
+        <v>220</v>
       </c>
       <c r="E1400" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F1400" s="13" t="s">
-        <v>37</v>
+        <v>251</v>
       </c>
       <c r="G1400" s="89" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="1401" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1401" s="47" t="s">
+      <c r="B1401" s="65" t="s">
         <v>27</v>
       </c>
       <c r="C1401" s="11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D1401" s="14" t="s">
-        <v>30</v>
+        <v>220</v>
       </c>
       <c r="E1401" s="9" t="s">
-        <v>114</v>
+        <v>24</v>
       </c>
       <c r="F1401" s="13" t="s">
-        <v>116</v>
+        <v>238</v>
+      </c>
+      <c r="G1401" s="89" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="1402" spans="2:7" x14ac:dyDescent="0.25">
@@ -31723,36 +31811,33 @@
         <v>27</v>
       </c>
       <c r="C1402" s="11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D1402" s="14" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E1402" s="9" t="s">
-        <v>114</v>
+        <v>22</v>
       </c>
       <c r="F1402" s="13" t="s">
-        <v>117</v>
+        <v>261</v>
       </c>
     </row>
     <row r="1403" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1403" s="65" t="s">
+      <c r="B1403" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C1403" s="11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D1403" s="14" t="s">
-        <v>296</v>
+        <v>50</v>
       </c>
       <c r="E1403" s="9" t="s">
         <v>107</v>
       </c>
       <c r="F1403" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="G1403" s="89" t="s">
-        <v>162</v>
+        <v>262</v>
       </c>
     </row>
     <row r="1404" spans="2:7" x14ac:dyDescent="0.25">
@@ -31760,16 +31845,16 @@
         <v>27</v>
       </c>
       <c r="C1404" s="11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D1404" s="14" t="s">
         <v>44</v>
       </c>
       <c r="E1404" s="9" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="F1404" s="13" t="s">
-        <v>81</v>
+        <v>243</v>
       </c>
     </row>
     <row r="1405" spans="2:7" x14ac:dyDescent="0.25">
@@ -31777,7 +31862,7 @@
         <v>139</v>
       </c>
       <c r="C1405" s="11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D1405" s="14" t="s">
         <v>34</v>
@@ -31797,53 +31882,53 @@
         <v>27</v>
       </c>
       <c r="C1406" s="11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D1406" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1406" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1406" s="13" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="1407" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1407" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1407" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1407" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1407" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1407" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="G1407" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1408" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1408" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1408" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1408" s="14" t="s">
         <v>35</v>
-      </c>
-      <c r="E1406" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1406" s="13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="1407" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1407" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1407" s="11" t="s">
-        <v>378</v>
-      </c>
-      <c r="D1407" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1407" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1407" s="13" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="1408" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1408" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1408" s="11" t="s">
-        <v>378</v>
-      </c>
-      <c r="D1408" s="14" t="s">
-        <v>46</v>
       </c>
       <c r="E1408" s="9" t="s">
         <v>129</v>
       </c>
       <c r="F1408" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="G1408" s="89" t="s">
-        <v>162</v>
+        <v>69</v>
       </c>
     </row>
     <row r="1409" spans="2:7" x14ac:dyDescent="0.25">
@@ -31851,7 +31936,7 @@
         <v>27</v>
       </c>
       <c r="C1409" s="11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D1409" s="14" t="s">
         <v>46</v>
@@ -31860,7 +31945,7 @@
         <v>129</v>
       </c>
       <c r="F1409" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G1409" s="89" t="s">
         <v>162</v>
@@ -31871,7 +31956,7 @@
         <v>27</v>
       </c>
       <c r="C1410" s="11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D1410" s="14" t="s">
         <v>46</v>
@@ -31880,7 +31965,7 @@
         <v>129</v>
       </c>
       <c r="F1410" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G1410" s="89" t="s">
         <v>162</v>
@@ -31891,7 +31976,7 @@
         <v>27</v>
       </c>
       <c r="C1411" s="11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D1411" s="14" t="s">
         <v>46</v>
@@ -31900,7 +31985,7 @@
         <v>129</v>
       </c>
       <c r="F1411" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G1411" s="89" t="s">
         <v>162</v>
@@ -31911,7 +31996,7 @@
         <v>27</v>
       </c>
       <c r="C1412" s="11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D1412" s="14" t="s">
         <v>46</v>
@@ -31920,7 +32005,7 @@
         <v>129</v>
       </c>
       <c r="F1412" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G1412" s="89" t="s">
         <v>162</v>
@@ -31931,7 +32016,7 @@
         <v>27</v>
       </c>
       <c r="C1413" s="11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D1413" s="14" t="s">
         <v>46</v>
@@ -31940,7 +32025,7 @@
         <v>129</v>
       </c>
       <c r="F1413" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G1413" s="89" t="s">
         <v>162</v>
@@ -31951,7 +32036,7 @@
         <v>27</v>
       </c>
       <c r="C1414" s="11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D1414" s="14" t="s">
         <v>46</v>
@@ -31960,18 +32045,18 @@
         <v>129</v>
       </c>
       <c r="F1414" s="13" t="s">
-        <v>302</v>
+        <v>72</v>
       </c>
       <c r="G1414" s="89" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="1415" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1415" s="65" t="s">
+      <c r="B1415" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C1415" s="11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D1415" s="14" t="s">
         <v>36</v>
@@ -31980,87 +32065,81 @@
         <v>22</v>
       </c>
       <c r="F1415" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="G1415" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1416" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B1416" s="87" t="s">
-        <v>16</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1416" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1416" s="47" t="s">
+        <v>27</v>
       </c>
       <c r="C1416" s="11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D1416" s="14" t="s">
-        <v>167</v>
+        <v>36</v>
       </c>
       <c r="E1416" s="9" t="s">
-        <v>22</v>
+        <v>112</v>
       </c>
       <c r="F1416" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1416" s="88" t="s">
-        <v>364</v>
+        <v>287</v>
       </c>
     </row>
     <row r="1417" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1417" s="47" t="s">
+      <c r="B1417" s="65" t="s">
         <v>27</v>
       </c>
       <c r="C1417" s="11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D1417" s="14" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E1417" s="9" t="s">
         <v>22</v>
       </c>
       <c r="F1417" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
+      </c>
+      <c r="G1417" s="89" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="1418" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1418" s="65" t="s">
+      <c r="B1418" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C1418" s="11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D1418" s="14" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="E1418" s="9" t="s">
         <v>22</v>
       </c>
       <c r="F1418" s="13" t="s">
-        <v>297</v>
-      </c>
-      <c r="G1418" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1419" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1419" s="65" t="s">
-        <v>27</v>
+        <v>248</v>
+      </c>
+    </row>
+    <row r="1419" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B1419" s="87" t="s">
+        <v>16</v>
       </c>
       <c r="C1419" s="11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D1419" s="14" t="s">
-        <v>50</v>
+        <v>167</v>
       </c>
       <c r="E1419" s="9" t="s">
         <v>22</v>
       </c>
       <c r="F1419" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G1419" s="89" t="s">
-        <v>162</v>
+        <v>37</v>
+      </c>
+      <c r="G1419" s="88" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="1420" spans="2:7" x14ac:dyDescent="0.25">
@@ -32068,16 +32147,16 @@
         <v>27</v>
       </c>
       <c r="C1420" s="11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D1420" s="14" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E1420" s="9" t="s">
-        <v>22</v>
+        <v>112</v>
       </c>
       <c r="F1420" s="13" t="s">
-        <v>54</v>
+        <v>179</v>
       </c>
     </row>
     <row r="1421" spans="2:7" x14ac:dyDescent="0.25">
@@ -32085,36 +32164,39 @@
         <v>27</v>
       </c>
       <c r="C1421" s="11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D1421" s="14" t="s">
-        <v>44</v>
+        <v>220</v>
       </c>
       <c r="E1421" s="9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F1421" s="13" t="s">
-        <v>59</v>
+        <v>205</v>
       </c>
       <c r="G1421" s="89" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="1422" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1422" s="47" t="s">
+      <c r="B1422" s="65" t="s">
         <v>27</v>
       </c>
       <c r="C1422" s="11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D1422" s="14" t="s">
-        <v>34</v>
+        <v>220</v>
       </c>
       <c r="E1422" s="9" t="s">
-        <v>22</v>
+        <v>129</v>
       </c>
       <c r="F1422" s="13" t="s">
-        <v>254</v>
+        <v>242</v>
+      </c>
+      <c r="G1422" s="89" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="1423" spans="2:7" x14ac:dyDescent="0.25">
@@ -32122,16 +32204,16 @@
         <v>27</v>
       </c>
       <c r="C1423" s="11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D1423" s="14" t="s">
-        <v>34</v>
+        <v>220</v>
       </c>
       <c r="E1423" s="9" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="F1423" s="13" t="s">
-        <v>274</v>
+        <v>165</v>
       </c>
     </row>
     <row r="1424" spans="2:7" x14ac:dyDescent="0.25">
@@ -32139,96 +32221,93 @@
         <v>27</v>
       </c>
       <c r="C1424" s="11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D1424" s="14" t="s">
-        <v>34</v>
+        <v>220</v>
       </c>
       <c r="E1424" s="9" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="F1424" s="13" t="s">
-        <v>33</v>
+        <v>227</v>
       </c>
       <c r="G1424" s="89" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="1425" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B1425" s="87" t="s">
-        <v>77</v>
+    <row r="1425" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1425" s="65" t="s">
+        <v>27</v>
       </c>
       <c r="C1425" s="11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D1425" s="14" t="s">
-        <v>43</v>
+        <v>220</v>
       </c>
       <c r="E1425" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1425" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="G1425" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1426" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1426" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1426" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1426" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1426" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1426" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="G1426" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1427" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1427" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1427" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1427" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1427" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1427" s="13" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="1428" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1428" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1428" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1428" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1428" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F1425" s="13" t="s">
-        <v>330</v>
-      </c>
-      <c r="G1425" s="88" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="1426" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1426" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1426" s="11" t="s">
-        <v>378</v>
-      </c>
-      <c r="D1426" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1426" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1426" s="13" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="1427" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1427" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1427" s="11" t="s">
-        <v>378</v>
-      </c>
-      <c r="D1427" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1427" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1427" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="G1427" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1428" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1428" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1428" s="11" t="s">
-        <v>378</v>
-      </c>
-      <c r="D1428" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1428" s="9" t="s">
-        <v>103</v>
-      </c>
       <c r="F1428" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="G1428" s="89" t="s">
-        <v>162</v>
+        <v>192</v>
       </c>
     </row>
     <row r="1429" spans="2:7" x14ac:dyDescent="0.25">
@@ -32236,16 +32315,16 @@
         <v>27</v>
       </c>
       <c r="C1429" s="11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D1429" s="14" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E1429" s="9" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="F1429" s="13" t="s">
-        <v>73</v>
+        <v>192</v>
       </c>
     </row>
     <row r="1430" spans="2:7" x14ac:dyDescent="0.25">
@@ -32253,33 +32332,1598 @@
         <v>27</v>
       </c>
       <c r="C1430" s="11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D1430" s="14" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E1430" s="9" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="F1430" s="13" t="s">
-        <v>313</v>
+        <v>58</v>
       </c>
     </row>
     <row r="1431" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1431" s="47" t="s">
+      <c r="B1431" s="65" t="s">
         <v>27</v>
       </c>
       <c r="C1431" s="11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D1431" s="14" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="E1431" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F1431" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1431" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1432" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1432" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1432" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1432" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1432" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1432" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1433" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B1433" s="87" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1433" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1433" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1433" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1433" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="G1433" s="88" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="1434" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1434" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1434" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1434" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1434" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1434" s="13" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="1435" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1435" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1435" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1435" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1435" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1435" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="G1435" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1436" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1436" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1436" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1436" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1436" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1436" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="G1436" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1437" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1437" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1437" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1437" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1437" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1437" s="13" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="1438" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1438" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1438" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1438" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1438" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1438" s="13" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="1439" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1439" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1439" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1439" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1439" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1439" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1439" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1440" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1440" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1440" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1440" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1440" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1440" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1440" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1441" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1441" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1441" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1441" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1441" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1441" s="13" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="1442" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1442" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1442" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1442" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1442" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1442" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1443" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1443" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1443" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1443" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1443" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1443" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="G1443" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1444" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1444" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1444" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1444" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1444" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1444" s="13" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="1445" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1445" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1445" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1445" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1445" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1445" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="G1445" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1446" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1446" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1446" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1446" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1446" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1446" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="G1446" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1447" spans="2:8" s="81" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1447" s="96"/>
+      <c r="C1447" s="82"/>
+      <c r="D1447" s="83"/>
+      <c r="F1447" s="84"/>
+      <c r="G1447" s="85"/>
+      <c r="H1447" s="86"/>
+    </row>
+    <row r="1448" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1448" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1448" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1448" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1448" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1448" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="G1448" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1449" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1449" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1449" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1449" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1449" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1449" s="13" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="1450" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1450" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1450" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1450" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1450" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1450" s="13" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="1451" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1451" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1451" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1451" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1451" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1451" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1452" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1452" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1452" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1452" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1452" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1452" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="G1452" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1453" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1453" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1453" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1453" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1453" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1453" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="G1453" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1454" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1454" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1454" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1454" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1454" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1454" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="G1454" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1455" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1455" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1455" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1455" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1455" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1455" s="13" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="1456" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1456" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1456" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1456" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1456" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1456" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="1457" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1457" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1457" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1457" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1457" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1457" s="13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="1458" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1458" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1458" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1458" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1458" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1458" s="13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="1459" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1459" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1459" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1459" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1459" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F1459" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="G1459" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1460" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1460" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1460" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1460" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1460" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1460" s="13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="1461" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1461" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1461" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1461" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1461" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1461" s="13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="1462" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1462" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1462" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1462" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1462" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1462" s="13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="1463" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1463" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1463" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1463" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1463" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1463" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="1464" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1464" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1464" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1464" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1464" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F1464" s="13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="1465" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1465" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1465" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1465" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1465" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1465" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1465" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1466" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1466" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1466" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1466" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1466" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1466" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1467" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1467" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1467" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1467" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1467" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1467" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="1468" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1468" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1468" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1468" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1468" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1468" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="G1468" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1469" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1469" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1469" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1469" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1469" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1469" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="G1469" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1470" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1470" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1470" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1470" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1470" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1470" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="G1470" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1471" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1471" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1471" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1471" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1471" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1471" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="G1471" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1472" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1472" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1472" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1472" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1472" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1472" s="13" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="1473" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1473" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1473" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1473" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1473" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1473" s="13" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="1474" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1474" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1474" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1474" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1474" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1474" s="13" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="1475" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1475" s="87" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1475" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1475" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1475" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1475" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="G1475" s="88" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="1476" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1476" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1476" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1476" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1476" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1476" s="13" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="1477" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1477" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1477" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1477" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1477" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1477" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="G1477" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1478" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1478" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1478" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1478" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1478" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1478" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="1479" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1479" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1479" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1479" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1479" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1479" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1479" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1480" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1480" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1480" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1480" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1480" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1480" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1480" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1481" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1481" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1481" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1481" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1481" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1481" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1481" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1482" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1482" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1482" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1482" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1482" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1482" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1482" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1483" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1483" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1483" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1483" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1483" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1483" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1483" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1484" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1484" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1484" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1484" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1484" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1484" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1484" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1485" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1485" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1485" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1485" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1485" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1485" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1486" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1486" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1486" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1486" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1486" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1486" s="13" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="1487" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1487" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1487" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1487" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1487" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1487" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1487" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1488" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1488" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1488" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1488" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1488" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1488" s="13" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="1489" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B1489" s="87" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1489" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1489" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1489" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1489" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1489" s="88" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="1490" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1490" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1490" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1490" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1490" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1490" s="13" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="1491" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1491" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1491" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1491" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1491" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1491" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="G1491" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1492" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1492" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1492" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1492" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1492" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1492" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="G1492" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1493" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1493" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1493" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1493" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1493" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1493" s="13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="1494" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1494" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1494" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1494" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1494" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1494" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="G1494" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1495" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1495" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1495" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1495" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1495" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1495" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="G1495" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1496" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1496" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1496" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1496" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1496" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1496" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="G1496" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1497" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1497" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1497" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1497" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1497" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1497" s="13" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="1498" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1498" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1498" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1498" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1498" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1498" s="13" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="1499" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1499" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1499" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1499" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1499" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1499" s="13" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="1500" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1500" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1500" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1500" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1500" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1500" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="1501" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1501" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1501" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1501" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1501" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1501" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1501" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1502" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1502" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1502" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1502" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1502" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1502" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1503" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B1503" s="87" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1503" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1503" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1503" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1503" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="G1503" s="88" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="1504" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1504" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1504" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1504" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1504" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1504" s="13" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="1505" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1505" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1505" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1505" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1505" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1505" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="G1505" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1506" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1506" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1506" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1506" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1506" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1506" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="G1506" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1507" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1507" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1507" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1507" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1507" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1507" s="13" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="1508" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1508" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1508" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1508" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1508" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1508" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1509" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1509" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1509" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1509" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1509" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1509" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1509" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1510" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1510" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1510" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1510" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1510" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1510" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1510" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1511" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1511" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1511" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1511" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1511" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1511" s="13" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="1512" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1512" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1512" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1512" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1512" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1512" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1513" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1513" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1513" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1513" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1513" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1513" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="G1513" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1514" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1514" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1514" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1514" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1514" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1514" s="13" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="1515" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1515" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1515" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1515" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1515" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1515" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="G1515" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1516" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1516" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1516" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1516" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1516" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1516" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="G1516" s="89" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/PW/masterlog.xlsx
+++ b/PW/masterlog.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8627" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9195" uniqueCount="382">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1160,6 +1160,15 @@
   </si>
   <si>
     <t> 135</t>
+  </si>
+  <si>
+    <t>2200</t>
+  </si>
+  <si>
+    <t>328A</t>
+  </si>
+  <si>
+    <t>0016</t>
   </si>
 </sst>
 </file>
@@ -1954,10 +1963,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H1516"/>
+  <dimension ref="A1:H1623"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1348" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1374" sqref="G1374"/>
+    <sheetView tabSelected="1" topLeftCell="A1579" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N1609" sqref="H1608:N1609"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33701,7 +33710,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="1505" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1505" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1505" s="65" t="s">
         <v>27</v>
       </c>
@@ -33721,7 +33730,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1506" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1506" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1506" s="65" t="s">
         <v>27</v>
       </c>
@@ -33741,7 +33750,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1507" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1507" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1507" s="47" t="s">
         <v>27</v>
       </c>
@@ -33758,7 +33767,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="1508" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1508" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1508" s="47" t="s">
         <v>27</v>
       </c>
@@ -33775,7 +33784,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1509" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1509" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1509" s="65" t="s">
         <v>27</v>
       </c>
@@ -33795,7 +33804,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1510" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1510" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1510" s="65" t="s">
         <v>27</v>
       </c>
@@ -33815,7 +33824,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1511" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1511" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1511" s="47" t="s">
         <v>27</v>
       </c>
@@ -33832,7 +33841,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="1512" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1512" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1512" s="47" t="s">
         <v>27</v>
       </c>
@@ -33849,7 +33858,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="1513" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1513" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1513" s="65" t="s">
         <v>27</v>
       </c>
@@ -33869,7 +33878,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1514" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1514" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1514" s="47" t="s">
         <v>27</v>
       </c>
@@ -33886,7 +33895,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="1515" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1515" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1515" s="65" t="s">
         <v>27</v>
       </c>
@@ -33906,7 +33915,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1516" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1516" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1516" s="65" t="s">
         <v>27</v>
       </c>
@@ -33924,6 +33933,1936 @@
       </c>
       <c r="G1516" s="89" t="s">
         <v>162</v>
+      </c>
+    </row>
+    <row r="1517" spans="2:8" s="81" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1517" s="96"/>
+      <c r="C1517" s="82"/>
+      <c r="D1517" s="83"/>
+      <c r="F1517" s="84"/>
+      <c r="G1517" s="85"/>
+      <c r="H1517" s="86"/>
+    </row>
+    <row r="1518" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1518" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1518" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1518" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1518" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1518" s="13" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="1519" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1519" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1519" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1519" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1519" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1519" s="13" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="1520" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1520" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1520" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1520" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1520" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1520" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="G1520" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1521" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1521" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1521" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1521" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1521" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1521" s="13" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="1522" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1522" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1522" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1522" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1522" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1522" s="13" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="1523" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1523" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1523" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1523" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1523" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1523" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1524" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1524" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1524" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1524" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1524" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1524" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="G1524" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1525" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1525" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1525" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1525" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1525" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1525" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="G1525" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1526" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1526" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1526" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1526" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1526" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1526" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="G1526" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1527" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1527" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1527" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1527" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1527" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1527" s="13" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="1528" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1528" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1528" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1528" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1528" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1528" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="1529" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1529" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1529" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1529" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1529" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1529" s="13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="1530" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1530" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1530" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1530" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1530" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1530" s="13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="1531" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1531" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1531" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1531" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1531" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F1531" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="G1531" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1532" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1532" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1532" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1532" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1532" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1532" s="13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="1533" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1533" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1533" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1533" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1533" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1533" s="13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="1534" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1534" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1534" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1534" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1534" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1534" s="13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="1535" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1535" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1535" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1535" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1535" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1535" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="1536" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1536" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1536" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1536" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1536" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F1536" s="13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="1537" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1537" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1537" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1537" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1537" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1537" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1537" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1538" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1538" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1538" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1538" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1538" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1538" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1539" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1539" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1539" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1539" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1539" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1539" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="1540" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1540" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1540" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1540" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1540" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1540" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="G1540" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1541" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1541" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1541" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1541" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1541" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1541" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="G1541" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1542" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1542" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1542" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1542" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1542" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1542" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="G1542" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1543" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1543" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1543" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1543" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1543" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1543" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="G1543" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1544" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1544" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1544" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1544" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="E1544" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1544" s="13" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1545" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1545" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1545" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1545" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="E1545" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1545" s="13" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="1546" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1546" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1546" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1546" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="E1546" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1546" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="G1546" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1547" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1547" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1547" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1547" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1547" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1547" s="13" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="1548" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1548" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1548" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1548" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1548" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1548" s="13" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="1549" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1549" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1549" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1549" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1549" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1549" s="13" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="1550" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1550" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1550" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1550" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1550" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1550" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="1551" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1551" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1551" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1551" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1551" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1551" s="13" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="1552" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1552" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1552" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1552" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1552" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1552" s="13" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="1553" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1553" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1553" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1553" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1553" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1553" s="13" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="1554" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1554" s="87" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1554" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1554" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1554" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1554" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="G1554" s="88" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="1555" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1555" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1555" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1555" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1555" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1555" s="13" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="1556" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1556" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1556" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1556" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1556" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1556" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="G1556" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1557" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1557" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1557" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1557" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1557" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1557" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="1558" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1558" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1558" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1558" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1558" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1558" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1558" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1559" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1559" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1559" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1559" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1559" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1559" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1559" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1560" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1560" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1560" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1560" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1560" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1560" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1560" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1561" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1561" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1561" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1561" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1561" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1561" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1561" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1562" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1562" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1562" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1562" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1562" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1562" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1562" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1563" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1563" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1563" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1563" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1563" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1563" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1563" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1564" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1564" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1564" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1564" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1564" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1564" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1565" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1565" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1565" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1565" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1565" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1565" s="13" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="1566" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1566" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1566" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1566" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1566" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1566" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1566" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1567" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1567" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1567" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1567" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1567" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1567" s="13" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="1568" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B1568" s="87" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1568" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1568" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1568" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1568" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1568" s="88" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="1569" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1569" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1569" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1569" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1569" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1569" s="13" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="1570" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1570" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1570" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1570" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1570" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1570" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="G1570" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1571" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1571" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1571" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1571" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1571" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1571" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="G1571" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1572" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1572" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1572" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1572" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1572" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1572" s="13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="1573" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1573" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1573" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1573" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1573" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1573" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="G1573" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1574" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1574" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1574" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1574" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1574" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1574" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="G1574" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1575" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1575" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1575" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1575" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1575" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1575" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="G1575" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1576" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1576" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1576" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1576" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1576" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1576" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="G1576" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1577" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1577" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1577" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1577" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="E1577" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1577" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="G1577" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1578" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1578" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1578" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1578" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="E1578" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1578" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1578" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1579" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1579" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1579" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1579" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="E1579" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1579" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="G1579" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1580" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1580" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1580" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1580" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="E1580" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1580" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="1581" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1581" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1581" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1581" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="E1581" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1581" s="13" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="1582" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1582" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1582" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1582" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="E1582" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1582" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="G1582" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1583" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1583" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1583" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1583" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1583" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1583" s="13" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1584" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1584" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1584" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1584" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1584" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1584" s="13" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="1585" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1585" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1585" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1585" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1585" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1585" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1585" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1586" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1586" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1586" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1586" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1586" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1586" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1587" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B1587" s="87" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1587" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1587" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1587" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1587" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="G1587" s="88" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="1588" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1588" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1588" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1588" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1588" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1588" s="13" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="1589" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1589" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1589" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1589" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1589" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1589" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="G1589" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1590" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1590" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1590" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1590" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1590" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1590" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="G1590" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1591" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1591" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1591" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1591" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1591" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1591" s="13" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="1592" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1592" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1592" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1592" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1592" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1592" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1593" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1593" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1593" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1593" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1593" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1593" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1593" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1594" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1594" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1594" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1594" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1594" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1594" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1594" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1595" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1595" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1595" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1595" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1595" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1595" s="13" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="1596" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1596" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1596" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1596" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1596" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1596" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1597" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1597" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1597" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1597" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1597" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1597" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="G1597" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1598" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1598" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1598" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1598" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1598" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1598" s="13" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="1599" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1599" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1599" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1599" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1599" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1599" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="G1599" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1600" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1600" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1600" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1600" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1600" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1600" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="G1600" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1601" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1601" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1601" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1601" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="E1601" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1601" s="13" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="1602" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1602" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1602" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1602" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="E1602" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1602" s="13" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="1603" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1603" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1603" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1603" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="E1603" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1603" s="13" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="1604" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1604" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1604" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1604" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="E1604" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1604" s="13" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="1605" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1605" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1605" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1605" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="E1605" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1605" s="13" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="1606" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1606" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1606" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1606" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="E1606" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1606" s="13" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="1607" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1607" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1607" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1607" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="E1607" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1607" s="13" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1608" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1608" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1608" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1608" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="E1608" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1608" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="G1608" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1609" spans="2:8" s="81" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1609" s="96"/>
+      <c r="C1609" s="82"/>
+      <c r="D1609" s="83"/>
+      <c r="F1609" s="84"/>
+      <c r="G1609" s="85"/>
+      <c r="H1609" s="86"/>
+    </row>
+    <row r="1610" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1610" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1610" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1610" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1610" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1610" s="13" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="1611" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1611" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1611" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1611" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1611" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1611" s="13" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="1612" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1612" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1612" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1612" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1612" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1612" s="13" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="1613" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1613" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1613" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1613" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1613" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1613" s="13" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="1614" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1614" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1614" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1614" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1614" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1614" s="13" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="1615" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1615" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1615" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1615" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1615" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1615" s="13" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="1616" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1616" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1616" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1616" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1616" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1616" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="G1616" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1617" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1617" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1617" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1617" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1617" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1617" s="13" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="1618" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1618" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1618" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1618" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1618" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1618" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="1619" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1619" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1619" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1619" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1619" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1619" s="13" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="1620" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1620" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1620" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1620" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1620" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1620" s="13" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="1621" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1621" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1621" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1621" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="E1621" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1621" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="G1621" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1622" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1622" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1622" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1622" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1622" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1622" s="13" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1623" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1623" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1623" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1623" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1623" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1623" s="13" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/PW/masterlog.xlsx
+++ b/PW/masterlog.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14445" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14714" uniqueCount="383">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1175,6 +1175,9 @@
   <si>
     <t>8/1/16</t>
   </si>
+  <si>
+    <t>8/02/16</t>
+  </si>
 </sst>
 </file>
 
@@ -2017,7 +2020,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H2653"/>
+  <dimension ref="A1:H2703"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1306" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A1335" sqref="A1335:XFD1335"/>
@@ -54145,7 +54148,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="2641" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2641" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2641" s="48" t="s">
         <v>27</v>
       </c>
@@ -54162,7 +54165,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="2642" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2642" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2642" s="70" t="s">
         <v>27</v>
       </c>
@@ -54182,7 +54185,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2643" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2643" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2643" s="48" t="s">
         <v>27</v>
       </c>
@@ -54199,7 +54202,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2644" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2644" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2644" s="48" t="s">
         <v>27</v>
       </c>
@@ -54216,7 +54219,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2645" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2645" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2645" s="70" t="s">
         <v>27</v>
       </c>
@@ -54236,7 +54239,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2646" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="2646" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B2646" s="96" t="s">
         <v>77</v>
       </c>
@@ -54256,7 +54259,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="2647" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2647" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2647" s="48" t="s">
         <v>27</v>
       </c>
@@ -54273,7 +54276,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="2648" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2648" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2648" s="70" t="s">
         <v>27</v>
       </c>
@@ -54293,7 +54296,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2649" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2649" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2649" s="70" t="s">
         <v>27</v>
       </c>
@@ -54313,7 +54316,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2650" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2650" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2650" s="48" t="s">
         <v>27</v>
       </c>
@@ -54330,7 +54333,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2651" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2651" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2651" s="48" t="s">
         <v>27</v>
       </c>
@@ -54347,7 +54350,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="2652" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2652" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2652" s="70" t="s">
         <v>27</v>
       </c>
@@ -54367,7 +54370,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2653" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2653" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2653" s="70" t="s">
         <v>27</v>
       </c>
@@ -54384,6 +54387,918 @@
         <v>272</v>
       </c>
       <c r="G2653" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2654" spans="2:8" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C2654" s="91"/>
+      <c r="D2654" s="92"/>
+      <c r="F2654" s="93"/>
+      <c r="G2654" s="94"/>
+      <c r="H2654" s="95"/>
+    </row>
+    <row r="2655" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2655" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2655" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="D2655" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="E2655" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2655" s="13" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2656" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2656" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2656" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="D2656" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="E2656" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2656" s="13" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="2657" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2657" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2657" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="D2657" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2657" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2657" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2658" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2658" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2658" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="D2658" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2658" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2658" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2658" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2659" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2659" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2659" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="D2659" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2659" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2659" s="13" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="2660" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2660" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2660" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="D2660" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2660" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2660" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2660" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2661" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2661" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2661" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="D2661" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2661" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2661" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="G2661" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2662" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2662" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2662" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="D2662" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2662" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2662" s="13" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="2663" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2663" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2663" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="D2663" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2663" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2663" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="G2663" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2664" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2664" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2664" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="D2664" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2664" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2664" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2664" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2665" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2665" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2665" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="D2665" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2665" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2665" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2666" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2666" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2666" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="D2666" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2666" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2666" s="13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2667" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2667" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2667" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="D2667" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2667" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2667" s="13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2668" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2668" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2668" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="D2668" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2668" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2668" s="13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2669" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2669" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2669" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="D2669" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2669" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2669" s="13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2670" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2670" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2670" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="D2670" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2670" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2670" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2671" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2671" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2671" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="D2671" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2671" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2671" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2671" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2672" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2672" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2672" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="D2672" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2672" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2672" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2673" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2673" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2673" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="D2673" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2673" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2673" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2674" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2674" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2674" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="D2674" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E2674" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2674" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2674" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2675" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2675" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2675" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="D2675" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="E2675" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2675" s="13" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="2676" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2676" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2676" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="D2676" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="E2676" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2676" s="13" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="2677" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2677" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2677" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="D2677" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="E2677" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2677" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2677" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2678" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2678" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2678" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="D2678" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2678" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2678" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2678" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2679" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2679" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2679" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="D2679" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2679" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2679" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2680" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2680" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2680" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="D2680" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2680" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2680" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2681" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2681" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2681" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="D2681" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2681" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2681" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2681" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2682" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2682" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2682" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="D2682" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2682" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2682" s="13" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="2683" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B2683" s="96" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2683" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="D2683" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2683" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2683" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="G2683" s="97" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="2684" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2684" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2684" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="D2684" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2684" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2684" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2685" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2685" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2685" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="D2685" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2685" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2685" s="13" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="2686" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2686" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2686" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="D2686" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2686" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2686" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2686" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2687" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2687" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2687" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="D2687" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2687" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2687" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2687" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2688" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2688" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2688" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="D2688" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2688" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2688" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2688" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2689" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2689" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2689" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="D2689" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2689" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2689" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2689" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2690" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2690" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2690" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="D2690" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2690" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2690" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2690" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2691" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2691" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2691" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="D2691" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2691" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2691" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2691" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2692" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2692" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2692" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="D2692" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2692" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2692" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="G2692" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2693" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2693" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2693" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="D2693" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2693" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2693" s="13" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="2694" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2694" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2694" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="D2694" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2694" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2694" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2694" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2695" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2695" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2695" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="D2695" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2695" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2695" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="G2695" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2696" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2696" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2696" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="D2696" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2696" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2696" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2697" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2697" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2697" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="D2697" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2697" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2697" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="G2697" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2698" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2698" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2698" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="D2698" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2698" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2698" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2699" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2699" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2699" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="D2699" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2699" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2699" s="13" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="2700" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2700" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2700" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="D2700" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2700" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2700" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2701" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2701" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2701" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="D2701" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2701" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2701" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="G2701" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2702" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2702" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2702" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="D2702" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="E2702" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2702" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="G2702" s="98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2703" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2703" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2703" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="D2703" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="E2703" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2703" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="G2703" s="98" t="s">
         <v>162</v>
       </c>
     </row>

--- a/PW/masterlog.xlsx
+++ b/PW/masterlog.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17030"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhan\Documents\Visual Studio 2015\Projects\ClassOpsLogCreator\CLASSOPS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="90" yWindow="150" windowWidth="14865" windowHeight="10785" tabRatio="440"/>
   </bookViews>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9195" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9595" uniqueCount="382">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1174,7 +1179,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
@@ -1669,6 +1674,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1716,7 +1724,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1749,9 +1757,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1784,6 +1809,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1963,9 +2005,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H1623"/>
+  <dimension ref="A1:H1714"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1579" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A1594" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N1609" sqref="H1608:N1609"/>
     </sheetView>
   </sheetViews>
@@ -35743,7 +35785,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1617" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1617" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1617" s="47" t="s">
         <v>27</v>
       </c>
@@ -35760,7 +35802,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="1618" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1618" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1618" s="47" t="s">
         <v>27</v>
       </c>
@@ -35777,7 +35819,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="1619" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1619" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1619" s="47" t="s">
         <v>27</v>
       </c>
@@ -35794,7 +35836,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="1620" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1620" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1620" s="47" t="s">
         <v>27</v>
       </c>
@@ -35811,7 +35853,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="1621" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1621" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1621" s="65" t="s">
         <v>27</v>
       </c>
@@ -35831,7 +35873,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1622" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1622" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1622" s="47" t="s">
         <v>27</v>
       </c>
@@ -35848,7 +35890,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="1623" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1623" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1623" s="47" t="s">
         <v>27</v>
       </c>
@@ -35863,6 +35905,1664 @@
       </c>
       <c r="F1623" s="13" t="s">
         <v>192</v>
+      </c>
+    </row>
+    <row r="1624" spans="2:8" s="81" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1624" s="96"/>
+      <c r="C1624" s="82"/>
+      <c r="D1624" s="83"/>
+      <c r="F1624" s="84"/>
+      <c r="G1624" s="85"/>
+      <c r="H1624" s="86"/>
+    </row>
+    <row r="1625" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1625" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1625" s="11">
+        <v>42584</v>
+      </c>
+      <c r="D1625" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1625" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1625" s="13" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="1626" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1626" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1626" s="11">
+        <v>42584</v>
+      </c>
+      <c r="D1626" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1626" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1626" s="13" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="1627" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1627" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1627" s="11">
+        <v>42584</v>
+      </c>
+      <c r="D1627" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1627" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1627" s="13" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="1628" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1628" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1628" s="11">
+        <v>42584</v>
+      </c>
+      <c r="D1628" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1628" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1628" s="13" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1629" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1629" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1629" s="11">
+        <v>42584</v>
+      </c>
+      <c r="D1629" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1629" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1629" s="13" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="1630" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1630" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1630" s="11">
+        <v>42584</v>
+      </c>
+      <c r="D1630" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1630" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1630" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="G1630" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1631" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1631" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1631" s="11">
+        <v>42584</v>
+      </c>
+      <c r="D1631" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1631" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1631" s="13" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="1632" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1632" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1632" s="11">
+        <v>42584</v>
+      </c>
+      <c r="D1632" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1632" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1632" s="13" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="1633" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1633" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1633" s="11">
+        <v>42584</v>
+      </c>
+      <c r="D1633" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1633" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1633" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="1634" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1634" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1634" s="11">
+        <v>42584</v>
+      </c>
+      <c r="D1634" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1634" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1634" s="13" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="1635" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1635" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1635" s="11">
+        <v>42584</v>
+      </c>
+      <c r="D1635" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1635" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1635" s="13" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="1636" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1636" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1636" s="11">
+        <v>42584</v>
+      </c>
+      <c r="D1636" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1636" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1636" s="13" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="1637" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1637" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1637" s="11">
+        <v>42584</v>
+      </c>
+      <c r="D1637" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1637" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1637" s="13" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="1638" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1638" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1638" s="11">
+        <v>42584</v>
+      </c>
+      <c r="D1638" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1638" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1638" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1639" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1639" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1639" s="11">
+        <v>42584</v>
+      </c>
+      <c r="D1639" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1639" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1639" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="G1639" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1640" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1640" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1640" s="11">
+        <v>42584</v>
+      </c>
+      <c r="D1640" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1640" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1640" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="G1640" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1641" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1641" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1641" s="11">
+        <v>42584</v>
+      </c>
+      <c r="D1641" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1641" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1641" s="13" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="1642" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1642" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1642" s="11">
+        <v>42584</v>
+      </c>
+      <c r="D1642" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1642" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1642" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1642" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1643" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1643" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1643" s="11">
+        <v>42584</v>
+      </c>
+      <c r="D1643" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1643" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1643" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1644" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1644" s="87" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1644" s="11">
+        <v>42584</v>
+      </c>
+      <c r="D1644" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1644" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1644" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="G1644" s="88" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="1645" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1645" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1645" s="11">
+        <v>42584</v>
+      </c>
+      <c r="D1645" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1645" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1645" s="13" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="1646" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1646" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1646" s="11">
+        <v>42584</v>
+      </c>
+      <c r="D1646" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1646" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1646" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="G1646" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1647" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1647" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1647" s="11">
+        <v>42584</v>
+      </c>
+      <c r="D1647" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1647" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1647" s="13" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="1648" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1648" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1648" s="11">
+        <v>42584</v>
+      </c>
+      <c r="D1648" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1648" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1648" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="G1648" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1649" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1649" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1649" s="11">
+        <v>42584</v>
+      </c>
+      <c r="D1649" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1649" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1649" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="1650" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1650" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1650" s="11">
+        <v>42584</v>
+      </c>
+      <c r="D1650" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1650" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1650" s="13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="1651" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1651" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1651" s="11">
+        <v>42584</v>
+      </c>
+      <c r="D1651" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1651" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1651" s="13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="1652" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1652" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1652" s="11">
+        <v>42584</v>
+      </c>
+      <c r="D1652" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1652" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F1652" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="G1652" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1653" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B1653" s="87" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1653" s="11">
+        <v>42584</v>
+      </c>
+      <c r="D1653" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1653" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1653" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="G1653" s="88" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="1654" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1654" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1654" s="11">
+        <v>42584</v>
+      </c>
+      <c r="D1654" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1654" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1654" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="1655" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1655" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1655" s="11">
+        <v>42584</v>
+      </c>
+      <c r="D1655" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1655" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1655" s="13" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="1656" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1656" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1656" s="11">
+        <v>42584</v>
+      </c>
+      <c r="D1656" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1656" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1656" s="13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="1657" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1657" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1657" s="11">
+        <v>42584</v>
+      </c>
+      <c r="D1657" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1657" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1657" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1657" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1658" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1658" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1658" s="11">
+        <v>42584</v>
+      </c>
+      <c r="D1658" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1658" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1658" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1658" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1659" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1659" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1659" s="11">
+        <v>42584</v>
+      </c>
+      <c r="D1659" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1659" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1659" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1659" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1660" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1660" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1660" s="11">
+        <v>42584</v>
+      </c>
+      <c r="D1660" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1660" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1660" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1660" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1661" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1661" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1661" s="11">
+        <v>42584</v>
+      </c>
+      <c r="D1661" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1661" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1661" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1661" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1662" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1662" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1662" s="11">
+        <v>42584</v>
+      </c>
+      <c r="D1662" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1662" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1662" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1662" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1663" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1663" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1663" s="11">
+        <v>42584</v>
+      </c>
+      <c r="D1663" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1663" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1663" s="13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="1664" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1664" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1664" s="11">
+        <v>42584</v>
+      </c>
+      <c r="D1664" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1664" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1664" s="13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="1665" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1665" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1665" s="11">
+        <v>42584</v>
+      </c>
+      <c r="D1665" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1665" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1665" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="1666" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1666" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1666" s="11">
+        <v>42584</v>
+      </c>
+      <c r="D1666" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1666" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1666" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="G1666" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1667" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1667" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1667" s="11">
+        <v>42584</v>
+      </c>
+      <c r="D1667" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1667" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1667" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="G1667" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1668" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1668" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1668" s="11">
+        <v>42584</v>
+      </c>
+      <c r="D1668" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1668" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F1668" s="13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="1669" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1669" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1669" s="11">
+        <v>42584</v>
+      </c>
+      <c r="D1669" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1669" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1669" s="13" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="1670" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1670" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1670" s="11">
+        <v>42584</v>
+      </c>
+      <c r="D1670" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1670" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1670" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1671" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1671" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1671" s="11">
+        <v>42584</v>
+      </c>
+      <c r="D1671" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1671" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1671" s="13" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="1672" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1672" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1672" s="11">
+        <v>42584</v>
+      </c>
+      <c r="D1672" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1672" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1672" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1673" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1673" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1673" s="11">
+        <v>42584</v>
+      </c>
+      <c r="D1673" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1673" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1673" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1673" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1674" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1674" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1674" s="11">
+        <v>42584</v>
+      </c>
+      <c r="D1674" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1674" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1674" s="13" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="1675" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1675" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1675" s="11">
+        <v>42584</v>
+      </c>
+      <c r="D1675" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1675" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1675" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1675" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1676" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1676" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1676" s="11">
+        <v>42584</v>
+      </c>
+      <c r="D1676" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1676" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1676" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1676" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1677" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B1677" s="87" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1677" s="11">
+        <v>42584</v>
+      </c>
+      <c r="D1677" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1677" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1677" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1677" s="88" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="1678" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1678" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1678" s="11">
+        <v>42584</v>
+      </c>
+      <c r="D1678" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1678" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1678" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1678" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1679" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1679" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1679" s="11">
+        <v>42584</v>
+      </c>
+      <c r="D1679" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1679" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1679" s="13" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="1680" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1680" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1680" s="11">
+        <v>42584</v>
+      </c>
+      <c r="D1680" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1680" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1680" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1681" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1681" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1681" s="11">
+        <v>42584</v>
+      </c>
+      <c r="D1681" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1681" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1681" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="1682" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1682" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1682" s="11">
+        <v>42584</v>
+      </c>
+      <c r="D1682" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1682" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1682" s="13" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="1683" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1683" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1683" s="11">
+        <v>42584</v>
+      </c>
+      <c r="D1683" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1683" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1683" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1684" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1684" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1684" s="11">
+        <v>42584</v>
+      </c>
+      <c r="D1684" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1684" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1684" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="G1684" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1685" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1685" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1685" s="11">
+        <v>42584</v>
+      </c>
+      <c r="D1685" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1685" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1685" s="13" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="1686" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1686" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1686" s="11">
+        <v>42584</v>
+      </c>
+      <c r="D1686" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1686" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1686" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="G1686" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1687" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1687" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1687" s="11">
+        <v>42584</v>
+      </c>
+      <c r="D1687" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1687" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1687" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="G1687" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1688" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1688" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1688" s="11">
+        <v>42584</v>
+      </c>
+      <c r="D1688" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1688" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1688" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="G1688" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1689" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1689" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1689" s="11">
+        <v>42584</v>
+      </c>
+      <c r="D1689" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1689" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1689" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="G1689" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1690" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1690" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1690" s="11">
+        <v>42584</v>
+      </c>
+      <c r="D1690" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1690" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1690" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="G1690" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1691" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1691" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1691" s="11">
+        <v>42584</v>
+      </c>
+      <c r="D1691" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1691" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1691" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="G1691" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1692" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1692" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1692" s="11">
+        <v>42584</v>
+      </c>
+      <c r="D1692" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1692" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1692" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="G1692" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1693" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1693" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1693" s="11">
+        <v>42584</v>
+      </c>
+      <c r="D1693" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1693" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1693" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="G1693" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1694" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1694" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1694" s="11">
+        <v>42584</v>
+      </c>
+      <c r="D1694" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1694" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1694" s="13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="1695" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1695" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1695" s="11">
+        <v>42584</v>
+      </c>
+      <c r="D1695" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1695" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1695" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="G1695" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1696" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1696" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1696" s="11">
+        <v>42584</v>
+      </c>
+      <c r="D1696" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1696" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1696" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="G1696" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1697" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1697" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1697" s="11">
+        <v>42584</v>
+      </c>
+      <c r="D1697" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1697" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1697" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="G1697" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1698" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1698" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1698" s="11">
+        <v>42584</v>
+      </c>
+      <c r="D1698" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1698" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1698" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="G1698" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1699" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1699" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1699" s="11">
+        <v>42584</v>
+      </c>
+      <c r="D1699" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="E1699" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1699" s="13" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="1700" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1700" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1700" s="11">
+        <v>42584</v>
+      </c>
+      <c r="D1700" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="E1700" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1700" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="G1700" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1701" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1701" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1701" s="11">
+        <v>42584</v>
+      </c>
+      <c r="D1701" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="E1701" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1701" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1701" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1702" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1702" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1702" s="11">
+        <v>42584</v>
+      </c>
+      <c r="D1702" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="E1702" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1702" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="G1702" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1703" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1703" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1703" s="11">
+        <v>42584</v>
+      </c>
+      <c r="D1703" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="E1703" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1703" s="13" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1704" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1704" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1704" s="11">
+        <v>42584</v>
+      </c>
+      <c r="D1704" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="E1704" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1704" s="13" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="1705" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1705" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1705" s="11">
+        <v>42584</v>
+      </c>
+      <c r="D1705" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="E1705" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1705" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="G1705" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1706" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1706" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1706" s="11">
+        <v>42584</v>
+      </c>
+      <c r="D1706" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="E1706" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1706" s="13" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="1707" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1707" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1707" s="11">
+        <v>42584</v>
+      </c>
+      <c r="D1707" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="E1707" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1707" s="13" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="1708" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1708" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1708" s="11">
+        <v>42584</v>
+      </c>
+      <c r="D1708" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="E1708" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1708" s="13" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="1709" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1709" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1709" s="11">
+        <v>42584</v>
+      </c>
+      <c r="D1709" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="E1709" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1709" s="13" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="1710" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1710" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1710" s="11">
+        <v>42584</v>
+      </c>
+      <c r="D1710" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="E1710" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1710" s="13" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="1711" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1711" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1711" s="11">
+        <v>42584</v>
+      </c>
+      <c r="D1711" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="E1711" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1711" s="13" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1712" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1712" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1712" s="11">
+        <v>42584</v>
+      </c>
+      <c r="D1712" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="E1712" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1712" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="G1712" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1713" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B1713" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1713" s="11">
+        <v>42584</v>
+      </c>
+      <c r="D1713" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="E1713" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1713" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="1714" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B1714" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1714" s="11">
+        <v>42584</v>
+      </c>
+      <c r="D1714" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="E1714" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1714" s="13" t="s">
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -36306,40 +38006,40 @@
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
     </row>
-    <row r="47" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
     </row>
-    <row r="48" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
     </row>
-    <row r="49" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
     </row>
-    <row r="50" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
     </row>
-    <row r="51" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
     </row>
-    <row r="52" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
     </row>
-    <row r="53" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="5"/>
     </row>
-    <row r="54" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
     </row>
-    <row r="55" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
     </row>
-    <row r="56" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
     </row>
-    <row r="57" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
     </row>
-    <row r="58" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
     </row>
   </sheetData>

--- a/PW/masterlog.xlsx
+++ b/PW/masterlog.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8627" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8813" uniqueCount="384">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1160,6 +1160,21 @@
   </si>
   <si>
     <t> 135</t>
+  </si>
+  <si>
+    <t>8/03/16</t>
+  </si>
+  <si>
+    <t>Turn off PC and projector. Leave equipment in room. Lock room. Key for room in Founders 164 storeroom.</t>
+  </si>
+  <si>
+    <t>2200</t>
+  </si>
+  <si>
+    <t>328A</t>
+  </si>
+  <si>
+    <t>0016</t>
   </si>
 </sst>
 </file>
@@ -1954,10 +1969,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H1516"/>
+  <dimension ref="A1:H1538"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1348" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1374" sqref="G1374"/>
+    <sheetView tabSelected="1" topLeftCell="A1401" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1399" sqref="A1399:H1408"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31360,7 +31375,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1377" spans="2:8" s="81" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1377" spans="1:8" s="81" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B1377" s="96"/>
       <c r="C1377" s="82"/>
       <c r="D1377" s="83"/>
@@ -31368,27 +31383,30 @@
       <c r="G1377" s="85"/>
       <c r="H1377" s="86"/>
     </row>
-    <row r="1378" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1378" s="65" t="s">
+    <row r="1378" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1378" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1378" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C1378" s="11" t="s">
         <v>377</v>
       </c>
       <c r="D1378" s="14" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="E1378" s="9" t="s">
-        <v>24</v>
+        <v>114</v>
       </c>
       <c r="F1378" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="G1378" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1379" spans="2:8" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1379" s="10" t="s">
+        <v>91</v>
+      </c>
       <c r="B1379" s="47" t="s">
         <v>27</v>
       </c>
@@ -31396,16 +31414,19 @@
         <v>377</v>
       </c>
       <c r="D1379" s="14" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E1379" s="9" t="s">
         <v>114</v>
       </c>
       <c r="F1379" s="13" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="1380" spans="2:8" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A1380" s="10" t="s">
+        <v>91</v>
+      </c>
       <c r="B1380" s="47" t="s">
         <v>27</v>
       </c>
@@ -31413,33 +31434,42 @@
         <v>377</v>
       </c>
       <c r="D1380" s="14" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E1380" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F1380" s="13" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="1381" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1381" s="47" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A1381" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1381" s="65" t="s">
         <v>27</v>
       </c>
       <c r="C1381" s="11" t="s">
         <v>377</v>
       </c>
       <c r="D1381" s="14" t="s">
-        <v>50</v>
+        <v>220</v>
       </c>
       <c r="E1381" s="9" t="s">
-        <v>108</v>
+        <v>24</v>
       </c>
       <c r="F1381" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="1382" spans="2:8" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+      <c r="G1381" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A1382" s="10" t="s">
+        <v>91</v>
+      </c>
       <c r="B1382" s="65" t="s">
         <v>27</v>
       </c>
@@ -31447,19 +31477,22 @@
         <v>377</v>
       </c>
       <c r="D1382" s="14" t="s">
-        <v>44</v>
+        <v>220</v>
       </c>
       <c r="E1382" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F1382" s="13" t="s">
-        <v>184</v>
+        <v>238</v>
       </c>
       <c r="G1382" s="89" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="1383" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1383" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1383" s="10" t="s">
+        <v>91</v>
+      </c>
       <c r="B1383" s="65" t="s">
         <v>27</v>
       </c>
@@ -31467,19 +31500,22 @@
         <v>377</v>
       </c>
       <c r="D1383" s="14" t="s">
-        <v>44</v>
+        <v>220</v>
       </c>
       <c r="E1383" s="9" t="s">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="F1383" s="13" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G1383" s="89" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="1384" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1384" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A1384" s="10" t="s">
+        <v>91</v>
+      </c>
       <c r="B1384" s="65" t="s">
         <v>27</v>
       </c>
@@ -31487,36 +31523,45 @@
         <v>377</v>
       </c>
       <c r="D1384" s="14" t="s">
-        <v>43</v>
+        <v>220</v>
       </c>
       <c r="E1384" s="9" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="F1384" s="13" t="s">
-        <v>277</v>
+        <v>242</v>
       </c>
       <c r="G1384" s="89" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="1385" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1385" s="47" t="s">
+    <row r="1385" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A1385" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1385" s="65" t="s">
         <v>27</v>
       </c>
       <c r="C1385" s="11" t="s">
         <v>377</v>
       </c>
       <c r="D1385" s="14" t="s">
-        <v>43</v>
+        <v>220</v>
       </c>
       <c r="E1385" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F1385" s="13" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="1386" spans="2:8" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+      <c r="G1385" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1386" s="10" t="s">
+        <v>91</v>
+      </c>
       <c r="B1386" s="47" t="s">
         <v>27</v>
       </c>
@@ -31524,50 +31569,65 @@
         <v>377</v>
       </c>
       <c r="D1386" s="14" t="s">
-        <v>43</v>
+        <v>220</v>
       </c>
       <c r="E1386" s="9" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F1386" s="13" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="1387" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1387" s="47" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1387" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1387" s="65" t="s">
         <v>27</v>
       </c>
       <c r="C1387" s="11" t="s">
         <v>377</v>
       </c>
       <c r="D1387" s="14" t="s">
-        <v>43</v>
+        <v>220</v>
       </c>
       <c r="E1387" s="9" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F1387" s="13" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="1388" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1388" s="47" t="s">
+        <v>227</v>
+      </c>
+      <c r="G1387" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1388" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1388" s="65" t="s">
         <v>27</v>
       </c>
       <c r="C1388" s="11" t="s">
         <v>377</v>
       </c>
       <c r="D1388" s="14" t="s">
-        <v>43</v>
+        <v>220</v>
       </c>
       <c r="E1388" s="9" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F1388" s="13" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="1389" spans="2:8" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+      <c r="G1388" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1389" s="10" t="s">
+        <v>91</v>
+      </c>
       <c r="B1389" s="65" t="s">
         <v>27</v>
       </c>
@@ -31575,53 +31635,68 @@
         <v>377</v>
       </c>
       <c r="D1389" s="14" t="s">
-        <v>43</v>
+        <v>220</v>
       </c>
       <c r="E1389" s="9" t="s">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="F1389" s="13" t="s">
-        <v>378</v>
+        <v>293</v>
       </c>
       <c r="G1389" s="89" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="1390" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1390" s="47" t="s">
-        <v>27</v>
+    <row r="1390" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A1390" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1390" s="87" t="s">
+        <v>16</v>
       </c>
       <c r="C1390" s="11" t="s">
         <v>377</v>
       </c>
       <c r="D1390" s="14" t="s">
-        <v>46</v>
+        <v>167</v>
       </c>
       <c r="E1390" s="9" t="s">
-        <v>114</v>
+        <v>22</v>
       </c>
       <c r="F1390" s="13" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="1391" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1391" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1390" s="88" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A1391" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1391" s="65" t="s">
         <v>27</v>
       </c>
       <c r="C1391" s="11" t="s">
         <v>377</v>
       </c>
       <c r="D1391" s="14" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="E1391" s="9" t="s">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="F1391" s="13" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="1392" spans="2:8" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="G1391" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A1392" s="10" t="s">
+        <v>85</v>
+      </c>
       <c r="B1392" s="47" t="s">
         <v>27</v>
       </c>
@@ -31629,16 +31704,19 @@
         <v>377</v>
       </c>
       <c r="D1392" s="14" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="E1392" s="9" t="s">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="F1392" s="13" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="1393" spans="2:7" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A1393" s="10" t="s">
+        <v>85</v>
+      </c>
       <c r="B1393" s="47" t="s">
         <v>27</v>
       </c>
@@ -31646,87 +31724,108 @@
         <v>377</v>
       </c>
       <c r="D1393" s="14" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="E1393" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F1393" s="13" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="1394" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1394" s="47" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A1394" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1394" s="65" t="s">
         <v>27</v>
       </c>
       <c r="C1394" s="11" t="s">
         <v>377</v>
       </c>
       <c r="D1394" s="14" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="E1394" s="9" t="s">
-        <v>137</v>
+        <v>25</v>
       </c>
       <c r="F1394" s="13" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="1395" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1395" s="65" t="s">
+        <v>225</v>
+      </c>
+      <c r="G1394" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A1395" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1395" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C1395" s="11" t="s">
         <v>377</v>
       </c>
       <c r="D1395" s="14" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E1395" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F1395" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1395" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1396" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1396" s="47" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A1396" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1396" s="65" t="s">
         <v>27</v>
       </c>
       <c r="C1396" s="11" t="s">
         <v>377</v>
       </c>
       <c r="D1396" s="14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E1396" s="9" t="s">
-        <v>114</v>
+        <v>21</v>
       </c>
       <c r="F1396" s="13" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="1397" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1397" s="47" t="s">
+        <v>257</v>
+      </c>
+      <c r="G1396" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A1397" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1397" s="65" t="s">
         <v>27</v>
       </c>
       <c r="C1397" s="11" t="s">
         <v>377</v>
       </c>
       <c r="D1397" s="14" t="s">
-        <v>30</v>
+        <v>220</v>
       </c>
       <c r="E1397" s="9" t="s">
-        <v>114</v>
+        <v>22</v>
       </c>
       <c r="F1397" s="13" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="1398" spans="2:7" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+      <c r="G1397" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A1398" s="10" t="s">
+        <v>85</v>
+      </c>
       <c r="B1398" s="65" t="s">
         <v>27</v>
       </c>
@@ -31737,36 +31836,39 @@
         <v>220</v>
       </c>
       <c r="E1398" s="9" t="s">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="F1398" s="13" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="G1398" s="89" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="1399" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1399" s="65" t="s">
+    <row r="1399" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A1399" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1399" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C1399" s="11" t="s">
         <v>377</v>
       </c>
       <c r="D1399" s="14" t="s">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="E1399" s="9" t="s">
-        <v>108</v>
+        <v>21</v>
       </c>
       <c r="F1399" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="G1399" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1400" spans="2:7" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A1400" s="10" t="s">
+        <v>86</v>
+      </c>
       <c r="B1400" s="65" t="s">
         <v>27</v>
       </c>
@@ -31774,56 +31876,65 @@
         <v>377</v>
       </c>
       <c r="D1400" s="14" t="s">
-        <v>220</v>
+        <v>44</v>
       </c>
       <c r="E1400" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F1400" s="13" t="s">
-        <v>251</v>
+        <v>59</v>
       </c>
       <c r="G1400" s="89" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="1401" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1401" s="65" t="s">
+    <row r="1401" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A1401" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1401" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C1401" s="11" t="s">
         <v>377</v>
       </c>
       <c r="D1401" s="14" t="s">
-        <v>220</v>
+        <v>34</v>
       </c>
       <c r="E1401" s="9" t="s">
-        <v>24</v>
+        <v>103</v>
       </c>
       <c r="F1401" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="G1401" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1402" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1402" s="47" t="s">
-        <v>27</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A1402" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1402" s="87" t="s">
+        <v>77</v>
       </c>
       <c r="C1402" s="11" t="s">
         <v>377</v>
       </c>
       <c r="D1402" s="14" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E1402" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F1402" s="13" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="1403" spans="2:7" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+      <c r="G1402" s="88" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A1403" s="10" t="s">
+        <v>86</v>
+      </c>
       <c r="B1403" s="47" t="s">
         <v>27</v>
       </c>
@@ -31831,53 +31942,65 @@
         <v>377</v>
       </c>
       <c r="D1403" s="14" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E1403" s="9" t="s">
-        <v>107</v>
+        <v>25</v>
       </c>
       <c r="F1403" s="13" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="1404" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1404" s="47" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A1404" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1404" s="65" t="s">
         <v>27</v>
       </c>
       <c r="C1404" s="11" t="s">
         <v>377</v>
       </c>
       <c r="D1404" s="14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E1404" s="9" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="F1404" s="13" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="1405" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1405" s="87" t="s">
-        <v>139</v>
+        <v>209</v>
+      </c>
+      <c r="G1404" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A1405" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1405" s="65" t="s">
+        <v>27</v>
       </c>
       <c r="C1405" s="11" t="s">
         <v>377</v>
       </c>
       <c r="D1405" s="14" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="E1405" s="9" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="F1405" s="13" t="s">
-        <v>270</v>
-      </c>
-      <c r="G1405" s="88" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="1406" spans="2:7" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+      <c r="G1405" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A1406" s="10" t="s">
+        <v>86</v>
+      </c>
       <c r="B1406" s="47" t="s">
         <v>27</v>
       </c>
@@ -31885,53 +32008,62 @@
         <v>377</v>
       </c>
       <c r="D1406" s="14" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E1406" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F1406" s="13" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="1407" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1407" s="65" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A1407" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1407" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C1407" s="11" t="s">
         <v>377</v>
       </c>
       <c r="D1407" s="14" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E1407" s="9" t="s">
-        <v>129</v>
+        <v>25</v>
       </c>
       <c r="F1407" s="13" t="s">
-        <v>302</v>
-      </c>
-      <c r="G1407" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1408" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1408" s="47" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A1408" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1408" s="65" t="s">
         <v>27</v>
       </c>
       <c r="C1408" s="11" t="s">
         <v>377</v>
       </c>
       <c r="D1408" s="14" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E1408" s="9" t="s">
-        <v>129</v>
+        <v>25</v>
       </c>
       <c r="F1408" s="13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="1409" spans="2:7" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="G1408" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A1409" s="10" t="s">
+        <v>157</v>
+      </c>
       <c r="B1409" s="65" t="s">
         <v>27</v>
       </c>
@@ -31939,79 +32071,82 @@
         <v>377</v>
       </c>
       <c r="D1409" s="14" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E1409" s="9" t="s">
-        <v>129</v>
+        <v>24</v>
       </c>
       <c r="F1409" s="13" t="s">
-        <v>66</v>
+        <v>214</v>
       </c>
       <c r="G1409" s="89" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="1410" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1410" s="65" t="s">
+    <row r="1410" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1410" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1410" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C1410" s="11" t="s">
         <v>377</v>
       </c>
       <c r="D1410" s="14" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E1410" s="9" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="F1410" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="G1410" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1411" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1411" s="65" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1411" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1411" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C1411" s="11" t="s">
         <v>377</v>
       </c>
       <c r="D1411" s="14" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E1411" s="9" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="F1411" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="G1411" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1412" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1412" s="65" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A1412" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1412" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C1412" s="11" t="s">
         <v>377</v>
       </c>
       <c r="D1412" s="14" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E1412" s="9" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="F1412" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="G1412" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1413" spans="2:7" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A1413" s="10" t="s">
+        <v>157</v>
+      </c>
       <c r="B1413" s="65" t="s">
         <v>27</v>
       </c>
@@ -32019,19 +32154,22 @@
         <v>377</v>
       </c>
       <c r="D1413" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E1413" s="9" t="s">
-        <v>129</v>
+        <v>24</v>
       </c>
       <c r="F1413" s="13" t="s">
-        <v>71</v>
+        <v>184</v>
       </c>
       <c r="G1413" s="89" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="1414" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1414" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A1414" s="10" t="s">
+        <v>157</v>
+      </c>
       <c r="B1414" s="65" t="s">
         <v>27</v>
       </c>
@@ -32039,36 +32177,45 @@
         <v>377</v>
       </c>
       <c r="D1414" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E1414" s="9" t="s">
-        <v>129</v>
+        <v>24</v>
       </c>
       <c r="F1414" s="13" t="s">
-        <v>72</v>
+        <v>237</v>
       </c>
       <c r="G1414" s="89" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="1415" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1415" s="47" t="s">
+    <row r="1415" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1415" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1415" s="65" t="s">
         <v>27</v>
       </c>
       <c r="C1415" s="11" t="s">
         <v>377</v>
       </c>
       <c r="D1415" s="14" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E1415" s="9" t="s">
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="F1415" s="13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="1416" spans="2:7" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+      <c r="G1415" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1416" s="10" t="s">
+        <v>157</v>
+      </c>
       <c r="B1416" s="47" t="s">
         <v>27</v>
       </c>
@@ -32076,36 +32223,39 @@
         <v>377</v>
       </c>
       <c r="D1416" s="14" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E1416" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F1416" s="13" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="1417" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1417" s="65" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1417" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1417" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C1417" s="11" t="s">
         <v>377</v>
       </c>
       <c r="D1417" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E1417" s="9" t="s">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="F1417" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G1417" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1418" spans="2:7" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1418" s="10" t="s">
+        <v>157</v>
+      </c>
       <c r="B1418" s="47" t="s">
         <v>27</v>
       </c>
@@ -32113,93 +32263,102 @@
         <v>377</v>
       </c>
       <c r="D1418" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E1418" s="9" t="s">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="F1418" s="13" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="1419" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B1419" s="87" t="s">
-        <v>16</v>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1419" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1419" s="47" t="s">
+        <v>27</v>
       </c>
       <c r="C1419" s="11" t="s">
         <v>377</v>
       </c>
       <c r="D1419" s="14" t="s">
-        <v>167</v>
+        <v>43</v>
       </c>
       <c r="E1419" s="9" t="s">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="F1419" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1419" s="88" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="1420" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1420" s="47" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1420" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1420" s="65" t="s">
         <v>27</v>
       </c>
       <c r="C1420" s="11" t="s">
         <v>377</v>
       </c>
       <c r="D1420" s="14" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="E1420" s="9" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="F1420" s="13" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="1421" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1421" s="65" t="s">
+        <v>378</v>
+      </c>
+      <c r="G1420" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1421" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1421" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C1421" s="11" t="s">
         <v>377</v>
       </c>
       <c r="D1421" s="14" t="s">
-        <v>220</v>
+        <v>46</v>
       </c>
       <c r="E1421" s="9" t="s">
-        <v>22</v>
+        <v>114</v>
       </c>
       <c r="F1421" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="G1421" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1422" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1422" s="65" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1422" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1422" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C1422" s="11" t="s">
         <v>377</v>
       </c>
       <c r="D1422" s="14" t="s">
-        <v>220</v>
+        <v>46</v>
       </c>
       <c r="E1422" s="9" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="F1422" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="G1422" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1423" spans="2:7" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1423" s="10" t="s">
+        <v>157</v>
+      </c>
       <c r="B1423" s="47" t="s">
         <v>27</v>
       </c>
@@ -32207,56 +32366,59 @@
         <v>377</v>
       </c>
       <c r="D1423" s="14" t="s">
-        <v>220</v>
+        <v>46</v>
       </c>
       <c r="E1423" s="9" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F1423" s="13" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="1424" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1424" s="65" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1424" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1424" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C1424" s="11" t="s">
         <v>377</v>
       </c>
       <c r="D1424" s="14" t="s">
-        <v>220</v>
+        <v>46</v>
       </c>
       <c r="E1424" s="9" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F1424" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="G1424" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1425" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1425" s="65" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1425" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1425" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C1425" s="11" t="s">
         <v>377</v>
       </c>
       <c r="D1425" s="14" t="s">
-        <v>220</v>
+        <v>46</v>
       </c>
       <c r="E1425" s="9" t="s">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c r="F1425" s="13" t="s">
-        <v>292</v>
-      </c>
-      <c r="G1425" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1426" spans="2:7" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A1426" s="10" t="s">
+        <v>157</v>
+      </c>
       <c r="B1426" s="65" t="s">
         <v>27</v>
       </c>
@@ -32264,19 +32426,22 @@
         <v>377</v>
       </c>
       <c r="D1426" s="14" t="s">
-        <v>220</v>
+        <v>45</v>
       </c>
       <c r="E1426" s="9" t="s">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="F1426" s="13" t="s">
-        <v>293</v>
+        <v>37</v>
       </c>
       <c r="G1426" s="89" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="1427" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1427" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A1427" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="B1427" s="47" t="s">
         <v>27</v>
       </c>
@@ -32293,7 +32458,10 @@
         <v>246</v>
       </c>
     </row>
-    <row r="1428" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1428" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A1428" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="B1428" s="47" t="s">
         <v>27</v>
       </c>
@@ -32304,13 +32472,16 @@
         <v>50</v>
       </c>
       <c r="E1428" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F1428" s="13" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="1429" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1429" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A1429" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="B1429" s="47" t="s">
         <v>27</v>
       </c>
@@ -32324,10 +32495,13 @@
         <v>22</v>
       </c>
       <c r="F1429" s="13" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="1430" spans="2:7" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A1430" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="B1430" s="47" t="s">
         <v>27</v>
       </c>
@@ -32341,30 +32515,33 @@
         <v>22</v>
       </c>
       <c r="F1430" s="13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="1431" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1431" s="65" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A1431" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1431" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C1431" s="11" t="s">
         <v>377</v>
       </c>
       <c r="D1431" s="14" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E1431" s="9" t="s">
-        <v>25</v>
+        <v>107</v>
       </c>
       <c r="F1431" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G1431" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1432" spans="2:7" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A1432" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="B1432" s="47" t="s">
         <v>27</v>
       </c>
@@ -32372,36 +32549,42 @@
         <v>377</v>
       </c>
       <c r="D1432" s="14" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E1432" s="9" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="F1432" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="1433" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:7" ht="43.15" x14ac:dyDescent="0.3">
+      <c r="A1433" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="B1433" s="87" t="s">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="C1433" s="11" t="s">
         <v>377</v>
       </c>
       <c r="D1433" s="14" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E1433" s="9" t="s">
-        <v>21</v>
+        <v>112</v>
       </c>
       <c r="F1433" s="13" t="s">
-        <v>330</v>
+        <v>270</v>
       </c>
       <c r="G1433" s="88" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="1434" spans="2:7" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A1434" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="B1434" s="47" t="s">
         <v>27</v>
       </c>
@@ -32409,16 +32592,19 @@
         <v>377</v>
       </c>
       <c r="D1434" s="14" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E1434" s="9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F1434" s="13" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="1435" spans="2:7" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A1435" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="B1435" s="65" t="s">
         <v>27</v>
       </c>
@@ -32426,73 +32612,88 @@
         <v>377</v>
       </c>
       <c r="D1435" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E1435" s="9" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="F1435" s="13" t="s">
-        <v>209</v>
+        <v>302</v>
       </c>
       <c r="G1435" s="89" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="1436" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1436" s="65" t="s">
+    <row r="1436" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A1436" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1436" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C1436" s="11" t="s">
         <v>377</v>
       </c>
       <c r="D1436" s="14" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E1436" s="9" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="F1436" s="13" t="s">
-        <v>314</v>
-      </c>
-      <c r="G1436" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1437" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1437" s="47" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A1437" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1437" s="65" t="s">
         <v>27</v>
       </c>
       <c r="C1437" s="11" t="s">
         <v>377</v>
       </c>
       <c r="D1437" s="14" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="E1437" s="9" t="s">
-        <v>21</v>
+        <v>129</v>
       </c>
       <c r="F1437" s="13" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="1438" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1438" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1437" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A1438" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1438" s="65" t="s">
         <v>27</v>
       </c>
       <c r="C1438" s="11" t="s">
         <v>377</v>
       </c>
       <c r="D1438" s="14" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="E1438" s="9" t="s">
-        <v>25</v>
+        <v>129</v>
       </c>
       <c r="F1438" s="13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="1439" spans="2:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="G1438" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A1439" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="B1439" s="65" t="s">
         <v>27</v>
       </c>
@@ -32500,19 +32701,22 @@
         <v>377</v>
       </c>
       <c r="D1439" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E1439" s="9" t="s">
-        <v>25</v>
+        <v>129</v>
       </c>
       <c r="F1439" s="13" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G1439" s="89" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="1440" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1440" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A1440" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="B1440" s="65" t="s">
         <v>27</v>
       </c>
@@ -32520,73 +32724,88 @@
         <v>377</v>
       </c>
       <c r="D1440" s="14" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="E1440" s="9" t="s">
-        <v>21</v>
+        <v>129</v>
       </c>
       <c r="F1440" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G1440" s="89" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="1441" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1441" s="47" t="s">
+    <row r="1441" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A1441" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1441" s="65" t="s">
         <v>27</v>
       </c>
       <c r="C1441" s="11" t="s">
         <v>377</v>
       </c>
       <c r="D1441" s="14" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="E1441" s="9" t="s">
-        <v>21</v>
+        <v>129</v>
       </c>
       <c r="F1441" s="13" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="1442" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1442" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1441" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A1442" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1442" s="65" t="s">
         <v>27</v>
       </c>
       <c r="C1442" s="11" t="s">
         <v>377</v>
       </c>
       <c r="D1442" s="14" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="E1442" s="9" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="F1442" s="13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="1443" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1443" s="65" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1442" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A1443" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1443" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C1443" s="11" t="s">
         <v>377</v>
       </c>
       <c r="D1443" s="14" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E1443" s="9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F1443" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="G1443" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1444" spans="2:8" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A1444" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="B1444" s="47" t="s">
         <v>27</v>
       </c>
@@ -32594,16 +32813,19 @@
         <v>377</v>
       </c>
       <c r="D1444" s="14" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E1444" s="9" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
       <c r="F1444" s="13" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="1445" spans="2:8" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A1445" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="B1445" s="65" t="s">
         <v>27</v>
       </c>
@@ -32611,39 +32833,39 @@
         <v>377</v>
       </c>
       <c r="D1445" s="14" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="E1445" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F1445" s="13" t="s">
-        <v>257</v>
+        <v>55</v>
       </c>
       <c r="G1445" s="89" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="1446" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1446" s="65" t="s">
+    <row r="1446" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A1446" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1446" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C1446" s="11" t="s">
         <v>377</v>
       </c>
       <c r="D1446" s="14" t="s">
-        <v>220</v>
+        <v>45</v>
       </c>
       <c r="E1446" s="9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F1446" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="G1446" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1447" spans="2:8" s="81" customFormat="1" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:8" s="81" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1447" s="96"/>
       <c r="C1447" s="82"/>
       <c r="D1447" s="83"/>
@@ -32651,169 +32873,169 @@
       <c r="G1447" s="85"/>
       <c r="H1447" s="86"/>
     </row>
-    <row r="1448" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1448" s="65" t="s">
+    <row r="1448" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1448" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C1448" s="11" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D1448" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1448" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1448" s="13" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1449" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1449" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="D1449" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1449" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1449" s="13" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1450" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1450" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="D1450" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E1448" s="9" t="s">
+      <c r="E1450" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F1448" s="13" t="s">
+      <c r="F1450" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="G1448" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1449" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1449" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1449" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1449" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1449" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="F1449" s="13" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="1450" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1450" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1450" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1450" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1450" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="F1450" s="13" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="1451" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G1450" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1451" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C1451" s="11" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D1451" s="14" t="s">
         <v>50</v>
       </c>
       <c r="E1451" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1451" s="13" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1452" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1452" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="D1452" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1452" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1452" s="13" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1453" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1453" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="D1453" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1453" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="F1451" s="13" t="s">
+      <c r="F1453" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="1452" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1452" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1452" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1452" s="14" t="s">
+    <row r="1454" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1454" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1454" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="D1454" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E1452" s="9" t="s">
+      <c r="E1454" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F1452" s="13" t="s">
+      <c r="F1454" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="G1452" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1453" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1453" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1453" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1453" s="14" t="s">
+      <c r="G1454" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1455" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1455" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="D1455" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E1453" s="9" t="s">
+      <c r="E1455" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F1453" s="13" t="s">
+      <c r="F1455" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="G1453" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1454" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1454" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1454" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1454" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1454" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="F1454" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="G1454" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1455" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1455" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1455" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1455" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1455" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="F1455" s="13" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="1456" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1456" s="47" t="s">
+      <c r="G1455" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1456" s="65" t="s">
         <v>27</v>
       </c>
       <c r="C1456" s="11" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D1456" s="14" t="s">
         <v>43</v>
       </c>
       <c r="E1456" s="9" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F1456" s="13" t="s">
-        <v>189</v>
+        <v>277</v>
+      </c>
+      <c r="G1456" s="89" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="1457" spans="2:7" x14ac:dyDescent="0.25">
@@ -32821,16 +33043,16 @@
         <v>27</v>
       </c>
       <c r="C1457" s="11" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D1457" s="14" t="s">
         <v>43</v>
       </c>
       <c r="E1457" s="9" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F1457" s="13" t="s">
-        <v>190</v>
+        <v>239</v>
       </c>
     </row>
     <row r="1458" spans="2:7" x14ac:dyDescent="0.25">
@@ -32838,7 +33060,7 @@
         <v>27</v>
       </c>
       <c r="C1458" s="11" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D1458" s="14" t="s">
         <v>43</v>
@@ -32847,27 +33069,24 @@
         <v>105</v>
       </c>
       <c r="F1458" s="13" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="1459" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1459" s="65" t="s">
+      <c r="B1459" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C1459" s="11" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D1459" s="14" t="s">
         <v>43</v>
       </c>
       <c r="E1459" s="9" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="F1459" s="13" t="s">
-        <v>378</v>
-      </c>
-      <c r="G1459" s="89" t="s">
-        <v>162</v>
+        <v>190</v>
       </c>
     </row>
     <row r="1460" spans="2:7" x14ac:dyDescent="0.25">
@@ -32875,50 +33094,56 @@
         <v>27</v>
       </c>
       <c r="C1460" s="11" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D1460" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E1460" s="9" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="F1460" s="13" t="s">
-        <v>115</v>
+        <v>191</v>
       </c>
     </row>
     <row r="1461" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1461" s="47" t="s">
+      <c r="B1461" s="65" t="s">
         <v>27</v>
       </c>
       <c r="C1461" s="11" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D1461" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E1461" s="9" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="F1461" s="13" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="1462" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1462" s="47" t="s">
-        <v>27</v>
+        <v>378</v>
+      </c>
+      <c r="G1461" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1462" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B1462" s="87" t="s">
+        <v>139</v>
       </c>
       <c r="C1462" s="11" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D1462" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E1462" s="9" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F1462" s="13" t="s">
-        <v>106</v>
+        <v>345</v>
+      </c>
+      <c r="G1462" s="88" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="1463" spans="2:7" x14ac:dyDescent="0.25">
@@ -32926,16 +33151,16 @@
         <v>27</v>
       </c>
       <c r="C1463" s="11" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D1463" s="14" t="s">
         <v>46</v>
       </c>
       <c r="E1463" s="9" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="F1463" s="13" t="s">
-        <v>163</v>
+        <v>115</v>
       </c>
     </row>
     <row r="1464" spans="2:7" x14ac:dyDescent="0.25">
@@ -32943,36 +33168,33 @@
         <v>27</v>
       </c>
       <c r="C1464" s="11" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D1464" s="14" t="s">
         <v>46</v>
       </c>
       <c r="E1464" s="9" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="F1464" s="13" t="s">
-        <v>166</v>
+        <v>111</v>
       </c>
     </row>
     <row r="1465" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1465" s="65" t="s">
+      <c r="B1465" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C1465" s="11" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D1465" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E1465" s="9" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="F1465" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1465" s="89" t="s">
-        <v>162</v>
+        <v>106</v>
       </c>
     </row>
     <row r="1466" spans="2:7" x14ac:dyDescent="0.25">
@@ -32980,16 +33202,16 @@
         <v>27</v>
       </c>
       <c r="C1466" s="11" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D1466" s="14" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="E1466" s="9" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="F1466" s="13" t="s">
-        <v>116</v>
+        <v>163</v>
       </c>
     </row>
     <row r="1467" spans="2:7" x14ac:dyDescent="0.25">
@@ -32997,36 +33219,33 @@
         <v>27</v>
       </c>
       <c r="C1467" s="11" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D1467" s="14" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="E1467" s="9" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="F1467" s="13" t="s">
-        <v>117</v>
+        <v>166</v>
       </c>
     </row>
     <row r="1468" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1468" s="65" t="s">
+      <c r="B1468" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C1468" s="11" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D1468" s="14" t="s">
-        <v>220</v>
+        <v>36</v>
       </c>
       <c r="E1468" s="9" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="F1468" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="G1468" s="89" t="s">
-        <v>162</v>
+        <v>287</v>
       </c>
     </row>
     <row r="1469" spans="2:7" x14ac:dyDescent="0.25">
@@ -33034,59 +33253,53 @@
         <v>27</v>
       </c>
       <c r="C1469" s="11" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D1469" s="14" t="s">
-        <v>220</v>
+        <v>45</v>
       </c>
       <c r="E1469" s="9" t="s">
-        <v>108</v>
+        <v>26</v>
       </c>
       <c r="F1469" s="13" t="s">
-        <v>177</v>
+        <v>37</v>
       </c>
       <c r="G1469" s="89" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="1470" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1470" s="65" t="s">
+      <c r="B1470" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C1470" s="11" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D1470" s="14" t="s">
-        <v>220</v>
+        <v>30</v>
       </c>
       <c r="E1470" s="9" t="s">
-        <v>24</v>
+        <v>114</v>
       </c>
       <c r="F1470" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="G1470" s="89" t="s">
-        <v>162</v>
+        <v>116</v>
       </c>
     </row>
     <row r="1471" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1471" s="65" t="s">
+      <c r="B1471" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C1471" s="11" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D1471" s="14" t="s">
-        <v>220</v>
+        <v>30</v>
       </c>
       <c r="E1471" s="9" t="s">
-        <v>24</v>
+        <v>114</v>
       </c>
       <c r="F1471" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="G1471" s="89" t="s">
-        <v>162</v>
+        <v>117</v>
       </c>
     </row>
     <row r="1472" spans="2:7" x14ac:dyDescent="0.25">
@@ -33094,87 +33307,96 @@
         <v>27</v>
       </c>
       <c r="C1472" s="11" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D1472" s="14" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E1472" s="9" t="s">
-        <v>22</v>
+        <v>112</v>
       </c>
       <c r="F1472" s="13" t="s">
-        <v>261</v>
+        <v>179</v>
       </c>
     </row>
     <row r="1473" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1473" s="47" t="s">
-        <v>27</v>
+      <c r="B1473" s="87" t="s">
+        <v>19</v>
       </c>
       <c r="C1473" s="11" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D1473" s="14" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E1473" s="9" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F1473" s="13" t="s">
-        <v>262</v>
+        <v>173</v>
+      </c>
+      <c r="G1473" s="88" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="1474" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1474" s="47" t="s">
+      <c r="B1474" s="65" t="s">
         <v>27</v>
       </c>
       <c r="C1474" s="11" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D1474" s="14" t="s">
-        <v>44</v>
+        <v>220</v>
       </c>
       <c r="E1474" s="9" t="s">
-        <v>129</v>
+        <v>24</v>
       </c>
       <c r="F1474" s="13" t="s">
-        <v>243</v>
+        <v>251</v>
+      </c>
+      <c r="G1474" s="89" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="1475" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1475" s="87" t="s">
-        <v>139</v>
+      <c r="B1475" s="65" t="s">
+        <v>27</v>
       </c>
       <c r="C1475" s="11" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D1475" s="14" t="s">
-        <v>34</v>
+        <v>220</v>
       </c>
       <c r="E1475" s="9" t="s">
-        <v>112</v>
+        <v>24</v>
       </c>
       <c r="F1475" s="13" t="s">
-        <v>270</v>
-      </c>
-      <c r="G1475" s="88" t="s">
-        <v>329</v>
+        <v>238</v>
+      </c>
+      <c r="G1475" s="89" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="1476" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1476" s="47" t="s">
+      <c r="B1476" s="65" t="s">
         <v>27</v>
       </c>
       <c r="C1476" s="11" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D1476" s="14" t="s">
-        <v>43</v>
+        <v>220</v>
       </c>
       <c r="E1476" s="9" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="F1476" s="13" t="s">
-        <v>253</v>
+        <v>234</v>
+      </c>
+      <c r="G1476" s="89" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="1477" spans="2:7" x14ac:dyDescent="0.25">
@@ -33182,16 +33404,16 @@
         <v>27</v>
       </c>
       <c r="C1477" s="11" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D1477" s="14" t="s">
-        <v>43</v>
+        <v>220</v>
       </c>
       <c r="E1477" s="9" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="F1477" s="13" t="s">
-        <v>302</v>
+        <v>177</v>
       </c>
       <c r="G1477" s="89" t="s">
         <v>162</v>
@@ -33202,16 +33424,16 @@
         <v>27</v>
       </c>
       <c r="C1478" s="11" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D1478" s="14" t="s">
-        <v>35</v>
+        <v>220</v>
       </c>
       <c r="E1478" s="9" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="F1478" s="13" t="s">
-        <v>69</v>
+        <v>165</v>
       </c>
     </row>
     <row r="1479" spans="2:7" x14ac:dyDescent="0.25">
@@ -33219,16 +33441,16 @@
         <v>27</v>
       </c>
       <c r="C1479" s="11" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D1479" s="14" t="s">
-        <v>46</v>
+        <v>220</v>
       </c>
       <c r="E1479" s="9" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="F1479" s="13" t="s">
-        <v>66</v>
+        <v>227</v>
       </c>
       <c r="G1479" s="89" t="s">
         <v>162</v>
@@ -33239,16 +33461,16 @@
         <v>27</v>
       </c>
       <c r="C1480" s="11" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D1480" s="14" t="s">
-        <v>46</v>
+        <v>220</v>
       </c>
       <c r="E1480" s="9" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="F1480" s="13" t="s">
-        <v>67</v>
+        <v>292</v>
       </c>
       <c r="G1480" s="89" t="s">
         <v>162</v>
@@ -33259,16 +33481,16 @@
         <v>27</v>
       </c>
       <c r="C1481" s="11" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D1481" s="14" t="s">
-        <v>46</v>
+        <v>220</v>
       </c>
       <c r="E1481" s="9" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="F1481" s="13" t="s">
-        <v>68</v>
+        <v>293</v>
       </c>
       <c r="G1481" s="89" t="s">
         <v>162</v>
@@ -33279,76 +33501,73 @@
         <v>27</v>
       </c>
       <c r="C1482" s="11" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D1482" s="14" t="s">
-        <v>46</v>
+        <v>220</v>
       </c>
       <c r="E1482" s="9" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="F1482" s="13" t="s">
-        <v>70</v>
+        <v>228</v>
       </c>
       <c r="G1482" s="89" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="1483" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1483" s="65" t="s">
+      <c r="B1483" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C1483" s="11" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D1483" s="14" t="s">
-        <v>46</v>
+        <v>381</v>
       </c>
       <c r="E1483" s="9" t="s">
-        <v>129</v>
+        <v>28</v>
       </c>
       <c r="F1483" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="G1483" s="89" t="s">
-        <v>162</v>
+        <v>250</v>
       </c>
     </row>
     <row r="1484" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1484" s="65" t="s">
+      <c r="B1484" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C1484" s="11" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D1484" s="14" t="s">
-        <v>46</v>
+        <v>381</v>
       </c>
       <c r="E1484" s="9" t="s">
-        <v>129</v>
+        <v>28</v>
       </c>
       <c r="F1484" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="G1484" s="89" t="s">
-        <v>162</v>
+        <v>382</v>
       </c>
     </row>
     <row r="1485" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1485" s="47" t="s">
+      <c r="B1485" s="65" t="s">
         <v>27</v>
       </c>
       <c r="C1485" s="11" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D1485" s="14" t="s">
-        <v>36</v>
+        <v>381</v>
       </c>
       <c r="E1485" s="9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F1485" s="13" t="s">
-        <v>60</v>
+        <v>200</v>
+      </c>
+      <c r="G1485" s="89" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="1486" spans="2:7" x14ac:dyDescent="0.25">
@@ -33356,73 +33575,70 @@
         <v>27</v>
       </c>
       <c r="C1486" s="11" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D1486" s="14" t="s">
-        <v>36</v>
+        <v>381</v>
       </c>
       <c r="E1486" s="9" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="F1486" s="13" t="s">
-        <v>287</v>
+        <v>109</v>
       </c>
     </row>
     <row r="1487" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1487" s="65" t="s">
+      <c r="B1487" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C1487" s="11" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D1487" s="14" t="s">
-        <v>45</v>
+        <v>381</v>
       </c>
       <c r="E1487" s="9" t="s">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="F1487" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G1487" s="89" t="s">
-        <v>162</v>
+        <v>266</v>
       </c>
     </row>
     <row r="1488" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1488" s="47" t="s">
+      <c r="B1488" s="65" t="s">
         <v>27</v>
       </c>
       <c r="C1488" s="11" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D1488" s="14" t="s">
-        <v>45</v>
+        <v>337</v>
       </c>
       <c r="E1488" s="9" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="F1488" s="13" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="1489" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B1489" s="87" t="s">
-        <v>16</v>
+        <v>236</v>
+      </c>
+      <c r="G1488" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1489" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1489" s="47" t="s">
+        <v>27</v>
       </c>
       <c r="C1489" s="11" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D1489" s="14" t="s">
-        <v>167</v>
+        <v>296</v>
       </c>
       <c r="E1489" s="9" t="s">
-        <v>22</v>
+        <v>107</v>
       </c>
       <c r="F1489" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1489" s="88" t="s">
-        <v>364</v>
+        <v>263</v>
       </c>
     </row>
     <row r="1490" spans="2:7" x14ac:dyDescent="0.25">
@@ -33430,56 +33646,50 @@
         <v>27</v>
       </c>
       <c r="C1490" s="11" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D1490" s="14" t="s">
-        <v>30</v>
+        <v>296</v>
       </c>
       <c r="E1490" s="9" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="F1490" s="13" t="s">
-        <v>179</v>
+        <v>273</v>
       </c>
     </row>
     <row r="1491" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1491" s="65" t="s">
+      <c r="B1491" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C1491" s="11" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D1491" s="14" t="s">
-        <v>220</v>
+        <v>51</v>
       </c>
       <c r="E1491" s="9" t="s">
         <v>22</v>
       </c>
       <c r="F1491" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="G1491" s="89" t="s">
-        <v>162</v>
+        <v>246</v>
       </c>
     </row>
     <row r="1492" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1492" s="65" t="s">
+      <c r="B1492" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C1492" s="11" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D1492" s="14" t="s">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="E1492" s="9" t="s">
-        <v>129</v>
+        <v>21</v>
       </c>
       <c r="F1492" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="G1492" s="89" t="s">
-        <v>162</v>
+        <v>192</v>
       </c>
     </row>
     <row r="1493" spans="2:7" x14ac:dyDescent="0.25">
@@ -33487,76 +33697,67 @@
         <v>27</v>
       </c>
       <c r="C1493" s="11" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D1493" s="14" t="s">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="E1493" s="9" t="s">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="F1493" s="13" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
     </row>
     <row r="1494" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1494" s="65" t="s">
+      <c r="B1494" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C1494" s="11" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D1494" s="14" t="s">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="E1494" s="9" t="s">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="F1494" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="G1494" s="89" t="s">
-        <v>162</v>
+        <v>58</v>
       </c>
     </row>
     <row r="1495" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1495" s="65" t="s">
+      <c r="B1495" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C1495" s="11" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D1495" s="14" t="s">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="E1495" s="9" t="s">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="F1495" s="13" t="s">
-        <v>292</v>
-      </c>
-      <c r="G1495" s="89" t="s">
-        <v>162</v>
+        <v>261</v>
       </c>
     </row>
     <row r="1496" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1496" s="65" t="s">
+      <c r="B1496" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C1496" s="11" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D1496" s="14" t="s">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="E1496" s="9" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="F1496" s="13" t="s">
-        <v>293</v>
-      </c>
-      <c r="G1496" s="89" t="s">
-        <v>162</v>
+        <v>262</v>
       </c>
     </row>
     <row r="1497" spans="2:7" x14ac:dyDescent="0.25">
@@ -33564,33 +33765,36 @@
         <v>27</v>
       </c>
       <c r="C1497" s="11" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D1497" s="14" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E1497" s="9" t="s">
-        <v>22</v>
+        <v>129</v>
       </c>
       <c r="F1497" s="13" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="1498" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1498" s="47" t="s">
+      <c r="B1498" s="65" t="s">
         <v>27</v>
       </c>
       <c r="C1498" s="11" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D1498" s="14" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E1498" s="9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F1498" s="13" t="s">
-        <v>192</v>
+        <v>59</v>
+      </c>
+      <c r="G1498" s="89" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="1499" spans="2:7" x14ac:dyDescent="0.25">
@@ -33598,16 +33802,16 @@
         <v>27</v>
       </c>
       <c r="C1499" s="11" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D1499" s="14" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="E1499" s="9" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="F1499" s="13" t="s">
-        <v>192</v>
+        <v>39</v>
       </c>
     </row>
     <row r="1500" spans="2:7" x14ac:dyDescent="0.25">
@@ -33615,16 +33819,16 @@
         <v>27</v>
       </c>
       <c r="C1500" s="11" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D1500" s="14" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E1500" s="9" t="s">
         <v>22</v>
       </c>
       <c r="F1500" s="13" t="s">
-        <v>58</v>
+        <v>253</v>
       </c>
     </row>
     <row r="1501" spans="2:7" x14ac:dyDescent="0.25">
@@ -33632,56 +33836,56 @@
         <v>27</v>
       </c>
       <c r="C1501" s="11" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D1501" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E1501" s="9" t="s">
-        <v>25</v>
+        <v>129</v>
       </c>
       <c r="F1501" s="13" t="s">
-        <v>59</v>
+        <v>302</v>
       </c>
       <c r="G1501" s="89" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="1502" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1502" s="47" t="s">
-        <v>27</v>
+    <row r="1502" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B1502" s="87" t="s">
+        <v>77</v>
       </c>
       <c r="C1502" s="11" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D1502" s="14" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E1502" s="9" t="s">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="F1502" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="1503" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B1503" s="87" t="s">
-        <v>77</v>
+        <v>330</v>
+      </c>
+      <c r="G1502" s="88" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="1503" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1503" s="47" t="s">
+        <v>27</v>
       </c>
       <c r="C1503" s="11" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D1503" s="14" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E1503" s="9" t="s">
-        <v>21</v>
+        <v>129</v>
       </c>
       <c r="F1503" s="13" t="s">
-        <v>330</v>
-      </c>
-      <c r="G1503" s="88" t="s">
-        <v>361</v>
+        <v>69</v>
       </c>
     </row>
     <row r="1504" spans="2:7" x14ac:dyDescent="0.25">
@@ -33689,7 +33893,7 @@
         <v>27</v>
       </c>
       <c r="C1504" s="11" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D1504" s="14" t="s">
         <v>35</v>
@@ -33706,16 +33910,16 @@
         <v>27</v>
       </c>
       <c r="C1505" s="11" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D1505" s="14" t="s">
         <v>46</v>
       </c>
       <c r="E1505" s="9" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="F1505" s="13" t="s">
-        <v>209</v>
+        <v>66</v>
       </c>
       <c r="G1505" s="89" t="s">
         <v>162</v>
@@ -33726,53 +33930,59 @@
         <v>27</v>
       </c>
       <c r="C1506" s="11" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D1506" s="14" t="s">
         <v>46</v>
       </c>
       <c r="E1506" s="9" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="F1506" s="13" t="s">
-        <v>314</v>
+        <v>67</v>
       </c>
       <c r="G1506" s="89" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="1507" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1507" s="47" t="s">
+      <c r="B1507" s="65" t="s">
         <v>27</v>
       </c>
       <c r="C1507" s="11" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D1507" s="14" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="E1507" s="9" t="s">
-        <v>21</v>
+        <v>129</v>
       </c>
       <c r="F1507" s="13" t="s">
-        <v>186</v>
+        <v>68</v>
+      </c>
+      <c r="G1507" s="89" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="1508" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1508" s="47" t="s">
+      <c r="B1508" s="65" t="s">
         <v>27</v>
       </c>
       <c r="C1508" s="11" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D1508" s="14" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="E1508" s="9" t="s">
-        <v>25</v>
+        <v>129</v>
       </c>
       <c r="F1508" s="13" t="s">
-        <v>74</v>
+        <v>70</v>
+      </c>
+      <c r="G1508" s="89" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="1509" spans="2:7" x14ac:dyDescent="0.25">
@@ -33780,16 +33990,16 @@
         <v>27</v>
       </c>
       <c r="C1509" s="11" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D1509" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E1509" s="9" t="s">
-        <v>25</v>
+        <v>129</v>
       </c>
       <c r="F1509" s="13" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="G1509" s="89" t="s">
         <v>162</v>
@@ -33800,73 +34010,76 @@
         <v>27</v>
       </c>
       <c r="C1510" s="11" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D1510" s="14" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="E1510" s="9" t="s">
-        <v>21</v>
+        <v>129</v>
       </c>
       <c r="F1510" s="13" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="G1510" s="89" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="1511" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1511" s="47" t="s">
+      <c r="B1511" s="65" t="s">
         <v>27</v>
       </c>
       <c r="C1511" s="11" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D1511" s="14" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="E1511" s="9" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="F1511" s="13" t="s">
-        <v>187</v>
+        <v>209</v>
+      </c>
+      <c r="G1511" s="89" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="1512" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1512" s="47" t="s">
+      <c r="B1512" s="65" t="s">
         <v>27</v>
       </c>
       <c r="C1512" s="11" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D1512" s="14" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="E1512" s="9" t="s">
         <v>103</v>
       </c>
       <c r="F1512" s="13" t="s">
-        <v>73</v>
+        <v>314</v>
+      </c>
+      <c r="G1512" s="89" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="1513" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1513" s="65" t="s">
+      <c r="B1513" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C1513" s="11" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D1513" s="14" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E1513" s="9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F1513" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="G1513" s="89" t="s">
-        <v>162</v>
+        <v>186</v>
       </c>
     </row>
     <row r="1514" spans="2:7" x14ac:dyDescent="0.25">
@@ -33874,36 +34087,33 @@
         <v>27</v>
       </c>
       <c r="C1514" s="11" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D1514" s="14" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E1514" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1514" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1515" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1515" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1515" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="D1515" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1515" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F1514" s="13" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="1515" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1515" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1515" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1515" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1515" s="9" t="s">
-        <v>21</v>
-      </c>
       <c r="F1515" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="G1515" s="89" t="s">
-        <v>162</v>
+        <v>74</v>
       </c>
     </row>
     <row r="1516" spans="2:7" x14ac:dyDescent="0.25">
@@ -33911,27 +34121,434 @@
         <v>27</v>
       </c>
       <c r="C1516" s="11" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D1516" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1516" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1516" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1516" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1517" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1517" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1517" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="D1517" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1517" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1517" s="13" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="1518" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1518" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1518" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="D1518" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1518" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1518" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1518" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1519" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1519" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1519" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="D1519" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1519" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1519" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1519" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1520" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1520" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1520" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="D1520" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1520" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1520" s="13" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="1521" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1521" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1521" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="D1521" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1521" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1521" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1522" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1522" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1522" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="D1522" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1522" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1522" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="G1522" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1523" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1523" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1523" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="D1523" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1523" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1523" s="13" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="1524" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1524" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1524" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="D1524" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1524" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1524" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="G1524" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1525" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1525" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1525" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="D1525" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="E1516" s="9" t="s">
+      <c r="E1525" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1525" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="G1525" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1526" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1526" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1526" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="D1526" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1526" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1526" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="G1526" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1527" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1527" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1527" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="D1527" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1527" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F1516" s="13" t="s">
+      <c r="F1527" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="G1516" s="89" t="s">
+      <c r="G1527" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1528" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1528" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1528" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="D1528" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="E1528" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1528" s="13" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="1529" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1529" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1529" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="D1529" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="E1529" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1529" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="G1529" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1530" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1530" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1530" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="D1530" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="E1530" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1530" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1530" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1531" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1531" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1531" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="D1531" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="E1531" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1531" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="G1531" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1532" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1532" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1532" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="D1532" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="E1532" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1532" s="13" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="1533" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1533" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1533" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="D1533" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="E1533" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1533" s="13" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="1534" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1534" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1534" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="D1534" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="E1534" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1534" s="13" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="1535" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1535" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1535" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="D1535" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="E1535" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1535" s="13" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="1536" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1536" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1536" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="D1536" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="E1536" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1536" s="13" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="1537" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1537" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1537" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="D1537" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="E1537" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1537" s="13" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1538" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1538" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1538" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="D1538" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="E1538" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1538" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="G1538" s="89" t="s">
         <v>162</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0"/>
-  <sortState ref="A1229:G1331">
-    <sortCondition ref="A1229:A1331"/>
-    <sortCondition ref="D1229:D1331"/>
-    <sortCondition ref="E1229:E1331"/>
+  <sortState ref="A1378:H1446">
+    <sortCondition ref="A1378:A1446"/>
+    <sortCondition ref="D1378:D1446"/>
+    <sortCondition ref="E1378:E1446"/>
   </sortState>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576">
@@ -33947,7 +34564,7 @@
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="69" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C&amp;"-,Bold"&amp;22Jackie, 630pm to 930pm&amp;R&amp;"-,Bold"&amp;22&amp;D</oddHeader>
+    <oddHeader>&amp;C&amp;"-,Bold"&amp;22Keagan, 3:30pm to 6:30pm&amp;R&amp;"-,Bold"&amp;22&amp;D</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
@@ -34298,7 +34915,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>79</v>
       </c>
@@ -34306,7 +34923,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>9</v>
       </c>
@@ -34314,7 +34931,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>10</v>
       </c>
@@ -34322,7 +34939,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>90</v>
       </c>
@@ -34330,7 +34947,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>159</v>
       </c>
@@ -34338,7 +34955,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>160</v>
       </c>
@@ -34346,25 +34963,25 @@
         <v>104</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="C39" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="C40" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="C41" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
     </row>
     <row r="47" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">

--- a/PW/masterlog.xlsx
+++ b/PW/masterlog.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17658" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18114" uniqueCount="394">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1179,6 +1179,33 @@
   <si>
     <t>8/04/16</t>
   </si>
+  <si>
+    <t>0000</t>
+  </si>
+  <si>
+    <t>4028</t>
+  </si>
+  <si>
+    <t>4034</t>
+  </si>
+  <si>
+    <t>1130</t>
+  </si>
+  <si>
+    <t>1200</t>
+  </si>
+  <si>
+    <t>244</t>
+  </si>
+  <si>
+    <t>031</t>
+  </si>
+  <si>
+    <t>1230</t>
+  </si>
+  <si>
+    <t>312</t>
+  </si>
 </sst>
 </file>
 
@@ -1999,11 +2026,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H3478"/>
+  <dimension ref="A1:H3584"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3365" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="H3289" sqref="H3289"/>
+      <pane ySplit="1" topLeftCell="A3464" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="A3465" sqref="A3465:A3478"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -68949,7 +68976,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="3457" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3457" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3457" s="47" t="s">
         <v>27</v>
       </c>
@@ -68966,7 +68993,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="3458" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3458" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3458" s="65" t="s">
         <v>27</v>
       </c>
@@ -68986,7 +69013,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="3459" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3459" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3459" s="65" t="s">
         <v>27</v>
       </c>
@@ -69006,7 +69033,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="3460" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3460" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3460" s="65" t="s">
         <v>27</v>
       </c>
@@ -69026,7 +69053,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="3461" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3461" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3461" s="65" t="s">
         <v>27</v>
       </c>
@@ -69046,7 +69073,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="3462" spans="2:8" s="97" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3462" spans="1:8" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3462" s="98"/>
       <c r="C3462" s="99"/>
       <c r="D3462" s="100"/>
@@ -69054,7 +69081,7 @@
       <c r="G3462" s="102"/>
       <c r="H3462" s="103"/>
     </row>
-    <row r="3463" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3463" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3463" s="47" t="s">
         <v>27</v>
       </c>
@@ -69071,7 +69098,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3464" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3464" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3464" s="47" t="s">
         <v>27</v>
       </c>
@@ -69088,7 +69115,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="3465" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3465" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3465" s="65" t="s">
         <v>27</v>
       </c>
@@ -69108,7 +69135,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="3466" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3466" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3466" s="65" t="s">
         <v>27</v>
       </c>
@@ -69128,7 +69155,8 @@
         <v>162</v>
       </c>
     </row>
-    <row r="3467" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3467" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3467" s="46"/>
       <c r="B3467" s="65" t="s">
         <v>27</v>
       </c>
@@ -69148,7 +69176,8 @@
         <v>162</v>
       </c>
     </row>
-    <row r="3468" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3468" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3468" s="46"/>
       <c r="B3468" s="65" t="s">
         <v>27</v>
       </c>
@@ -69168,7 +69197,8 @@
         <v>162</v>
       </c>
     </row>
-    <row r="3469" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3469" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3469" s="46"/>
       <c r="B3469" s="47" t="s">
         <v>27</v>
       </c>
@@ -69185,7 +69215,8 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3470" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3470" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3470" s="46"/>
       <c r="B3470" s="47" t="s">
         <v>27</v>
       </c>
@@ -69202,7 +69233,8 @@
         <v>266</v>
       </c>
     </row>
-    <row r="3471" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3471" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3471" s="46"/>
       <c r="B3471" s="47" t="s">
         <v>27</v>
       </c>
@@ -69219,7 +69251,8 @@
         <v>334</v>
       </c>
     </row>
-    <row r="3472" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3472" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3472" s="46"/>
       <c r="B3472" s="65" t="s">
         <v>27</v>
       </c>
@@ -69239,7 +69272,8 @@
         <v>162</v>
       </c>
     </row>
-    <row r="3473" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3473" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3473" s="46"/>
       <c r="B3473" s="47" t="s">
         <v>27</v>
       </c>
@@ -69256,7 +69290,8 @@
         <v>221</v>
       </c>
     </row>
-    <row r="3474" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3474" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3474" s="46"/>
       <c r="B3474" s="47" t="s">
         <v>27</v>
       </c>
@@ -69273,7 +69308,8 @@
         <v>208</v>
       </c>
     </row>
-    <row r="3475" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3475" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3475" s="46"/>
       <c r="B3475" s="47" t="s">
         <v>27</v>
       </c>
@@ -69290,7 +69326,8 @@
         <v>172</v>
       </c>
     </row>
-    <row r="3476" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3476" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3476" s="46"/>
       <c r="B3476" s="47" t="s">
         <v>27</v>
       </c>
@@ -69307,7 +69344,8 @@
         <v>313</v>
       </c>
     </row>
-    <row r="3477" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3477" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3477" s="46"/>
       <c r="B3477" s="47" t="s">
         <v>27</v>
       </c>
@@ -69324,7 +69362,8 @@
         <v>315</v>
       </c>
     </row>
-    <row r="3478" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3478" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3478" s="46"/>
       <c r="B3478" s="47" t="s">
         <v>27</v>
       </c>
@@ -69339,6 +69378,1916 @@
       </c>
       <c r="F3478" s="13" t="s">
         <v>320</v>
+      </c>
+    </row>
+    <row r="3479" spans="1:8" s="81" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3479" s="96"/>
+      <c r="C3479" s="82"/>
+      <c r="D3479" s="83"/>
+      <c r="F3479" s="84"/>
+      <c r="G3479" s="85"/>
+      <c r="H3479" s="86"/>
+    </row>
+    <row r="3480" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3480" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3480" s="11">
+        <v>42586</v>
+      </c>
+      <c r="D3480" s="14" t="s">
+        <v>385</v>
+      </c>
+      <c r="E3480" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3480" s="13" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="3481" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3481" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3481" s="11">
+        <v>42586</v>
+      </c>
+      <c r="D3481" s="14" t="s">
+        <v>385</v>
+      </c>
+      <c r="E3481" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3481" s="13" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="3482" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3482" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3482" s="11">
+        <v>42586</v>
+      </c>
+      <c r="D3482" s="14" t="s">
+        <v>388</v>
+      </c>
+      <c r="E3482" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3482" s="13" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3483" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3483" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3483" s="11">
+        <v>42586</v>
+      </c>
+      <c r="D3483" s="14" t="s">
+        <v>388</v>
+      </c>
+      <c r="E3483" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3483" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="G3483" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3484" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3484" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3484" s="11">
+        <v>42586</v>
+      </c>
+      <c r="D3484" s="14" t="s">
+        <v>389</v>
+      </c>
+      <c r="E3484" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3484" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="G3484" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3485" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3485" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3485" s="11">
+        <v>42586</v>
+      </c>
+      <c r="D3485" s="14" t="s">
+        <v>389</v>
+      </c>
+      <c r="E3485" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3485" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="G3485" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3486" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3486" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3486" s="11">
+        <v>42586</v>
+      </c>
+      <c r="D3486" s="14" t="s">
+        <v>389</v>
+      </c>
+      <c r="E3486" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3486" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="G3486" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3487" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3487" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3487" s="11">
+        <v>42586</v>
+      </c>
+      <c r="D3487" s="14" t="s">
+        <v>389</v>
+      </c>
+      <c r="E3487" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3487" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="G3487" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3488" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3488" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3488" s="11">
+        <v>42586</v>
+      </c>
+      <c r="D3488" s="14" t="s">
+        <v>389</v>
+      </c>
+      <c r="E3488" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3488" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="G3488" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3489" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3489" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3489" s="11">
+        <v>42586</v>
+      </c>
+      <c r="D3489" s="14" t="s">
+        <v>389</v>
+      </c>
+      <c r="E3489" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3489" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="G3489" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3490" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3490" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3490" s="11">
+        <v>42586</v>
+      </c>
+      <c r="D3490" s="14" t="s">
+        <v>389</v>
+      </c>
+      <c r="E3490" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3490" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="G3490" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3491" spans="2:8" s="97" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3491" s="98"/>
+      <c r="C3491" s="99"/>
+      <c r="D3491" s="100"/>
+      <c r="F3491" s="101"/>
+      <c r="G3491" s="102"/>
+      <c r="H3491" s="103"/>
+    </row>
+    <row r="3492" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3492" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3492" s="11">
+        <v>42586</v>
+      </c>
+      <c r="D3492" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="E3492" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3492" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="G3492" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3493" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3493" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3493" s="11">
+        <v>42586</v>
+      </c>
+      <c r="D3493" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="E3493" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3493" s="13" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3494" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3494" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3494" s="11">
+        <v>42586</v>
+      </c>
+      <c r="D3494" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="E3494" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3494" s="13" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="3495" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3495" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3495" s="11">
+        <v>42586</v>
+      </c>
+      <c r="D3495" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="E3495" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3495" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="G3495" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3496" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3496" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3496" s="11">
+        <v>42586</v>
+      </c>
+      <c r="D3496" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="E3496" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3496" s="13" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="3497" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3497" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3497" s="11">
+        <v>42586</v>
+      </c>
+      <c r="D3497" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="E3497" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F3497" s="13" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="3498" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3498" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3498" s="11">
+        <v>42586</v>
+      </c>
+      <c r="D3498" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="E3498" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F3498" s="13" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="3499" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3499" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3499" s="11">
+        <v>42586</v>
+      </c>
+      <c r="D3499" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="E3499" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3499" s="13" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="3500" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3500" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3500" s="11">
+        <v>42586</v>
+      </c>
+      <c r="D3500" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3500" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3500" s="13" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="3501" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3501" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3501" s="11">
+        <v>42586</v>
+      </c>
+      <c r="D3501" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3501" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3501" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="G3501" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3502" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3502" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3502" s="11">
+        <v>42586</v>
+      </c>
+      <c r="D3502" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3502" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3502" s="13" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3503" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3503" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3503" s="11">
+        <v>42586</v>
+      </c>
+      <c r="D3503" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3503" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3503" s="13" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3504" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3504" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3504" s="11">
+        <v>42586</v>
+      </c>
+      <c r="D3504" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3504" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3504" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3505" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3505" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3505" s="11">
+        <v>42586</v>
+      </c>
+      <c r="D3505" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3505" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3505" s="13" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="3506" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3506" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3506" s="11">
+        <v>42586</v>
+      </c>
+      <c r="D3506" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3506" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F3506" s="13" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="3507" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3507" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3507" s="11">
+        <v>42586</v>
+      </c>
+      <c r="D3507" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3507" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3507" s="13" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="3508" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3508" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3508" s="11">
+        <v>42586</v>
+      </c>
+      <c r="D3508" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3508" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F3508" s="13" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3509" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3509" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3509" s="11">
+        <v>42586</v>
+      </c>
+      <c r="D3509" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3509" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3509" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3510" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3510" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3510" s="11">
+        <v>42586</v>
+      </c>
+      <c r="D3510" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3510" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3510" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="G3510" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3511" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3511" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3511" s="11">
+        <v>42586</v>
+      </c>
+      <c r="D3511" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3511" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3511" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="G3511" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3512" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3512" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3512" s="11">
+        <v>42586</v>
+      </c>
+      <c r="D3512" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3512" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3512" s="13" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="3513" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3513" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3513" s="11">
+        <v>42586</v>
+      </c>
+      <c r="D3513" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3513" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3513" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3513" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3514" spans="2:8" s="97" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3514" s="98"/>
+      <c r="C3514" s="99"/>
+      <c r="D3514" s="100"/>
+      <c r="F3514" s="101"/>
+      <c r="G3514" s="102"/>
+      <c r="H3514" s="103"/>
+    </row>
+    <row r="3515" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3515" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3515" s="11">
+        <v>42586</v>
+      </c>
+      <c r="D3515" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3515" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3515" s="13" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="3516" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3516" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3516" s="11">
+        <v>42586</v>
+      </c>
+      <c r="D3516" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3516" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3516" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="G3516" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3517" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3517" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3517" s="11">
+        <v>42586</v>
+      </c>
+      <c r="D3517" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3517" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3517" s="13" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="3518" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3518" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3518" s="11">
+        <v>42586</v>
+      </c>
+      <c r="D3518" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3518" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3518" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="G3518" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3519" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3519" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3519" s="11">
+        <v>42586</v>
+      </c>
+      <c r="D3519" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3519" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3519" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3520" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3520" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3520" s="11">
+        <v>42586</v>
+      </c>
+      <c r="D3520" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3520" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3520" s="13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3521" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3521" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3521" s="11">
+        <v>42586</v>
+      </c>
+      <c r="D3521" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3521" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3521" s="13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="3522" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3522" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3522" s="11">
+        <v>42586</v>
+      </c>
+      <c r="D3522" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3522" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F3522" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="G3522" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3523" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B3523" s="87" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3523" s="11">
+        <v>42586</v>
+      </c>
+      <c r="D3523" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3523" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3523" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="G3523" s="88" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="3524" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B3524" s="87" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3524" s="11">
+        <v>42586</v>
+      </c>
+      <c r="D3524" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3524" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3524" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="G3524" s="88" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="3525" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3525" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3525" s="11">
+        <v>42586</v>
+      </c>
+      <c r="D3525" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3525" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3525" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3526" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3526" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3526" s="11">
+        <v>42586</v>
+      </c>
+      <c r="D3526" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3526" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3526" s="13" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="3527" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3527" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3527" s="11">
+        <v>42586</v>
+      </c>
+      <c r="D3527" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3527" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F3527" s="13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3528" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3528" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3528" s="11">
+        <v>42586</v>
+      </c>
+      <c r="D3528" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3528" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3528" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3528" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3529" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3529" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3529" s="11">
+        <v>42586</v>
+      </c>
+      <c r="D3529" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3529" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3529" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3529" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3530" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3530" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3530" s="11">
+        <v>42586</v>
+      </c>
+      <c r="D3530" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3530" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3530" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3530" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3531" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3531" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3531" s="11">
+        <v>42586</v>
+      </c>
+      <c r="D3531" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3531" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3531" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3531" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3532" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3532" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3532" s="11">
+        <v>42586</v>
+      </c>
+      <c r="D3532" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3532" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3532" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3532" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3533" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3533" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3533" s="11">
+        <v>42586</v>
+      </c>
+      <c r="D3533" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3533" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3533" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3533" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3534" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3534" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3534" s="11">
+        <v>42586</v>
+      </c>
+      <c r="D3534" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3534" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3534" s="13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3535" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3535" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3535" s="11">
+        <v>42586</v>
+      </c>
+      <c r="D3535" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3535" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3535" s="13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3536" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3536" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3536" s="11">
+        <v>42586</v>
+      </c>
+      <c r="D3536" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3536" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3536" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3537" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3537" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3537" s="11">
+        <v>42586</v>
+      </c>
+      <c r="D3537" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3537" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3537" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="G3537" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3538" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3538" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3538" s="11">
+        <v>42586</v>
+      </c>
+      <c r="D3538" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3538" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3538" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="G3538" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3539" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3539" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3539" s="11">
+        <v>42586</v>
+      </c>
+      <c r="D3539" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3539" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F3539" s="13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3540" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3540" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3540" s="11">
+        <v>42586</v>
+      </c>
+      <c r="D3540" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3540" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3540" s="13" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3541" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3541" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3541" s="11">
+        <v>42586</v>
+      </c>
+      <c r="D3541" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3541" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3541" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3542" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3542" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3542" s="11">
+        <v>42586</v>
+      </c>
+      <c r="D3542" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3542" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3542" s="13" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="3543" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3543" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3543" s="11">
+        <v>42586</v>
+      </c>
+      <c r="D3543" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3543" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3543" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3544" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3544" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3544" s="11">
+        <v>42586</v>
+      </c>
+      <c r="D3544" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3544" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3544" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3544" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3545" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3545" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3545" s="11">
+        <v>42586</v>
+      </c>
+      <c r="D3545" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3545" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3545" s="13" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="3546" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3546" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3546" s="11">
+        <v>42586</v>
+      </c>
+      <c r="D3546" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3546" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3546" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3546" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3547" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3547" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3547" s="11">
+        <v>42586</v>
+      </c>
+      <c r="D3547" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3547" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3547" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3547" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3548" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3548" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3548" s="11">
+        <v>42586</v>
+      </c>
+      <c r="D3548" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3548" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3548" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3548" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3549" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3549" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3549" s="11">
+        <v>42586</v>
+      </c>
+      <c r="D3549" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3549" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3549" s="13" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3550" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3550" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3550" s="11">
+        <v>42586</v>
+      </c>
+      <c r="D3550" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3550" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F3550" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3551" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3551" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3551" s="11">
+        <v>42586</v>
+      </c>
+      <c r="D3551" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3551" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F3551" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3552" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3552" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3552" s="11">
+        <v>42586</v>
+      </c>
+      <c r="D3552" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3552" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3552" s="13" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3553" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3553" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3553" s="11">
+        <v>42586</v>
+      </c>
+      <c r="D3553" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3553" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3553" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3554" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3554" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3554" s="11">
+        <v>42586</v>
+      </c>
+      <c r="D3554" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3554" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3554" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="G3554" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3555" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3555" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3555" s="11">
+        <v>42586</v>
+      </c>
+      <c r="D3555" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3555" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3555" s="13" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3556" spans="2:8" s="97" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3556" s="98"/>
+      <c r="C3556" s="99"/>
+      <c r="D3556" s="100"/>
+      <c r="F3556" s="101"/>
+      <c r="G3556" s="102"/>
+      <c r="H3556" s="103"/>
+    </row>
+    <row r="3557" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3557" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3557" s="11">
+        <v>42586</v>
+      </c>
+      <c r="D3557" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E3557" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3557" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="G3557" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3558" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3558" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3558" s="11">
+        <v>42586</v>
+      </c>
+      <c r="D3558" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E3558" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3558" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="G3558" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3559" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3559" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3559" s="11">
+        <v>42586</v>
+      </c>
+      <c r="D3559" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E3559" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3559" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="G3559" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3560" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3560" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3560" s="11">
+        <v>42586</v>
+      </c>
+      <c r="D3560" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E3560" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F3560" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="G3560" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3561" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3561" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3561" s="11">
+        <v>42586</v>
+      </c>
+      <c r="D3561" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E3561" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3561" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="G3561" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3562" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3562" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3562" s="11">
+        <v>42586</v>
+      </c>
+      <c r="D3562" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E3562" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3562" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="G3562" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3563" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3563" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3563" s="11">
+        <v>42586</v>
+      </c>
+      <c r="D3563" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E3563" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3563" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="G3563" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3564" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3564" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3564" s="11">
+        <v>42586</v>
+      </c>
+      <c r="D3564" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E3564" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3564" s="13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3565" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3565" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3565" s="11">
+        <v>42586</v>
+      </c>
+      <c r="D3565" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E3565" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3565" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="G3565" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3566" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3566" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3566" s="11">
+        <v>42586</v>
+      </c>
+      <c r="D3566" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E3566" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3566" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="G3566" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3567" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3567" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3567" s="11">
+        <v>42586</v>
+      </c>
+      <c r="D3567" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E3567" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3567" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="G3567" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3568" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3568" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3568" s="11">
+        <v>42586</v>
+      </c>
+      <c r="D3568" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E3568" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3568" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="G3568" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3569" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3569" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3569" s="11">
+        <v>42586</v>
+      </c>
+      <c r="D3569" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="E3569" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3569" s="13" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="3570" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3570" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3570" s="11">
+        <v>42586</v>
+      </c>
+      <c r="D3570" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="E3570" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3570" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="G3570" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3571" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3571" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3571" s="11">
+        <v>42586</v>
+      </c>
+      <c r="D3571" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="E3571" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3571" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3571" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3572" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3572" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3572" s="11">
+        <v>42586</v>
+      </c>
+      <c r="D3572" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="E3572" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3572" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="G3572" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3573" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3573" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3573" s="11">
+        <v>42586</v>
+      </c>
+      <c r="D3573" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="E3573" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3573" s="13" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3574" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3574" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3574" s="11">
+        <v>42586</v>
+      </c>
+      <c r="D3574" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="E3574" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3574" s="13" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="3575" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3575" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3575" s="11">
+        <v>42586</v>
+      </c>
+      <c r="D3575" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="E3575" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3575" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="G3575" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3576" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3576" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3576" s="11">
+        <v>42586</v>
+      </c>
+      <c r="D3576" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="E3576" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3576" s="13" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="3577" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3577" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3577" s="11">
+        <v>42586</v>
+      </c>
+      <c r="D3577" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="E3577" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3577" s="13" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3578" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3578" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3578" s="11">
+        <v>42586</v>
+      </c>
+      <c r="D3578" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="E3578" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3578" s="13" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="3579" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3579" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3579" s="11">
+        <v>42586</v>
+      </c>
+      <c r="D3579" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="E3579" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3579" s="13" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="3580" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3580" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3580" s="11">
+        <v>42586</v>
+      </c>
+      <c r="D3580" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="E3580" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3580" s="13" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="3581" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3581" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3581" s="11">
+        <v>42586</v>
+      </c>
+      <c r="D3581" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="E3581" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3581" s="13" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="3582" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3582" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3582" s="11">
+        <v>42586</v>
+      </c>
+      <c r="D3582" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="E3582" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3582" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="G3582" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3583" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3583" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3583" s="11">
+        <v>42586</v>
+      </c>
+      <c r="D3583" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="E3583" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3583" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3584" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3584" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3584" s="11">
+        <v>42586</v>
+      </c>
+      <c r="D3584" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="E3584" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3584" s="13" t="s">
+        <v>266</v>
       </c>
     </row>
   </sheetData>

--- a/PW/masterlog.xlsx
+++ b/PW/masterlog.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9586" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11554" uniqueCount="394">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1186,16 +1186,25 @@
     <t>Log off crestron in Osgoode Moot Court.</t>
   </si>
   <si>
-    <t>Friday</t>
+    <t>Monday</t>
   </si>
   <si>
-    <t>8/05/16</t>
+    <t>1130</t>
   </si>
   <si>
-    <t>Return camera and tripod to ACE 015 storeroom.</t>
+    <t>1200</t>
+  </si>
+  <si>
+    <t>1230</t>
   </si>
   <si>
     <t>2130</t>
+  </si>
+  <si>
+    <t>2200</t>
+  </si>
+  <si>
+    <t>328A</t>
   </si>
 </sst>
 </file>
@@ -1259,7 +1268,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1342,14 +1351,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1424,21 +1427,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1446,7 +1434,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1760,21 +1748,6 @@
     <xf numFmtId="49" fontId="6" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="15" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="15" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="15" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -2082,7 +2055,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H1660"/>
+  <dimension ref="A1:H2115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A1561" activePane="bottomLeft" state="frozen"/>
@@ -36554,250 +36527,256 @@
       <c r="H1612" s="110"/>
     </row>
     <row r="1613" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1613" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1613" s="11" t="s">
+      <c r="B1613" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1613" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1613" s="14" t="s">
         <v>388</v>
       </c>
-      <c r="D1613" s="14" t="s">
-        <v>50</v>
-      </c>
       <c r="E1613" s="9" t="s">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="F1613" s="13" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="1614" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B1614" s="87" t="s">
-        <v>139</v>
-      </c>
-      <c r="C1614" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="G1613" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1614" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1614" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1614" s="14" t="s">
         <v>388</v>
       </c>
-      <c r="D1614" s="14" t="s">
-        <v>44</v>
-      </c>
       <c r="E1614" s="9" t="s">
-        <v>114</v>
+        <v>25</v>
       </c>
       <c r="F1614" s="13" t="s">
-        <v>340</v>
-      </c>
-      <c r="G1614" s="88" t="s">
-        <v>341</v>
+        <v>203</v>
+      </c>
+      <c r="G1614" s="89" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="1615" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1615" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1615" s="11" t="s">
-        <v>388</v>
+      <c r="B1615" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1615" s="11">
+        <v>42590</v>
       </c>
       <c r="D1615" s="14" t="s">
-        <v>43</v>
+        <v>389</v>
       </c>
       <c r="E1615" s="9" t="s">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="F1615" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="G1615" s="89" t="s">
-        <v>162</v>
+        <v>265</v>
       </c>
     </row>
     <row r="1616" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1616" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="C1616" s="11" t="s">
-        <v>388</v>
+      <c r="C1616" s="11">
+        <v>42590</v>
       </c>
       <c r="D1616" s="14" t="s">
-        <v>43</v>
+        <v>390</v>
       </c>
       <c r="E1616" s="9" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="F1616" s="13" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
     </row>
     <row r="1617" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1617" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1617" s="11" t="s">
-        <v>388</v>
+      <c r="B1617" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1617" s="11">
+        <v>42590</v>
       </c>
       <c r="D1617" s="14" t="s">
-        <v>43</v>
+        <v>296</v>
       </c>
       <c r="E1617" s="9" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F1617" s="13" t="s">
-        <v>189</v>
+        <v>54</v>
+      </c>
+      <c r="G1617" s="89" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="1618" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1618" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="C1618" s="11" t="s">
-        <v>388</v>
+      <c r="C1618" s="11">
+        <v>42590</v>
       </c>
       <c r="D1618" s="14" t="s">
-        <v>43</v>
+        <v>296</v>
       </c>
       <c r="E1618" s="9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="F1618" s="13" t="s">
-        <v>190</v>
+        <v>235</v>
       </c>
     </row>
     <row r="1619" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1619" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="C1619" s="11" t="s">
-        <v>388</v>
+      <c r="C1619" s="11">
+        <v>42590</v>
       </c>
       <c r="D1619" s="14" t="s">
-        <v>43</v>
+        <v>296</v>
       </c>
       <c r="E1619" s="9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="F1619" s="13" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="1620" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B1620" s="87" t="s">
-        <v>139</v>
-      </c>
-      <c r="C1620" s="11" t="s">
-        <v>388</v>
+        <v>258</v>
+      </c>
+    </row>
+    <row r="1620" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1620" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1620" s="11">
+        <v>42590</v>
       </c>
       <c r="D1620" s="14" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E1620" s="9" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F1620" s="13" t="s">
-        <v>345</v>
-      </c>
-      <c r="G1620" s="88" t="s">
-        <v>380</v>
+        <v>246</v>
       </c>
     </row>
     <row r="1621" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1621" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1621" s="11" t="s">
-        <v>388</v>
+      <c r="B1621" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1621" s="11">
+        <v>42590</v>
       </c>
       <c r="D1621" s="14" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E1621" s="9" t="s">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="F1621" s="13" t="s">
-        <v>163</v>
+        <v>48</v>
+      </c>
+      <c r="G1621" s="89" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="1622" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1622" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1622" s="11" t="s">
-        <v>388</v>
+      <c r="B1622" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1622" s="11">
+        <v>42590</v>
       </c>
       <c r="D1622" s="14" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E1622" s="9" t="s">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="F1622" s="13" t="s">
-        <v>241</v>
+        <v>55</v>
+      </c>
+      <c r="G1622" s="89" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="1623" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1623" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="C1623" s="11" t="s">
-        <v>388</v>
+      <c r="C1623" s="11">
+        <v>42590</v>
       </c>
       <c r="D1623" s="14" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E1623" s="9" t="s">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="F1623" s="13" t="s">
-        <v>235</v>
+        <v>54</v>
       </c>
     </row>
     <row r="1624" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1624" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="C1624" s="11" t="s">
-        <v>388</v>
+      <c r="C1624" s="11">
+        <v>42590</v>
       </c>
       <c r="D1624" s="14" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E1624" s="9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="F1624" s="13" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
     </row>
     <row r="1625" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1625" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="C1625" s="11" t="s">
-        <v>388</v>
+      <c r="C1625" s="11">
+        <v>42590</v>
       </c>
       <c r="D1625" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E1625" s="9" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="F1625" s="13" t="s">
-        <v>166</v>
+        <v>81</v>
       </c>
     </row>
     <row r="1626" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1626" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="C1626" s="11" t="s">
-        <v>388</v>
+      <c r="C1626" s="11">
+        <v>42590</v>
       </c>
       <c r="D1626" s="14" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E1626" s="9" t="s">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="F1626" s="13" t="s">
-        <v>234</v>
+        <v>59</v>
       </c>
       <c r="G1626" s="89" t="s">
         <v>162</v>
@@ -36807,17 +36786,17 @@
       <c r="B1627" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="C1627" s="11" t="s">
-        <v>388</v>
+      <c r="C1627" s="11">
+        <v>42590</v>
       </c>
       <c r="D1627" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E1627" s="9" t="s">
-        <v>26</v>
+        <v>110</v>
       </c>
       <c r="F1627" s="13" t="s">
-        <v>37</v>
+        <v>277</v>
       </c>
       <c r="G1627" s="89" t="s">
         <v>162</v>
@@ -36827,187 +36806,184 @@
       <c r="B1628" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="C1628" s="11" t="s">
-        <v>388</v>
+      <c r="C1628" s="11">
+        <v>42590</v>
       </c>
       <c r="D1628" s="14" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E1628" s="9" t="s">
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="F1628" s="13" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="1629" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1629" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1629" s="11" t="s">
-        <v>388</v>
+      <c r="B1629" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1629" s="11">
+        <v>42590</v>
       </c>
       <c r="D1629" s="14" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E1629" s="9" t="s">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="F1629" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G1629" s="89" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
     </row>
     <row r="1630" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1630" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="C1630" s="11" t="s">
-        <v>388</v>
+      <c r="C1630" s="11">
+        <v>42590</v>
       </c>
       <c r="D1630" s="14" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E1630" s="9" t="s">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="F1630" s="13" t="s">
-        <v>54</v>
+        <v>190</v>
       </c>
     </row>
     <row r="1631" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1631" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="C1631" s="11" t="s">
-        <v>388</v>
+      <c r="C1631" s="11">
+        <v>42590</v>
       </c>
       <c r="D1631" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E1631" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F1631" s="13" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="1632" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1632" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1632" s="11" t="s">
-        <v>388</v>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="1632" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B1632" s="87" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1632" s="11">
+        <v>42590</v>
       </c>
       <c r="D1632" s="14" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E1632" s="9" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="F1632" s="13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="1633" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1633" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1633" s="11" t="s">
-        <v>388</v>
+        <v>345</v>
+      </c>
+      <c r="G1632" s="88" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="1633" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B1633" s="87" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1633" s="11">
+        <v>42590</v>
       </c>
       <c r="D1633" s="14" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E1633" s="9" t="s">
-        <v>112</v>
+        <v>21</v>
       </c>
       <c r="F1633" s="13" t="s">
-        <v>41</v>
+        <v>330</v>
+      </c>
+      <c r="G1633" s="88" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="1634" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1634" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="C1634" s="11" t="s">
-        <v>388</v>
+      <c r="C1634" s="11">
+        <v>42590</v>
       </c>
       <c r="D1634" s="14" t="s">
         <v>35</v>
       </c>
       <c r="E1634" s="9" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="F1634" s="13" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
     </row>
     <row r="1635" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1635" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="C1635" s="11" t="s">
-        <v>388</v>
+      <c r="C1635" s="11">
+        <v>42590</v>
       </c>
       <c r="D1635" s="14" t="s">
         <v>35</v>
       </c>
       <c r="E1635" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1635" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1636" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1636" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1636" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1636" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1636" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="F1635" s="13" t="s">
+      <c r="F1636" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="1637" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1637" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1637" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1637" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1637" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1637" s="13" t="s">
         <v>165</v>
-      </c>
-    </row>
-    <row r="1636" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1636" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1636" s="11" t="s">
-        <v>388</v>
-      </c>
-      <c r="D1636" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1636" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1636" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="G1636" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1637" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1637" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1637" s="11" t="s">
-        <v>388</v>
-      </c>
-      <c r="D1637" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1637" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1637" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="G1637" s="89" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="1638" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1638" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="C1638" s="11" t="s">
-        <v>388</v>
+      <c r="C1638" s="11">
+        <v>42590</v>
       </c>
       <c r="D1638" s="14" t="s">
         <v>46</v>
@@ -37016,7 +36992,7 @@
         <v>129</v>
       </c>
       <c r="F1638" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G1638" s="89" t="s">
         <v>162</v>
@@ -37026,8 +37002,8 @@
       <c r="B1639" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="C1639" s="11" t="s">
-        <v>388</v>
+      <c r="C1639" s="11">
+        <v>42590</v>
       </c>
       <c r="D1639" s="14" t="s">
         <v>46</v>
@@ -37036,7 +37012,7 @@
         <v>129</v>
       </c>
       <c r="F1639" s="13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G1639" s="89" t="s">
         <v>162</v>
@@ -37046,8 +37022,8 @@
       <c r="B1640" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="C1640" s="11" t="s">
-        <v>388</v>
+      <c r="C1640" s="11">
+        <v>42590</v>
       </c>
       <c r="D1640" s="14" t="s">
         <v>46</v>
@@ -37056,7 +37032,7 @@
         <v>129</v>
       </c>
       <c r="F1640" s="13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G1640" s="89" t="s">
         <v>162</v>
@@ -37066,8 +37042,8 @@
       <c r="B1641" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="C1641" s="11" t="s">
-        <v>388</v>
+      <c r="C1641" s="11">
+        <v>42590</v>
       </c>
       <c r="D1641" s="14" t="s">
         <v>46</v>
@@ -37076,7 +37052,7 @@
         <v>129</v>
       </c>
       <c r="F1641" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G1641" s="89" t="s">
         <v>162</v>
@@ -37086,17 +37062,17 @@
       <c r="B1642" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="C1642" s="11" t="s">
-        <v>388</v>
+      <c r="C1642" s="11">
+        <v>42590</v>
       </c>
       <c r="D1642" s="14" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E1642" s="9" t="s">
-        <v>21</v>
+        <v>129</v>
       </c>
       <c r="F1642" s="13" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="G1642" s="89" t="s">
         <v>162</v>
@@ -37106,108 +37082,96 @@
       <c r="B1643" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="C1643" s="11" t="s">
-        <v>388</v>
+      <c r="C1643" s="11">
+        <v>42590</v>
       </c>
       <c r="D1643" s="14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E1643" s="9" t="s">
-        <v>25</v>
+        <v>129</v>
       </c>
       <c r="F1643" s="13" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="G1643" s="89" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="1644" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B1644" s="87" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1644" s="11" t="s">
-        <v>388</v>
+    <row r="1644" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1644" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1644" s="11">
+        <v>42590</v>
       </c>
       <c r="D1644" s="14" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E1644" s="9" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="F1644" s="13" t="s">
-        <v>330</v>
-      </c>
-      <c r="G1644" s="88" t="s">
-        <v>361</v>
+        <v>163</v>
       </c>
     </row>
     <row r="1645" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1645" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1645" s="11" t="s">
-        <v>388</v>
+      <c r="B1645" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1645" s="11">
+        <v>42590</v>
       </c>
       <c r="D1645" s="14" t="s">
         <v>46</v>
       </c>
       <c r="E1645" s="9" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F1645" s="13" t="s">
-        <v>272</v>
-      </c>
-      <c r="G1645" s="89" t="s">
-        <v>162</v>
+        <v>241</v>
       </c>
     </row>
     <row r="1646" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1646" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1646" s="11" t="s">
-        <v>388</v>
+      <c r="B1646" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1646" s="11">
+        <v>42590</v>
       </c>
       <c r="D1646" s="14" t="s">
         <v>46</v>
       </c>
       <c r="E1646" s="9" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F1646" s="13" t="s">
-        <v>323</v>
-      </c>
-      <c r="G1646" s="89" t="s">
-        <v>162</v>
+        <v>235</v>
       </c>
     </row>
     <row r="1647" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1647" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1647" s="11" t="s">
-        <v>388</v>
+      <c r="B1647" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1647" s="11">
+        <v>42590</v>
       </c>
       <c r="D1647" s="14" t="s">
         <v>46</v>
       </c>
       <c r="E1647" s="9" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F1647" s="13" t="s">
-        <v>360</v>
-      </c>
-      <c r="G1647" s="89" t="s">
-        <v>162</v>
+        <v>185</v>
       </c>
     </row>
     <row r="1648" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1648" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="C1648" s="11" t="s">
-        <v>388</v>
+      <c r="C1648" s="11">
+        <v>42590</v>
       </c>
       <c r="D1648" s="14" t="s">
         <v>46</v>
@@ -37216,18 +37180,18 @@
         <v>103</v>
       </c>
       <c r="F1648" s="13" t="s">
-        <v>197</v>
+        <v>272</v>
       </c>
       <c r="G1648" s="89" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="1649" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1649" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1649" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="C1649" s="11" t="s">
-        <v>388</v>
+      <c r="C1649" s="11">
+        <v>42590</v>
       </c>
       <c r="D1649" s="14" t="s">
         <v>46</v>
@@ -37236,202 +37200,8546 @@
         <v>103</v>
       </c>
       <c r="F1649" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="G1649" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1650" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1650" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1650" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1650" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1650" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1650" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="G1650" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1651" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1651" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1651" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1651" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1651" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1651" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="G1651" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1652" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1652" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1652" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1652" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1652" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1652" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="G1649" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1650" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1650" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1650" s="11" t="s">
-        <v>388</v>
-      </c>
-      <c r="D1650" s="14" t="s">
+      <c r="G1652" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1653" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1653" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1653" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1653" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1653" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F1653" s="13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="1654" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1654" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1654" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1654" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E1650" s="9" t="s">
+      <c r="E1654" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F1650" s="13" t="s">
+      <c r="F1654" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="G1650" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1651" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B1651" s="87" t="s">
-        <v>152</v>
-      </c>
-      <c r="C1651" s="11" t="s">
-        <v>388</v>
-      </c>
-      <c r="D1651" s="14" t="s">
+      <c r="G1654" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1655" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1655" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1655" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1655" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E1651" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1651" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="G1651" s="88" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="1652" spans="2:8" s="111" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B1652" s="112"/>
-      <c r="C1652" s="113"/>
-      <c r="D1652" s="114"/>
-      <c r="F1652" s="114"/>
-      <c r="G1652" s="115"/>
-      <c r="H1652" s="114"/>
-    </row>
-    <row r="1653" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1653" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1653" s="11" t="s">
-        <v>388</v>
-      </c>
-      <c r="D1653" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1653" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="F1653" s="13" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="1654" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1654" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1654" s="11" t="s">
-        <v>388</v>
-      </c>
-      <c r="D1654" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1654" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="F1654" s="13" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="1655" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1655" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1655" s="11" t="s">
-        <v>388</v>
-      </c>
-      <c r="D1655" s="14" t="s">
-        <v>30</v>
-      </c>
       <c r="E1655" s="9" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="F1655" s="13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="1656" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1656" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1656" s="11" t="s">
-        <v>388</v>
+        <v>234</v>
+      </c>
+      <c r="G1655" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1656" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1656" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1656" s="11">
+        <v>42590</v>
       </c>
       <c r="D1656" s="14" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E1656" s="9" t="s">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="F1656" s="13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="1657" spans="2:8" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="G1656" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1657" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1657" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="C1657" s="11" t="s">
-        <v>388</v>
+      <c r="C1657" s="11">
+        <v>42590</v>
       </c>
       <c r="D1657" s="14" t="s">
         <v>30</v>
       </c>
       <c r="E1657" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1657" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="1658" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1658" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1658" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1658" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1658" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1658" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1659" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1659" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1659" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1659" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1659" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1659" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="1660" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1660" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1660" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1660" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1660" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1660" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1661" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1661" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1661" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1661" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1661" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F1657" s="13" t="s">
+      <c r="F1661" s="13" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="1658" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B1658" s="87" t="s">
-        <v>150</v>
-      </c>
-      <c r="C1658" s="11" t="s">
+    <row r="1662" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1662" s="87" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1662" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1662" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1662" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1662" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="G1662" s="88" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="1663" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1663" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1663" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1663" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="E1663" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1663" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="G1663" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1664" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1664" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1664" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1664" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="E1664" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1664" s="13" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1665" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1665" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1665" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1665" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="E1665" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1665" s="13" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1666" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1666" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1666" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1666" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="E1666" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1666" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="G1666" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1667" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1667" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1667" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1667" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="E1667" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1667" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="G1667" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1668" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1668" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1668" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1668" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="E1668" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1668" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="G1668" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1669" spans="2:8" s="104" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1669" s="105"/>
+      <c r="C1669" s="106"/>
+      <c r="D1669" s="107" t="s">
+        <v>387</v>
+      </c>
+      <c r="F1669" s="108"/>
+      <c r="G1669" s="109"/>
+      <c r="H1669" s="110"/>
+    </row>
+    <row r="1670" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1670" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1670" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1670" s="14" t="s">
         <v>388</v>
       </c>
-      <c r="D1658" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="E1658" s="9" t="s">
+      <c r="E1670" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1670" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="G1670" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1671" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1671" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1671" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1671" s="14" t="s">
+        <v>388</v>
+      </c>
+      <c r="E1671" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1671" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="G1671" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1672" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1672" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1672" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1672" s="14" t="s">
+        <v>389</v>
+      </c>
+      <c r="E1672" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1672" s="13" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="1673" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1673" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1673" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1673" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="E1673" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1673" s="13" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="1674" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1674" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1674" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1674" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1674" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1674" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1674" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1675" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1675" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1675" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1675" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1675" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1675" s="13" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="1676" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1676" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1676" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1676" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1676" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1676" s="13" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="1677" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1677" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1677" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1677" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1677" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1677" s="13" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="1678" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1678" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1678" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1678" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1678" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1678" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1678" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1679" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1679" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1679" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1679" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1679" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1679" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1679" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1680" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1680" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1680" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1680" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1680" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1680" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="1681" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1681" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1681" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1681" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1681" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1681" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="1682" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1682" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1682" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1682" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1682" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1682" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1683" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1683" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1683" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1683" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1683" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1683" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1683" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1684" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1684" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1684" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1684" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1684" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1684" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="G1684" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1685" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1685" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1685" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1685" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1685" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1685" s="13" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="1686" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1686" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1686" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1686" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1686" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1686" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="1687" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1687" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1687" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1687" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1687" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1687" s="13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="1688" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1688" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1688" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1688" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1688" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1688" s="13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="1689" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B1689" s="87" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1689" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1689" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1689" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1689" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="G1689" s="88" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="1690" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B1690" s="87" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1690" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1690" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1690" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1690" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="G1690" s="88" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="1691" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1691" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1691" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1691" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1691" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="F1658" s="13" t="s">
+      <c r="F1691" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="1692" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1692" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1692" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1692" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1692" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1692" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1693" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1693" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1693" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1693" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1693" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1693" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="1694" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1694" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1694" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1694" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1694" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1694" s="13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="1695" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1695" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1695" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1695" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1695" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1695" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1695" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1696" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1696" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1696" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1696" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1696" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1696" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1696" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1697" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1697" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1697" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1697" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1697" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1697" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1697" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1698" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1698" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1698" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1698" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1698" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1698" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1698" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1699" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1699" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1699" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1699" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1699" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1699" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1699" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1700" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1700" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1700" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1700" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1700" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1700" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1700" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1701" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1701" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1701" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1701" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1701" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1701" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="1702" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1702" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1702" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1702" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1702" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1702" s="13" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="1703" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1703" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1703" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1703" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1703" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1703" s="13" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="1704" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1704" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1704" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1704" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1704" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1704" s="13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="1705" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1705" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1705" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1705" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1705" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1705" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="G1705" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1706" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1706" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1706" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1706" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1706" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1706" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="G1706" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1707" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1707" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1707" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1707" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1707" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1707" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="G1707" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1708" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1708" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1708" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1708" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1708" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1708" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="G1708" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1709" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1709" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1709" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1709" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1709" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1709" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="G1709" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1710" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1710" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1710" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1710" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1710" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F1710" s="13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="1711" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1711" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1711" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1711" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1711" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1711" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1711" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1712" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1712" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1712" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1712" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1712" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1712" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="G1712" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1713" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1713" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1713" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1713" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1713" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1713" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1713" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1714" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1714" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1714" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1714" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1714" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1714" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="1715" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1715" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1715" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1715" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1715" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1715" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1716" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1716" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1716" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1716" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1716" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1716" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="1717" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1717" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1717" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1717" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1717" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1717" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1718" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1718" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1718" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1718" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1718" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1718" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1719" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1719" s="87" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1719" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1719" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1719" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1719" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="G1719" s="88" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="1720" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1720" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1720" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1720" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="E1720" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1720" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="G1720" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1721" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1721" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1721" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1721" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="E1721" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1721" s="13" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1722" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1722" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1722" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1722" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="E1722" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1722" s="13" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1723" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1723" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1723" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1723" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="E1723" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1723" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="G1658" s="88" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="1659" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1659" s="87" t="s">
+      <c r="G1723" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1724" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1724" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1724" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1724" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="E1724" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1724" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="G1724" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1725" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1725" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1725" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1725" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="E1725" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1725" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="G1725" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1726" spans="2:8" s="104" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1726" s="105"/>
+      <c r="C1726" s="106"/>
+      <c r="D1726" s="107" t="s">
+        <v>387</v>
+      </c>
+      <c r="F1726" s="108"/>
+      <c r="G1726" s="109"/>
+      <c r="H1726" s="110"/>
+    </row>
+    <row r="1727" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1727" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1727" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1727" s="14" t="s">
+        <v>388</v>
+      </c>
+      <c r="E1727" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1727" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="G1727" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1728" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1728" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1728" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1728" s="14" t="s">
+        <v>388</v>
+      </c>
+      <c r="E1728" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1728" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="G1728" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1729" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1729" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1729" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1729" s="14" t="s">
+        <v>389</v>
+      </c>
+      <c r="E1729" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1729" s="13" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="1730" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1730" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1730" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1730" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="E1730" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1730" s="13" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="1731" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1731" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1731" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1731" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1731" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1731" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1731" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1732" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1732" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1732" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1732" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1732" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1732" s="13" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="1733" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1733" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1733" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1733" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1733" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1733" s="13" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="1734" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1734" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1734" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1734" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1734" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1734" s="13" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="1735" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1735" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1735" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1735" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1735" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1735" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1735" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1736" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1736" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1736" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1736" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1736" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1736" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1736" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1737" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1737" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1737" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1737" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1737" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1737" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="1738" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1738" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1738" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1738" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1738" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1738" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="1739" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1739" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1739" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1739" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1739" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1739" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1740" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1740" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1740" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1740" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1740" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1740" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1740" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1741" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1741" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1741" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1741" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1741" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1741" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="G1741" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1742" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1742" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1742" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1742" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1742" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1742" s="13" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="1743" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1743" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1743" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1743" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1743" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1743" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="1744" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1744" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1744" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1744" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1744" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1744" s="13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="1745" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1745" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1745" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1745" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1745" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1745" s="13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="1746" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B1746" s="87" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1746" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1746" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1746" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1746" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="G1746" s="88" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="1747" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B1747" s="87" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1747" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1747" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1747" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1747" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="G1747" s="88" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="1748" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1748" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1748" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1748" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1748" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1748" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="1749" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1749" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1749" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1749" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1749" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1749" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1750" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1750" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1750" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1750" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1750" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1750" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="1751" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1751" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1751" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1751" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1751" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1751" s="13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="1752" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1752" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1752" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1752" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1752" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1752" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1752" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1753" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1753" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1753" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1753" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1753" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1753" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1753" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1754" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1754" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1754" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1754" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1754" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1754" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1754" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1755" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1755" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1755" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1755" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1755" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1755" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1755" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1756" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1756" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1756" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1756" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1756" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1756" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1756" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1757" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1757" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1757" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1757" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1757" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1757" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1757" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1758" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1758" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1758" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1758" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1758" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1758" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="1759" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1759" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1759" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1759" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1759" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1759" s="13" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="1760" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1760" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1760" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1760" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1760" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1760" s="13" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="1761" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1761" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1761" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1761" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1761" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1761" s="13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="1762" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1762" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1762" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1762" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1762" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1762" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="G1762" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1763" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1763" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1763" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1763" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1763" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1763" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="G1763" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1764" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1764" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1764" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1764" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1764" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1764" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="G1764" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1765" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1765" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1765" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1765" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1765" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1765" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="G1765" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1766" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1766" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1766" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1766" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1766" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1766" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="G1766" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1767" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1767" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1767" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1767" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1767" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F1767" s="13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="1768" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1768" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1768" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1768" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1768" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1768" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1768" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1769" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1769" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1769" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1769" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1769" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1769" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="G1769" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1770" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1770" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1770" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1770" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1770" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1770" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1770" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1771" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1771" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1771" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1771" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1771" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1771" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="1772" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1772" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1772" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1772" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1772" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1772" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1773" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1773" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1773" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1773" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1773" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1773" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="1774" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1774" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1774" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1774" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1774" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1774" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1775" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1775" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1775" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1775" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1775" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1775" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1776" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1776" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="C1659" s="11" t="s">
+      <c r="C1776" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1776" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1776" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1776" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="G1776" s="88" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="1777" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1777" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1777" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1777" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="E1777" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1777" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="G1777" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1778" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1778" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1778" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1778" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="E1778" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1778" s="13" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1779" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1779" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1779" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1779" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="E1779" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1779" s="13" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1780" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1780" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1780" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1780" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="E1780" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1780" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="G1780" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1781" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1781" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1781" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1781" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="E1781" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1781" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="G1781" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1782" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1782" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1782" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1782" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="E1782" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1782" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="G1782" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1783" spans="2:8" s="104" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1783" s="105"/>
+      <c r="C1783" s="106"/>
+      <c r="D1783" s="107" t="s">
+        <v>387</v>
+      </c>
+      <c r="F1783" s="108"/>
+      <c r="G1783" s="109"/>
+      <c r="H1783" s="110"/>
+    </row>
+    <row r="1784" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1784" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1784" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1784" s="14" t="s">
         <v>388</v>
       </c>
-      <c r="D1659" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="E1659" s="9" t="s">
+      <c r="E1784" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1784" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="G1784" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1785" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1785" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1785" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1785" s="14" t="s">
+        <v>388</v>
+      </c>
+      <c r="E1785" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1785" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="G1785" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1786" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1786" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1786" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1786" s="14" t="s">
+        <v>389</v>
+      </c>
+      <c r="E1786" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1786" s="13" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="1787" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1787" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1787" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1787" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="E1787" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1787" s="13" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="1788" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1788" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1788" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1788" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1788" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1788" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1788" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1789" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1789" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1789" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1789" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1789" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1789" s="13" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="1790" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1790" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1790" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1790" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1790" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1790" s="13" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="1791" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1791" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1791" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1791" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1791" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1791" s="13" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="1792" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1792" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1792" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1792" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1792" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1792" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1792" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1793" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1793" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1793" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1793" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1793" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1793" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1793" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1794" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1794" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1794" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1794" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1794" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1794" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="1795" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1795" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1795" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1795" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1795" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1795" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="1796" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1796" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1796" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1796" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1796" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1796" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1797" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1797" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1797" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1797" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1797" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1797" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1797" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1798" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1798" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1798" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1798" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1798" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1798" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="G1798" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1799" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1799" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1799" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1799" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1799" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1799" s="13" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="1800" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1800" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1800" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1800" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1800" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1800" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="1801" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1801" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1801" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1801" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1801" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1801" s="13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="1802" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1802" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1802" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1802" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1802" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1802" s="13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="1803" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B1803" s="87" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1803" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1803" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1803" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1803" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="G1803" s="88" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="1804" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B1804" s="87" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1804" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1804" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1804" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1804" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="G1804" s="88" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="1805" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1805" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1805" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1805" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1805" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="F1659" s="13" t="s">
+      <c r="F1805" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="1806" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1806" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1806" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1806" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1806" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1806" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1807" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1807" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1807" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1807" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1807" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1807" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="1808" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1808" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1808" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1808" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1808" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1808" s="13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="1809" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1809" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1809" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1809" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1809" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1809" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1809" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1810" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1810" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1810" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1810" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1810" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1810" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1810" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1811" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1811" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1811" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1811" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1811" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1811" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1811" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1812" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1812" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1812" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1812" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1812" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1812" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1812" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1813" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1813" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1813" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1813" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1813" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1813" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1813" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1814" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1814" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1814" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1814" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1814" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1814" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1814" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1815" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1815" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1815" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1815" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1815" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1815" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="1816" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1816" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1816" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1816" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1816" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1816" s="13" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="1817" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1817" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1817" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1817" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1817" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1817" s="13" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="1818" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1818" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1818" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1818" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1818" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1818" s="13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="1819" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1819" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1819" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1819" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1819" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1819" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="G1819" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1820" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1820" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1820" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1820" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1820" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1820" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="G1820" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1821" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1821" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1821" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1821" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1821" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1821" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="G1821" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1822" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1822" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1822" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1822" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1822" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1822" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="G1822" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1823" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1823" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1823" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1823" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1823" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1823" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="G1823" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1824" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1824" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1824" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1824" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1824" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F1824" s="13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="1825" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1825" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1825" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1825" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1825" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1825" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1825" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1826" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1826" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1826" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1826" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1826" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1826" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="G1826" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1827" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1827" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1827" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1827" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1827" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1827" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1827" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1828" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1828" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1828" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1828" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1828" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1828" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="1829" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1829" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1829" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1829" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1829" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1829" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1830" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1830" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1830" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1830" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1830" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1830" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="1831" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1831" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1831" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1831" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1831" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1831" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1832" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1832" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1832" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1832" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1832" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1832" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1833" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1833" s="87" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1833" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1833" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1833" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1833" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="G1833" s="88" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="1834" spans="2:8" s="104" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1834" s="105"/>
+      <c r="C1834" s="106"/>
+      <c r="D1834" s="107" t="s">
+        <v>387</v>
+      </c>
+      <c r="F1834" s="108"/>
+      <c r="G1834" s="109"/>
+      <c r="H1834" s="110"/>
+    </row>
+    <row r="1835" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1835" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1835" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1835" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="E1835" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1835" s="13" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="1836" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1836" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1836" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1836" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1836" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1836" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1836" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1837" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1837" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1837" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1837" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1837" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1837" s="13" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="1838" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1838" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1838" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1838" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1838" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1838" s="13" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="1839" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1839" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1839" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1839" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1839" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1839" s="13" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="1840" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1840" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1840" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1840" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1840" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1840" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1840" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1841" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1841" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1841" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1841" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1841" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1841" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1841" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1842" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1842" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1842" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1842" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1842" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1842" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="1843" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1843" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1843" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1843" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1843" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1843" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="1844" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1844" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1844" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1844" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1844" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1844" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1845" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1845" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1845" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1845" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1845" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1845" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1845" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1846" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1846" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1846" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1846" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1846" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1846" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="G1846" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1847" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1847" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1847" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1847" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1847" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1847" s="13" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="1848" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1848" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1848" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1848" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1848" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1848" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="1849" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1849" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1849" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1849" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1849" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1849" s="13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="1850" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1850" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1850" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1850" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1850" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1850" s="13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="1851" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B1851" s="87" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1851" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1851" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1851" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1851" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="G1851" s="88" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="1852" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B1852" s="87" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1852" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1852" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1852" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1852" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="G1852" s="88" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="1853" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1853" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1853" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1853" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1853" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1853" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="1854" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1854" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1854" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1854" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1854" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1854" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1855" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1855" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1855" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1855" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1855" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1855" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="1856" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1856" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1856" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1856" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1856" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1856" s="13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="1857" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1857" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1857" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1857" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1857" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1857" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1857" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1858" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1858" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1858" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1858" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1858" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1858" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1858" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1859" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1859" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1859" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1859" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1859" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1859" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1859" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1860" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1860" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1860" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1860" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1860" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1860" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1860" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1861" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1861" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1861" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1861" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1861" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1861" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1861" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1862" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1862" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1862" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1862" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1862" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1862" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1862" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1863" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1863" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1863" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1863" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1863" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1863" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="1864" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1864" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1864" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1864" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1864" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1864" s="13" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="1865" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1865" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1865" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1865" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1865" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1865" s="13" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="1866" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1866" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1866" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1866" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1866" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1866" s="13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="1867" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1867" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1867" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1867" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1867" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1867" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="G1867" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1868" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1868" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1868" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1868" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1868" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1868" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="G1868" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1869" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1869" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1869" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1869" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1869" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1869" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="G1869" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1870" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1870" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1870" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1870" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1870" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1870" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="G1870" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1871" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1871" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1871" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1871" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1871" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1871" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="G1871" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1872" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1872" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1872" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1872" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1872" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F1872" s="13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="1873" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1873" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1873" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1873" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1873" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1873" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1873" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1874" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1874" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1874" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1874" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1874" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1874" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="G1874" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1875" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1875" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1875" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1875" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1875" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1875" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1875" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1876" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1876" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1876" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1876" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1876" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1876" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="1877" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1877" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1877" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1877" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1877" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1877" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1878" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1878" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1878" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1878" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1878" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1878" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="1879" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1879" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1879" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1879" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1879" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1879" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1880" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1880" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1880" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1880" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1880" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1880" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1881" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1881" s="87" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1881" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1881" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1881" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1881" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="G1881" s="88" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="1882" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1882" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1882" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1882" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="E1882" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1882" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="G1882" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1883" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1883" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1883" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1883" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="E1883" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1883" s="13" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1884" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1884" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1884" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1884" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="E1884" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1884" s="13" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1885" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1885" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1885" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1885" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="E1885" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1885" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="G1659" s="88" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="1660" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1660" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1660" s="11" t="s">
+      <c r="G1885" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1886" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1886" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1886" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1886" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="E1886" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1886" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="G1886" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1887" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1887" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1887" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1887" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="E1887" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1887" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="G1887" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1888" spans="2:8" s="104" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1888" s="105"/>
+      <c r="C1888" s="106"/>
+      <c r="D1888" s="107" t="s">
+        <v>387</v>
+      </c>
+      <c r="F1888" s="108"/>
+      <c r="G1888" s="109"/>
+      <c r="H1888" s="110"/>
+    </row>
+    <row r="1889" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1889" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1889" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1889" s="14" t="s">
         <v>388</v>
       </c>
-      <c r="D1660" s="14" t="s">
+      <c r="E1889" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1889" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="G1889" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1890" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1890" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1890" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1890" s="14" t="s">
+        <v>388</v>
+      </c>
+      <c r="E1890" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1890" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="G1890" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1891" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1891" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1891" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1891" s="14" t="s">
+        <v>389</v>
+      </c>
+      <c r="E1891" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1891" s="13" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="1892" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1892" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1892" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1892" s="14" t="s">
         <v>390</v>
       </c>
-      <c r="E1660" s="9" t="s">
+      <c r="E1892" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1892" s="13" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="1893" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1893" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1893" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1893" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1893" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1893" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1893" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1894" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1894" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1894" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1894" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1894" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1894" s="13" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="1895" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1895" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1895" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1895" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1895" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1895" s="13" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="1896" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1896" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1896" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1896" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1896" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F1660" s="13" t="s">
+      <c r="F1896" s="13" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="1897" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1897" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1897" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1897" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1897" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1897" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1897" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1898" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1898" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1898" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1898" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1898" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1898" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1898" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1899" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1899" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1899" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1899" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1899" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1899" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="1900" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1900" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1900" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1900" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1900" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1900" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="1901" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1901" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1901" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1901" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1901" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1901" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1902" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1902" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1902" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1902" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1902" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1902" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1902" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1903" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1903" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1903" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1903" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1903" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1903" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="G1903" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1904" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1904" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1904" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1904" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1904" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1904" s="13" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="1905" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1905" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1905" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1905" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1905" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1905" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="1906" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1906" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1906" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1906" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1906" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1906" s="13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="1907" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1907" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1907" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1907" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1907" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1907" s="13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="1908" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B1908" s="87" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1908" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1908" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1908" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1908" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="G1908" s="88" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="1909" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B1909" s="87" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1909" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1909" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1909" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1909" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="G1909" s="88" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="1910" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1910" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1910" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1910" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1910" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1910" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="1911" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1911" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1911" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1911" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1911" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1911" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1912" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1912" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1912" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1912" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1912" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1912" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="1913" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1913" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1913" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1913" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1913" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1913" s="13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="1914" spans="2:8" s="104" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1914" s="105"/>
+      <c r="C1914" s="106"/>
+      <c r="D1914" s="107" t="s">
+        <v>387</v>
+      </c>
+      <c r="F1914" s="108"/>
+      <c r="G1914" s="109"/>
+      <c r="H1914" s="110"/>
+    </row>
+    <row r="1915" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1915" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1915" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1915" s="14" t="s">
+        <v>388</v>
+      </c>
+      <c r="E1915" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1915" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="G1915" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1916" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1916" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1916" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1916" s="14" t="s">
+        <v>388</v>
+      </c>
+      <c r="E1916" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1916" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="G1916" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1917" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1917" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1917" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1917" s="14" t="s">
+        <v>389</v>
+      </c>
+      <c r="E1917" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1917" s="13" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="1918" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1918" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1918" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1918" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="E1918" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1918" s="13" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="1919" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1919" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1919" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1919" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1919" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1919" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1919" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1920" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1920" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1920" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1920" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1920" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1920" s="13" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="1921" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1921" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1921" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1921" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1921" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1921" s="13" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="1922" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1922" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1922" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1922" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1922" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1922" s="13" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="1923" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1923" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1923" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1923" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1923" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1923" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1923" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1924" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1924" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1924" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1924" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1924" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1924" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1924" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1925" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1925" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1925" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1925" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1925" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1925" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="1926" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1926" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1926" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1926" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1926" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1926" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="1927" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1927" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1927" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1927" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1927" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1927" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1928" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1928" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1928" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1928" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1928" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1928" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1928" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1929" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1929" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1929" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1929" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1929" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1929" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="G1929" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1930" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1930" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1930" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1930" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1930" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1930" s="13" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="1931" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1931" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1931" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1931" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1931" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1931" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="1932" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1932" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1932" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1932" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1932" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1932" s="13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="1933" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1933" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1933" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1933" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1933" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1933" s="13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="1934" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B1934" s="87" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1934" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1934" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1934" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1934" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="G1934" s="88" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="1935" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B1935" s="87" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1935" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1935" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1935" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1935" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="G1935" s="88" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="1936" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1936" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1936" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1936" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1936" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1936" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="1937" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1937" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1937" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1937" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1937" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1937" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1938" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1938" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1938" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1938" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1938" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1938" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="1939" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1939" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1939" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1939" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1939" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1939" s="13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="1940" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1940" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1940" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1940" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1940" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1940" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1940" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1941" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1941" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1941" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1941" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1941" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1941" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1941" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1942" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1942" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1942" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1942" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1942" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1942" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1942" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1943" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1943" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1943" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1943" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1943" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1943" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1943" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1944" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1944" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1944" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1944" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1944" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1944" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1944" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1945" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1945" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1945" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1945" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1945" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1945" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1945" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1946" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1946" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1946" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1946" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1946" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1946" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="1947" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1947" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1947" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1947" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1947" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1947" s="13" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="1948" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1948" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1948" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1948" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1948" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1948" s="13" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="1949" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1949" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1949" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1949" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1949" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1949" s="13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="1950" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1950" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1950" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1950" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1950" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1950" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="G1950" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1951" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1951" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1951" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1951" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1951" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1951" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="G1951" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1952" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1952" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1952" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1952" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1952" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1952" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="G1952" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1953" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1953" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1953" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1953" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1953" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1953" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="G1953" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1954" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1954" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1954" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1954" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1954" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1954" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="G1954" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1955" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1955" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1955" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1955" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1955" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F1955" s="13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="1956" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1956" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1956" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1956" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1956" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1956" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1956" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1957" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1957" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1957" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1957" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1957" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1957" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="G1957" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1958" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1958" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1958" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1958" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1958" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1958" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1958" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1959" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1959" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1959" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1959" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1959" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1959" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="1960" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1960" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1960" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1960" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1960" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1960" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1961" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1961" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1961" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1961" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1961" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1961" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="1962" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1962" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1962" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1962" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1962" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1962" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1963" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1963" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1963" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1963" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1963" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1963" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1964" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1964" s="87" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1964" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1964" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1964" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1964" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="G1964" s="88" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="1965" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1965" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1965" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1965" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="E1965" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1965" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="G1660" s="89" t="s">
+      <c r="G1965" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1966" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1966" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1966" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1966" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="E1966" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1966" s="13" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1967" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1967" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1967" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1967" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="E1967" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1967" s="13" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1968" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1968" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1968" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1968" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="E1968" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1968" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="G1968" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1969" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1969" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1969" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1969" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="E1969" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1969" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="G1969" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1970" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1970" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1970" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1970" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="E1970" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1970" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="G1970" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1971" spans="2:8" s="104" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1971" s="105"/>
+      <c r="C1971" s="106"/>
+      <c r="D1971" s="107" t="s">
+        <v>387</v>
+      </c>
+      <c r="F1971" s="108"/>
+      <c r="G1971" s="109"/>
+      <c r="H1971" s="110"/>
+    </row>
+    <row r="1972" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1972" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1972" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1972" s="14" t="s">
+        <v>388</v>
+      </c>
+      <c r="E1972" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1972" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="G1972" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1973" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1973" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1973" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1973" s="14" t="s">
+        <v>388</v>
+      </c>
+      <c r="E1973" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1973" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="G1973" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1974" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1974" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1974" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1974" s="14" t="s">
+        <v>389</v>
+      </c>
+      <c r="E1974" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1974" s="13" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="1975" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1975" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1975" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1975" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="E1975" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1975" s="13" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="1976" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1976" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1976" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1976" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1976" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1976" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1976" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1977" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1977" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1977" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1977" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1977" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1977" s="13" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="1978" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1978" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1978" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1978" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1978" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1978" s="13" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="1979" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1979" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1979" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1979" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1979" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1979" s="13" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="1980" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1980" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1980" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1980" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1980" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1980" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1980" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1981" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1981" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1981" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1981" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1981" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1981" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1981" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1982" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1982" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1982" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1982" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1982" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1982" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="1983" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1983" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1983" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1983" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1983" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1983" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="1984" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1984" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1984" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1984" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1984" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1984" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1985" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1985" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1985" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1985" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1985" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1985" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1985" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1986" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1986" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1986" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1986" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1986" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1986" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="G1986" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1987" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1987" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1987" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1987" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1987" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1987" s="13" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="1988" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1988" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1988" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1988" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1988" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1988" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="1989" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1989" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1989" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1989" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1989" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1989" s="13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="1990" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1990" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1990" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1990" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1990" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1990" s="13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="1991" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B1991" s="87" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1991" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1991" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1991" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1991" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="G1991" s="88" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="1992" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B1992" s="87" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1992" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1992" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1992" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1992" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="G1992" s="88" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="1993" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1993" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1993" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1993" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1993" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1993" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="1994" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1994" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1994" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1994" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1994" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1994" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1995" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1995" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1995" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1995" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1995" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1995" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="1996" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1996" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1996" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1996" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1996" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1996" s="13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="1997" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1997" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1997" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1997" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1997" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1997" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1997" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1998" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1998" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1998" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1998" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1998" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1998" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1998" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1999" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1999" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1999" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D1999" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1999" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1999" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1999" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2000" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2000" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2000" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2000" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2000" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2000" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2000" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2001" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2001" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2001" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2001" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2001" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2001" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2001" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2002" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2002" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2002" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2002" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2002" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2002" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2002" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2003" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2003" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2003" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2003" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2003" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2003" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2004" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2004" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2004" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2004" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2004" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2004" s="13" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="2005" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2005" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2005" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2005" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2005" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2005" s="13" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2006" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2006" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2006" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2006" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2006" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2006" s="13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2007" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2007" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2007" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2007" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2007" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2007" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="G2007" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2008" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2008" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2008" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2008" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2008" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2008" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="G2008" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2009" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2009" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2009" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2009" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2009" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2009" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="G2009" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2010" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2010" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2010" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2010" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2010" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2010" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="G2010" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2011" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2011" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2011" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2011" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2011" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2011" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="G2011" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2012" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2012" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2012" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2012" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2012" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2012" s="13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2013" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2013" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2013" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2013" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2013" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2013" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2013" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2014" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2014" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2014" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2014" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2014" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2014" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="G2014" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2015" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2015" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2015" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2015" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2015" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2015" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2015" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2016" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2016" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2016" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2016" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2016" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2016" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2017" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2017" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2017" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2017" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2017" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2017" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2018" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2018" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2018" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2018" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2018" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2018" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2019" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2019" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2019" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2019" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2019" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2019" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2020" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2020" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2020" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2020" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2020" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2020" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2021" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2021" s="87" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2021" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2021" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2021" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2021" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="G2021" s="88" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="2022" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2022" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2022" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2022" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="E2022" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2022" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="G2022" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2023" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2023" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2023" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2023" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="E2023" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2023" s="13" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="2024" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2024" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2024" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2024" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="E2024" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2024" s="13" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="2025" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2025" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2025" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2025" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="E2025" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2025" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="G2025" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2026" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2026" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2026" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2026" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="E2026" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2026" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="G2026" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2027" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2027" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2027" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2027" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="E2027" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2027" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="G2027" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2028" spans="2:8" s="104" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2028" s="105"/>
+      <c r="C2028" s="106"/>
+      <c r="D2028" s="107" t="s">
+        <v>387</v>
+      </c>
+      <c r="F2028" s="108"/>
+      <c r="G2028" s="109"/>
+      <c r="H2028" s="110"/>
+    </row>
+    <row r="2029" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2029" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2029" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2029" s="14" t="s">
+        <v>388</v>
+      </c>
+      <c r="E2029" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2029" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="G2029" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2030" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2030" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2030" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2030" s="14" t="s">
+        <v>388</v>
+      </c>
+      <c r="E2030" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2030" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="G2030" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2031" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2031" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2031" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2031" s="14" t="s">
+        <v>389</v>
+      </c>
+      <c r="E2031" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2031" s="13" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="2032" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2032" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2032" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2032" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="E2032" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2032" s="13" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="2033" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2033" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2033" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2033" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="E2033" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2033" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2033" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2034" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2034" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2034" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2034" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="E2034" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2034" s="13" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2035" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2035" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2035" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2035" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="E2035" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2035" s="13" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="2036" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2036" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2036" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2036" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2036" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2036" s="13" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="2037" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2037" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2037" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2037" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2037" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2037" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2037" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2038" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2038" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2038" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2038" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2038" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2038" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2038" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2039" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2039" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2039" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2039" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2039" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2039" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2040" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2040" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2040" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2040" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2040" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2040" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2041" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2041" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2041" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2041" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2041" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2041" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2042" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2042" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2042" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2042" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2042" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2042" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2042" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2043" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2043" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2043" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2043" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2043" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2043" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="G2043" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2044" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2044" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2044" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2044" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2044" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2044" s="13" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="2045" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2045" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2045" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2045" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2045" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2045" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2046" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2046" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2046" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2046" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2046" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2046" s="13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2047" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2047" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2047" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2047" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2047" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2047" s="13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2048" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B2048" s="87" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2048" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2048" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2048" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2048" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="G2048" s="88" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="2049" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B2049" s="87" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2049" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2049" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2049" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2049" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="G2049" s="88" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="2050" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2050" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2050" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2050" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2050" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2050" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2051" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2051" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2051" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2051" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2051" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2051" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2052" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2052" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2052" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2052" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2052" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2052" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2053" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2053" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2053" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2053" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2053" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2053" s="13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2054" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2054" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2054" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2054" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2054" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2054" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2054" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2055" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2055" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2055" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2055" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2055" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2055" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2055" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2056" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2056" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2056" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2056" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2056" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2056" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2056" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2057" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2057" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2057" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2057" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2057" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2057" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2057" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2058" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2058" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2058" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2058" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2058" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2058" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2058" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2059" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2059" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2059" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2059" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2059" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2059" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2059" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2060" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2060" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2060" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2060" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2060" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2060" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2061" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2061" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2061" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2061" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2061" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2061" s="13" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="2062" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2062" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2062" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2062" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2062" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2062" s="13" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2063" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2063" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2063" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2063" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2063" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2063" s="13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2064" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2064" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2064" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2064" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2064" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2064" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="G2064" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2065" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2065" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2065" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2065" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2065" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2065" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="G2065" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2066" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2066" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2066" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2066" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2066" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2066" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="G2066" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2067" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2067" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2067" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2067" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2067" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2067" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="G2067" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2068" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2068" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2068" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2068" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2068" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2068" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="G2068" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2069" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2069" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2069" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2069" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2069" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2069" s="13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2070" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2070" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2070" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2070" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2070" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2070" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2070" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2071" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2071" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2071" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2071" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2071" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2071" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="G2071" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2072" spans="2:8" s="104" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2072" s="105"/>
+      <c r="C2072" s="106"/>
+      <c r="D2072" s="107" t="s">
+        <v>387</v>
+      </c>
+      <c r="F2072" s="108"/>
+      <c r="G2072" s="109"/>
+      <c r="H2072" s="110"/>
+    </row>
+    <row r="2073" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2073" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2073" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2073" s="14" t="s">
+        <v>388</v>
+      </c>
+      <c r="E2073" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2073" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="G2073" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2074" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2074" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2074" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2074" s="14" t="s">
+        <v>388</v>
+      </c>
+      <c r="E2074" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2074" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="G2074" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2075" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2075" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2075" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2075" s="14" t="s">
+        <v>389</v>
+      </c>
+      <c r="E2075" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2075" s="13" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="2076" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2076" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2076" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2076" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="E2076" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2076" s="13" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="2077" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2077" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2077" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2077" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="E2077" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2077" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2077" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2078" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2078" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2078" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2078" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="E2078" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2078" s="13" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2079" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2079" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2079" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2079" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="E2079" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2079" s="13" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="2080" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2080" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2080" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2080" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2080" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2080" s="13" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="2081" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2081" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2081" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2081" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2081" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2081" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2081" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2082" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2082" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2082" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2082" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2082" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2082" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2082" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2083" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2083" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2083" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2083" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2083" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2083" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2084" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2084" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2084" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2084" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2084" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2084" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2085" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2085" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2085" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2085" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2085" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2085" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2086" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2086" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2086" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2086" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2086" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2086" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2086" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2087" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2087" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2087" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2087" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2087" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2087" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="G2087" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2088" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2088" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2088" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2088" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2088" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2088" s="13" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="2089" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2089" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2089" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2089" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2089" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2089" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2090" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2090" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2090" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2090" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2090" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2090" s="13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2091" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2091" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2091" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2091" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2091" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2091" s="13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2092" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B2092" s="87" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2092" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2092" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2092" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2092" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="G2092" s="88" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="2093" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B2093" s="87" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2093" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2093" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2093" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2093" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="G2093" s="88" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="2094" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2094" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2094" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2094" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2094" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2094" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2095" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2095" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2095" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2095" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2095" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2095" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2096" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2096" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2096" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2096" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2096" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2096" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2097" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2097" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2097" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2097" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2097" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2097" s="13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2098" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2098" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2098" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2098" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2098" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2098" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2098" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2099" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2099" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2099" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2099" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2099" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2099" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2099" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2100" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2100" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2100" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2100" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2100" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2100" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2100" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2101" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2101" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2101" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2101" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2101" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2101" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2101" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2102" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2102" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2102" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2102" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2102" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2102" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2102" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2103" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2103" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2103" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2103" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2103" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2103" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2103" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2104" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2104" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2104" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2104" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2104" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2104" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2105" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2105" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2105" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2105" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2105" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2105" s="13" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="2106" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2106" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2106" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2106" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2106" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2106" s="13" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2107" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2107" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2107" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2107" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2107" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2107" s="13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2108" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2108" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2108" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2108" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2108" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2108" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="G2108" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2109" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2109" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2109" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2109" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2109" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2109" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="G2109" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2110" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2110" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2110" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2110" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2110" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2110" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="G2110" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2111" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2111" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2111" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2111" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2111" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2111" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="G2111" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2112" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2112" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2112" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2112" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2112" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2112" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="G2112" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2113" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2113" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2113" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2113" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2113" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2113" s="13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2114" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2114" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2114" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2114" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2114" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2114" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2114" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2115" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2115" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2115" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2115" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2115" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2115" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="G2115" s="89" t="s">
         <v>162</v>
       </c>
     </row>

--- a/PW/masterlog.xlsx
+++ b/PW/masterlog.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17030"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhan\Documents\Visual Studio 2015\Projects\ClassOpsLogCreator\CLASSOPS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="270" yWindow="30" windowWidth="14865" windowHeight="10785" tabRatio="440"/>
   </bookViews>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11554" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12442" uniqueCount="395">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1206,11 +1211,14 @@
   <si>
     <t>328A</t>
   </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
@@ -1268,7 +1276,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1351,8 +1359,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1427,6 +1441,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1434,7 +1463,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1748,6 +1777,21 @@
     <xf numFmtId="49" fontId="6" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="15" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="15" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1760,6 +1804,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1808,7 +1855,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1841,9 +1888,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1876,6 +1940,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2055,11 +2136,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H2115"/>
+  <dimension ref="A1:H2327"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1561" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1565" sqref="A1565:H1584"/>
+      <pane ySplit="1" topLeftCell="A2117" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="H2124" sqref="H2124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35878,7 +35959,7 @@
       </c>
       <c r="H1582" s="103"/>
     </row>
-    <row r="1583" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1583" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1583" s="47" t="s">
         <v>158</v>
       </c>
@@ -35902,7 +35983,7 @@
       </c>
       <c r="H1583" s="103"/>
     </row>
-    <row r="1584" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1584" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1584" s="47" t="s">
         <v>158</v>
       </c>
@@ -35926,7 +36007,7 @@
       </c>
       <c r="H1584" s="103"/>
     </row>
-    <row r="1585" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1585" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1585" s="47" t="s">
         <v>86</v>
       </c>
@@ -35989,7 +36070,7 @@
       </c>
       <c r="H1587" s="103"/>
     </row>
-    <row r="1588" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1588" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1588" s="47" t="s">
         <v>86</v>
       </c>
@@ -36010,7 +36091,7 @@
       </c>
       <c r="H1588" s="103"/>
     </row>
-    <row r="1589" spans="1:8" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1589" spans="1:8" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1589" s="47" t="s">
         <v>86</v>
       </c>
@@ -36034,7 +36115,7 @@
       </c>
       <c r="H1589" s="103"/>
     </row>
-    <row r="1590" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1590" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1590" s="46" t="s">
         <v>86</v>
       </c>
@@ -36057,7 +36138,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="1591" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1591" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1591" s="46" t="s">
         <v>86</v>
       </c>
@@ -36143,7 +36224,7 @@
       </c>
       <c r="H1594" s="103"/>
     </row>
-    <row r="1595" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1595" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1595" s="47" t="s">
         <v>90</v>
       </c>
@@ -36212,7 +36293,7 @@
       </c>
       <c r="H1597" s="103"/>
     </row>
-    <row r="1598" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1598" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1598" s="47" t="s">
         <v>90</v>
       </c>
@@ -45686,7 +45767,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2113" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2113" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2113" s="47" t="s">
         <v>27</v>
       </c>
@@ -45703,7 +45784,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="2114" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2114" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2114" s="65" t="s">
         <v>27</v>
       </c>
@@ -45723,7 +45804,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2115" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2115" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2115" s="65" t="s">
         <v>27</v>
       </c>
@@ -45741,6 +45822,3750 @@
       </c>
       <c r="G2115" s="89" t="s">
         <v>162</v>
+      </c>
+    </row>
+    <row r="2116" spans="2:8" s="104" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2116" s="105"/>
+      <c r="C2116" s="106"/>
+      <c r="D2116" s="107" t="s">
+        <v>387</v>
+      </c>
+      <c r="F2116" s="108"/>
+      <c r="G2116" s="109"/>
+      <c r="H2116" s="110"/>
+    </row>
+    <row r="2117" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2117" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2117" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2117" s="14" t="s">
+        <v>388</v>
+      </c>
+      <c r="E2117" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2117" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="G2117" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2118" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2118" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2118" s="11">
+        <v>42590</v>
+      </c>
+      <c r="D2118" s="14" t="s">
+        <v>388</v>
+      </c>
+      <c r="E2118" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2118" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="G2118" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2119" spans="2:8" s="104" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2119" s="105"/>
+      <c r="C2119" s="106"/>
+      <c r="D2119" s="107" t="s">
+        <v>387</v>
+      </c>
+      <c r="F2119" s="108"/>
+      <c r="G2119" s="109"/>
+      <c r="H2119" s="110"/>
+    </row>
+    <row r="2120" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2120" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2120" s="11">
+        <v>42590</v>
+      </c>
+    </row>
+    <row r="2121" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2121" s="87"/>
+      <c r="G2121" s="88"/>
+    </row>
+    <row r="2122" spans="2:8" s="104" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2122" s="105"/>
+      <c r="C2122" s="106"/>
+      <c r="D2122" s="107" t="s">
+        <v>387</v>
+      </c>
+      <c r="F2122" s="108"/>
+      <c r="G2122" s="109"/>
+      <c r="H2122" s="110"/>
+    </row>
+    <row r="2123" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2123" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2123" s="11">
+        <v>42590</v>
+      </c>
+    </row>
+    <row r="2124" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2124" s="87"/>
+      <c r="G2124" s="88"/>
+    </row>
+    <row r="2125" spans="2:8" s="104" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2125" s="105"/>
+      <c r="C2125" s="106"/>
+      <c r="D2125" s="107" t="s">
+        <v>387</v>
+      </c>
+      <c r="F2125" s="108"/>
+      <c r="G2125" s="109"/>
+      <c r="H2125" s="110"/>
+    </row>
+    <row r="2126" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2126" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2126" s="11">
+        <v>42590</v>
+      </c>
+    </row>
+    <row r="2127" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2127" s="87"/>
+      <c r="G2127" s="88"/>
+    </row>
+    <row r="2128" spans="2:8" s="104" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2128" s="105"/>
+      <c r="C2128" s="106"/>
+      <c r="D2128" s="107" t="s">
+        <v>394</v>
+      </c>
+      <c r="F2128" s="108"/>
+      <c r="G2128" s="109"/>
+      <c r="H2128" s="110"/>
+    </row>
+    <row r="2129" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2129" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2129" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2129" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2129" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2129" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2129" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2130" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2130" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2130" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2130" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2130" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2130" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2130" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2131" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2131" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2131" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2131" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2131" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2131" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2132" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2132" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2132" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2132" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2132" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2132" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2133" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2133" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2133" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2133" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2133" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2133" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2134" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2134" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2134" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2134" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2134" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2134" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2134" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2135" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2135" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2135" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2135" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2135" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2135" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="G2135" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2136" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2136" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2136" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2136" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2136" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2136" s="13" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="2137" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2137" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2137" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2137" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2137" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2137" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2138" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2138" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2138" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2138" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2138" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2138" s="13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2139" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2139" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2139" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2139" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2139" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2139" s="13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2140" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B2140" s="87" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2140" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2140" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2140" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2140" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="G2140" s="88" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="2141" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2141" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2141" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2141" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2141" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2141" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2142" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2142" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2142" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2142" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2142" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2142" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2143" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2143" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2143" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2143" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2143" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2143" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2144" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2144" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2144" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2144" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2144" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2144" s="13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2145" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2145" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2145" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2145" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2145" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2145" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2145" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2146" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2146" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2146" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2146" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2146" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2146" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2146" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2147" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2147" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2147" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2147" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2147" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2147" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2147" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2148" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2148" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2148" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2148" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2148" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2148" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2148" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2149" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2149" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2149" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2149" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2149" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2149" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2149" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2150" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2150" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2150" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2150" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2150" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2150" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2150" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2151" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2151" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2151" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2151" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2151" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2151" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2152" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2152" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2152" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2152" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2152" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2152" s="13" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="2153" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2153" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2153" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2153" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2153" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2153" s="13" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2154" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2154" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2154" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2154" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2154" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2154" s="13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2155" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2155" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2155" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2155" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2155" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2155" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="G2155" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2156" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2156" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2156" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2156" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2156" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2156" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="G2156" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2157" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2157" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2157" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2157" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2157" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2157" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="G2157" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2158" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2158" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2158" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2158" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2158" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2158" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="G2158" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2159" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2159" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2159" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2159" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2159" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2159" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="G2159" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2160" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2160" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2160" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2160" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2160" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2160" s="13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2161" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2161" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2161" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2161" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2161" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2161" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2161" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2162" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2162" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2162" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2162" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2162" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2162" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="G2162" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2163" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2163" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2163" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2163" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2163" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2163" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2163" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2164" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2164" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2164" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2164" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2164" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2164" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2165" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2165" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2165" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2165" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2165" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2165" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2166" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2166" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2166" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2166" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2166" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2166" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2167" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2167" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2167" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2167" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2167" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2167" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2168" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2168" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2168" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2168" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2168" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2168" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2169" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2169" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2169" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2169" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="E2169" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2169" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="G2169" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2170" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2170" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2170" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2170" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="E2170" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2170" s="13" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="2171" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2171" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2171" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2171" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="E2171" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2171" s="13" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="2172" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2172" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2172" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2172" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="E2172" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2172" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="G2172" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2173" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2173" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2173" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2173" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="E2173" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2173" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="G2173" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2174" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2174" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2174" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2174" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="E2174" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2174" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="G2174" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2175" spans="2:8" s="104" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2175" s="105"/>
+      <c r="C2175" s="106"/>
+      <c r="D2175" s="107" t="s">
+        <v>394</v>
+      </c>
+      <c r="F2175" s="108"/>
+      <c r="G2175" s="109"/>
+      <c r="H2175" s="110"/>
+    </row>
+    <row r="2176" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2176" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2176" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2176" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2176" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2176" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2176" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2177" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2177" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2177" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2177" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2177" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2177" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2177" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2178" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2178" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2178" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2178" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2178" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2178" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2179" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2179" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2179" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2179" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2179" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2179" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2180" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2180" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2180" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2180" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2180" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2180" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2181" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2181" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2181" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2181" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2181" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2181" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2181" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2182" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2182" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2182" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2182" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2182" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2182" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="G2182" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2183" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2183" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2183" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2183" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2183" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2183" s="13" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="2184" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2184" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2184" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2184" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2184" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2184" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2185" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2185" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2185" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2185" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2185" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2185" s="13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2186" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2186" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2186" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2186" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2186" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2186" s="13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2187" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B2187" s="87" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2187" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2187" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2187" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2187" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="G2187" s="88" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="2188" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2188" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2188" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2188" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2188" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2188" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2189" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2189" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2189" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2189" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2189" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2189" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2190" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2190" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2190" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2190" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2190" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2190" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2191" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2191" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2191" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2191" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2191" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2191" s="13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2192" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2192" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2192" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2192" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2192" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2192" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2192" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2193" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2193" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2193" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2193" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2193" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2193" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2193" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2194" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2194" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2194" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2194" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2194" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2194" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2194" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2195" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2195" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2195" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2195" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2195" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2195" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2195" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2196" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2196" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2196" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2196" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2196" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2196" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2196" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2197" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2197" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2197" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2197" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2197" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2197" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2197" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2198" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2198" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2198" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2198" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2198" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2198" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2199" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2199" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2199" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2199" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2199" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2199" s="13" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="2200" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2200" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2200" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2200" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2200" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2200" s="13" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2201" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2201" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2201" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2201" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2201" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2201" s="13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2202" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2202" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2202" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2202" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2202" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2202" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="G2202" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2203" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2203" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2203" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2203" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2203" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2203" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="G2203" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2204" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2204" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2204" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2204" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2204" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2204" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="G2204" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2205" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2205" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2205" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2205" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2205" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2205" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="G2205" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2206" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2206" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2206" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2206" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2206" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2206" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="G2206" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2207" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2207" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2207" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2207" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2207" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2207" s="13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2208" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2208" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2208" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2208" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2208" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2208" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2208" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2209" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2209" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2209" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2209" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2209" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2209" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="G2209" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2210" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2210" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2210" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2210" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2210" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2210" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2210" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2211" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2211" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2211" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2211" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2211" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2211" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2212" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2212" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2212" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2212" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2212" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2212" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2213" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2213" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2213" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2213" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2213" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2213" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2214" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2214" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2214" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2214" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2214" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2214" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2215" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2215" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2215" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2215" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2215" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2215" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2216" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2216" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2216" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2216" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="E2216" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2216" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="G2216" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2217" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2217" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2217" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2217" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="E2217" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2217" s="13" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="2218" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2218" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2218" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2218" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="E2218" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2218" s="13" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="2219" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2219" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2219" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2219" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="E2219" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2219" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="G2219" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2220" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2220" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2220" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2220" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="E2220" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2220" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="G2220" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2221" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2221" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2221" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2221" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="E2221" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2221" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="G2221" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2222" spans="2:8" s="111" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2222" s="112"/>
+      <c r="C2222" s="113"/>
+      <c r="D2222" s="114"/>
+      <c r="F2222" s="114"/>
+      <c r="G2222" s="115"/>
+      <c r="H2222" s="114"/>
+    </row>
+    <row r="2223" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2223" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2223" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2223" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2223" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2223" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2224" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2224" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2224" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2224" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2224" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2224" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2225" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2225" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2225" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2225" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2225" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2225" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2226" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2226" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2226" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2226" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2226" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2226" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2227" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2227" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2227" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2227" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2227" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2227" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2228" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2228" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2228" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2228" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="E2228" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2228" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="G2228" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2229" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2229" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2229" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2229" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="E2229" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2229" s="13" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="2230" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2230" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2230" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2230" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="E2230" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2230" s="13" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="2231" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2231" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2231" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2231" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="E2231" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2231" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="G2231" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2232" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2232" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2232" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2232" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="E2232" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2232" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="G2232" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2233" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2233" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2233" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2233" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="E2233" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2233" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="G2233" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2234" spans="2:8" s="111" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2234" s="112"/>
+      <c r="C2234" s="113"/>
+      <c r="D2234" s="114"/>
+      <c r="F2234" s="114"/>
+      <c r="G2234" s="115"/>
+      <c r="H2234" s="114"/>
+    </row>
+    <row r="2235" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2235" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2235" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2235" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2235" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2235" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2236" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2236" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2236" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2236" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2236" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2236" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2237" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2237" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2237" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2237" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2237" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2237" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2238" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2238" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2238" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2238" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2238" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2238" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2239" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2239" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2239" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2239" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2239" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2239" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2240" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2240" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2240" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2240" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="E2240" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2240" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="G2240" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2241" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2241" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2241" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2241" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="E2241" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2241" s="13" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="2242" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2242" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2242" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2242" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="E2242" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2242" s="13" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="2243" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2243" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2243" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2243" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="E2243" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2243" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="G2243" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2244" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2244" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2244" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2244" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="E2244" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2244" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="G2244" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2245" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2245" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2245" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2245" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="E2245" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2245" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="G2245" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2246" spans="2:8" s="111" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2246" s="112"/>
+      <c r="C2246" s="113"/>
+      <c r="D2246" s="114"/>
+      <c r="F2246" s="114"/>
+      <c r="G2246" s="115"/>
+      <c r="H2246" s="114"/>
+    </row>
+    <row r="2247" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2247" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2247" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2247" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2247" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2247" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2247" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2248" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2248" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2248" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2248" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2248" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2248" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2248" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2249" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2249" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2249" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2249" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2249" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2249" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2250" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2250" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2250" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2250" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2250" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2250" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2251" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2251" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2251" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2251" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2251" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2251" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2252" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2252" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2252" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2252" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2252" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2252" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2252" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2253" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2253" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2253" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2253" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2253" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2253" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="G2253" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2254" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2254" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2254" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2254" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2254" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2254" s="13" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="2255" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2255" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2255" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2255" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2255" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2255" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2256" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2256" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2256" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2256" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2256" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2256" s="13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2257" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2257" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2257" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2257" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2257" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2257" s="13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2258" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B2258" s="87" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2258" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2258" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2258" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2258" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="G2258" s="88" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="2259" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2259" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2259" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2259" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2259" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2259" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2260" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2260" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2260" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2260" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2260" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2260" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2261" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2261" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2261" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2261" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2261" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2261" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2262" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2262" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2262" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2262" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2262" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2262" s="13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2263" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2263" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2263" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2263" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2263" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2263" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2263" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2264" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2264" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2264" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2264" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2264" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2264" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2264" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2265" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2265" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2265" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2265" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2265" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2265" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2265" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2266" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2266" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2266" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2266" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2266" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2266" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2266" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2267" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2267" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2267" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2267" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2267" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2267" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2267" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2268" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2268" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2268" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2268" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2268" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2268" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2268" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2269" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2269" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2269" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2269" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2269" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2269" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2270" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2270" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2270" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2270" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2270" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2270" s="13" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="2271" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2271" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2271" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2271" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2271" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2271" s="13" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2272" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2272" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2272" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2272" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2272" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2272" s="13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2273" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2273" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2273" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2273" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2273" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2273" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="G2273" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2274" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2274" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2274" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2274" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2274" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2274" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="G2274" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2275" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2275" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2275" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2275" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2275" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2275" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="G2275" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2276" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2276" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2276" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2276" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2276" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2276" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="G2276" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2277" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2277" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2277" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2277" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2277" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2277" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="G2277" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2278" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2278" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2278" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2278" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2278" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2278" s="13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2279" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2279" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2279" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2279" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2279" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2279" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2279" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2280" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2280" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2280" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2280" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2280" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2280" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="G2280" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2281" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2281" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2281" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2281" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2281" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2281" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2281" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2282" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2282" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2282" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2282" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2282" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2282" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2283" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2283" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2283" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2283" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2283" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2283" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2284" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2284" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2284" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2284" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2284" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2284" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2285" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2285" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2285" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2285" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2285" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2285" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2286" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2286" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2286" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2286" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2286" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2286" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2287" spans="2:8" s="104" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2287" s="105"/>
+      <c r="C2287" s="106"/>
+      <c r="D2287" s="107" t="s">
+        <v>394</v>
+      </c>
+      <c r="F2287" s="108"/>
+      <c r="G2287" s="109"/>
+      <c r="H2287" s="110"/>
+    </row>
+    <row r="2288" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2288" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2288" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2288" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2288" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2288" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2288" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2289" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2289" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2289" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2289" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2289" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2289" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2289" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2290" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2290" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2290" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2290" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2290" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2290" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2291" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2291" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2291" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2291" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2291" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2291" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2292" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2292" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2292" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2292" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2292" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2292" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2293" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2293" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2293" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2293" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2293" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2293" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2293" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2294" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2294" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2294" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2294" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2294" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2294" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="G2294" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2295" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2295" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2295" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2295" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2295" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2295" s="13" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="2296" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2296" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2296" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2296" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2296" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2296" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2297" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2297" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2297" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2297" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2297" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2297" s="13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2298" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2298" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2298" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2298" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2298" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2298" s="13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2299" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B2299" s="87" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2299" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2299" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2299" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2299" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="G2299" s="88" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="2300" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2300" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2300" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2300" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2300" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2300" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2301" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2301" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2301" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2301" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2301" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2301" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2302" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2302" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2302" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2302" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2302" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2302" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2303" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2303" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2303" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2303" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2303" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2303" s="13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2304" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2304" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2304" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2304" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2304" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2304" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2304" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2305" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2305" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2305" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2305" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2305" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2305" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2305" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2306" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2306" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2306" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2306" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2306" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2306" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2306" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2307" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2307" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2307" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2307" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2307" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2307" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2307" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2308" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2308" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2308" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2308" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2308" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2308" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2308" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2309" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2309" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2309" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2309" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2309" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2309" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2309" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2310" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2310" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2310" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2310" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2310" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2310" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2311" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2311" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2311" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2311" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2311" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2311" s="13" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="2312" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2312" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2312" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2312" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2312" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2312" s="13" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2313" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2313" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2313" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2313" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2313" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2313" s="13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2314" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2314" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2314" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2314" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2314" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2314" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="G2314" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2315" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2315" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2315" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2315" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2315" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2315" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="G2315" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2316" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2316" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2316" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2316" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2316" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2316" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="G2316" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2317" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2317" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2317" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2317" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2317" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2317" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="G2317" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2318" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2318" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2318" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2318" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2318" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2318" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="G2318" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2319" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2319" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2319" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2319" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2319" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2319" s="13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2320" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2320" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2320" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2320" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2320" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2320" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2320" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2321" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2321" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2321" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2321" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2321" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2321" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="G2321" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2322" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2322" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2322" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2322" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2322" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2322" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2322" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2323" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2323" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2323" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2323" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2323" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2323" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2324" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2324" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2324" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2324" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2324" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2324" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2325" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2325" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2325" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2325" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2325" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2325" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2326" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2326" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2326" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2326" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2326" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2326" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2327" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2327" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2327" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D2327" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2327" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2327" s="13" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -46163,61 +49988,61 @@
         <v>104</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="C39" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="C40" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="C41" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
     </row>
-    <row r="47" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
     </row>
-    <row r="48" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
     </row>
-    <row r="49" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
     </row>
-    <row r="50" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
     </row>
-    <row r="51" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
     </row>
-    <row r="52" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
     </row>
-    <row r="53" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="5"/>
     </row>
-    <row r="54" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
     </row>
-    <row r="55" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
     </row>
-    <row r="56" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
     </row>
-    <row r="57" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
     </row>
-    <row r="58" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
     </row>
   </sheetData>

--- a/PW/masterlog.xlsx
+++ b/PW/masterlog.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16927" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18784" uniqueCount="409">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1221,6 +1221,36 @@
   <si>
     <t>jhan</t>
   </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Fam</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>This</t>
+  </si>
+  <si>
+    <t>Bob</t>
+  </si>
 </sst>
 </file>
 
@@ -1470,7 +1500,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1832,6 +1862,18 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="15" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="15" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -2139,11 +2181,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H3100"/>
+  <dimension ref="A1:H3425"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2114" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="H2126" sqref="H2126"/>
+      <pane ySplit="1" topLeftCell="A3303" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="G3326" sqref="G3326"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -64196,7 +64238,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="3089" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3089" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3089" s="65" t="s">
         <v>27</v>
       </c>
@@ -64216,7 +64258,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="3090" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3090" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3090" s="65" t="s">
         <v>27</v>
       </c>
@@ -64236,7 +64278,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="3091" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="3091" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B3091" s="87" t="s">
         <v>77</v>
       </c>
@@ -64256,7 +64298,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="3092" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3092" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3092" s="65" t="s">
         <v>27</v>
       </c>
@@ -64276,7 +64318,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="3093" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3093" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3093" s="65" t="s">
         <v>27</v>
       </c>
@@ -64296,7 +64338,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="3094" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3094" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3094" s="65" t="s">
         <v>27</v>
       </c>
@@ -64316,7 +64358,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="3095" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3095" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3095" s="65" t="s">
         <v>27</v>
       </c>
@@ -64336,7 +64378,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="3096" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3096" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3096" s="65" t="s">
         <v>27</v>
       </c>
@@ -64356,7 +64398,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="3097" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3097" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3097" s="65" t="s">
         <v>27</v>
       </c>
@@ -64376,7 +64418,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="3098" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3098" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3098" s="47" t="s">
         <v>27</v>
       </c>
@@ -64393,7 +64435,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3099" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3099" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3099" s="47" t="s">
         <v>27</v>
       </c>
@@ -64410,7 +64452,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3100" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3100" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3100" s="65" t="s">
         <v>27</v>
       </c>
@@ -64427,6 +64469,6414 @@
         <v>225</v>
       </c>
       <c r="G3100" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3101" spans="2:8" s="104" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3101" s="105"/>
+      <c r="C3101" s="106"/>
+      <c r="D3101" s="107" t="s">
+        <v>392</v>
+      </c>
+      <c r="F3101" s="108"/>
+      <c r="G3101" s="109"/>
+      <c r="H3101" s="110"/>
+    </row>
+    <row r="3102" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3102" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3102" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3102" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3102" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3102" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="G3102" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3103" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3103" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3103" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3103" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3103" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3103" s="13" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="3104" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3104" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3104" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3104" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3104" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3104" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3105" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3105" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3105" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3105" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3105" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3105" s="13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3106" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3106" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3106" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3106" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3106" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3106" s="13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="3107" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3107" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3107" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3107" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3107" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3107" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3108" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3108" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3108" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3108" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3108" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3108" s="13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3109" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B3109" s="87" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3109" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3109" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3109" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F3109" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3109" s="88" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="3110" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3110" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3110" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3110" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3110" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3110" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3111" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3111" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3111" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3111" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3111" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3111" s="13" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="3112" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3112" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3112" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3112" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3112" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3112" s="13" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="3113" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3113" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3113" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3113" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3113" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3113" s="13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3114" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3114" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3114" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3114" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3114" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F3114" s="13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3115" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3115" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3115" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3115" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3115" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F3115" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="G3115" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3116" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3116" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3116" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3116" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3116" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3116" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3116" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3117" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3117" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3117" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3117" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3117" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F3117" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3118" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3118" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3118" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3118" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3118" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F3118" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3119" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3119" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3119" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3119" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="E3119" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3119" s="13" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3120" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3120" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3120" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3120" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="E3120" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3120" s="13" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="3121" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B3121" s="87" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3121" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3121" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3121" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3121" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="G3121" s="88" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="3122" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3122" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3122" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3122" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3122" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3122" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3123" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3123" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3123" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3123" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3123" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3123" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3124" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3124" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3124" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3124" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3124" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3124" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3124" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3125" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3125" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3125" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3125" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3125" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3125" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3125" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3126" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3126" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3126" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3126" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3126" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3126" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3126" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3127" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3127" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3127" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3127" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3127" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3127" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3127" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3128" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3128" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3128" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3128" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3128" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3128" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3128" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3129" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3129" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3129" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3129" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3129" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3129" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3129" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3130" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3130" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3130" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3130" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3130" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3130" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="G3130" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3131" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3131" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3131" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3131" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3131" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3131" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="G3131" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3132" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3132" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3132" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3132" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3132" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3132" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="G3132" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3133" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3133" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3133" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3133" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3133" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3133" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="G3133" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3134" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3134" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3134" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3134" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3134" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3134" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="G3134" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3135" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3135" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3135" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3135" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3135" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3135" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3135" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3136" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3136" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3136" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3136" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3136" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3136" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3137" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3137" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3137" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3137" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3137" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3138" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3138" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3138" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3138" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3138" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3139" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3139" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3139" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="E3139" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3139" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="G3139" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3140" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3140" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3140" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="E3140" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3140" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="G3140" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3141" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3141" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3141" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="E3141" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3141" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="G3141" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3142" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3142" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3142" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="E3142" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3142" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="G3142" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3143" spans="1:8" s="104" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3143" s="105"/>
+      <c r="C3143" s="106"/>
+      <c r="D3143" s="107" t="s">
+        <v>392</v>
+      </c>
+      <c r="F3143" s="108"/>
+      <c r="G3143" s="109"/>
+      <c r="H3143" s="110"/>
+    </row>
+    <row r="3144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3144" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3144" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3144" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3144" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3144" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3144" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="G3144" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3145" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3145" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3145" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3145" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3145" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3145" s="13" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="3146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3146" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3146" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3146" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3146" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3146" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3146" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3147" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3147" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3147" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3147" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3147" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3147" s="13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3148" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3148" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3148" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3148" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3148" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3148" s="13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="3149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3149" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3149" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3149" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3149" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3149" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3149" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3150" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3150" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3150" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3150" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3150" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3150" s="13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3151" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3151" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3151" s="87" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3151" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3151" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3151" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F3151" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3151" s="88" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="3152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3152" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3152" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3152" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3152" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3152" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3152" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3153" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3153" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3153" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3153" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3153" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3153" s="13" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="3154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3154" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3154" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3154" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3154" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3154" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3154" s="13" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="3155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3155" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3155" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3155" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3155" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3155" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3155" s="13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3156" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3156" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3156" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3156" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3156" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F3156" s="13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3157" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3157" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3157" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3157" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3157" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F3157" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="G3157" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3158" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3158" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3158" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3158" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3158" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3158" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3158" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3159" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3159" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3159" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3159" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3159" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F3159" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3160" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3160" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3160" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3160" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3160" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F3160" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3161" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3161" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3161" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3161" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="E3161" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3161" s="13" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3162" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3162" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3162" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3162" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="E3162" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3162" s="13" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="3163" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3163" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3163" s="87" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3163" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3163" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3163" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3163" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="G3163" s="88" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="3164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3164" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3164" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3164" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3164" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3164" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3164" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3165" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3165" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3165" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3165" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3165" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3165" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3166" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3166" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3166" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3166" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3166" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3166" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3166" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3167" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3167" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3167" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3167" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3167" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3167" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3167" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3168" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3168" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3168" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3168" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3168" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3168" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3168" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3169" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3169" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3169" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3169" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3169" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3169" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3169" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3170" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3170" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3170" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3170" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3170" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3170" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3170" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3171" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3171" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3171" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3171" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3171" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3171" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3171" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3172" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3172" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3172" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3172" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3172" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3172" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="G3172" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3173" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3173" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3173" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3173" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3173" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3173" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="G3173" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3174" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3174" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3174" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3174" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3174" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3174" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="G3174" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3175" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3175" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3175" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3175" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3175" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3175" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="G3175" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3176" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3176" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3176" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3176" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3176" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3176" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="G3176" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3177" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3177" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3177" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3177" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3177" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3177" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3177" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3178" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3178" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3178" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3178" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3178" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3178" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3179" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3179" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3179" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3179" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3179" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3179" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3180" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3180" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3180" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3180" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3180" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3180" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3181" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3181" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3181" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3181" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="E3181" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3181" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="G3181" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3182" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3182" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3182" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3182" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="E3182" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3182" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="G3182" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3183" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3183" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3183" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3183" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="E3183" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3183" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="G3183" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3184" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3184" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3184" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="E3184" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3184" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="G3184" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3185" spans="1:8" s="104" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3185" s="105"/>
+      <c r="C3185" s="106"/>
+      <c r="D3185" s="107" t="s">
+        <v>392</v>
+      </c>
+      <c r="F3185" s="108"/>
+      <c r="G3185" s="109"/>
+      <c r="H3185" s="110"/>
+    </row>
+    <row r="3186" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3186" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="B3186" s="87" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3186" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3186" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3186" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F3186" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3186" s="88" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="3187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3187" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="B3187" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3187" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3187" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3187" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3187" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3187" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3188" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="B3188" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3188" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3188" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3188" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F3188" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3189" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="B3189" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3189" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3189" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3189" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F3189" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3190" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="B3190" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3190" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3190" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3190" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3190" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3191" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="B3191" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3191" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3191" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3191" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3191" s="13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3192" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="B3192" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3192" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3192" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="E3192" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3192" s="13" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3193" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="B3193" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3193" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3193" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="E3193" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3193" s="13" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="3194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3194" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="B3194" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3194" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3194" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3194" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3194" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3195" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3195" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="B3195" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3195" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3195" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3195" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3195" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3196" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="B3196" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3196" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3196" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="E3196" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3196" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="G3196" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3197" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="B3197" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3197" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3197" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3197" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3197" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3198" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="B3198" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3198" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3198" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3198" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3198" s="13" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="3199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3199" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="B3199" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3199" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3199" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3199" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3199" s="13" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="3200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3200" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="B3200" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3200" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3200" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3200" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3200" s="13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3201" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="B3201" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3201" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3201" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3201" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F3201" s="13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3202" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="B3202" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3202" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3202" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3202" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F3202" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="G3202" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3203" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="B3203" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3203" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3203" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3203" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3203" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3204" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="B3204" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3204" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3204" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="E3204" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3204" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="G3204" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3205" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="B3205" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3205" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3205" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3205" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3205" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="G3205" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3206" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="B3206" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3206" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3206" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3206" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3206" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="G3206" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3207" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="B3207" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3207" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3207" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3207" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3207" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="G3207" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3208" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="B3208" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3208" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3208" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3208" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3208" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="G3208" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3209" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="B3209" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3209" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3209" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3209" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3209" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="G3209" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3210" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="B3210" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3210" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3210" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3210" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3210" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3210" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3211" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="B3211" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3211" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3211" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3211" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3211" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3212" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="B3212" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3212" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3212" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3212" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3212" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3213" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="B3213" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3213" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3213" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3213" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3213" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3213" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3214" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="B3214" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3214" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3214" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3214" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3214" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3214" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3215" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="B3215" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3215" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3215" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3215" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3215" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3215" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3216" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="B3216" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3216" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3216" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3216" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3216" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3216" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3217" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3217" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="B3217" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3217" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3217" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3217" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3217" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3217" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3218" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3218" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="B3218" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3218" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3218" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3218" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3218" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3218" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3219" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3219" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="B3219" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3219" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3219" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="E3219" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3219" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="G3219" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3220" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3220" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="B3220" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3220" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3220" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="E3220" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3220" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="G3220" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3221" spans="1:8" s="104" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3221" s="105"/>
+      <c r="C3221" s="106"/>
+      <c r="D3221" s="107" t="s">
+        <v>392</v>
+      </c>
+      <c r="F3221" s="108"/>
+      <c r="G3221" s="109"/>
+      <c r="H3221" s="110"/>
+    </row>
+    <row r="3222" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3222" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3222" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3222" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3222" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3222" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3222" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="G3222" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3223" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3223" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3223" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3223" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3223" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3223" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3223" s="13" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="3224" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3224" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3224" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3224" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3224" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3224" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3224" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3225" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3225" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3225" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3225" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3225" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3225" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3225" s="13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3226" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3226" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3226" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3226" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3226" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3226" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3226" s="13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="3227" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3227" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3227" s="87" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3227" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3227" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3227" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F3227" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3227" s="88" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="3228" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3228" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3228" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3228" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3228" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3228" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3228" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3229" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3229" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3229" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3229" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3229" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3229" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3229" s="13" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="3230" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3230" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3230" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3230" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3230" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3230" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3230" s="13" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="3231" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3231" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3231" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3231" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3231" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3231" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3231" s="13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3232" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3232" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3232" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3232" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3232" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3232" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F3232" s="13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3233" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3233" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3233" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3233" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3233" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3233" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F3233" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="G3233" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3234" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3234" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3234" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3234" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3234" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3234" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3234" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3234" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3235" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3235" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3235" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3235" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3235" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3235" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F3235" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3236" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3236" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3236" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3236" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3236" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F3236" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3237" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3237" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="B3237" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3237" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3237" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3237" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3237" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3238" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="B3238" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3238" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3238" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3238" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3238" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3239" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3239" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="B3239" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3239" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3239" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3239" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3239" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3240" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3240" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="B3240" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3240" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3240" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3240" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3240" s="13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3241" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3241" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="B3241" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3241" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3241" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3241" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3241" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3241" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3242" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3242" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="B3242" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3242" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3242" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3242" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3242" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3242" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3243" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3243" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="B3243" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3243" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3243" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3243" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3243" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3243" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3244" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="B3244" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3244" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3244" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3244" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3244" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3244" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3245" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="B3245" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3245" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3245" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3245" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3245" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3245" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3246" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="B3246" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3246" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3246" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3246" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3246" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3246" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3247" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="B3247" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3247" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3247" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3247" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3247" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3248" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3248" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="B3248" s="87" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3248" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3248" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3248" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3248" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="G3248" s="88" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="3249" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3249" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="B3249" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3249" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3249" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3249" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3249" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="G3249" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3250" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3250" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="B3250" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3250" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3250" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3250" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3250" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="G3250" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3251" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3251" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="B3251" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3251" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3251" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3251" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3251" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="G3251" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3252" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3252" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="B3252" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3252" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3252" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3252" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3252" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="G3252" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3253" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3253" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="B3253" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3253" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3253" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3253" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3253" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="G3253" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3254" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3254" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="B3254" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3254" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3254" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3254" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3254" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3254" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3255" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3255" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="B3255" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3255" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3255" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3255" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3255" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3256" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3256" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="B3256" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3256" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3256" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3256" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3256" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3257" spans="1:8" s="111" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3257" s="127"/>
+      <c r="C3257" s="128"/>
+      <c r="D3257" s="129"/>
+      <c r="F3257" s="129"/>
+      <c r="G3257" s="130"/>
+      <c r="H3257" s="129"/>
+    </row>
+    <row r="3258" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3258" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="B3258" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3258" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3258" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="E3258" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3258" s="13" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3259" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3259" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="B3259" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3259" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3259" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="E3259" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3259" s="13" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="3260" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3260" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="B3260" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3260" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3260" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="E3260" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3260" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="G3260" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3261" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3261" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="B3261" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3261" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3261" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="E3261" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3261" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="G3261" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3262" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3262" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="B3262" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3262" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3262" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="E3262" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3262" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="G3262" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3263" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3263" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="B3263" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3263" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3263" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="E3263" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3263" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="G3263" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3264" spans="1:8" s="104" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3264" s="105"/>
+      <c r="C3264" s="106"/>
+      <c r="D3264" s="107" t="s">
+        <v>392</v>
+      </c>
+      <c r="F3264" s="108"/>
+      <c r="G3264" s="109"/>
+      <c r="H3264" s="110"/>
+    </row>
+    <row r="3265" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3265" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3265" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D3265" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3265" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3265" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3265" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3266" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3266" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3266" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D3266" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3266" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3266" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3266" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3267" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3267" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3267" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D3267" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3267" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3267" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3268" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3268" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3268" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D3268" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3268" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F3268" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3269" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3269" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3269" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D3269" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3269" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3269" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3270" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3270" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3270" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D3270" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3270" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3270" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3270" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3271" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3271" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3271" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D3271" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3271" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3271" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="G3271" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3272" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3272" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3272" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D3272" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3272" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3272" s="13" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="3273" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3273" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3273" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D3273" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3273" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3273" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3274" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3274" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3274" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D3274" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3274" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3274" s="13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3275" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3275" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3275" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D3275" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3275" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3275" s="13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="3276" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B3276" s="87" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3276" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D3276" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3276" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3276" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="G3276" s="88" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="3277" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3277" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3277" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D3277" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3277" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3277" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3278" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3278" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3278" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D3278" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3278" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3278" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3279" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3279" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3279" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D3279" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3279" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3279" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3280" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3280" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3280" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D3280" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3280" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3280" s="13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3281" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B3281" s="87" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3281" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D3281" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3281" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F3281" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3281" s="88" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="3282" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3282" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3282" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D3282" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3282" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3282" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3282" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3283" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3283" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3283" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D3283" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3283" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3283" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3283" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3284" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3284" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3284" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D3284" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3284" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3284" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3284" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3285" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3285" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3285" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D3285" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3285" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3285" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3285" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3286" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3286" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3286" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D3286" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3286" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3286" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3286" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3287" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3287" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3287" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D3287" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3287" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3287" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3287" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3288" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3288" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3288" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D3288" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3288" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3288" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3289" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3289" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3289" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D3289" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3289" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3289" s="13" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="3290" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3290" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3290" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D3290" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3290" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3290" s="13" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="3291" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3291" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3291" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D3291" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3291" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3291" s="13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3292" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3292" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3292" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D3292" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3292" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3292" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="G3292" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3293" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3293" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3293" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D3293" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3293" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3293" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="G3293" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3294" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3294" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3294" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D3294" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3294" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3294" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="G3294" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3295" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3295" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3295" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D3295" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3295" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3295" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="G3295" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3296" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3296" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3296" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D3296" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3296" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3296" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="G3296" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3297" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3297" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3297" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D3297" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3297" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F3297" s="13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3298" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3298" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3298" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D3298" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3298" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3298" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3298" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3299" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3299" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3299" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D3299" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3299" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F3299" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="G3299" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3300" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3300" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3300" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D3300" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3300" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3300" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3300" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3301" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3301" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3301" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D3301" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3301" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3301" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3302" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3302" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3302" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D3302" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3302" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F3302" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3303" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3303" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3303" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D3303" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3303" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F3303" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3304" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3304" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3304" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D3304" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3304" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3304" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3305" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3305" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3305" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D3305" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3305" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3305" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3306" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3306" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3306" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D3306" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="E3306" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3306" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="G3306" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3307" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3307" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3307" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D3307" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="E3307" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3307" s="13" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3308" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3308" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3308" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D3308" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="E3308" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3308" s="13" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="3309" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3309" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3309" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D3309" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="E3309" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3309" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="G3309" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3310" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3310" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3310" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D3310" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="E3310" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3310" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="G3310" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3311" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3311" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3311" s="11">
+        <v>42591</v>
+      </c>
+      <c r="D3311" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="E3311" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3311" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="G3311" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3312" spans="2:8" s="104" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3312" s="105"/>
+      <c r="C3312" s="106"/>
+      <c r="D3312" s="107" t="s">
+        <v>392</v>
+      </c>
+      <c r="F3312" s="108"/>
+      <c r="G3312" s="109"/>
+      <c r="H3312" s="110"/>
+    </row>
+    <row r="3313" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3313" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3313" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3313" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3313" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3313" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3314" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3314" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3314" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3314" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3314" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3314" s="13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3315" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B3315" s="87" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3315" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3315" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3315" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F3315" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3315" s="88" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="3316" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3316" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3316" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3316" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3316" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3316" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3317" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3317" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3317" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3317" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3317" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3317" s="13" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="3318" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3318" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3318" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3318" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3318" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3318" s="13" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="3319" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3319" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3319" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3319" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3319" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3319" s="13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3320" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3320" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3320" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3320" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3320" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F3320" s="13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3321" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3321" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3321" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3321" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3321" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F3321" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="G3321" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3322" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3322" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3322" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3322" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3322" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3322" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3322" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3323" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3323" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3323" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3323" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3323" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F3323" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3324" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3324" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3324" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3324" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3324" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F3324" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3325" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3325" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3325" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3325" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="E3325" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3325" s="13" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3326" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3326" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3326" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3326" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="E3326" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3326" s="13" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="3327" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3327" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3327" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3327" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3327" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3327" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3328" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3328" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3328" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3328" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3328" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3328" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3329" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3329" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3329" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3329" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3329" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3329" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3329" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3330" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3330" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3330" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3330" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3330" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3330" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3330" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3331" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3331" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3331" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3331" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3331" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3331" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3331" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3332" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3332" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3332" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3332" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3332" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3332" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3332" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3333" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3333" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3333" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3333" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3333" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3333" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3333" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3334" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3334" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3334" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3334" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3334" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3334" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3334" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3335" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3335" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3335" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3335" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3335" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3335" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="G3335" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3336" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3336" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3336" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3336" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3336" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3336" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="G3336" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3337" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3337" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3337" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3337" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3337" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3337" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="G3337" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3338" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3338" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3338" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3338" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3338" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3338" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="G3338" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3339" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3339" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3339" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3339" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3339" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3339" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="G3339" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3340" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3340" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3340" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3340" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3340" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3340" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3340" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3341" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3341" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3341" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3341" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3341" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3341" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3342" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3342" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3342" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3342" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3342" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3342" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3343" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3343" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3343" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3343" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3343" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3343" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3344" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3344" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3344" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3344" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="E3344" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3344" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="G3344" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3345" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3345" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3345" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3345" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="E3345" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3345" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="G3345" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3346" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3346" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3346" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3346" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="E3346" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3346" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="G3346" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3347" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3347" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3347" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3347" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="E3347" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3347" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="G3347" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3348" spans="1:8" s="104" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3348" s="105"/>
+      <c r="C3348" s="106"/>
+      <c r="D3348" s="107" t="s">
+        <v>392</v>
+      </c>
+      <c r="F3348" s="108"/>
+      <c r="G3348" s="109"/>
+      <c r="H3348" s="110"/>
+    </row>
+    <row r="3349" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3349" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3349" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3349" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3349" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3349" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3349" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3350" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3350" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3350" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3350" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3350" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3350" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3350" s="13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3351" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3351" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3351" s="87" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3351" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3351" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3351" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F3351" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3351" s="88" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="3352" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3352" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3352" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3352" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3352" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3352" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3352" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3353" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3353" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3353" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3353" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3353" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3353" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3353" s="13" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="3354" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3354" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3354" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3354" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3354" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3354" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3354" s="13" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="3355" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3355" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3355" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3355" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3355" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3355" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3355" s="13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3356" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3356" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3356" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3356" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3356" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3356" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F3356" s="13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3357" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3357" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3357" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3357" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3357" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3357" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F3357" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="G3357" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3358" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3358" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3358" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3358" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3358" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3358" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3358" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3358" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3359" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3359" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3359" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3359" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3359" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3359" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F3359" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3360" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3360" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3360" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3360" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3360" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3360" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F3360" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3361" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3361" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3361" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3361" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3361" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="E3361" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3361" s="13" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3362" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3362" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3362" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3362" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3362" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="E3362" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3362" s="13" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="3363" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3363" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="B3363" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3363" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3363" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3363" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3363" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3364" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3364" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="B3364" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3364" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3364" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3364" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3364" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3365" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3365" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="B3365" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3365" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3365" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3365" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3365" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3365" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3366" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3366" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="B3366" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3366" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3366" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3366" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3366" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3366" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3367" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3367" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="B3367" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3367" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3367" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3367" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3367" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3367" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3368" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3368" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="B3368" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3368" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3368" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3368" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3368" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3368" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3369" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3369" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="B3369" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3369" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3369" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3369" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3369" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3369" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3370" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3370" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="B3370" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3370" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3370" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3370" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3370" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3370" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3371" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3371" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="B3371" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3371" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3371" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3371" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3371" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="G3371" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3372" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3372" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="B3372" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3372" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3372" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3372" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3372" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="G3372" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3373" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3373" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="B3373" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3373" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3373" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3373" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3373" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="G3373" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3374" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3374" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="B3374" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3374" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3374" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3374" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3374" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="G3374" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3375" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3375" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="B3375" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3375" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3375" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3375" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3375" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="G3375" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3376" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3376" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="B3376" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3376" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3376" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3376" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3376" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3376" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3377" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3377" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="B3377" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3377" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3377" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3377" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3377" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3378" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3378" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="B3378" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3378" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3378" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3378" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3378" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3379" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3379" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="B3379" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3379" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3379" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3379" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3379" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3380" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3380" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="B3380" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3380" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3380" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="E3380" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3380" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="G3380" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3381" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3381" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="B3381" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3381" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3381" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="E3381" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3381" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="G3381" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3382" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3382" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="B3382" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3382" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3382" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="E3382" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3382" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="G3382" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3383" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3383" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="B3383" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3383" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3383" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="E3383" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3383" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="G3383" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3384" spans="1:8" s="104" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3384" s="105"/>
+      <c r="C3384" s="106"/>
+      <c r="D3384" s="107" t="s">
+        <v>392</v>
+      </c>
+      <c r="F3384" s="108"/>
+      <c r="G3384" s="109"/>
+      <c r="H3384" s="110"/>
+    </row>
+    <row r="3385" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3385" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3385" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3385" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3385" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3385" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="G3385" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3386" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3386" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3386" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3386" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3386" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3386" s="13" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="3387" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3387" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3387" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3387" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3387" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3387" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3388" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3388" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3388" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3388" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3388" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3388" s="13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3389" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3389" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3389" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3389" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3389" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3389" s="13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="3390" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3390" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3390" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3390" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3390" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3390" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3391" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3391" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3391" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3391" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3391" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3391" s="13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3392" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B3392" s="87" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3392" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3392" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3392" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F3392" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3392" s="88" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="3393" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3393" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3393" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3393" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3393" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3393" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3394" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3394" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3394" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3394" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3394" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3394" s="13" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="3395" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3395" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3395" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3395" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3395" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3395" s="13" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="3396" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3396" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3396" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3396" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3396" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3396" s="13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3397" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3397" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3397" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3397" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3397" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F3397" s="13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3398" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3398" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3398" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3398" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3398" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F3398" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="G3398" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3399" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3399" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3399" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3399" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3399" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3399" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3399" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3400" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3400" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3400" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3400" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3400" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F3400" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3401" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3401" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3401" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3401" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3401" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F3401" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3402" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3402" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3402" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3402" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="E3402" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3402" s="13" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3403" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3403" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3403" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3403" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="E3403" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3403" s="13" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="3404" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B3404" s="87" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3404" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3404" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3404" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3404" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="G3404" s="88" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="3405" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3405" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3405" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3405" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3405" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3405" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3406" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3406" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3406" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3406" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3406" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3406" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3407" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3407" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3407" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3407" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3407" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3407" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3407" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3408" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3408" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3408" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3408" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3408" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3408" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3408" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3409" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3409" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3409" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3409" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3409" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3409" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3409" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3410" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3410" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3410" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3410" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3410" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3410" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3410" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3411" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3411" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3411" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3411" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3411" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3411" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3411" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3412" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3412" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3412" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3412" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3412" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3412" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3412" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3413" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3413" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3413" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3413" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3413" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3413" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="G3413" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3414" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3414" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3414" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3414" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3414" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3414" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="G3414" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3415" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3415" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3415" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3415" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3415" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3415" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="G3415" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3416" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3416" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3416" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3416" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3416" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3416" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="G3416" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3417" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3417" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3417" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3417" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3417" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3417" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="G3417" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3418" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3418" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3418" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3418" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3418" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3418" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3418" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3419" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3419" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3419" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3419" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3419" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3419" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3420" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3420" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3420" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3420" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3420" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3420" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3421" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3421" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3421" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3421" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3421" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3421" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3422" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3422" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3422" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3422" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="E3422" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3422" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="G3422" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3423" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3423" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3423" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3423" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="E3423" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3423" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="G3423" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3424" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3424" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3424" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3424" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="E3424" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3424" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="G3424" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3425" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3425" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3425" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3425" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="E3425" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3425" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="G3425" s="89" t="s">
         <v>162</v>
       </c>
     </row>
@@ -64437,7 +70887,7 @@
     <sortCondition ref="D1613:D1693"/>
     <sortCondition ref="E1613:E1693"/>
   </sortState>
-  <dataValidations disablePrompts="1" count="3">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576">
       <formula1>Task_type</formula1>
     </dataValidation>

--- a/PW/masterlog.xlsx
+++ b/PW/masterlog.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17030"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhan\Documents\Visual Studio 2015\Projects\ClassOpsLogCreator\CLASSOPS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="270" yWindow="30" windowWidth="14865" windowHeight="10785" tabRatio="440"/>
   </bookViews>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18784" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19011" uniqueCount="409">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1255,7 +1260,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
@@ -1887,6 +1892,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1934,7 +1942,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1967,9 +1975,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2002,6 +2027,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2181,7 +2223,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H3425"/>
+  <dimension ref="A1:H3467"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3303" activePane="bottomLeft" state="frozenSplit"/>
@@ -70860,7 +70902,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="3425" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3425" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3425" s="65" t="s">
         <v>27</v>
       </c>
@@ -70877,6 +70919,776 @@
         <v>225</v>
       </c>
       <c r="G3425" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3426" spans="2:8" s="104" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3426" s="105"/>
+      <c r="C3426" s="106"/>
+      <c r="D3426" s="107" t="s">
+        <v>392</v>
+      </c>
+      <c r="F3426" s="108"/>
+      <c r="G3426" s="109"/>
+      <c r="H3426" s="110"/>
+    </row>
+    <row r="3427" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3427" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3427" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3427" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3427" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3427" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="G3427" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3428" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3428" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3428" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3428" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3428" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3428" s="13" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="3429" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3429" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3429" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3429" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3429" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3429" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3430" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3430" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3430" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3430" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3430" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3430" s="13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3431" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3431" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3431" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3431" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3431" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3431" s="13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="3432" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3432" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3432" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3432" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3432" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3432" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3433" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3433" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3433" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3433" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3433" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3433" s="13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3434" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B3434" s="87" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3434" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3434" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3434" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F3434" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3434" s="88" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="3435" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3435" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3435" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3435" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3435" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3435" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3436" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3436" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3436" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3436" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3436" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3436" s="13" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="3437" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3437" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3437" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3437" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3437" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3437" s="13" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="3438" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3438" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3438" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3438" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3438" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3438" s="13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3439" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3439" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3439" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3439" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3439" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F3439" s="13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3440" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3440" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3440" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3440" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3440" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F3440" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="G3440" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3441" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3441" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3441" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3441" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3441" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3441" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3441" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3442" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3442" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3442" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3442" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3442" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F3442" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3443" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3443" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3443" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3443" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3443" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F3443" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3444" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3444" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3444" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3444" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="E3444" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3444" s="13" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3445" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3445" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3445" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3445" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="E3445" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3445" s="13" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="3446" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B3446" s="87" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3446" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3446" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3446" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3446" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="G3446" s="88" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="3447" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3447" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3447" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3447" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3447" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3447" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3448" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3448" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3448" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3448" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3448" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3448" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3449" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3449" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3449" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3449" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3449" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3449" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3449" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3450" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3450" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3450" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3450" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3450" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3450" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3450" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3451" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3451" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3451" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3451" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3451" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3451" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3451" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3452" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3452" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3452" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3452" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3452" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3452" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3452" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3453" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3453" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3453" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3453" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3453" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3453" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3453" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3454" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3454" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3454" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3454" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3454" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3454" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3454" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3455" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3455" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3455" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3455" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3455" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3455" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="G3455" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3456" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3456" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3456" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3456" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3456" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3456" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="G3456" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3457" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3457" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3457" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3457" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3457" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3457" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="G3457" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3458" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3458" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3458" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3458" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3458" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3458" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="G3458" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3459" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3459" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3459" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3459" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3459" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3459" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="G3459" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3460" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3460" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3460" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3460" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3460" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3460" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3460" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3461" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3461" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3461" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3461" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3461" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3461" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3462" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3462" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3462" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3462" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3462" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3462" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3463" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3463" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3463" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3463" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3463" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3463" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3464" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3464" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3464" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3464" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="E3464" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3464" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="G3464" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3465" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3465" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3465" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3465" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="E3465" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3465" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="G3465" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3466" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3466" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3466" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3466" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="E3466" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3466" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="G3466" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3467" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3467" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3467" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3467" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="E3467" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3467" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="G3467" s="89" t="s">
         <v>162</v>
       </c>
     </row>
@@ -71321,25 +72133,25 @@
     <row r="42" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
     </row>
-    <row r="47" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
     </row>
-    <row r="48" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
     </row>
-    <row r="49" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
     </row>
-    <row r="50" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
     </row>
-    <row r="51" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
     </row>
-    <row r="52" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
     </row>
-    <row r="53" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="5"/>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">

--- a/PW/masterlog.xlsx
+++ b/PW/masterlog.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17030"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhan\Documents\Visual Studio 2015\Projects\ClassOpsLogCreator\CLASSOPS\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="270" yWindow="30" windowWidth="14865" windowHeight="10785" tabRatio="440"/>
   </bookViews>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11103" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11046" uniqueCount="421">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1281,16 +1276,22 @@
     <t>8/12/16</t>
   </si>
   <si>
-    <t>2200</t>
+    <t xml:space="preserve">152 </t>
   </si>
   <si>
-    <t>328A</t>
+    <t xml:space="preserve">Pick up mic and clip and mic stand - return to Founders 156A storeroom. Leave mic cables and matts. Turn off amp. </t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pick up wireless keyboard and return to Founders 156A storeroom. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
@@ -1958,9 +1959,6 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -2008,7 +2006,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2041,26 +2039,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2093,23 +2074,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2289,12 +2253,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H1901"/>
+  <dimension ref="A1:H1888"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1818" activePane="bottomLeft" state="frozenSplit"/>
+      <pane ySplit="1" topLeftCell="A1804" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="I1831" sqref="I1831"/>
+      <selection pane="bottomLeft" activeCell="B1818" sqref="B1818"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41026,7 +40990,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1812" spans="1:8" s="104" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1812" spans="1:8" s="104" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B1812" s="105"/>
       <c r="C1812" s="106"/>
       <c r="D1812" s="107" t="s">
@@ -41038,870 +41002,867 @@
     </row>
     <row r="1813" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1813" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B1813" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1813" s="11">
-        <v>42594</v>
+        <v>90</v>
+      </c>
+      <c r="B1813" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1813" s="11" t="s">
+        <v>416</v>
       </c>
       <c r="D1813" s="14" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E1813" s="9" t="s">
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="F1813" s="13" t="s">
-        <v>246</v>
+        <v>277</v>
+      </c>
+      <c r="G1813" s="89" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="1814" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1814" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B1814" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1814" s="11">
-        <v>42594</v>
+        <v>90</v>
+      </c>
+      <c r="B1814" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1814" s="11" t="s">
+        <v>416</v>
       </c>
       <c r="D1814" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E1814" s="9" t="s">
-        <v>24</v>
+        <v>110</v>
       </c>
       <c r="F1814" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="G1814" s="89" t="s">
-        <v>162</v>
+        <v>239</v>
       </c>
     </row>
     <row r="1815" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1815" s="10" t="s">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="B1815" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="C1815" s="11">
-        <v>42594</v>
+      <c r="C1815" s="11" t="s">
+        <v>416</v>
       </c>
       <c r="D1815" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E1815" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F1815" s="13" t="s">
-        <v>263</v>
+        <v>189</v>
       </c>
     </row>
     <row r="1816" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1816" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B1816" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1816" s="11">
-        <v>42594</v>
+        <v>90</v>
+      </c>
+      <c r="B1816" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1816" s="11" t="s">
+        <v>416</v>
       </c>
       <c r="D1816" s="14" t="s">
         <v>43</v>
       </c>
       <c r="E1816" s="9" t="s">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="F1816" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="G1816" s="89" t="s">
-        <v>162</v>
+        <v>190</v>
       </c>
     </row>
     <row r="1817" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1817" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B1817" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1817" s="11">
-        <v>42594</v>
+        <v>90</v>
+      </c>
+      <c r="B1817" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1817" s="11" t="s">
+        <v>416</v>
       </c>
       <c r="D1817" s="14" t="s">
         <v>43</v>
       </c>
       <c r="E1817" s="9" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F1817" s="13" t="s">
-        <v>403</v>
-      </c>
-      <c r="G1817" s="89" t="s">
-        <v>162</v>
+        <v>191</v>
       </c>
     </row>
     <row r="1818" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1818" s="10" t="s">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="B1818" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="C1818" s="11">
-        <v>42594</v>
+      <c r="C1818" s="11" t="s">
+        <v>416</v>
       </c>
       <c r="D1818" s="14" t="s">
         <v>43</v>
       </c>
       <c r="E1818" s="9" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F1818" s="13" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="1819" spans="1:8" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="1819" spans="1:8" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A1819" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B1819" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1819" s="11">
-        <v>42594</v>
+        <v>90</v>
+      </c>
+      <c r="B1819" s="87" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1819" s="11" t="s">
+        <v>416</v>
       </c>
       <c r="D1819" s="14" t="s">
         <v>43</v>
       </c>
       <c r="E1819" s="9" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F1819" s="13" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="1820" spans="1:8" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="G1819" s="88" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="1820" spans="1:8" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A1820" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B1820" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1820" s="11">
-        <v>42594</v>
+        <v>90</v>
+      </c>
+      <c r="B1820" s="87" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1820" s="11" t="s">
+        <v>416</v>
       </c>
       <c r="D1820" s="14" t="s">
         <v>43</v>
       </c>
       <c r="E1820" s="9" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F1820" s="13" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="1821" spans="1:8" x14ac:dyDescent="0.25">
+        <v>419</v>
+      </c>
+      <c r="G1820" s="88" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="1821" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1821" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B1821" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1821" s="11">
-        <v>42594</v>
+        <v>90</v>
+      </c>
+      <c r="B1821" s="87" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1821" s="11" t="s">
+        <v>416</v>
       </c>
       <c r="D1821" s="14" t="s">
         <v>43</v>
       </c>
       <c r="E1821" s="9" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F1821" s="13" t="s">
-        <v>406</v>
+        <v>419</v>
+      </c>
+      <c r="G1821" s="88" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="1822" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1822" s="10" t="s">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="B1822" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="C1822" s="11">
-        <v>42594</v>
+      <c r="C1822" s="11" t="s">
+        <v>416</v>
       </c>
       <c r="D1822" s="14" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E1822" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F1822" s="13" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="1823" spans="1:8" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="1823" spans="1:8" ht="43.15" x14ac:dyDescent="0.3">
       <c r="A1823" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B1823" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1823" s="11">
-        <v>42594</v>
+        <v>90</v>
+      </c>
+      <c r="B1823" s="87" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1823" s="11" t="s">
+        <v>416</v>
       </c>
       <c r="D1823" s="14" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E1823" s="9" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="F1823" s="13" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="1824" spans="1:8" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="G1823" s="88" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="1824" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1824" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B1824" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1824" s="11">
-        <v>42594</v>
+        <v>90</v>
+      </c>
+      <c r="B1824" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1824" s="11" t="s">
+        <v>416</v>
       </c>
       <c r="D1824" s="14" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E1824" s="9" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F1824" s="13" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="1825" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+      <c r="G1824" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1825" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1825" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B1825" s="87" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1825" s="11">
-        <v>42594</v>
+        <v>90</v>
+      </c>
+      <c r="B1825" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1825" s="11" t="s">
+        <v>416</v>
       </c>
       <c r="D1825" s="14" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E1825" s="9" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="F1825" s="13" t="s">
-        <v>330</v>
-      </c>
-      <c r="G1825" s="88" t="s">
-        <v>361</v>
+        <v>163</v>
       </c>
     </row>
     <row r="1826" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1826" s="10" t="s">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="B1826" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="C1826" s="11">
-        <v>42594</v>
+      <c r="C1826" s="11" t="s">
+        <v>416</v>
       </c>
       <c r="D1826" s="14" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="E1826" s="9" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="F1826" s="13" t="s">
-        <v>69</v>
+        <v>241</v>
       </c>
     </row>
     <row r="1827" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1827" s="10" t="s">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="B1827" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="C1827" s="11">
-        <v>42594</v>
+      <c r="C1827" s="11" t="s">
+        <v>416</v>
       </c>
       <c r="D1827" s="14" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="E1827" s="9" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F1827" s="13" t="s">
-        <v>412</v>
+        <v>235</v>
       </c>
     </row>
     <row r="1828" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1828" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B1828" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1828" s="11">
-        <v>42594</v>
+        <v>90</v>
+      </c>
+      <c r="B1828" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1828" s="11" t="s">
+        <v>416</v>
       </c>
       <c r="D1828" s="14" t="s">
         <v>46</v>
       </c>
       <c r="E1828" s="9" t="s">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="F1828" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1828" s="89" t="s">
-        <v>162</v>
+        <v>185</v>
       </c>
     </row>
     <row r="1829" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1829" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B1829" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1829" s="11">
-        <v>42594</v>
+        <v>90</v>
+      </c>
+      <c r="B1829" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1829" s="11" t="s">
+        <v>416</v>
       </c>
       <c r="D1829" s="14" t="s">
         <v>46</v>
       </c>
       <c r="E1829" s="9" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="F1829" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="G1829" s="89" t="s">
-        <v>162</v>
+        <v>119</v>
       </c>
     </row>
     <row r="1830" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1830" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B1830" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1830" s="11">
-        <v>42594</v>
+        <v>90</v>
+      </c>
+      <c r="B1830" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1830" s="11" t="s">
+        <v>416</v>
       </c>
       <c r="D1830" s="14" t="s">
         <v>46</v>
       </c>
       <c r="E1830" s="9" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="F1830" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="G1830" s="89" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="1831" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1831" s="10" t="s">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="B1831" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="C1831" s="11">
-        <v>42594</v>
+      <c r="C1831" s="11" t="s">
+        <v>416</v>
       </c>
       <c r="D1831" s="14" t="s">
         <v>46</v>
       </c>
       <c r="E1831" s="9" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="F1831" s="13" t="s">
-        <v>68</v>
+        <v>292</v>
       </c>
       <c r="G1831" s="89" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="1832" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1832" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1832" s="10" t="s">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="B1832" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="C1832" s="11">
-        <v>42594</v>
+      <c r="C1832" s="11" t="s">
+        <v>416</v>
       </c>
       <c r="D1832" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E1832" s="9" t="s">
-        <v>129</v>
+        <v>26</v>
       </c>
       <c r="F1832" s="13" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="G1832" s="89" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="1833" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1833" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1833" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B1833" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1833" s="11">
-        <v>42594</v>
+        <v>157</v>
+      </c>
+      <c r="B1833" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1833" s="11" t="s">
+        <v>416</v>
       </c>
       <c r="D1833" s="14" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E1833" s="9" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="F1833" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="G1833" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1834" spans="1:7" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="1834" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1834" s="10" t="s">
-        <v>200</v>
+        <v>157</v>
       </c>
       <c r="B1834" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="C1834" s="11">
-        <v>42594</v>
+      <c r="C1834" s="11" t="s">
+        <v>416</v>
       </c>
       <c r="D1834" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E1834" s="9" t="s">
         <v>129</v>
       </c>
       <c r="F1834" s="13" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G1834" s="89" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="1835" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1835" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1835" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1835" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1835" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="D1835" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1835" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1835" s="13" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="1836" spans="1:7" ht="43.15" x14ac:dyDescent="0.3">
+      <c r="A1836" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1836" s="87" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1836" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="D1836" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1836" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1836" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="G1836" s="88" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="1837" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A1837" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1837" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1837" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="D1837" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1837" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1837" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="1838" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A1838" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1838" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1838" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="D1838" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1838" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1838" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="B1835" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1835" s="11">
-        <v>42594</v>
-      </c>
-      <c r="D1835" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1835" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1835" s="13" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="1836" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1836" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B1836" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1836" s="11">
-        <v>42594</v>
-      </c>
-      <c r="D1836" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1836" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1836" s="13" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="1837" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1837" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B1837" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1837" s="11">
-        <v>42594</v>
-      </c>
-      <c r="D1837" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1837" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1837" s="13" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="1838" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1838" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B1838" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1838" s="11">
-        <v>42594</v>
-      </c>
-      <c r="D1838" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1838" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1838" s="13" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="1839" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G1838" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1839" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1839" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B1839" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1839" s="11">
-        <v>42594</v>
+        <v>157</v>
+      </c>
+      <c r="B1839" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1839" s="11" t="s">
+        <v>416</v>
       </c>
       <c r="D1839" s="14" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E1839" s="9" t="s">
-        <v>105</v>
+        <v>24</v>
       </c>
       <c r="F1839" s="13" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="1840" spans="1:7" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+      <c r="G1839" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1840" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1840" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B1840" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1840" s="11">
-        <v>42594</v>
+        <v>157</v>
+      </c>
+      <c r="B1840" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1840" s="11" t="s">
+        <v>416</v>
       </c>
       <c r="D1840" s="14" t="s">
         <v>46</v>
       </c>
       <c r="E1840" s="9" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="F1840" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="1841" spans="1:8" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="G1840" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1841" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1841" s="10" t="s">
-        <v>200</v>
+        <v>157</v>
       </c>
       <c r="B1841" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="C1841" s="11">
+      <c r="C1841" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="D1841" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1841" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1841" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1841" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1842" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A1842" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1842" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1842" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="D1842" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1842" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1842" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="1843" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A1843" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1843" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1843" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="D1843" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1843" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1843" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1843" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1844" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A1844" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1844" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1844" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="D1844" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1844" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1844" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1844" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1845" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A1845" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1845" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1845" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="D1845" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1845" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1845" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1845" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1846" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A1846" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1846" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1846" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="D1846" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1846" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1846" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="G1846" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1847" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A1847" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1847" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1847" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="D1847" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1847" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1847" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1847" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1848" spans="1:8" s="111" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="B1848" s="132"/>
+      <c r="C1848" s="133"/>
+      <c r="D1848" s="134"/>
+      <c r="F1848" s="134"/>
+      <c r="G1848" s="135"/>
+      <c r="H1848" s="134"/>
+    </row>
+    <row r="1849" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1849" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1849" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1849" s="11">
         <v>42594</v>
       </c>
-      <c r="D1841" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1841" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="F1841" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="G1841" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1842" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1842" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B1842" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1842" s="11">
-        <v>42594</v>
-      </c>
-      <c r="D1842" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1842" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1842" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1842" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1843" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1843" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B1843" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1843" s="11">
-        <v>42594</v>
-      </c>
-      <c r="D1843" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1843" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1843" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G1843" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1844" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1844" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B1844" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1844" s="11">
-        <v>42594</v>
-      </c>
-      <c r="D1844" s="14" t="s">
+      <c r="D1849" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E1844" s="9" t="s">
+      <c r="E1849" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="F1844" s="13" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="1845" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1845" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B1845" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1845" s="11">
-        <v>42594</v>
-      </c>
-      <c r="D1845" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1845" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="F1845" s="13" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="1846" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1846" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B1846" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1846" s="11">
-        <v>42594</v>
-      </c>
-      <c r="D1846" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1846" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1846" s="13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="1847" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1847" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B1847" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1847" s="11">
-        <v>42594</v>
-      </c>
-      <c r="D1847" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="E1847" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1847" s="13" t="s">
-        <v>360</v>
-      </c>
-      <c r="G1847" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1848" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1848" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B1848" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1848" s="11">
-        <v>42594</v>
-      </c>
-      <c r="D1848" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1848" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1848" s="13" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="1849" spans="1:8" s="104" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B1849" s="105"/>
-      <c r="C1849" s="106"/>
-      <c r="D1849" s="107" t="s">
-        <v>415</v>
-      </c>
-      <c r="F1849" s="108"/>
-      <c r="G1849" s="109"/>
-      <c r="H1849" s="110"/>
+      <c r="F1849" s="13" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="1850" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1850" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B1850" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1850" s="11" t="s">
-        <v>416</v>
+        <v>85</v>
+      </c>
+      <c r="B1850" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1850" s="11">
+        <v>42594</v>
       </c>
       <c r="D1850" s="14" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="E1850" s="9" t="s">
-        <v>24</v>
+        <v>114</v>
       </c>
       <c r="F1850" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="G1850" s="89" t="s">
-        <v>162</v>
+        <v>117</v>
       </c>
     </row>
     <row r="1851" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1851" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B1851" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1851" s="11" t="s">
-        <v>416</v>
+        <v>85</v>
+      </c>
+      <c r="B1851" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1851" s="11">
+        <v>42594</v>
       </c>
       <c r="D1851" s="14" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="E1851" s="9" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F1851" s="13" t="s">
-        <v>403</v>
-      </c>
-      <c r="G1851" s="89" t="s">
-        <v>162</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1852" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1852" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B1852" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1852" s="11" t="s">
-        <v>416</v>
+        <v>85</v>
+      </c>
+      <c r="B1852" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1852" s="11">
+        <v>42594</v>
       </c>
       <c r="D1852" s="14" t="s">
-        <v>43</v>
+        <v>216</v>
       </c>
       <c r="E1852" s="9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F1852" s="13" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="1853" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1853" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B1853" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1853" s="11" t="s">
-        <v>416</v>
-      </c>
-      <c r="D1853" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1853" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1853" s="13" t="s">
-        <v>222</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G1852" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1853" spans="1:8" s="104" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1853" s="105"/>
+      <c r="C1853" s="106"/>
+      <c r="D1853" s="107" t="s">
+        <v>415</v>
+      </c>
+      <c r="F1853" s="108"/>
+      <c r="G1853" s="109"/>
+      <c r="H1853" s="110"/>
     </row>
     <row r="1854" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1854" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="B1854" s="47" t="s">
+      <c r="B1854" s="65" t="s">
         <v>27</v>
       </c>
       <c r="C1854" s="11" t="s">
@@ -41911,10 +41872,13 @@
         <v>43</v>
       </c>
       <c r="E1854" s="9" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F1854" s="13" t="s">
-        <v>405</v>
+        <v>277</v>
+      </c>
+      <c r="G1854" s="89" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="1855" spans="1:8" x14ac:dyDescent="0.25">
@@ -41931,10 +41895,10 @@
         <v>43</v>
       </c>
       <c r="E1855" s="9" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F1855" s="13" t="s">
-        <v>406</v>
+        <v>239</v>
       </c>
     </row>
     <row r="1856" spans="1:8" x14ac:dyDescent="0.25">
@@ -41951,10 +41915,10 @@
         <v>43</v>
       </c>
       <c r="E1856" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F1856" s="13" t="s">
-        <v>407</v>
+        <v>189</v>
       </c>
     </row>
     <row r="1857" spans="1:7" x14ac:dyDescent="0.25">
@@ -41968,13 +41932,13 @@
         <v>416</v>
       </c>
       <c r="D1857" s="14" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E1857" s="9" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F1857" s="13" t="s">
-        <v>412</v>
+        <v>190</v>
       </c>
     </row>
     <row r="1858" spans="1:7" x14ac:dyDescent="0.25">
@@ -41988,93 +41952,105 @@
         <v>416</v>
       </c>
       <c r="D1858" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E1858" s="9" t="s">
         <v>105</v>
       </c>
       <c r="F1858" s="13" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="1859" spans="1:7" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="1859" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1859" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="B1859" s="47" t="s">
-        <v>27</v>
+      <c r="B1859" s="87" t="s">
+        <v>150</v>
       </c>
       <c r="C1859" s="11" t="s">
         <v>416</v>
       </c>
       <c r="D1859" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E1859" s="9" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F1859" s="13" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="1860" spans="1:7" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="G1859" s="88" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="1860" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1860" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="B1860" s="47" t="s">
-        <v>27</v>
+      <c r="B1860" s="87" t="s">
+        <v>139</v>
       </c>
       <c r="C1860" s="11" t="s">
         <v>416</v>
       </c>
       <c r="D1860" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E1860" s="9" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F1860" s="13" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="1861" spans="1:7" x14ac:dyDescent="0.25">
+        <v>419</v>
+      </c>
+      <c r="G1860" s="88" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="1861" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1861" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="B1861" s="47" t="s">
-        <v>27</v>
+      <c r="B1861" s="87" t="s">
+        <v>19</v>
       </c>
       <c r="C1861" s="11" t="s">
         <v>416</v>
       </c>
       <c r="D1861" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E1861" s="9" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F1861" s="13" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="1862" spans="1:7" x14ac:dyDescent="0.25">
+        <v>419</v>
+      </c>
+      <c r="G1861" s="88" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="1862" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A1862" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="B1862" s="47" t="s">
-        <v>27</v>
+      <c r="B1862" s="87" t="s">
+        <v>146</v>
       </c>
       <c r="C1862" s="11" t="s">
         <v>416</v>
       </c>
       <c r="D1862" s="14" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E1862" s="9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="F1862" s="13" t="s">
-        <v>368</v>
+        <v>49</v>
+      </c>
+      <c r="G1862" s="88" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="1863" spans="1:7" x14ac:dyDescent="0.25">
@@ -42091,56 +42067,50 @@
         <v>46</v>
       </c>
       <c r="E1863" s="9" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="F1863" s="13" t="s">
-        <v>38</v>
+        <v>163</v>
       </c>
     </row>
     <row r="1864" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1864" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="B1864" s="65" t="s">
+      <c r="B1864" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C1864" s="11" t="s">
         <v>416</v>
       </c>
       <c r="D1864" s="14" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="E1864" s="9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F1864" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="G1864" s="89" t="s">
-        <v>162</v>
+        <v>241</v>
       </c>
     </row>
     <row r="1865" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1865" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="B1865" s="65" t="s">
+      <c r="B1865" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C1865" s="11" t="s">
         <v>416</v>
       </c>
       <c r="D1865" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E1865" s="9" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="F1865" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1865" s="89" t="s">
-        <v>162</v>
+        <v>235</v>
       </c>
     </row>
     <row r="1866" spans="1:7" x14ac:dyDescent="0.25">
@@ -42154,13 +42124,13 @@
         <v>416</v>
       </c>
       <c r="D1866" s="14" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="E1866" s="9" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="F1866" s="13" t="s">
-        <v>413</v>
+        <v>185</v>
       </c>
     </row>
     <row r="1867" spans="1:7" x14ac:dyDescent="0.25">
@@ -42174,13 +42144,13 @@
         <v>416</v>
       </c>
       <c r="D1867" s="14" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="E1867" s="9" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="F1867" s="13" t="s">
-        <v>414</v>
+        <v>119</v>
       </c>
     </row>
     <row r="1868" spans="1:7" x14ac:dyDescent="0.25">
@@ -42194,13 +42164,13 @@
         <v>416</v>
       </c>
       <c r="D1868" s="14" t="s">
-        <v>216</v>
+        <v>36</v>
       </c>
       <c r="E1868" s="9" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F1868" s="13" t="s">
-        <v>177</v>
+        <v>237</v>
       </c>
       <c r="G1868" s="89" t="s">
         <v>162</v>
@@ -42210,25 +42180,28 @@
       <c r="A1869" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="B1869" s="47" t="s">
+      <c r="B1869" s="65" t="s">
         <v>27</v>
       </c>
       <c r="C1869" s="11" t="s">
         <v>416</v>
       </c>
       <c r="D1869" s="14" t="s">
-        <v>417</v>
+        <v>45</v>
       </c>
       <c r="E1869" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F1869" s="13" t="s">
-        <v>250</v>
+        <v>37</v>
+      </c>
+      <c r="G1869" s="89" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="1870" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1870" s="10" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="B1870" s="47" t="s">
         <v>27</v>
@@ -42237,41 +42210,38 @@
         <v>416</v>
       </c>
       <c r="D1870" s="14" t="s">
-        <v>417</v>
+        <v>34</v>
       </c>
       <c r="E1870" s="9" t="s">
-        <v>28</v>
+        <v>107</v>
       </c>
       <c r="F1870" s="13" t="s">
-        <v>418</v>
+        <v>263</v>
       </c>
     </row>
     <row r="1871" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1871" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B1871" s="65" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1871" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C1871" s="11" t="s">
         <v>416</v>
       </c>
       <c r="D1871" s="14" t="s">
-        <v>417</v>
+        <v>43</v>
       </c>
       <c r="E1871" s="9" t="s">
-        <v>24</v>
+        <v>104</v>
       </c>
       <c r="F1871" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="G1871" s="89" t="s">
-        <v>162</v>
+        <v>215</v>
       </c>
     </row>
     <row r="1872" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1872" s="10" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="B1872" s="65" t="s">
         <v>27</v>
@@ -42280,13 +42250,13 @@
         <v>416</v>
       </c>
       <c r="D1872" s="14" t="s">
-        <v>417</v>
+        <v>35</v>
       </c>
       <c r="E1872" s="9" t="s">
-        <v>101</v>
+        <v>24</v>
       </c>
       <c r="F1872" s="13" t="s">
-        <v>251</v>
+        <v>200</v>
       </c>
       <c r="G1872" s="89" t="s">
         <v>162</v>
@@ -42294,7 +42264,7 @@
     </row>
     <row r="1873" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1873" s="10" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="B1873" s="65" t="s">
         <v>27</v>
@@ -42303,13 +42273,13 @@
         <v>416</v>
       </c>
       <c r="D1873" s="14" t="s">
-        <v>417</v>
+        <v>35</v>
       </c>
       <c r="E1873" s="9" t="s">
-        <v>101</v>
+        <v>24</v>
       </c>
       <c r="F1873" s="13" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="G1873" s="89" t="s">
         <v>162</v>
@@ -42326,13 +42296,13 @@
         <v>416</v>
       </c>
       <c r="D1874" s="14" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E1874" s="9" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F1874" s="13" t="s">
-        <v>263</v>
+        <v>164</v>
       </c>
     </row>
     <row r="1875" spans="1:7" x14ac:dyDescent="0.25">
@@ -42346,13 +42316,13 @@
         <v>416</v>
       </c>
       <c r="D1875" s="14" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E1875" s="9" t="s">
-        <v>22</v>
+        <v>129</v>
       </c>
       <c r="F1875" s="13" t="s">
-        <v>205</v>
+        <v>67</v>
       </c>
       <c r="G1875" s="89" t="s">
         <v>162</v>
@@ -42362,20 +42332,23 @@
       <c r="A1876" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="B1876" s="47" t="s">
+      <c r="B1876" s="65" t="s">
         <v>27</v>
       </c>
       <c r="C1876" s="11" t="s">
         <v>416</v>
       </c>
       <c r="D1876" s="14" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E1876" s="9" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="F1876" s="13" t="s">
-        <v>172</v>
+        <v>68</v>
+      </c>
+      <c r="G1876" s="89" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="1877" spans="1:7" x14ac:dyDescent="0.25">
@@ -42389,56 +42362,59 @@
         <v>416</v>
       </c>
       <c r="D1877" s="14" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E1877" s="9" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="F1877" s="13" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="1878" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="1878" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1878" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="B1878" s="87" t="s">
-        <v>77</v>
+      <c r="B1878" s="65" t="s">
+        <v>27</v>
       </c>
       <c r="C1878" s="11" t="s">
         <v>416</v>
       </c>
       <c r="D1878" s="14" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E1878" s="9" t="s">
-        <v>21</v>
+        <v>129</v>
       </c>
       <c r="F1878" s="13" t="s">
-        <v>330</v>
-      </c>
-      <c r="G1878" s="88" t="s">
-        <v>361</v>
+        <v>70</v>
+      </c>
+      <c r="G1878" s="89" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="1879" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1879" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="B1879" s="47" t="s">
+      <c r="B1879" s="65" t="s">
         <v>27</v>
       </c>
       <c r="C1879" s="11" t="s">
         <v>416</v>
       </c>
       <c r="D1879" s="14" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="E1879" s="9" t="s">
         <v>129</v>
       </c>
       <c r="F1879" s="13" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="G1879" s="89" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="1880" spans="1:7" x14ac:dyDescent="0.25">
@@ -42455,10 +42431,10 @@
         <v>46</v>
       </c>
       <c r="E1880" s="9" t="s">
-        <v>22</v>
+        <v>129</v>
       </c>
       <c r="F1880" s="13" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="G1880" s="89" t="s">
         <v>162</v>
@@ -42478,10 +42454,10 @@
         <v>46</v>
       </c>
       <c r="E1881" s="9" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="F1881" s="13" t="s">
-        <v>66</v>
+        <v>292</v>
       </c>
       <c r="G1881" s="89" t="s">
         <v>162</v>
@@ -42501,10 +42477,10 @@
         <v>46</v>
       </c>
       <c r="E1882" s="9" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="F1882" s="13" t="s">
-        <v>67</v>
+        <v>177</v>
       </c>
       <c r="G1882" s="89" t="s">
         <v>162</v>
@@ -42512,53 +42488,50 @@
     </row>
     <row r="1883" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1883" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="B1883" s="65" t="s">
+        <v>251</v>
+      </c>
+      <c r="B1883" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C1883" s="11" t="s">
         <v>416</v>
       </c>
       <c r="D1883" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E1883" s="9" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="F1883" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="G1883" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1884" spans="1:7" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="1884" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A1884" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="B1884" s="65" t="s">
-        <v>27</v>
+        <v>251</v>
+      </c>
+      <c r="B1884" s="87" t="s">
+        <v>77</v>
       </c>
       <c r="C1884" s="11" t="s">
         <v>416</v>
       </c>
       <c r="D1884" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E1884" s="9" t="s">
-        <v>129</v>
+        <v>21</v>
       </c>
       <c r="F1884" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="G1884" s="89" t="s">
-        <v>162</v>
+        <v>330</v>
+      </c>
+      <c r="G1884" s="88" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="1885" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1885" s="10" t="s">
-        <v>177</v>
+        <v>251</v>
       </c>
       <c r="B1885" s="65" t="s">
         <v>27</v>
@@ -42567,13 +42540,13 @@
         <v>416</v>
       </c>
       <c r="D1885" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E1885" s="9" t="s">
         <v>129</v>
       </c>
       <c r="F1885" s="13" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G1885" s="89" t="s">
         <v>162</v>
@@ -42581,360 +42554,64 @@
     </row>
     <row r="1886" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1886" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="B1886" s="65" t="s">
+        <v>251</v>
+      </c>
+      <c r="B1886" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C1886" s="11" t="s">
         <v>416</v>
       </c>
       <c r="D1886" s="14" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E1886" s="9" t="s">
         <v>129</v>
       </c>
       <c r="F1886" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="G1886" s="89" t="s">
-        <v>162</v>
+        <v>69</v>
       </c>
     </row>
     <row r="1887" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1887" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="B1887" s="65" t="s">
+        <v>251</v>
+      </c>
+      <c r="B1887" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C1887" s="11" t="s">
         <v>416</v>
       </c>
       <c r="D1887" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E1887" s="9" t="s">
-        <v>25</v>
+        <v>137</v>
       </c>
       <c r="F1887" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G1887" s="89" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="1888" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1888" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="B1888" s="47" t="s">
+        <v>251</v>
+      </c>
+      <c r="B1888" s="65" t="s">
         <v>27</v>
       </c>
       <c r="C1888" s="11" t="s">
         <v>416</v>
       </c>
       <c r="D1888" s="14" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E1888" s="9" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="F1888" s="13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="1889" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1889" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="B1889" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1889" s="11" t="s">
-        <v>416</v>
-      </c>
-      <c r="D1889" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="E1889" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1889" s="13" t="s">
-        <v>360</v>
-      </c>
-      <c r="G1889" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1890" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1890" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="B1890" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1890" s="11" t="s">
-        <v>416</v>
-      </c>
-      <c r="D1890" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1890" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1890" s="13" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="1891" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1891" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="B1891" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1891" s="11" t="s">
-        <v>416</v>
-      </c>
-      <c r="D1891" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="E1891" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="F1891" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="G1891" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1892" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1892" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="B1892" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1892" s="11" t="s">
-        <v>416</v>
-      </c>
-      <c r="D1892" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="E1892" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1892" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1892" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1893" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1893" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="B1893" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1893" s="11" t="s">
-        <v>416</v>
-      </c>
-      <c r="D1893" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="E1893" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1893" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="G1893" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1894" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1894" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="B1894" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1894" s="11" t="s">
-        <v>416</v>
-      </c>
-      <c r="D1894" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="E1894" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1894" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="G1894" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1895" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1895" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="B1895" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1895" s="11" t="s">
-        <v>416</v>
-      </c>
-      <c r="D1895" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="E1895" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1895" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="G1895" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1896" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1896" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="B1896" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1896" s="11" t="s">
-        <v>416</v>
-      </c>
-      <c r="D1896" s="14" t="s">
-        <v>417</v>
-      </c>
-      <c r="E1896" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1896" s="13" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="1897" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1897" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="B1897" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1897" s="11" t="s">
-        <v>416</v>
-      </c>
-      <c r="D1897" s="14" t="s">
-        <v>417</v>
-      </c>
-      <c r="E1897" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1897" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="G1897" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1898" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1898" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="B1898" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1898" s="11" t="s">
-        <v>416</v>
-      </c>
-      <c r="D1898" s="14" t="s">
-        <v>417</v>
-      </c>
-      <c r="E1898" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1898" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G1898" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1899" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1899" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="B1899" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1899" s="11" t="s">
-        <v>416</v>
-      </c>
-      <c r="D1899" s="14" t="s">
-        <v>417</v>
-      </c>
-      <c r="E1899" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1899" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="G1899" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1900" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1900" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="B1900" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1900" s="11" t="s">
-        <v>416</v>
-      </c>
-      <c r="D1900" s="14" t="s">
-        <v>417</v>
-      </c>
-      <c r="E1900" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1900" s="13" t="s">
-        <v>297</v>
-      </c>
-      <c r="G1900" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1901" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1901" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="B1901" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1901" s="11" t="s">
-        <v>416</v>
-      </c>
-      <c r="D1901" s="14" t="s">
-        <v>417</v>
-      </c>
-      <c r="E1901" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="F1901" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1901" s="89" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1888" s="89" t="s">
         <v>162</v>
       </c>
     </row>
@@ -42959,7 +42636,7 @@
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="69" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;R&amp;"-,Bold"&amp;22&amp;D&amp;C&amp;"Calibri,Bold"&amp;22A, 1:45PM to 8:15PM</oddHeader>
+    <oddHeader>&amp;C&amp;"-,Bold"&amp;22 &amp;R&amp;"-,Bold"&amp;22&amp;D</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
@@ -43379,40 +43056,40 @@
     <row r="42" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A50" s="5"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A51" s="5"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A52" s="5"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A53" s="5"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A54" s="6"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A55" s="7"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A56" s="8"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A57" s="8"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A58" s="8"/>
     </row>
   </sheetData>

--- a/PW/masterlog.xlsx
+++ b/PW/masterlog.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17030"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhan\Documents\Visual Studio 2015\Projects\ClassOpsLogCreator\CLASSOPS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="270" yWindow="30" windowWidth="14865" windowHeight="10785" tabRatio="440"/>
   </bookViews>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16546" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16822" uniqueCount="446">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1359,11 +1364,14 @@
   <si>
     <t>jhan</t>
   </si>
+  <si>
+    <t>8/18/16</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
@@ -2031,6 +2039,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -2078,7 +2089,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2111,9 +2122,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2146,6 +2174,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2325,7 +2370,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H2889"/>
+  <dimension ref="A1:H2934"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A1915" activePane="bottomLeft" state="frozenSplit"/>
@@ -63103,7 +63148,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="2881" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2881" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2881" s="10" t="s">
         <v>80</v>
       </c>
@@ -63123,7 +63168,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="2882" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2882" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2882" s="10" t="s">
         <v>80</v>
       </c>
@@ -63143,7 +63188,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="2883" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2883" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2883" s="10" t="s">
         <v>80</v>
       </c>
@@ -63163,7 +63208,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="2884" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2884" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2884" s="10" t="s">
         <v>80</v>
       </c>
@@ -63183,7 +63228,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="2885" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2885" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2885" s="10" t="s">
         <v>80</v>
       </c>
@@ -63203,7 +63248,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="2886" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2886" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2886" s="10" t="s">
         <v>80</v>
       </c>
@@ -63223,7 +63268,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2887" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2887" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2887" s="10" t="s">
         <v>80</v>
       </c>
@@ -63246,7 +63291,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2888" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2888" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2888" s="10" t="s">
         <v>80</v>
       </c>
@@ -63269,7 +63314,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2889" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2889" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2889" s="10" t="s">
         <v>80</v>
       </c>
@@ -63287,6 +63332,935 @@
       </c>
       <c r="F2889" s="13" t="s">
         <v>73</v>
+      </c>
+    </row>
+    <row r="2890" spans="1:8" s="104" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2890" s="105"/>
+      <c r="C2890" s="106"/>
+      <c r="D2890" s="107" t="s">
+        <v>401</v>
+      </c>
+      <c r="F2890" s="108"/>
+      <c r="G2890" s="109"/>
+      <c r="H2890" s="110"/>
+    </row>
+    <row r="2891" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2891" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2891" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2891" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="D2891" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2891" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2891" s="13" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="2892" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2892" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2892" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2892" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="D2892" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2892" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2892" s="13" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="2893" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2893" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2893" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2893" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="D2893" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2893" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2893" s="13" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="2894" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2894" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2894" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2894" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="D2894" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2894" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2894" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="G2894" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2895" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2895" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2895" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2895" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="D2895" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2895" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2895" s="13" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="2896" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2896" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2896" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2896" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="D2896" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2896" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2896" s="13" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2897" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2897" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2897" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2897" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="D2897" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2897" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2897" s="13" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="2898" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2898" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2898" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2898" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="D2898" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2898" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2898" s="13" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="2899" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2899" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2899" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2899" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="D2899" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2899" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2899" s="13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2900" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2900" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2900" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2900" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="D2900" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2900" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2900" s="13" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="2901" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2901" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2901" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2901" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="D2901" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2901" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2901" s="13" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="2902" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2902" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2902" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2902" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="D2902" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2902" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2902" s="13" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="2903" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2903" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2903" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2903" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="D2903" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2903" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2903" s="13" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="2904" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2904" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2904" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2904" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="D2904" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2904" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2904" s="13" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="2905" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2905" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2905" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2905" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="D2905" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2905" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2905" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2905" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2906" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2906" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2906" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2906" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="D2906" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2906" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2906" s="13" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="2907" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2907" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2907" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2907" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="D2907" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2907" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2907" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2907" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2908" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2908" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2908" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2908" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="D2908" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2908" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2908" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="G2908" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2909" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2909" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2909" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2909" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="D2909" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2909" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2909" s="13" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="2910" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2910" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2910" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2910" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="D2910" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2910" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2910" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="G2910" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2911" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2911" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2911" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2911" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="D2911" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2911" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2911" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="G2911" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2912" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2912" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2912" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2912" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="D2912" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2912" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2912" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="G2912" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2913" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2913" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2913" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2913" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="D2913" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2913" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2913" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="G2913" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2914" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2914" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2914" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2914" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="D2914" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2914" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2914" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2915" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2915" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2915" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2915" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="D2915" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2915" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2915" s="13" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2916" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2916" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2916" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2916" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="D2916" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2916" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2916" s="13" t="s">
+        <v>428</v>
+      </c>
+      <c r="G2916" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2917" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2917" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2917" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2917" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="D2917" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2917" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2917" s="13" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="2918" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2918" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2918" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2918" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="D2918" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2918" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2918" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2918" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2919" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2919" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2919" s="87" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2919" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="D2919" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2919" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2919" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="G2919" s="88" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="2920" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2920" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2920" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2920" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="D2920" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2920" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2920" s="13" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2921" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2921" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2921" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2921" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="D2921" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2921" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2921" s="13" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="2922" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2922" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2922" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2922" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="D2922" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2922" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2922" s="13" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="2923" spans="1:8" s="111" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2923" s="132"/>
+      <c r="C2923" s="133"/>
+      <c r="D2923" s="134"/>
+      <c r="F2923" s="134"/>
+      <c r="G2923" s="135"/>
+      <c r="H2923" s="134"/>
+    </row>
+    <row r="2924" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2924" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2924" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2924" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="D2924" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2924" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2924" s="13" t="s">
+        <v>434</v>
+      </c>
+      <c r="G2924" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2925" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2925" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2925" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2925" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="D2925" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2925" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2925" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="G2925" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2926" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2926" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2926" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2926" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="D2926" s="14" t="s">
+        <v>436</v>
+      </c>
+      <c r="E2926" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2926" s="13" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="2927" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2927" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2927" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2927" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="D2927" s="14" t="s">
+        <v>436</v>
+      </c>
+      <c r="E2927" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2927" s="13" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="2928" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2928" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2928" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2928" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="D2928" s="14" t="s">
+        <v>436</v>
+      </c>
+      <c r="E2928" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2928" s="13" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="2929" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2929" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2929" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2929" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="D2929" s="14" t="s">
+        <v>436</v>
+      </c>
+      <c r="E2929" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="F2929" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="G2929" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2930" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2930" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2930" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2930" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="D2930" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2930" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2930" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2931" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2931" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2931" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2931" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="D2931" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2931" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2931" s="13" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="2932" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2932" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2932" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2932" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="D2932" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="E2932" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2932" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2932" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2933" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2933" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2933" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2933" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="D2933" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E2933" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2933" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="G2933" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2934" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2934" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2934" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2934" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="D2934" s="14" t="s">
+        <v>436</v>
+      </c>
+      <c r="E2934" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2934" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="G2934" s="89" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -63308,7 +64282,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="68" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="69" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;R&amp;"-,Bold"&amp;22&amp;D&amp;C&amp;"Calibri,Bold"&amp;22Jhan, 6:30PM to 9:30PM</oddHeader>
   </headerFooter>
@@ -63730,31 +64704,31 @@
     <row r="42" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
     </row>
-    <row r="47" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
     </row>
-    <row r="48" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
     </row>
-    <row r="49" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
     </row>
-    <row r="50" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
     </row>
-    <row r="51" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
     </row>
-    <row r="52" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
     </row>
-    <row r="53" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="5"/>
     </row>
-    <row r="54" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
     </row>
-    <row r="55" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">

--- a/PW/masterlog.xlsx
+++ b/PW/masterlog.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12927" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13645" uniqueCount="457">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1397,6 +1397,9 @@
   <si>
     <t>038</t>
   </si>
+  <si>
+    <t>Name</t>
+  </si>
 </sst>
 </file>
 
@@ -2400,7 +2403,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H2206"/>
+  <dimension ref="A1:H2329"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A1972" activePane="bottomLeft" state="frozenSplit"/>
@@ -49239,6 +49242,2551 @@
         <v>162</v>
       </c>
     </row>
+    <row r="2207" spans="1:8" s="104" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2207" s="105"/>
+      <c r="C2207" s="106"/>
+      <c r="D2207" s="107" t="s">
+        <v>415</v>
+      </c>
+      <c r="F2207" s="108"/>
+      <c r="G2207" s="109"/>
+      <c r="H2207" s="110"/>
+    </row>
+    <row r="2208" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2208" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2208" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2208" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="D2208" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2208" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2208" s="13" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="2209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2209" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2209" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2209" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="D2209" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2209" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2209" s="13" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="2210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2210" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2210" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2210" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="D2210" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2210" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2210" s="13" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="2211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2211" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2211" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2211" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="D2211" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2211" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2211" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="G2211" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2212" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2212" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2212" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="D2212" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2212" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2212" s="13" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="2213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2213" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2213" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2213" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="D2213" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2213" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2213" s="13" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2214" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2214" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2214" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="D2214" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2214" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2214" s="13" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="2215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2215" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2215" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2215" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="D2215" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2215" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2215" s="13" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="2216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2216" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2216" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2216" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="D2216" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2216" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2216" s="13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2217" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2217" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2217" s="87" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2217" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="D2217" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2217" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2217" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="G2217" s="88" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="2218" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2218" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2218" s="87" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2218" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="D2218" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2218" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2218" s="13" t="s">
+        <v>443</v>
+      </c>
+      <c r="G2218" s="88" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="2219" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2219" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2219" s="87" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2219" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="D2219" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2219" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2219" s="13" t="s">
+        <v>443</v>
+      </c>
+      <c r="G2219" s="88" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="2220" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2220" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2220" s="87" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2220" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="D2220" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2220" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2220" s="13" t="s">
+        <v>446</v>
+      </c>
+      <c r="G2220" s="88" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="2221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2221" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2221" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2221" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="D2221" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2221" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2221" s="13" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="2222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2222" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2222" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2222" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="D2222" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2222" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2222" s="13" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="2223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2223" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2223" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2223" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="D2223" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2223" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2223" s="13" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="2224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2224" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2224" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2224" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="D2224" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2224" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2224" s="13" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="2225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2225" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2225" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2225" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="D2225" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2225" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2225" s="13" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="2226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2226" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2226" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2226" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="D2226" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2226" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2226" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2226" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2227" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2227" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2227" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2227" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="D2227" s="14" t="s">
+        <v>448</v>
+      </c>
+      <c r="E2227" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2227" s="13" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="2228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2228" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2228" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2228" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="D2228" s="14" t="s">
+        <v>448</v>
+      </c>
+      <c r="E2228" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2228" s="13" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="2229" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2229" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2229" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2229" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="D2229" s="14" t="s">
+        <v>448</v>
+      </c>
+      <c r="E2229" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2229" s="13" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="2230" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2230" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2230" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2230" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="D2230" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2230" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2230" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2231" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2231" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2231" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2231" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="D2231" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2231" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2231" s="13" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="2232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2232" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2232" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2232" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="D2232" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2232" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2232" s="13" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="2233" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2233" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2233" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2233" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="D2233" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2233" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2233" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2233" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2234" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2234" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2234" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2234" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="D2234" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2234" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2234" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="G2234" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2235" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2235" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2235" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2235" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="D2235" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2235" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2235" s="13" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="2236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2236" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2236" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2236" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="D2236" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2236" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2236" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="G2236" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2237" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2237" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2237" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2237" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="D2237" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2237" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2237" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="G2237" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2238" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2238" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2238" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="D2238" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2238" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2238" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="G2238" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2239" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2239" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2239" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2239" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="D2239" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2239" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2239" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="G2239" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2240" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2240" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2240" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2240" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="D2240" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2240" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2240" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2241" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2241" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2241" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2241" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="D2241" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2241" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2241" s="13" t="s">
+        <v>434</v>
+      </c>
+      <c r="G2241" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2242" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2242" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2242" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2242" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="D2242" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2242" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2242" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="G2242" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2243" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2243" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2243" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2243" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="D2243" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="E2243" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2243" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2243" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2244" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2244" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2244" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="D2244" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E2244" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2244" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="G2244" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2245" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2245" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2245" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="D2245" s="14" t="s">
+        <v>448</v>
+      </c>
+      <c r="E2245" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2245" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="G2245" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2246" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2246" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2246" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="D2246" s="14" t="s">
+        <v>448</v>
+      </c>
+      <c r="E2246" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="F2246" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="G2246" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2247" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2247" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2247" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="D2247" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2247" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2247" s="13" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2248" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2248" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2248" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2248" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="D2248" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2248" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2248" s="13" t="s">
+        <v>428</v>
+      </c>
+      <c r="G2248" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2249" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2249" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2249" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="D2249" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2249" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2249" s="13" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="2250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2250" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2250" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2250" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="D2250" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2250" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2250" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2250" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2251" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2251" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2251" s="87" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2251" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="D2251" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2251" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2251" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="G2251" s="88" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="2252" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2252" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2252" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2252" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="D2252" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2252" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2252" s="13" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2253" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2253" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2253" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2253" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="D2253" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2253" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2253" s="13" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="2254" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2254" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2254" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2254" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="D2254" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2254" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2254" s="13" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="2255" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2255" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2255" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2255" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="D2255" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2255" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2255" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2256" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2256" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2256" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2256" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="D2256" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2256" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2256" s="13" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="2257" spans="1:8" s="104" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2257" s="105"/>
+      <c r="C2257" s="106"/>
+      <c r="D2257" s="107" t="s">
+        <v>415</v>
+      </c>
+      <c r="F2257" s="108"/>
+      <c r="G2257" s="109"/>
+      <c r="H2257" s="110"/>
+    </row>
+    <row r="2258" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2258" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2258" s="87" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2258" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="D2258" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2258" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2258" s="13" t="s">
+        <v>446</v>
+      </c>
+      <c r="G2258" s="88" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="2259" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2259" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2259" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2259" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="D2259" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2259" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2259" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2259" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2260" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2260" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2260" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2260" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="D2260" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2260" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2260" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="G2260" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2261" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2261" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2261" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2261" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="D2261" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2261" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2261" s="13" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="2262" spans="1:8" s="104" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2262" s="105"/>
+      <c r="C2262" s="106"/>
+      <c r="D2262" s="107" t="s">
+        <v>415</v>
+      </c>
+      <c r="F2262" s="108"/>
+      <c r="G2262" s="109"/>
+      <c r="H2262" s="110"/>
+    </row>
+    <row r="2263" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2263" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2263" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2263" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="D2263" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2263" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2263" s="13" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="2264" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2264" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2264" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2264" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="D2264" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2264" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2264" s="13" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="2265" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2265" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2265" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2265" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="D2265" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2265" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2265" s="13" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="2266" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2266" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2266" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2266" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="D2266" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2266" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2266" s="13" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="2267" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2267" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2267" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2267" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="D2267" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2267" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2267" s="13" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="2268" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2268" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2268" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2268" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="D2268" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2268" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2268" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2269" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2269" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2269" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2269" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="D2269" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2269" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2269" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2269" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2270" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2270" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2270" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2270" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="D2270" s="14" t="s">
+        <v>448</v>
+      </c>
+      <c r="E2270" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2270" s="13" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="2271" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2271" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2271" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2271" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="D2271" s="14" t="s">
+        <v>448</v>
+      </c>
+      <c r="E2271" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2271" s="13" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="2272" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2272" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2272" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2272" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="D2272" s="14" t="s">
+        <v>448</v>
+      </c>
+      <c r="E2272" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2272" s="13" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="2273" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2273" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2273" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2273" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="D2273" s="14" t="s">
+        <v>448</v>
+      </c>
+      <c r="E2273" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="F2273" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="G2273" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2274" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2274" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2274" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="D2274" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2274" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2274" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="G2274" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2275" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2275" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2275" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="D2275" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2275" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2275" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="G2275" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2276" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2276" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2276" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="D2276" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2276" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2276" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="G2276" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2277" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2277" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2277" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="D2277" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2277" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2277" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="G2277" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2278" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2278" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2278" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="D2278" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2278" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2278" s="13" t="s">
+        <v>434</v>
+      </c>
+      <c r="G2278" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2279" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2279" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2279" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="D2279" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2279" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2279" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="G2279" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2280" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2280" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2280" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="D2280" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="E2280" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2280" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2280" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2281" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2281" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2281" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="D2281" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E2281" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2281" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="G2281" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2282" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2282" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2282" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="D2282" s="14" t="s">
+        <v>448</v>
+      </c>
+      <c r="E2282" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2282" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="G2282" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2283" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2283" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2283" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="D2283" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2283" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2283" s="13" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2284" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2284" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2284" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="D2284" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2284" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2284" s="13" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="2285" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2285" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2285" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="D2285" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2285" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2285" s="13" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="2286" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2286" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2286" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="D2286" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2286" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2286" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2287" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2287" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2287" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="D2287" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2287" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2287" s="13" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="2288" spans="1:8" s="104" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2288" s="105"/>
+      <c r="C2288" s="106"/>
+      <c r="D2288" s="107" t="s">
+        <v>415</v>
+      </c>
+      <c r="F2288" s="108"/>
+      <c r="G2288" s="109"/>
+      <c r="H2288" s="110"/>
+    </row>
+    <row r="2289" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2289" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="B2289" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2289" s="11">
+        <v>42601</v>
+      </c>
+      <c r="D2289" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2289" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2289" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2290" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2290" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="B2290" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2290" s="11">
+        <v>42601</v>
+      </c>
+      <c r="D2290" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2290" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2290" s="13" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="2291" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2291" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="B2291" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2291" s="11">
+        <v>42601</v>
+      </c>
+      <c r="D2291" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2291" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2291" s="13" t="s">
+        <v>434</v>
+      </c>
+      <c r="G2291" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2292" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2292" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="B2292" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2292" s="11">
+        <v>42601</v>
+      </c>
+      <c r="D2292" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2292" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2292" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="G2292" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2293" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2293" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="B2293" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2293" s="11">
+        <v>42601</v>
+      </c>
+      <c r="D2293" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="E2293" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2293" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2293" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2294" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2294" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="B2294" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2294" s="11">
+        <v>42601</v>
+      </c>
+      <c r="D2294" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E2294" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2294" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="G2294" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2295" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2295" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="B2295" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2295" s="11">
+        <v>42601</v>
+      </c>
+      <c r="D2295" s="14" t="s">
+        <v>448</v>
+      </c>
+      <c r="E2295" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2295" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="G2295" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2296" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2296" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="B2296" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2296" s="11">
+        <v>42601</v>
+      </c>
+      <c r="D2296" s="14" t="s">
+        <v>448</v>
+      </c>
+      <c r="E2296" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2296" s="13" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="2297" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2297" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="B2297" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2297" s="11">
+        <v>42601</v>
+      </c>
+      <c r="D2297" s="14" t="s">
+        <v>448</v>
+      </c>
+      <c r="E2297" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2297" s="13" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="2298" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2298" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="B2298" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2298" s="11">
+        <v>42601</v>
+      </c>
+      <c r="D2298" s="14" t="s">
+        <v>448</v>
+      </c>
+      <c r="E2298" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2298" s="13" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="2299" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2299" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="B2299" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2299" s="11">
+        <v>42601</v>
+      </c>
+      <c r="D2299" s="14" t="s">
+        <v>448</v>
+      </c>
+      <c r="E2299" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="F2299" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="G2299" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2300" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2300" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="B2300" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2300" s="11">
+        <v>42601</v>
+      </c>
+      <c r="D2300" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="E2300" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2300" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2300" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2301" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2301" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="B2301" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2301" s="11">
+        <v>42601</v>
+      </c>
+      <c r="D2301" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="E2301" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2301" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2301" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2302" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2302" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="B2302" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2302" s="11">
+        <v>42601</v>
+      </c>
+      <c r="D2302" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="E2302" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2302" s="13" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2303" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2303" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="B2303" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2303" s="11">
+        <v>42601</v>
+      </c>
+      <c r="D2303" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="E2303" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2303" s="13" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="2304" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2304" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="B2304" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2304" s="11">
+        <v>42601</v>
+      </c>
+      <c r="D2304" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="E2304" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2304" s="13" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="2305" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2305" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="B2305" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2305" s="11">
+        <v>42601</v>
+      </c>
+      <c r="D2305" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="E2305" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2305" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="G2305" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2306" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2306" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="B2306" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2306" s="11">
+        <v>42601</v>
+      </c>
+      <c r="D2306" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="E2306" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2306" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="G2306" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2307" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2307" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="B2307" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2307" s="11">
+        <v>42601</v>
+      </c>
+      <c r="D2307" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="E2307" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2307" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2307" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2308" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2308" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="B2308" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2308" s="11">
+        <v>42601</v>
+      </c>
+      <c r="D2308" s="14" t="s">
+        <v>454</v>
+      </c>
+      <c r="E2308" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2308" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="G2308" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2309" spans="1:8" s="104" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2309" s="105"/>
+      <c r="C2309" s="106"/>
+      <c r="D2309" s="107" t="s">
+        <v>415</v>
+      </c>
+      <c r="F2309" s="108"/>
+      <c r="G2309" s="109"/>
+      <c r="H2309" s="110"/>
+    </row>
+    <row r="2310" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2310" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2310" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2310" s="11">
+        <v>42601</v>
+      </c>
+      <c r="D2310" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2310" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2310" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2311" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2311" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2311" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2311" s="11">
+        <v>42601</v>
+      </c>
+      <c r="D2311" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2311" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2311" s="13" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="2312" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2312" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2312" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2312" s="11">
+        <v>42601</v>
+      </c>
+      <c r="D2312" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2312" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2312" s="13" t="s">
+        <v>434</v>
+      </c>
+      <c r="G2312" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2313" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2313" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2313" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2313" s="11">
+        <v>42601</v>
+      </c>
+      <c r="D2313" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2313" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2313" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="G2313" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2314" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2314" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2314" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2314" s="11">
+        <v>42601</v>
+      </c>
+      <c r="D2314" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="E2314" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2314" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2314" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2315" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2315" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2315" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2315" s="11">
+        <v>42601</v>
+      </c>
+      <c r="D2315" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E2315" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2315" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="G2315" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2316" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2316" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2316" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2316" s="11">
+        <v>42601</v>
+      </c>
+      <c r="D2316" s="14" t="s">
+        <v>448</v>
+      </c>
+      <c r="E2316" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2316" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="G2316" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2317" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2317" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2317" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2317" s="11">
+        <v>42601</v>
+      </c>
+      <c r="D2317" s="14" t="s">
+        <v>448</v>
+      </c>
+      <c r="E2317" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2317" s="13" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="2318" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2318" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2318" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2318" s="11">
+        <v>42601</v>
+      </c>
+      <c r="D2318" s="14" t="s">
+        <v>448</v>
+      </c>
+      <c r="E2318" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2318" s="13" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="2319" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2319" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2319" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2319" s="11">
+        <v>42601</v>
+      </c>
+      <c r="D2319" s="14" t="s">
+        <v>448</v>
+      </c>
+      <c r="E2319" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2319" s="13" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="2320" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2320" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2320" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2320" s="11">
+        <v>42601</v>
+      </c>
+      <c r="D2320" s="14" t="s">
+        <v>448</v>
+      </c>
+      <c r="E2320" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="F2320" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="G2320" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2321" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2321" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2321" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2321" s="11">
+        <v>42601</v>
+      </c>
+      <c r="D2321" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="E2321" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2321" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2321" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2322" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2322" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2322" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2322" s="11">
+        <v>42601</v>
+      </c>
+      <c r="D2322" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="E2322" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2322" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2322" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2323" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2323" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2323" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2323" s="11">
+        <v>42601</v>
+      </c>
+      <c r="D2323" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="E2323" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2323" s="13" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2324" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2324" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2324" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2324" s="11">
+        <v>42601</v>
+      </c>
+      <c r="D2324" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="E2324" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2324" s="13" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="2325" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2325" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2325" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2325" s="11">
+        <v>42601</v>
+      </c>
+      <c r="D2325" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="E2325" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2325" s="13" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="2326" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2326" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2326" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2326" s="11">
+        <v>42601</v>
+      </c>
+      <c r="D2326" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="E2326" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2326" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="G2326" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2327" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2327" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2327" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2327" s="11">
+        <v>42601</v>
+      </c>
+      <c r="D2327" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="E2327" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2327" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="G2327" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2328" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2328" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2328" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2328" s="11">
+        <v>42601</v>
+      </c>
+      <c r="D2328" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="E2328" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2328" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2328" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2329" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2329" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2329" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2329" s="11">
+        <v>42601</v>
+      </c>
+      <c r="D2329" s="14" t="s">
+        <v>454</v>
+      </c>
+      <c r="E2329" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2329" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="G2329" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0"/>
   <sortState ref="A1772:H1806">
@@ -49258,9 +51806,9 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="69" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="75" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;R&amp;"-,Bold"&amp;22&amp;D&amp;C&amp;"Calibri,Bold"&amp;22Jhan, 6:30PM to 9:30PM</oddHeader>
+    <oddHeader>&amp;R&amp;"-,Bold"&amp;22&amp;D&amp;C&amp;"Calibri,Bold"&amp;22Jhan, 4:30PM to 4:45PM</oddHeader>
   </headerFooter>
 </worksheet>
 </file>

--- a/PW/masterlog.xlsx
+++ b/PW/masterlog.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17030"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhan\Documents\Visual Studio 2015\Projects\ClassOpsLogCreator\CLASSOPS\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="270" yWindow="30" windowWidth="14865" windowHeight="10785" tabRatio="440"/>
   </bookViews>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13645" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12745" uniqueCount="456">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1362,7 +1357,7 @@
     <t>014 JCR</t>
   </si>
   <si>
-    <t>Pick up PC and Projector cart. Projector cart has small speaker on it. Pick up portable screen also. Key for room in Founders 164 storeroom. Return equipment to Vanier 040 storeroom.</t>
+    <t>Pick up PC and Projector cart. Projector cart has small speaker on it. Pick up portable screen also. PICK UP 6 MATS. Key for room in Founders 164 storeroom. Return equipment to Vanier 040 storeroom.</t>
   </si>
   <si>
     <t>Pick up mic, clip, mic cable and mic stand and return to Vanier 040 storeroom.</t>
@@ -1374,37 +1369,34 @@
     <t>Pick up 3 matts, 1 orange AC cord, 1 power bar - and return to Bethune 201 storeroom. LEAVE PORTABLE SCREEN IN ROOM. Client using their own PC and projector - we just gave them matts, power cord and power bar. Stong MDR key in CB 121A storeroom.</t>
   </si>
   <si>
-    <t>2130</t>
+    <t>8/22/16</t>
   </si>
   <si>
-    <t>120</t>
+    <t>117</t>
   </si>
   <si>
-    <t>121</t>
+    <t>Winters classroom key B15</t>
   </si>
   <si>
-    <t>129</t>
+    <t>No need to go here. Room is managed by Winters college.</t>
   </si>
   <si>
-    <t>2200</t>
+    <t>519</t>
   </si>
   <si>
-    <t>328A</t>
+    <t>Return IR mic to KT 516 / place battery into charger</t>
   </si>
   <si>
-    <t>2300</t>
+    <t>Return podium mic, cable and stand to booth behind stage</t>
   </si>
   <si>
-    <t>038</t>
-  </si>
-  <si>
-    <t>Name</t>
+    <t>Return podium mic, cable and stand to OSG 1014 L</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
@@ -2072,9 +2064,6 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -2122,7 +2111,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2155,26 +2144,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2207,23 +2179,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2403,7 +2358,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H2329"/>
+  <dimension ref="A1:H2171"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A1972" activePane="bottomLeft" state="frozenSplit"/>
@@ -2424,7 +2379,7 @@
     <col min="9" max="16384" width="22.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -2450,7 +2405,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>85</v>
       </c>
@@ -2473,7 +2428,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>85</v>
       </c>
@@ -2494,7 +2449,7 @@
       </c>
       <c r="G3" s="77"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>85</v>
       </c>
@@ -2517,7 +2472,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>85</v>
       </c>
@@ -2538,7 +2493,7 @@
       </c>
       <c r="G5" s="77"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>85</v>
       </c>
@@ -2561,7 +2516,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>85</v>
       </c>
@@ -2624,7 +2579,7 @@
       </c>
       <c r="G9" s="77"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>85</v>
       </c>
@@ -2645,7 +2600,7 @@
       </c>
       <c r="G10" s="77"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>85</v>
       </c>
@@ -2666,7 +2621,7 @@
       </c>
       <c r="G11" s="77"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>85</v>
       </c>
@@ -2689,7 +2644,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>85</v>
       </c>
@@ -2712,7 +2667,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>85</v>
       </c>
@@ -2735,7 +2690,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>95</v>
       </c>
@@ -2758,7 +2713,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>95</v>
       </c>
@@ -2781,7 +2736,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>95</v>
       </c>
@@ -2823,7 +2778,7 @@
       </c>
       <c r="G18" s="77"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>95</v>
       </c>
@@ -2846,7 +2801,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="43.15" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>95</v>
       </c>
@@ -2869,7 +2824,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>95</v>
       </c>
@@ -2892,7 +2847,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>95</v>
       </c>
@@ -2913,7 +2868,7 @@
       </c>
       <c r="G22" s="77"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>95</v>
       </c>
@@ -2934,7 +2889,7 @@
       </c>
       <c r="G23" s="77"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>95</v>
       </c>
@@ -2999,7 +2954,7 @@
       </c>
       <c r="G26" s="77"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>95</v>
       </c>
@@ -3022,7 +2977,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
         <v>95</v>
       </c>
@@ -3045,7 +3000,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
         <v>95</v>
       </c>
@@ -3068,7 +3023,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
         <v>95</v>
       </c>
@@ -3154,7 +3109,7 @@
       </c>
       <c r="G33" s="77"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
         <v>90</v>
       </c>
@@ -3175,7 +3130,7 @@
       </c>
       <c r="G34" s="77"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
         <v>90</v>
       </c>
@@ -3198,7 +3153,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
         <v>90</v>
       </c>
@@ -3221,7 +3176,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
         <v>90</v>
       </c>
@@ -3244,7 +3199,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
         <v>90</v>
       </c>
@@ -3267,7 +3222,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
         <v>90</v>
       </c>
@@ -3288,7 +3243,7 @@
       </c>
       <c r="G39" s="29"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
         <v>90</v>
       </c>
@@ -3311,7 +3266,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
         <v>90</v>
       </c>
@@ -3332,7 +3287,7 @@
       </c>
       <c r="G41" s="29"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
         <v>90</v>
       </c>
@@ -3355,7 +3310,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
         <v>90</v>
       </c>
@@ -3441,7 +3396,7 @@
       </c>
       <c r="G46" s="77"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
         <v>90</v>
       </c>
@@ -3464,7 +3419,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
         <v>90</v>
       </c>
@@ -3487,7 +3442,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
         <v>90</v>
       </c>
@@ -38856,7 +38811,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="1703" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="1703" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1703" s="10" t="s">
         <v>83</v>
       </c>
@@ -38999,7 +38954,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="1710" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1710" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1710" s="10" t="s">
         <v>83</v>
       </c>
@@ -39062,7 +39017,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="1713" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1713" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1713" s="10" t="s">
         <v>154</v>
       </c>
@@ -39085,7 +39040,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1714" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1714" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1714" s="10" t="s">
         <v>154</v>
       </c>
@@ -39108,7 +39063,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1715" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1715" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1715" s="10" t="s">
         <v>86</v>
       </c>
@@ -39128,7 +39083,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="1716" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="1716" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1716" s="10" t="s">
         <v>86</v>
       </c>
@@ -39151,7 +39106,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="1717" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1717" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1717" s="10" t="s">
         <v>86</v>
       </c>
@@ -39171,7 +39126,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1718" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1718" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1718" s="10" t="s">
         <v>86</v>
       </c>
@@ -39191,7 +39146,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1719" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1719" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1719" s="10" t="s">
         <v>86</v>
       </c>
@@ -39214,7 +39169,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1720" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1720" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1720" s="10" t="s">
         <v>86</v>
       </c>
@@ -39237,7 +39192,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1721" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1721" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1721" s="10" t="s">
         <v>88</v>
       </c>
@@ -39257,7 +39212,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="1722" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1722" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1722" s="10" t="s">
         <v>88</v>
       </c>
@@ -39277,7 +39232,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="1723" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1723" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1723" s="10" t="s">
         <v>88</v>
       </c>
@@ -39317,7 +39272,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="1725" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1725" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1725" s="10" t="s">
         <v>88</v>
       </c>
@@ -39340,7 +39295,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1726" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1726" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1726" s="10" t="s">
         <v>88</v>
       </c>
@@ -39363,7 +39318,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1727" spans="1:8" s="111" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1727" spans="1:8" s="111" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1727" s="127" t="s">
         <v>88</v>
       </c>
@@ -39387,7 +39342,7 @@
       </c>
       <c r="H1727" s="131"/>
     </row>
-    <row r="1728" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1728" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1728" s="10" t="s">
         <v>88</v>
       </c>
@@ -39410,7 +39365,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1729" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1729" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1729" s="10" t="s">
         <v>88</v>
       </c>
@@ -39433,7 +39388,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1730" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1730" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1730" s="10" t="s">
         <v>88</v>
       </c>
@@ -39456,7 +39411,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1731" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1731" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1731" s="10" t="s">
         <v>8</v>
       </c>
@@ -39476,7 +39431,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="1732" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1732" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1732" s="10" t="s">
         <v>8</v>
       </c>
@@ -42833,7 +42788,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1893" spans="1:8" s="104" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1893" spans="1:8" s="104" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B1893" s="105"/>
       <c r="C1893" s="106"/>
       <c r="D1893" s="107" t="s">
@@ -42843,7 +42798,7 @@
       <c r="G1893" s="109"/>
       <c r="H1893" s="110"/>
     </row>
-    <row r="1894" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1894" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1894" s="10" t="s">
         <v>90</v>
       </c>
@@ -42863,7 +42818,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="1895" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1895" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1895" s="10" t="s">
         <v>90</v>
       </c>
@@ -42883,7 +42838,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="1896" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1896" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1896" s="10" t="s">
         <v>90</v>
       </c>
@@ -42903,7 +42858,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="1897" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1897" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1897" s="10" t="s">
         <v>90</v>
       </c>
@@ -42926,7 +42881,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1898" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1898" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1898" s="10" t="s">
         <v>90</v>
       </c>
@@ -42946,7 +42901,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="1899" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1899" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1899" s="10" t="s">
         <v>90</v>
       </c>
@@ -42966,7 +42921,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="1900" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1900" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1900" s="10" t="s">
         <v>90</v>
       </c>
@@ -42986,7 +42941,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="1901" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1901" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1901" s="10" t="s">
         <v>90</v>
       </c>
@@ -43006,7 +42961,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="1902" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1902" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1902" s="10" t="s">
         <v>90</v>
       </c>
@@ -43026,7 +42981,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="1903" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1903" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1903" s="10" t="s">
         <v>90</v>
       </c>
@@ -43046,7 +43001,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="1904" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="1904" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A1904" s="10" t="s">
         <v>90</v>
       </c>
@@ -43069,7 +43024,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="1905" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1905" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1905" s="10" t="s">
         <v>90</v>
       </c>
@@ -43089,7 +43044,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="1906" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1906" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1906" s="10" t="s">
         <v>90</v>
       </c>
@@ -43109,7 +43064,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="1907" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1907" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1907" s="10" t="s">
         <v>90</v>
       </c>
@@ -43129,7 +43084,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="1908" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1908" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1908" s="10" t="s">
         <v>90</v>
       </c>
@@ -43149,7 +43104,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="1909" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1909" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1909" s="10" t="s">
         <v>90</v>
       </c>
@@ -43169,7 +43124,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="1910" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1910" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1910" s="10" t="s">
         <v>90</v>
       </c>
@@ -43189,7 +43144,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="1911" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1911" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1911" s="10" t="s">
         <v>90</v>
       </c>
@@ -43212,7 +43167,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1912" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1912" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1912" s="10" t="s">
         <v>90</v>
       </c>
@@ -43235,7 +43190,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="1913" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1913" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1913" s="10" t="s">
         <v>90</v>
       </c>
@@ -43258,7 +43213,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="1914" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1914" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1914" s="10" t="s">
         <v>90</v>
       </c>
@@ -43696,7 +43651,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="1935" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1935" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1935" s="10" t="s">
         <v>85</v>
       </c>
@@ -43719,7 +43674,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1936" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1936" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1936" s="10" t="s">
         <v>85</v>
       </c>
@@ -43742,7 +43697,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1937" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1937" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1937" s="10" t="s">
         <v>85</v>
       </c>
@@ -43765,7 +43720,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1938" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1938" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1938" s="10" t="s">
         <v>85</v>
       </c>
@@ -43788,7 +43743,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1939" spans="1:8" s="104" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1939" spans="1:8" s="104" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B1939" s="105"/>
       <c r="C1939" s="106"/>
       <c r="D1939" s="107" t="s">
@@ -43798,7 +43753,7 @@
       <c r="G1939" s="109"/>
       <c r="H1939" s="110"/>
     </row>
-    <row r="1940" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1940" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1940" s="10" t="s">
         <v>154</v>
       </c>
@@ -43818,7 +43773,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="1941" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1941" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1941" s="10" t="s">
         <v>154</v>
       </c>
@@ -43838,7 +43793,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="1942" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1942" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1942" s="10" t="s">
         <v>154</v>
       </c>
@@ -43858,7 +43813,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="1943" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1943" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1943" s="10" t="s">
         <v>154</v>
       </c>
@@ -43878,7 +43833,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="1944" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1944" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1944" s="10" t="s">
         <v>154</v>
       </c>
@@ -43901,7 +43856,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1945" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1945" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1945" s="10" t="s">
         <v>154</v>
       </c>
@@ -43921,7 +43876,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="1946" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1946" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1946" s="10" t="s">
         <v>154</v>
       </c>
@@ -43941,7 +43896,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="1947" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1947" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1947" s="10" t="s">
         <v>154</v>
       </c>
@@ -43961,7 +43916,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="1948" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1948" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1948" s="10" t="s">
         <v>154</v>
       </c>
@@ -43981,7 +43936,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="1949" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1949" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1949" s="10" t="s">
         <v>154</v>
       </c>
@@ -44001,7 +43956,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="1950" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1950" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1950" s="10" t="s">
         <v>154</v>
       </c>
@@ -44021,7 +43976,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="1951" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1951" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1951" s="10" t="s">
         <v>154</v>
       </c>
@@ -44041,7 +43996,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="1952" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1952" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1952" s="10" t="s">
         <v>154</v>
       </c>
@@ -44061,7 +44016,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="1953" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1953" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1953" s="10" t="s">
         <v>154</v>
       </c>
@@ -44081,7 +44036,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="1954" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1954" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1954" s="10" t="s">
         <v>154</v>
       </c>
@@ -44101,7 +44056,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="1955" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1955" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1955" s="10" t="s">
         <v>154</v>
       </c>
@@ -44207,7 +44162,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="1960" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1960" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1960" s="10" t="s">
         <v>91</v>
       </c>
@@ -44227,7 +44182,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="1961" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1961" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1961" s="10" t="s">
         <v>91</v>
       </c>
@@ -44247,7 +44202,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1962" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1962" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1962" s="10" t="s">
         <v>91</v>
       </c>
@@ -44270,7 +44225,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1963" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1963" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1963" s="10" t="s">
         <v>91</v>
       </c>
@@ -44290,7 +44245,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="1964" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1964" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1964" s="10" t="s">
         <v>91</v>
       </c>
@@ -44313,7 +44268,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1965" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="1965" spans="1:7" ht="43.15" x14ac:dyDescent="0.3">
       <c r="A1965" s="10" t="s">
         <v>91</v>
       </c>
@@ -44336,7 +44291,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="1966" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1966" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1966" s="10" t="s">
         <v>91</v>
       </c>
@@ -44359,7 +44314,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1967" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1967" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1967" s="10" t="s">
         <v>91</v>
       </c>
@@ -44382,7 +44337,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1968" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1968" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1968" s="10" t="s">
         <v>91</v>
       </c>
@@ -44402,7 +44357,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="1969" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1969" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1969" s="10" t="s">
         <v>91</v>
       </c>
@@ -44425,7 +44380,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1970" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1970" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1970" s="10" t="s">
         <v>91</v>
       </c>
@@ -44448,7 +44403,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1971" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1971" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1971" s="10" t="s">
         <v>91</v>
       </c>
@@ -44471,7 +44426,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1972" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1972" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1972" s="10" t="s">
         <v>91</v>
       </c>
@@ -44491,7 +44446,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="1973" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1973" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1973" s="10" t="s">
         <v>91</v>
       </c>
@@ -44511,7 +44466,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="1974" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1974" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1974" s="10" t="s">
         <v>91</v>
       </c>
@@ -44531,7 +44486,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="1975" spans="1:8" s="111" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1975" spans="1:8" s="111" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B1975" s="132"/>
       <c r="C1975" s="133"/>
       <c r="D1975" s="134"/>
@@ -44539,7 +44494,7 @@
       <c r="G1975" s="135"/>
       <c r="H1975" s="134"/>
     </row>
-    <row r="1976" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1976" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1976" s="10" t="s">
         <v>85</v>
       </c>
@@ -44559,7 +44514,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="1977" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1977" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1977" s="10" t="s">
         <v>85</v>
       </c>
@@ -44579,7 +44534,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="1978" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1978" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1978" s="10" t="s">
         <v>85</v>
       </c>
@@ -44602,7 +44557,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1979" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1979" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1979" s="10" t="s">
         <v>85</v>
       </c>
@@ -44625,7 +44580,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1980" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1980" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1980" s="10" t="s">
         <v>85</v>
       </c>
@@ -44648,7 +44603,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1981" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1981" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1981" s="10" t="s">
         <v>85</v>
       </c>
@@ -44671,7 +44626,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1982" spans="1:8" s="104" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1982" spans="1:8" s="104" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B1982" s="105"/>
       <c r="C1982" s="106"/>
       <c r="D1982" s="107" t="s">
@@ -44681,7 +44636,7 @@
       <c r="G1982" s="109"/>
       <c r="H1982" s="110"/>
     </row>
-    <row r="1983" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1983" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1983" s="10" t="s">
         <v>95</v>
       </c>
@@ -44701,7 +44656,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="1984" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1984" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1984" s="10" t="s">
         <v>95</v>
       </c>
@@ -44721,7 +44676,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="1985" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1985" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1985" s="10" t="s">
         <v>95</v>
       </c>
@@ -44741,7 +44696,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="1986" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1986" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1986" s="10" t="s">
         <v>95</v>
       </c>
@@ -44761,7 +44716,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="1987" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1987" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1987" s="10" t="s">
         <v>95</v>
       </c>
@@ -44784,7 +44739,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1988" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1988" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1988" s="10" t="s">
         <v>95</v>
       </c>
@@ -44804,7 +44759,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="1989" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1989" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1989" s="10" t="s">
         <v>95</v>
       </c>
@@ -44824,7 +44779,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="1990" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1990" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1990" s="10" t="s">
         <v>95</v>
       </c>
@@ -44844,7 +44799,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="1991" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1991" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1991" s="10" t="s">
         <v>95</v>
       </c>
@@ -44864,7 +44819,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="1992" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1992" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1992" s="10" t="s">
         <v>95</v>
       </c>
@@ -44884,7 +44839,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="1993" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1993" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1993" s="10" t="s">
         <v>95</v>
       </c>
@@ -44904,7 +44859,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="1994" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1994" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1994" s="10" t="s">
         <v>95</v>
       </c>
@@ -44927,7 +44882,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="1995" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1995" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1995" s="10" t="s">
         <v>95</v>
       </c>
@@ -44947,7 +44902,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="1996" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1996" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1996" s="10" t="s">
         <v>95</v>
       </c>
@@ -44967,7 +44922,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="1997" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1997" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1997" s="10" t="s">
         <v>95</v>
       </c>
@@ -44987,7 +44942,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="1998" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1998" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1998" s="10" t="s">
         <v>95</v>
       </c>
@@ -45007,7 +44962,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="1999" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1999" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1999" s="10" t="s">
         <v>95</v>
       </c>
@@ -45027,7 +44982,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="2000" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2000" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2000" s="10" t="s">
         <v>95</v>
       </c>
@@ -45047,7 +45002,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2001" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2001" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2001" s="10" t="s">
         <v>95</v>
       </c>
@@ -45070,7 +45025,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2002" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2002" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2002" s="10" t="s">
         <v>95</v>
       </c>
@@ -45093,7 +45048,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="2003" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2003" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2003" s="10" t="s">
         <v>95</v>
       </c>
@@ -45116,7 +45071,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="2004" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2004" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2004" s="10" t="s">
         <v>95</v>
       </c>
@@ -45139,7 +45094,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2005" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2005" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2005" s="10" t="s">
         <v>8</v>
       </c>
@@ -45159,7 +45114,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2006" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2006" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2006" s="10" t="s">
         <v>8</v>
       </c>
@@ -45179,7 +45134,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="2007" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2007" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2007" s="10" t="s">
         <v>8</v>
       </c>
@@ -45199,7 +45154,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="2008" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2008" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2008" s="10" t="s">
         <v>8</v>
       </c>
@@ -45222,7 +45177,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2009" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2009" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2009" s="10" t="s">
         <v>8</v>
       </c>
@@ -45242,7 +45197,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="2010" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2010" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2010" s="10" t="s">
         <v>8</v>
       </c>
@@ -45265,7 +45220,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2011" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="2011" spans="1:7" ht="43.15" x14ac:dyDescent="0.3">
       <c r="A2011" s="10" t="s">
         <v>8</v>
       </c>
@@ -45288,7 +45243,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="2012" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="2012" spans="1:7" ht="43.15" x14ac:dyDescent="0.3">
       <c r="A2012" s="10" t="s">
         <v>8</v>
       </c>
@@ -45311,7 +45266,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="2013" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2013" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2013" s="10" t="s">
         <v>8</v>
       </c>
@@ -45334,7 +45289,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2014" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2014" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2014" s="10" t="s">
         <v>8</v>
       </c>
@@ -45357,7 +45312,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2015" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2015" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2015" s="10" t="s">
         <v>8</v>
       </c>
@@ -45377,7 +45332,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="2016" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2016" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2016" s="10" t="s">
         <v>8</v>
       </c>
@@ -45400,7 +45355,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2017" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2017" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2017" s="10" t="s">
         <v>8</v>
       </c>
@@ -45423,7 +45378,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2018" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2018" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2018" s="10" t="s">
         <v>8</v>
       </c>
@@ -45446,7 +45401,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2019" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2019" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2019" s="10" t="s">
         <v>8</v>
       </c>
@@ -45658,7 +45613,7 @@
     </row>
     <row r="2030" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2030" s="10" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="B2030" s="47" t="s">
         <v>27</v>
@@ -45667,18 +45622,18 @@
         <v>441</v>
       </c>
       <c r="D2030" s="14" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E2030" s="9" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="F2030" s="13" t="s">
-        <v>411</v>
+        <v>436</v>
       </c>
     </row>
     <row r="2031" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2031" s="10" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="B2031" s="47" t="s">
         <v>27</v>
@@ -45693,12 +45648,12 @@
         <v>114</v>
       </c>
       <c r="F2031" s="13" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
     </row>
     <row r="2032" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2032" s="10" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="B2032" s="47" t="s">
         <v>27</v>
@@ -45713,14 +45668,14 @@
         <v>114</v>
       </c>
       <c r="F2032" s="13" t="s">
-        <v>413</v>
+        <v>426</v>
       </c>
     </row>
     <row r="2033" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2033" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2033" s="65" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2033" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C2033" s="11" t="s">
@@ -45730,20 +45685,17 @@
         <v>43</v>
       </c>
       <c r="E2033" s="9" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F2033" s="13" t="s">
-        <v>403</v>
-      </c>
-      <c r="G2033" s="89" t="s">
-        <v>162</v>
+        <v>413</v>
       </c>
     </row>
     <row r="2034" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2034" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2034" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2034" s="65" t="s">
         <v>27</v>
       </c>
       <c r="C2034" s="11" t="s">
@@ -45756,12 +45708,15 @@
         <v>110</v>
       </c>
       <c r="F2034" s="13" t="s">
-        <v>404</v>
+        <v>403</v>
+      </c>
+      <c r="G2034" s="89" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="2035" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2035" s="10" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="B2035" s="47" t="s">
         <v>27</v>
@@ -45773,15 +45728,15 @@
         <v>43</v>
       </c>
       <c r="E2035" s="9" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F2035" s="13" t="s">
-        <v>222</v>
+        <v>404</v>
       </c>
     </row>
     <row r="2036" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2036" s="10" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="B2036" s="47" t="s">
         <v>27</v>
@@ -45796,12 +45751,12 @@
         <v>105</v>
       </c>
       <c r="F2036" s="13" t="s">
-        <v>405</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2037" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2037" s="10" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="B2037" s="47" t="s">
         <v>27</v>
@@ -45816,12 +45771,12 @@
         <v>105</v>
       </c>
       <c r="F2037" s="13" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="2038" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2038" s="10" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="B2038" s="47" t="s">
         <v>27</v>
@@ -45833,18 +45788,18 @@
         <v>43</v>
       </c>
       <c r="E2038" s="9" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F2038" s="13" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="2039" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="2039" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2039" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2039" s="87" t="s">
-        <v>139</v>
+        <v>95</v>
+      </c>
+      <c r="B2039" s="47" t="s">
+        <v>27</v>
       </c>
       <c r="C2039" s="11" t="s">
         <v>441</v>
@@ -45853,21 +45808,18 @@
         <v>43</v>
       </c>
       <c r="E2039" s="9" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="F2039" s="13" t="s">
-        <v>345</v>
-      </c>
-      <c r="G2039" s="88" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="2040" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2040" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2040" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2040" s="87" t="s">
-        <v>146</v>
+        <v>95</v>
+      </c>
+      <c r="B2040" s="47" t="s">
+        <v>27</v>
       </c>
       <c r="C2040" s="11" t="s">
         <v>441</v>
@@ -45876,21 +45828,18 @@
         <v>43</v>
       </c>
       <c r="E2040" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F2040" s="13" t="s">
-        <v>443</v>
-      </c>
-      <c r="G2040" s="88" t="s">
-        <v>444</v>
+        <v>407</v>
       </c>
     </row>
     <row r="2041" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2041" s="10" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="B2041" s="87" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="C2041" s="11" t="s">
         <v>441</v>
@@ -45899,81 +45848,87 @@
         <v>43</v>
       </c>
       <c r="E2041" s="9" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F2041" s="13" t="s">
-        <v>443</v>
+        <v>345</v>
       </c>
       <c r="G2041" s="88" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="2042" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="2042" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A2042" s="10" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="B2042" s="87" t="s">
-        <v>19</v>
+        <v>146</v>
       </c>
       <c r="C2042" s="11" t="s">
         <v>441</v>
       </c>
       <c r="D2042" s="14" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E2042" s="9" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F2042" s="13" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="G2042" s="88" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="2043" spans="1:7" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="2043" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2043" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2043" s="47" t="s">
-        <v>27</v>
+        <v>95</v>
+      </c>
+      <c r="B2043" s="87" t="s">
+        <v>150</v>
       </c>
       <c r="C2043" s="11" t="s">
         <v>441</v>
       </c>
       <c r="D2043" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E2043" s="9" t="s">
         <v>105</v>
       </c>
       <c r="F2043" s="13" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="2044" spans="1:7" x14ac:dyDescent="0.25">
+        <v>443</v>
+      </c>
+      <c r="G2043" s="88" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="2044" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A2044" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2044" s="47" t="s">
-        <v>27</v>
+        <v>95</v>
+      </c>
+      <c r="B2044" s="87" t="s">
+        <v>19</v>
       </c>
       <c r="C2044" s="11" t="s">
         <v>441</v>
       </c>
       <c r="D2044" s="14" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E2044" s="9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="F2044" s="13" t="s">
-        <v>409</v>
+        <v>446</v>
+      </c>
+      <c r="G2044" s="88" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="2045" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2045" s="10" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="B2045" s="47" t="s">
         <v>27</v>
@@ -45988,12 +45943,12 @@
         <v>105</v>
       </c>
       <c r="F2045" s="13" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="2046" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2046" s="10" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="B2046" s="47" t="s">
         <v>27</v>
@@ -46008,12 +45963,12 @@
         <v>105</v>
       </c>
       <c r="F2046" s="13" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="2047" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2047" s="10" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="B2047" s="47" t="s">
         <v>27</v>
@@ -46028,35 +45983,32 @@
         <v>105</v>
       </c>
       <c r="F2047" s="13" t="s">
-        <v>368</v>
+        <v>410</v>
       </c>
     </row>
     <row r="2048" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2048" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2048" s="65" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2048" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C2048" s="11" t="s">
         <v>441</v>
       </c>
       <c r="D2048" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E2048" s="9" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="F2048" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2048" s="89" t="s">
-        <v>162</v>
+        <v>411</v>
       </c>
     </row>
     <row r="2049" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2049" s="10" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B2049" s="47" t="s">
         <v>27</v>
@@ -46065,41 +46017,38 @@
         <v>441</v>
       </c>
       <c r="D2049" s="14" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E2049" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F2049" s="13" t="s">
-        <v>407</v>
+        <v>368</v>
       </c>
     </row>
     <row r="2050" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2050" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="B2050" s="65" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2050" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C2050" s="11" t="s">
         <v>441</v>
       </c>
       <c r="D2050" s="14" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="E2050" s="9" t="s">
-        <v>22</v>
+        <v>137</v>
       </c>
       <c r="F2050" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2050" s="89" t="s">
-        <v>162</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2051" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2051" s="10" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B2051" s="65" t="s">
         <v>27</v>
@@ -46108,13 +46057,13 @@
         <v>441</v>
       </c>
       <c r="D2051" s="14" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="E2051" s="9" t="s">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="F2051" s="13" t="s">
-        <v>297</v>
+        <v>184</v>
       </c>
       <c r="G2051" s="89" t="s">
         <v>162</v>
@@ -46122,96 +46071,90 @@
     </row>
     <row r="2052" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2052" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="B2052" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2052" s="65" t="s">
         <v>27</v>
       </c>
       <c r="C2052" s="11" t="s">
         <v>441</v>
       </c>
       <c r="D2052" s="14" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E2052" s="9" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F2052" s="13" t="s">
-        <v>254</v>
+        <v>37</v>
+      </c>
+      <c r="G2052" s="89" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="2053" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2053" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="B2053" s="65" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2053" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C2053" s="11" t="s">
         <v>441</v>
       </c>
       <c r="D2053" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E2053" s="9" t="s">
-        <v>22</v>
+        <v>129</v>
       </c>
       <c r="F2053" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="G2053" s="89" t="s">
-        <v>162</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2054" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2054" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="B2054" s="65" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2054" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C2054" s="11" t="s">
         <v>441</v>
       </c>
       <c r="D2054" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E2054" s="9" t="s">
         <v>129</v>
       </c>
       <c r="F2054" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="G2054" s="89" t="s">
-        <v>162</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2055" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2055" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="B2055" s="65" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2055" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C2055" s="11" t="s">
         <v>441</v>
       </c>
       <c r="D2055" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E2055" s="9" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="F2055" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="G2055" s="89" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2056" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2056" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B2056" s="65" t="s">
         <v>27</v>
@@ -46220,13 +46163,13 @@
         <v>441</v>
       </c>
       <c r="D2056" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E2056" s="9" t="s">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c r="F2056" s="13" t="s">
-        <v>184</v>
+        <v>428</v>
       </c>
       <c r="G2056" s="89" t="s">
         <v>162</v>
@@ -46234,7 +46177,7 @@
     </row>
     <row r="2057" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2057" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B2057" s="47" t="s">
         <v>27</v>
@@ -46243,18 +46186,18 @@
         <v>441</v>
       </c>
       <c r="D2057" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E2057" s="9" t="s">
-        <v>137</v>
+        <v>25</v>
       </c>
       <c r="F2057" s="13" t="s">
-        <v>38</v>
+        <v>334</v>
       </c>
     </row>
     <row r="2058" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2058" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B2058" s="65" t="s">
         <v>27</v>
@@ -46263,64 +46206,67 @@
         <v>441</v>
       </c>
       <c r="D2058" s="14" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E2058" s="9" t="s">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c r="F2058" s="13" t="s">
-        <v>434</v>
+        <v>64</v>
       </c>
       <c r="G2058" s="89" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="2059" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2059" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A2059" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="B2059" s="65" t="s">
-        <v>27</v>
+        <v>90</v>
+      </c>
+      <c r="B2059" s="87" t="s">
+        <v>77</v>
       </c>
       <c r="C2059" s="11" t="s">
         <v>441</v>
       </c>
       <c r="D2059" s="14" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E2059" s="9" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="F2059" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="G2059" s="89" t="s">
-        <v>162</v>
+        <v>330</v>
+      </c>
+      <c r="G2059" s="88" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="2060" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2060" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2060" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2060" s="65" t="s">
         <v>27</v>
       </c>
       <c r="C2060" s="11" t="s">
         <v>441</v>
       </c>
       <c r="D2060" s="14" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E2060" s="9" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="F2060" s="13" t="s">
-        <v>172</v>
+        <v>37</v>
+      </c>
+      <c r="G2060" s="89" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="2061" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2061" s="10" t="s">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="B2061" s="65" t="s">
         <v>27</v>
@@ -46329,13 +46275,13 @@
         <v>441</v>
       </c>
       <c r="D2061" s="14" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E2061" s="9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F2061" s="13" t="s">
-        <v>428</v>
+        <v>297</v>
       </c>
       <c r="G2061" s="89" t="s">
         <v>162</v>
@@ -46343,7 +46289,7 @@
     </row>
     <row r="2062" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2062" s="10" t="s">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="B2062" s="47" t="s">
         <v>27</v>
@@ -46352,18 +46298,18 @@
         <v>441</v>
       </c>
       <c r="D2062" s="14" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E2062" s="9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F2062" s="13" t="s">
-        <v>334</v>
+        <v>254</v>
       </c>
     </row>
     <row r="2063" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2063" s="10" t="s">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="B2063" s="65" t="s">
         <v>27</v>
@@ -46372,46 +46318,46 @@
         <v>441</v>
       </c>
       <c r="D2063" s="14" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E2063" s="9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F2063" s="13" t="s">
-        <v>64</v>
+        <v>168</v>
       </c>
       <c r="G2063" s="89" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="2064" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="2064" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2064" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2064" s="87" t="s">
-        <v>77</v>
+        <v>90</v>
+      </c>
+      <c r="B2064" s="65" t="s">
+        <v>27</v>
       </c>
       <c r="C2064" s="11" t="s">
         <v>441</v>
       </c>
       <c r="D2064" s="14" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E2064" s="9" t="s">
-        <v>21</v>
+        <v>129</v>
       </c>
       <c r="F2064" s="13" t="s">
-        <v>330</v>
-      </c>
-      <c r="G2064" s="88" t="s">
-        <v>361</v>
+        <v>195</v>
+      </c>
+      <c r="G2064" s="89" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="2065" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2065" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2065" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2065" s="65" t="s">
         <v>27</v>
       </c>
       <c r="C2065" s="11" t="s">
@@ -46421,15 +46367,18 @@
         <v>46</v>
       </c>
       <c r="E2065" s="9" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="F2065" s="13" t="s">
-        <v>273</v>
+        <v>196</v>
+      </c>
+      <c r="G2065" s="89" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="2066" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2066" s="10" t="s">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="B2066" s="47" t="s">
         <v>27</v>
@@ -46441,15 +46390,15 @@
         <v>46</v>
       </c>
       <c r="E2066" s="9" t="s">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="F2066" s="13" t="s">
-        <v>432</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2067" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2067" s="10" t="s">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="B2067" s="47" t="s">
         <v>27</v>
@@ -46464,12 +46413,12 @@
         <v>25</v>
       </c>
       <c r="F2067" s="13" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="2068" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2068" s="10" t="s">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="B2068" s="47" t="s">
         <v>27</v>
@@ -46478,75 +46427,72 @@
         <v>441</v>
       </c>
       <c r="D2068" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2068" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2068" s="13" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="2069" spans="1:8" s="111" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2069" s="132"/>
+      <c r="C2069" s="133"/>
+      <c r="D2069" s="134"/>
+      <c r="F2069" s="134"/>
+      <c r="G2069" s="135"/>
+      <c r="H2069" s="134"/>
+    </row>
+    <row r="2070" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2070" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2070" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2070" s="11">
+        <v>42601</v>
+      </c>
+      <c r="D2070" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E2068" s="9" t="s">
+      <c r="E2070" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="F2068" s="13" t="s">
+      <c r="F2070" s="13" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="2069" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2069" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2069" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2069" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2069" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2069" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F2069" s="13" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="2070" spans="1:8" s="111" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2070" s="132"/>
-      <c r="C2070" s="133"/>
-      <c r="D2070" s="134"/>
-      <c r="F2070" s="134"/>
-      <c r="G2070" s="135"/>
-      <c r="H2070" s="134"/>
     </row>
     <row r="2071" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2071" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2071" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2071" s="11" t="s">
-        <v>441</v>
+        <v>85</v>
+      </c>
+      <c r="B2071" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2071" s="11">
+        <v>42601</v>
       </c>
       <c r="D2071" s="14" t="s">
         <v>32</v>
       </c>
       <c r="E2071" s="9" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F2071" s="13" t="s">
-        <v>434</v>
-      </c>
-      <c r="G2071" s="89" t="s">
-        <v>162</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2072" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2072" s="10" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B2072" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="C2072" s="11" t="s">
-        <v>441</v>
+      <c r="C2072" s="11">
+        <v>42601</v>
       </c>
       <c r="D2072" s="14" t="s">
         <v>32</v>
@@ -46555,7 +46501,7 @@
         <v>101</v>
       </c>
       <c r="F2072" s="13" t="s">
-        <v>251</v>
+        <v>434</v>
       </c>
       <c r="G2072" s="89" t="s">
         <v>162</v>
@@ -46563,748 +46509,745 @@
     </row>
     <row r="2073" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2073" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2073" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2073" s="11" t="s">
-        <v>441</v>
+        <v>85</v>
+      </c>
+      <c r="B2073" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2073" s="11">
+        <v>42601</v>
       </c>
       <c r="D2073" s="14" t="s">
-        <v>448</v>
+        <v>32</v>
       </c>
       <c r="E2073" s="9" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="F2073" s="13" t="s">
-        <v>449</v>
+        <v>251</v>
+      </c>
+      <c r="G2073" s="89" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="2074" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2074" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2074" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2074" s="11" t="s">
-        <v>441</v>
+        <v>85</v>
+      </c>
+      <c r="B2074" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2074" s="11">
+        <v>42601</v>
       </c>
       <c r="D2074" s="14" t="s">
-        <v>448</v>
+        <v>216</v>
       </c>
       <c r="E2074" s="9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F2074" s="13" t="s">
-        <v>450</v>
+        <v>63</v>
+      </c>
+      <c r="G2074" s="89" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="2075" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2075" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2075" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2075" s="11" t="s">
-        <v>441</v>
+        <v>85</v>
+      </c>
+      <c r="B2075" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2075" s="11">
+        <v>42601</v>
       </c>
       <c r="D2075" s="14" t="s">
-        <v>448</v>
+        <v>220</v>
       </c>
       <c r="E2075" s="9" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="F2075" s="13" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="2076" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2076" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2076" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2076" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2076" s="14" t="s">
-        <v>448</v>
-      </c>
-      <c r="E2076" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="F2076" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="G2076" s="89" t="s">
-        <v>162</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="G2075" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2076" spans="1:8" s="104" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2076" s="105"/>
+      <c r="C2076" s="106"/>
+      <c r="D2076" s="107" t="s">
+        <v>387</v>
+      </c>
+      <c r="F2076" s="108"/>
+      <c r="G2076" s="109"/>
+      <c r="H2076" s="110"/>
     </row>
     <row r="2077" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2077" s="10" t="s">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="B2077" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C2077" s="11" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="D2077" s="14" t="s">
-        <v>452</v>
+        <v>50</v>
       </c>
       <c r="E2077" s="9" t="s">
-        <v>28</v>
+        <v>105</v>
       </c>
       <c r="F2077" s="13" t="s">
-        <v>250</v>
+        <v>436</v>
       </c>
     </row>
     <row r="2078" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2078" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2078" s="47" t="s">
-        <v>27</v>
+        <v>400</v>
+      </c>
+      <c r="B2078" s="87" t="s">
+        <v>19</v>
       </c>
       <c r="C2078" s="11" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="D2078" s="14" t="s">
-        <v>452</v>
+        <v>34</v>
       </c>
       <c r="E2078" s="9" t="s">
-        <v>28</v>
+        <v>105</v>
       </c>
       <c r="F2078" s="13" t="s">
-        <v>453</v>
+        <v>229</v>
+      </c>
+      <c r="G2078" s="88" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="2079" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2079" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2079" s="65" t="s">
-        <v>27</v>
+        <v>400</v>
+      </c>
+      <c r="B2079" s="87" t="s">
+        <v>19</v>
       </c>
       <c r="C2079" s="11" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="D2079" s="14" t="s">
-        <v>452</v>
+        <v>34</v>
       </c>
       <c r="E2079" s="9" t="s">
-        <v>24</v>
+        <v>104</v>
       </c>
       <c r="F2079" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="G2079" s="89" t="s">
-        <v>162</v>
+        <v>449</v>
+      </c>
+      <c r="G2079" s="88" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="2080" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2080" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2080" s="65" t="s">
+        <v>400</v>
+      </c>
+      <c r="B2080" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C2080" s="11" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="D2080" s="14" t="s">
-        <v>452</v>
+        <v>43</v>
       </c>
       <c r="E2080" s="9" t="s">
-        <v>24</v>
+        <v>114</v>
       </c>
       <c r="F2080" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="G2080" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2081" spans="1:8" x14ac:dyDescent="0.25">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="2081" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2081" s="10" t="s">
-        <v>85</v>
+        <v>400</v>
       </c>
       <c r="B2081" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C2081" s="11" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="D2081" s="14" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E2081" s="9" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="F2081" s="13" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="2082" spans="1:8" x14ac:dyDescent="0.25">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="2082" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2082" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2082" s="65" t="s">
+        <v>400</v>
+      </c>
+      <c r="B2082" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C2082" s="11" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="D2082" s="14" t="s">
-        <v>216</v>
+        <v>43</v>
       </c>
       <c r="E2082" s="9" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="F2082" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="G2082" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2083" spans="1:8" x14ac:dyDescent="0.25">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="2083" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2083" s="10" t="s">
-        <v>85</v>
+        <v>400</v>
       </c>
       <c r="B2083" s="65" t="s">
         <v>27</v>
       </c>
       <c r="C2083" s="11" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="D2083" s="14" t="s">
-        <v>220</v>
+        <v>43</v>
       </c>
       <c r="E2083" s="9" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="F2083" s="13" t="s">
-        <v>242</v>
+        <v>403</v>
       </c>
       <c r="G2083" s="89" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="2084" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2084" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2084" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2084" s="65" t="s">
+        <v>400</v>
+      </c>
+      <c r="B2084" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C2084" s="11" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="D2084" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2084" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2084" s="13" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="2085" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2085" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="B2085" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2085" s="11" t="s">
         <v>448</v>
       </c>
-      <c r="E2084" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2084" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="G2084" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2085" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2085" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2085" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2085" s="11" t="s">
-        <v>441</v>
-      </c>
       <c r="D2085" s="14" t="s">
-        <v>452</v>
+        <v>43</v>
       </c>
       <c r="E2085" s="9" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="F2085" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2085" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2086" spans="1:8" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2086" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2086" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2086" s="65" t="s">
+        <v>400</v>
+      </c>
+      <c r="B2086" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C2086" s="11" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="D2086" s="14" t="s">
-        <v>452</v>
+        <v>43</v>
       </c>
       <c r="E2086" s="9" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="F2086" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="G2086" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2087" spans="1:8" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="2087" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2087" s="10" t="s">
-        <v>85</v>
+        <v>400</v>
       </c>
       <c r="B2087" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C2087" s="11" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="D2087" s="14" t="s">
-        <v>452</v>
+        <v>43</v>
       </c>
       <c r="E2087" s="9" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="F2087" s="13" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="2088" spans="1:8" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="2088" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2088" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2088" s="65" t="s">
+        <v>400</v>
+      </c>
+      <c r="B2088" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C2088" s="11" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="D2088" s="14" t="s">
-        <v>452</v>
+        <v>43</v>
       </c>
       <c r="E2088" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F2088" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2088" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2089" spans="1:8" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2089" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2089" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2089" s="65" t="s">
+        <v>400</v>
+      </c>
+      <c r="B2089" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C2089" s="11" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="D2089" s="14" t="s">
-        <v>454</v>
+        <v>43</v>
       </c>
       <c r="E2089" s="9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F2089" s="13" t="s">
-        <v>455</v>
-      </c>
-      <c r="G2089" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2090" spans="1:8" s="104" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2090" s="105"/>
-      <c r="C2090" s="106"/>
-      <c r="D2090" s="107" t="s">
-        <v>415</v>
-      </c>
-      <c r="F2090" s="108"/>
-      <c r="G2090" s="109"/>
-      <c r="H2090" s="110"/>
-    </row>
-    <row r="2091" spans="1:8" x14ac:dyDescent="0.25">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="2090" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2090" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="B2090" s="87" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2090" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2090" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2090" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2090" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="G2090" s="88" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="2091" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2091" s="10" t="s">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="B2091" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C2091" s="11" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="D2091" s="14" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E2091" s="9" t="s">
         <v>105</v>
       </c>
       <c r="F2091" s="13" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="2092" spans="1:8" x14ac:dyDescent="0.25">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="2092" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2092" s="10" t="s">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="B2092" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C2092" s="11" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="D2092" s="14" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E2092" s="9" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="F2092" s="13" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="2093" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2093" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="B2093" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2093" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2093" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2093" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2093" s="13" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="2094" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2094" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="B2094" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2094" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2094" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2094" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2094" s="13" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="2093" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2093" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2093" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2093" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2093" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2093" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="F2093" s="13" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="2094" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2094" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2094" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2094" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2094" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2094" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="F2094" s="13" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="2095" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2095" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2095" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2095" s="65" t="s">
+        <v>400</v>
+      </c>
+      <c r="B2095" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C2095" s="11" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="D2095" s="14" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E2095" s="9" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F2095" s="13" t="s">
-        <v>403</v>
-      </c>
-      <c r="G2095" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2096" spans="1:8" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="2096" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2096" s="10" t="s">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="B2096" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C2096" s="11" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="D2096" s="14" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E2096" s="9" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="F2096" s="13" t="s">
-        <v>404</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2097" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2097" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2097" s="47" t="s">
+        <v>400</v>
+      </c>
+      <c r="B2097" s="65" t="s">
         <v>27</v>
       </c>
       <c r="C2097" s="11" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="D2097" s="14" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E2097" s="9" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F2097" s="13" t="s">
-        <v>222</v>
+        <v>184</v>
+      </c>
+      <c r="G2097" s="89" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="2098" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2098" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2098" s="47" t="s">
+        <v>400</v>
+      </c>
+      <c r="B2098" s="65" t="s">
         <v>27</v>
       </c>
       <c r="C2098" s="11" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="D2098" s="14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E2098" s="9" t="s">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="F2098" s="13" t="s">
-        <v>405</v>
+        <v>37</v>
+      </c>
+      <c r="G2098" s="89" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="2099" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2099" s="10" t="s">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="B2099" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C2099" s="11" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="D2099" s="14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E2099" s="9" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="F2099" s="13" t="s">
-        <v>406</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2100" s="10" t="s">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="B2100" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C2100" s="11" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="D2100" s="14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E2100" s="9" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="F2100" s="13" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="2101" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="2101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2101" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2101" s="87" t="s">
-        <v>139</v>
+        <v>9</v>
+      </c>
+      <c r="B2101" s="47" t="s">
+        <v>27</v>
       </c>
       <c r="C2101" s="11" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="D2101" s="14" t="s">
         <v>43</v>
       </c>
       <c r="E2101" s="9" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F2101" s="13" t="s">
-        <v>345</v>
-      </c>
-      <c r="G2101" s="88" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="2102" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2102" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2102" s="87" t="s">
-        <v>146</v>
+        <v>9</v>
+      </c>
+      <c r="B2102" s="65" t="s">
+        <v>27</v>
       </c>
       <c r="C2102" s="11" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="D2102" s="14" t="s">
         <v>43</v>
       </c>
       <c r="E2102" s="9" t="s">
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="F2102" s="13" t="s">
-        <v>443</v>
-      </c>
-      <c r="G2102" s="88" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="2103" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>428</v>
+      </c>
+      <c r="G2102" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2103" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2103" s="87" t="s">
-        <v>150</v>
+        <v>9</v>
+      </c>
+      <c r="B2103" s="47" t="s">
+        <v>27</v>
       </c>
       <c r="C2103" s="11" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="D2103" s="14" t="s">
         <v>43</v>
       </c>
       <c r="E2103" s="9" t="s">
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="F2103" s="13" t="s">
-        <v>443</v>
-      </c>
-      <c r="G2103" s="88" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="2104" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="2104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2104" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2104" s="87" t="s">
-        <v>19</v>
+        <v>9</v>
+      </c>
+      <c r="B2104" s="65" t="s">
+        <v>27</v>
       </c>
       <c r="C2104" s="11" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="D2104" s="14" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E2104" s="9" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="F2104" s="13" t="s">
-        <v>446</v>
-      </c>
-      <c r="G2104" s="88" t="s">
-        <v>447</v>
+        <v>64</v>
+      </c>
+      <c r="G2104" s="89" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="2105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2105" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2105" s="47" t="s">
-        <v>27</v>
+        <v>9</v>
+      </c>
+      <c r="B2105" s="87" t="s">
+        <v>150</v>
       </c>
       <c r="C2105" s="11" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="D2105" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E2105" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F2105" s="13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2106" spans="1:7" x14ac:dyDescent="0.25">
+        <v>452</v>
+      </c>
+      <c r="G2105" s="88" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="2106" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A2106" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2106" s="47" t="s">
-        <v>27</v>
+        <v>9</v>
+      </c>
+      <c r="B2106" s="87" t="s">
+        <v>77</v>
       </c>
       <c r="C2106" s="11" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="D2106" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E2106" s="9" t="s">
-        <v>129</v>
+        <v>21</v>
       </c>
       <c r="F2106" s="13" t="s">
-        <v>243</v>
+        <v>330</v>
+      </c>
+      <c r="G2106" s="88" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="2107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2107" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2107" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2107" s="65" t="s">
         <v>27</v>
       </c>
       <c r="C2107" s="11" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="D2107" s="14" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E2107" s="9" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="F2107" s="13" t="s">
-        <v>407</v>
+        <v>37</v>
+      </c>
+      <c r="G2107" s="89" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="2108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2108" s="10" t="s">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="B2108" s="65" t="s">
         <v>27</v>
       </c>
       <c r="C2108" s="11" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="D2108" s="14" t="s">
         <v>35</v>
@@ -47313,7 +47256,7 @@
         <v>22</v>
       </c>
       <c r="F2108" s="13" t="s">
-        <v>37</v>
+        <v>297</v>
       </c>
       <c r="G2108" s="89" t="s">
         <v>162</v>
@@ -47321,13 +47264,13 @@
     </row>
     <row r="2109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2109" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2109" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2109" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C2109" s="11" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="D2109" s="14" t="s">
         <v>35</v>
@@ -47336,70 +47279,73 @@
         <v>22</v>
       </c>
       <c r="F2109" s="13" t="s">
-        <v>297</v>
-      </c>
-      <c r="G2109" s="89" t="s">
-        <v>162</v>
+        <v>254</v>
       </c>
     </row>
     <row r="2110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2110" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2110" s="47" t="s">
-        <v>27</v>
+        <v>9</v>
+      </c>
+      <c r="B2110" s="87" t="s">
+        <v>150</v>
       </c>
       <c r="C2110" s="11" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="D2110" s="14" t="s">
         <v>35</v>
       </c>
       <c r="E2110" s="9" t="s">
-        <v>22</v>
+        <v>129</v>
       </c>
       <c r="F2110" s="13" t="s">
-        <v>254</v>
+        <v>195</v>
+      </c>
+      <c r="G2110" s="88" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="2111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2111" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2111" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2111" s="65" t="s">
         <v>27</v>
       </c>
       <c r="C2111" s="11" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="D2111" s="14" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E2111" s="9" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="F2111" s="13" t="s">
-        <v>172</v>
+        <v>168</v>
+      </c>
+      <c r="G2111" s="89" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="2112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2112" s="10" t="s">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="B2112" s="65" t="s">
         <v>27</v>
       </c>
       <c r="C2112" s="11" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="D2112" s="14" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E2112" s="9" t="s">
-        <v>25</v>
+        <v>129</v>
       </c>
       <c r="F2112" s="13" t="s">
-        <v>428</v>
+        <v>195</v>
       </c>
       <c r="G2112" s="89" t="s">
         <v>162</v>
@@ -47407,871 +47353,1012 @@
     </row>
     <row r="2113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2113" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2113" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2113" s="65" t="s">
         <v>27</v>
       </c>
       <c r="C2113" s="11" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="D2113" s="14" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E2113" s="9" t="s">
-        <v>25</v>
+        <v>129</v>
       </c>
       <c r="F2113" s="13" t="s">
-        <v>334</v>
+        <v>196</v>
+      </c>
+      <c r="G2113" s="89" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="2114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2114" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2114" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2114" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2114" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2114" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2114" s="13" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2115" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2115" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2115" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2115" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2115" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2115" s="13" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="2116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2116" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2116" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2116" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2116" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2116" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2116" s="13" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="2117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2117" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2117" s="87" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2117" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2117" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="E2117" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2117" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2117" s="88" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="2118" spans="1:8" s="111" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2118" s="132"/>
+      <c r="C2118" s="133"/>
+      <c r="D2118" s="134"/>
+      <c r="F2118" s="134"/>
+      <c r="G2118" s="135"/>
+      <c r="H2118" s="134"/>
+    </row>
+    <row r="2119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2119" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2119" s="87" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2119" s="11">
+        <v>42604</v>
+      </c>
+      <c r="D2119" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="E2119" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2119" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2119" s="88" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="2120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2120" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2120" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2120" s="11">
+        <v>42604</v>
+      </c>
+      <c r="D2120" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2120" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2120" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2121" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2121" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2121" s="11">
+        <v>42604</v>
+      </c>
+      <c r="D2121" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2121" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2121" s="13" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="2122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2122" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2122" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2122" s="11">
+        <v>42604</v>
+      </c>
+      <c r="D2122" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2122" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2122" s="13" t="s">
+        <v>434</v>
+      </c>
+      <c r="G2122" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2123" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2123" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2123" s="11">
+        <v>42604</v>
+      </c>
+      <c r="D2123" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2123" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2123" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="G2123" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2124" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2124" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2124" s="11">
+        <v>42604</v>
+      </c>
+      <c r="D2124" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="E2124" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2124" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2124" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2125" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2125" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2125" s="11">
+        <v>42604</v>
+      </c>
+      <c r="D2125" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E2125" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2125" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="G2125" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2126" spans="1:8" s="104" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2126" s="105"/>
+      <c r="C2126" s="106"/>
+      <c r="D2126" s="107" t="s">
+        <v>387</v>
+      </c>
+      <c r="F2126" s="108"/>
+      <c r="G2126" s="109"/>
+      <c r="H2126" s="110"/>
+    </row>
+    <row r="2127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2127" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B2114" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2114" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2114" s="14" t="s">
+      <c r="B2127" s="87" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2127" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2127" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2127" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2127" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="G2127" s="88" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="2128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2128" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2128" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2128" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2128" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E2114" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2114" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2114" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2115" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2115" s="10" t="s">
+      <c r="E2128" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2128" s="13" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="2129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2129" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B2115" s="87" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2115" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2115" s="14" t="s">
+      <c r="B2129" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2129" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2129" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E2115" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2115" s="13" t="s">
-        <v>330</v>
-      </c>
-      <c r="G2115" s="88" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="2116" spans="1:8" s="111" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2116" s="132"/>
-      <c r="C2116" s="133"/>
-      <c r="D2116" s="134"/>
-      <c r="F2116" s="134"/>
-      <c r="G2116" s="135"/>
-      <c r="H2116" s="134"/>
-    </row>
-    <row r="2117" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="B2117" s="87" t="s">
+      <c r="E2129" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2129" s="13" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="2130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2130" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2130" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2130" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2130" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2130" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2130" s="13" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="2131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2131" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2131" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2131" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2131" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2131" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2131" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="G2131" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2132" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2132" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2132" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2132" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2132" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2132" s="13" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="2133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2133" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2133" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2133" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2133" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2133" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2133" s="13" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2134" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2134" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2134" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2134" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2134" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2134" s="13" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="2135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2135" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2135" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2135" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2135" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2135" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2135" s="13" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="2136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2136" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2136" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2136" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2136" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2136" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2136" s="13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2137" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2137" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="C2117" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2117" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2117" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="F2117" s="13" t="s">
-        <v>446</v>
-      </c>
-      <c r="G2117" s="88" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="2118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2118" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2118" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2118" s="14" t="s">
+      <c r="C2137" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2137" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2137" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2137" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="G2137" s="88" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="2138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2138" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2138" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2138" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2138" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="E2118" s="9" t="s">
+      <c r="E2138" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="F2118" s="13" t="s">
+      <c r="F2138" s="13" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="2119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2119" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2119" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2119" s="14" t="s">
+    <row r="2139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2139" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2139" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2139" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2139" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="E2119" s="9" t="s">
+      <c r="E2139" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="F2119" s="13" t="s">
+      <c r="F2139" s="13" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="2120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2120" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2120" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2120" s="14" t="s">
+    <row r="2140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2140" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2140" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2140" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2140" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="E2120" s="9" t="s">
+      <c r="E2140" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="F2120" s="13" t="s">
+      <c r="F2140" s="13" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="2121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2121" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2121" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2121" s="14" t="s">
+    <row r="2141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2141" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2141" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2141" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2141" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="E2121" s="9" t="s">
+      <c r="E2141" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="F2121" s="13" t="s">
+      <c r="F2141" s="13" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="2122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2122" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2122" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2122" s="14" t="s">
+    <row r="2142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2142" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2142" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2142" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2142" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="E2122" s="9" t="s">
+      <c r="E2142" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="F2122" s="13" t="s">
+      <c r="F2142" s="13" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="2123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2123" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2123" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2123" s="14" t="s">
+    <row r="2143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2143" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2143" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2143" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2143" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="E2123" s="9" t="s">
+      <c r="E2143" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="F2123" s="13" t="s">
+      <c r="F2143" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2124" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2124" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2124" s="14" t="s">
+    <row r="2144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2144" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2144" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2144" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2144" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E2124" s="9" t="s">
+      <c r="E2144" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F2124" s="13" t="s">
+      <c r="F2144" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="G2124" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2125" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2125" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2125" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2125" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2125" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2125" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2126" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2126" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2126" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2126" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2126" s="13" t="s">
-        <v>297</v>
-      </c>
-      <c r="G2126" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2127" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2127" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2127" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2127" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2127" s="13" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="2128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2128" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2128" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2128" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2128" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2128" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="G2128" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2129" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2129" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2129" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2129" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2129" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F2129" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="G2129" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2130" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2130" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2130" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2130" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2130" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F2130" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="G2130" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2131" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2131" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2131" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2131" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2131" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="F2131" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="G2131" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2132" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2132" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2132" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2132" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2132" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F2132" s="13" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="2133" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2133" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2133" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2133" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2133" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2133" s="13" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="2134" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2134" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2134" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2134" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2134" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2134" s="13" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="2135" spans="2:8" s="111" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2135" s="132"/>
-      <c r="C2135" s="133"/>
-      <c r="D2135" s="134"/>
-      <c r="F2135" s="134"/>
-      <c r="G2135" s="135"/>
-      <c r="H2135" s="134"/>
-    </row>
-    <row r="2136" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2136" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2136" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2136" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2136" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="F2136" s="13" t="s">
-        <v>434</v>
-      </c>
-      <c r="G2136" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2137" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2137" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2137" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2137" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2137" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="F2137" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="G2137" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2138" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2138" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2138" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2138" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2138" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F2138" s="13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2139" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2139" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2139" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2139" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2139" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F2139" s="13" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="2140" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2140" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2140" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2140" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="E2140" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="F2140" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="G2140" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2141" spans="2:8" s="111" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2141" s="132"/>
-      <c r="C2141" s="133"/>
-      <c r="D2141" s="134"/>
-      <c r="F2141" s="134"/>
-      <c r="G2141" s="135"/>
-      <c r="H2141" s="134"/>
-    </row>
-    <row r="2142" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2142" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2142" s="11">
-        <v>42601</v>
-      </c>
-      <c r="D2142" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="E2142" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="F2142" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="G2142" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2143" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2143" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2143" s="11">
-        <v>42601</v>
-      </c>
-      <c r="D2143" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="E2143" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F2143" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="G2143" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2144" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2144" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2144" s="11">
-        <v>42601</v>
-      </c>
-      <c r="D2144" s="14" t="s">
+      <c r="G2144" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2145" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2145" s="87" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2145" s="11" t="s">
         <v>448</v>
       </c>
-      <c r="E2144" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2144" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="G2144" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2145" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2145" s="11">
-        <v>42601</v>
-      </c>
       <c r="D2145" s="14" t="s">
-        <v>448</v>
+        <v>34</v>
       </c>
       <c r="E2145" s="9" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F2145" s="13" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="2146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G2145" s="88" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="2146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2146" s="10" t="s">
+        <v>80</v>
+      </c>
       <c r="B2146" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="C2146" s="11">
-        <v>42601</v>
+      <c r="C2146" s="11" t="s">
+        <v>448</v>
       </c>
       <c r="D2146" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2146" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2146" s="13" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="2147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2147" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2147" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2147" s="11" t="s">
         <v>448</v>
       </c>
-      <c r="E2146" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="F2146" s="13" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="2147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2147" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2147" s="11">
-        <v>42601</v>
-      </c>
       <c r="D2147" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2147" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2147" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2147" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2148" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2148" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2148" s="11" t="s">
         <v>448</v>
       </c>
-      <c r="E2147" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="F2147" s="13" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="2148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2148" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2148" s="11">
-        <v>42601</v>
-      </c>
       <c r="D2148" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2148" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2148" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="G2148" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2149" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2149" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2149" s="11" t="s">
         <v>448</v>
       </c>
-      <c r="E2148" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="F2148" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="G2148" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2149" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2149" s="11">
-        <v>42601</v>
-      </c>
       <c r="D2149" s="14" t="s">
-        <v>452</v>
+        <v>35</v>
       </c>
       <c r="E2149" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2149" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2149" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2150" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2150" s="11">
-        <v>42601</v>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="2150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2150" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2150" s="87" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2150" s="11" t="s">
+        <v>448</v>
       </c>
       <c r="D2150" s="14" t="s">
-        <v>452</v>
+        <v>35</v>
       </c>
       <c r="E2150" s="9" t="s">
-        <v>21</v>
+        <v>129</v>
       </c>
       <c r="F2150" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="G2150" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2151" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2151" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2151" s="11">
-        <v>42601</v>
+        <v>195</v>
+      </c>
+      <c r="G2150" s="88" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="2151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2151" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2151" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2151" s="11" t="s">
+        <v>448</v>
       </c>
       <c r="D2151" s="14" t="s">
-        <v>452</v>
+        <v>46</v>
       </c>
       <c r="E2151" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2151" s="13" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="2152" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2152" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2152" s="11">
-        <v>42601</v>
+        <v>168</v>
+      </c>
+      <c r="G2151" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2152" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2152" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2152" s="11" t="s">
+        <v>448</v>
       </c>
       <c r="D2152" s="14" t="s">
-        <v>452</v>
+        <v>46</v>
       </c>
       <c r="E2152" s="9" t="s">
-        <v>28</v>
+        <v>129</v>
       </c>
       <c r="F2152" s="13" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="2153" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2153" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2153" s="11">
-        <v>42601</v>
+        <v>195</v>
+      </c>
+      <c r="G2152" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2153" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2153" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2153" s="11" t="s">
+        <v>448</v>
       </c>
       <c r="D2153" s="14" t="s">
-        <v>452</v>
+        <v>46</v>
       </c>
       <c r="E2153" s="9" t="s">
-        <v>28</v>
+        <v>129</v>
       </c>
       <c r="F2153" s="13" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="2154" spans="1:8" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="G2153" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2154" s="10" t="s">
+        <v>80</v>
+      </c>
       <c r="B2154" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="C2154" s="11">
-        <v>42601</v>
+      <c r="C2154" s="11" t="s">
+        <v>448</v>
       </c>
       <c r="D2154" s="14" t="s">
-        <v>452</v>
+        <v>46</v>
       </c>
       <c r="E2154" s="9" t="s">
-        <v>24</v>
+        <v>101</v>
       </c>
       <c r="F2154" s="13" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="G2154" s="89" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="2155" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2155" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2155" s="11">
-        <v>42601</v>
+    <row r="2155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2155" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2155" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2155" s="11" t="s">
+        <v>448</v>
       </c>
       <c r="D2155" s="14" t="s">
-        <v>452</v>
+        <v>43</v>
       </c>
       <c r="E2155" s="9" t="s">
-        <v>24</v>
+        <v>103</v>
       </c>
       <c r="F2155" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="G2155" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2156" spans="1:8" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2156" s="10" t="s">
+        <v>80</v>
+      </c>
       <c r="B2156" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="C2156" s="11">
-        <v>42601</v>
+      <c r="C2156" s="11" t="s">
+        <v>448</v>
       </c>
       <c r="D2156" s="14" t="s">
-        <v>452</v>
+        <v>43</v>
       </c>
       <c r="E2156" s="9" t="s">
-        <v>112</v>
+        <v>25</v>
       </c>
       <c r="F2156" s="13" t="s">
-        <v>33</v>
+        <v>428</v>
       </c>
       <c r="G2156" s="89" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="2157" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2157" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2157" s="11">
-        <v>42601</v>
+    <row r="2157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2157" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2157" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2157" s="11" t="s">
+        <v>448</v>
       </c>
       <c r="D2157" s="14" t="s">
-        <v>454</v>
+        <v>43</v>
       </c>
       <c r="E2157" s="9" t="s">
-        <v>107</v>
+        <v>25</v>
       </c>
       <c r="F2157" s="13" t="s">
-        <v>455</v>
-      </c>
-      <c r="G2157" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2158" spans="1:8" s="104" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2158" s="105"/>
-      <c r="C2158" s="106"/>
-      <c r="D2158" s="107" t="s">
-        <v>415</v>
-      </c>
-      <c r="F2158" s="108"/>
-      <c r="G2158" s="109"/>
-      <c r="H2158" s="110"/>
-    </row>
-    <row r="2159" spans="1:8" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="2158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2158" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2158" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2158" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2158" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2158" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2158" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2158" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2159" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B2159" s="47" t="s">
-        <v>27</v>
+      <c r="B2159" s="87" t="s">
+        <v>150</v>
       </c>
       <c r="C2159" s="11" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="D2159" s="14" t="s">
         <v>43</v>
       </c>
       <c r="E2159" s="9" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="F2159" s="13" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="2160" spans="1:8" x14ac:dyDescent="0.25">
+        <v>452</v>
+      </c>
+      <c r="G2159" s="88" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="2160" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A2160" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B2160" s="47" t="s">
-        <v>27</v>
+      <c r="B2160" s="87" t="s">
+        <v>77</v>
       </c>
       <c r="C2160" s="11" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="D2160" s="14" t="s">
         <v>43</v>
       </c>
       <c r="E2160" s="9" t="s">
-        <v>114</v>
+        <v>21</v>
       </c>
       <c r="F2160" s="13" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="2161" spans="1:7" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+      <c r="G2160" s="88" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="2161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2161" s="10" t="s">
         <v>80</v>
       </c>
@@ -48279,42 +48366,39 @@
         <v>27</v>
       </c>
       <c r="C2161" s="11" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="D2161" s="14" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E2161" s="9" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="F2161" s="13" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="2162" spans="1:7" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2162" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B2162" s="65" t="s">
+      <c r="B2162" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C2162" s="11" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="D2162" s="14" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E2162" s="9" t="s">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="F2162" s="13" t="s">
-        <v>403</v>
-      </c>
-      <c r="G2162" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2163" spans="1:7" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="2163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2163" s="10" t="s">
         <v>80</v>
       </c>
@@ -48322,3468 +48406,178 @@
         <v>27</v>
       </c>
       <c r="C2163" s="11" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="D2163" s="14" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E2163" s="9" t="s">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="F2163" s="13" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="2164" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2164" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2164" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2164" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2164" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2164" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F2164" s="13" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="2165" spans="1:7" x14ac:dyDescent="0.25">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="2164" spans="1:8" s="111" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2164" s="132"/>
+      <c r="C2164" s="133"/>
+      <c r="D2164" s="134"/>
+      <c r="F2164" s="134"/>
+      <c r="G2164" s="135"/>
+      <c r="H2164" s="134"/>
+    </row>
+    <row r="2165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2165" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B2165" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2165" s="11" t="s">
-        <v>441</v>
+      <c r="B2165" s="87" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2165" s="11">
+        <v>42604</v>
       </c>
       <c r="D2165" s="14" t="s">
-        <v>43</v>
+        <v>249</v>
       </c>
       <c r="E2165" s="9" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="F2165" s="13" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="2166" spans="1:7" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="G2165" s="88" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="2166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2166" s="10" t="s">
         <v>80</v>
       </c>
       <c r="B2166" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="C2166" s="11" t="s">
-        <v>441</v>
+      <c r="C2166" s="11">
+        <v>42604</v>
       </c>
       <c r="D2166" s="14" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="E2166" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F2166" s="13" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="2167" spans="1:7" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2167" s="10" t="s">
         <v>80</v>
       </c>
       <c r="B2167" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="C2167" s="11" t="s">
-        <v>441</v>
+      <c r="C2167" s="11">
+        <v>42604</v>
       </c>
       <c r="D2167" s="14" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E2167" s="9" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="F2167" s="13" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="2168" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="2168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2168" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B2168" s="87" t="s">
-        <v>139</v>
-      </c>
-      <c r="C2168" s="11" t="s">
-        <v>441</v>
+      <c r="B2168" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2168" s="11">
+        <v>42604</v>
       </c>
       <c r="D2168" s="14" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E2168" s="9" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F2168" s="13" t="s">
-        <v>345</v>
-      </c>
-      <c r="G2168" s="88" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="2169" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+      <c r="G2168" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2169" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B2169" s="87" t="s">
-        <v>146</v>
-      </c>
-      <c r="C2169" s="11" t="s">
-        <v>441</v>
+      <c r="B2169" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2169" s="11">
+        <v>42604</v>
       </c>
       <c r="D2169" s="14" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E2169" s="9" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F2169" s="13" t="s">
-        <v>443</v>
-      </c>
-      <c r="G2169" s="88" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="2170" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+      <c r="G2169" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2170" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B2170" s="87" t="s">
-        <v>150</v>
-      </c>
-      <c r="C2170" s="11" t="s">
-        <v>441</v>
+      <c r="B2170" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2170" s="11">
+        <v>42604</v>
       </c>
       <c r="D2170" s="14" t="s">
-        <v>43</v>
+        <v>216</v>
       </c>
       <c r="E2170" s="9" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F2170" s="13" t="s">
-        <v>443</v>
-      </c>
-      <c r="G2170" s="88" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="2171" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="G2170" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2171" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B2171" s="87" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2171" s="11" t="s">
-        <v>441</v>
+      <c r="B2171" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2171" s="11">
+        <v>42604</v>
       </c>
       <c r="D2171" s="14" t="s">
-        <v>35</v>
+        <v>220</v>
       </c>
       <c r="E2171" s="9" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="F2171" s="13" t="s">
-        <v>446</v>
-      </c>
-      <c r="G2171" s="88" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="2172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2172" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2172" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2172" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2172" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2172" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F2172" s="13" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="2173" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2173" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2173" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2173" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2173" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2173" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F2173" s="13" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="2174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2174" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2174" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2174" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2174" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2174" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F2174" s="13" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="2175" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2175" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2175" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2175" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2175" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2175" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F2175" s="13" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="2176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2176" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2176" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2176" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2176" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2176" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F2176" s="13" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="2177" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2177" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2177" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2177" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2177" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2177" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2177" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2177" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2178" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2178" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2178" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2178" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2178" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="F2178" s="13" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="2179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2179" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2179" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2179" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2179" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2179" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2179" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2179" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2180" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2180" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2180" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2180" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2180" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2180" s="13" t="s">
-        <v>297</v>
-      </c>
-      <c r="G2180" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2181" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2181" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2181" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2181" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2181" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2181" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2181" s="13" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="2182" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2182" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2182" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2182" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2182" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2182" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2182" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="G2182" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2183" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2183" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2183" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2183" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2183" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2183" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F2183" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="G2183" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2184" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2184" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2184" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2184" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2184" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2184" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F2184" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="G2184" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2185" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2185" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2185" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2185" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2185" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2185" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="F2185" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="G2185" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2186" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2186" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2186" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2186" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2186" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2186" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="F2186" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2187" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2187" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2187" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2187" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2187" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2187" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F2187" s="13" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="2188" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2188" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2188" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2188" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2188" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2188" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2188" s="13" t="s">
-        <v>428</v>
-      </c>
-      <c r="G2188" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2189" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2189" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2189" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2189" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2189" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2189" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2189" s="13" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="2190" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2190" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2190" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2190" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2190" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2190" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2190" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2190" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2191" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2191" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2191" s="87" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2191" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2191" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2191" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2191" s="13" t="s">
-        <v>330</v>
-      </c>
-      <c r="G2191" s="88" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="2192" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2192" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2192" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2192" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2192" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2192" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F2192" s="13" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="2193" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2193" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2193" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2193" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2193" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2193" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2193" s="13" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="2194" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2194" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2194" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2194" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2194" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2194" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2194" s="13" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="2195" spans="1:8" s="111" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2195" s="132"/>
-      <c r="C2195" s="133"/>
-      <c r="D2195" s="134"/>
-      <c r="F2195" s="134"/>
-      <c r="G2195" s="135"/>
-      <c r="H2195" s="134"/>
-    </row>
-    <row r="2196" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2196" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2196" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2196" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2196" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2196" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="F2196" s="13" t="s">
-        <v>434</v>
-      </c>
-      <c r="G2196" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2197" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2197" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2197" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2197" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2197" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2197" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="F2197" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="G2197" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2198" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2198" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2198" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2198" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2198" s="14" t="s">
-        <v>448</v>
-      </c>
-      <c r="E2198" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="F2198" s="13" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="2199" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2199" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2199" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2199" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2199" s="14" t="s">
-        <v>448</v>
-      </c>
-      <c r="E2199" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="F2199" s="13" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="2200" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2200" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2200" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2200" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2200" s="14" t="s">
-        <v>448</v>
-      </c>
-      <c r="E2200" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="F2200" s="13" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="2201" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2201" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2201" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2201" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2201" s="14" t="s">
-        <v>448</v>
-      </c>
-      <c r="E2201" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="F2201" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="G2201" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2202" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2202" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2202" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2202" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2202" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2202" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F2202" s="13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2203" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2203" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2203" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2203" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2203" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2203" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F2203" s="13" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="2204" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2204" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2204" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2204" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2204" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="E2204" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="F2204" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="G2204" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2205" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2205" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2205" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2205" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2205" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="E2205" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F2205" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="G2205" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2206" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2206" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2206" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2206" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2206" s="14" t="s">
-        <v>448</v>
-      </c>
-      <c r="E2206" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2206" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="G2206" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2207" spans="1:8" s="104" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2207" s="105"/>
-      <c r="C2207" s="106"/>
-      <c r="D2207" s="107" t="s">
-        <v>415</v>
-      </c>
-      <c r="F2207" s="108"/>
-      <c r="G2207" s="109"/>
-      <c r="H2207" s="110"/>
-    </row>
-    <row r="2208" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2208" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2208" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2208" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2208" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2208" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="F2208" s="13" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="2209" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2209" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2209" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2209" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2209" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2209" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="F2209" s="13" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="2210" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2210" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2210" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2210" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2210" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2210" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="F2210" s="13" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="2211" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2211" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2211" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2211" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2211" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2211" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="F2211" s="13" t="s">
-        <v>403</v>
-      </c>
-      <c r="G2211" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2212" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2212" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2212" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2212" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2212" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2212" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="F2212" s="13" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="2213" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2213" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2213" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2213" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2213" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2213" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F2213" s="13" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="2214" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2214" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2214" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2214" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2214" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2214" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F2214" s="13" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="2215" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2215" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2215" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2215" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2215" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2215" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F2215" s="13" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="2216" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2216" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2216" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2216" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2216" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2216" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="F2216" s="13" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="2217" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2217" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2217" s="87" t="s">
-        <v>139</v>
-      </c>
-      <c r="C2217" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2217" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2217" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="F2217" s="13" t="s">
-        <v>345</v>
-      </c>
-      <c r="G2217" s="88" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="2218" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2218" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2218" s="87" t="s">
-        <v>146</v>
-      </c>
-      <c r="C2218" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2218" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2218" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F2218" s="13" t="s">
-        <v>443</v>
-      </c>
-      <c r="G2218" s="88" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="2219" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2219" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2219" s="87" t="s">
-        <v>150</v>
-      </c>
-      <c r="C2219" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2219" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2219" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F2219" s="13" t="s">
-        <v>443</v>
-      </c>
-      <c r="G2219" s="88" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="2220" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2220" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2220" s="87" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2220" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2220" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2220" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="F2220" s="13" t="s">
-        <v>446</v>
-      </c>
-      <c r="G2220" s="88" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="2221" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2221" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2221" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2221" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2221" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2221" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F2221" s="13" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="2222" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2222" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2222" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2222" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2222" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2222" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F2222" s="13" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="2223" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2223" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2223" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2223" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2223" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2223" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F2223" s="13" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="2224" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2224" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2224" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2224" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2224" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2224" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F2224" s="13" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="2225" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2225" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2225" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2225" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2225" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2225" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F2225" s="13" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="2226" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2226" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2226" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2226" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2226" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2226" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2226" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2226" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2227" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2227" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2227" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2227" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2227" s="14" t="s">
-        <v>448</v>
-      </c>
-      <c r="E2227" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="F2227" s="13" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="2228" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2228" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2228" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2228" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2228" s="14" t="s">
-        <v>448</v>
-      </c>
-      <c r="E2228" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="F2228" s="13" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="2229" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2229" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2229" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2229" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2229" s="14" t="s">
-        <v>448</v>
-      </c>
-      <c r="E2229" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="F2229" s="13" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="2230" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2230" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2230" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2230" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2230" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2230" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F2230" s="13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2231" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2231" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2231" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2231" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2231" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2231" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F2231" s="13" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="2232" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2232" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2232" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2232" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2232" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2232" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="F2232" s="13" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="2233" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2233" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2233" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2233" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2233" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2233" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2233" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2233" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2234" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2234" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2234" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2234" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2234" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2234" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2234" s="13" t="s">
-        <v>297</v>
-      </c>
-      <c r="G2234" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2235" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2235" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2235" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2235" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2235" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2235" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2235" s="13" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="2236" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2236" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2236" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2236" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2236" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2236" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2236" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="G2236" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2237" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2237" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2237" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2237" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2237" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2237" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F2237" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="G2237" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2238" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2238" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2238" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2238" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2238" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2238" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F2238" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="G2238" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2239" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2239" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2239" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2239" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2239" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2239" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="F2239" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="G2239" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2240" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2240" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2240" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2240" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2240" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2240" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="F2240" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2241" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2241" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2241" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2241" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2241" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2241" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="F2241" s="13" t="s">
-        <v>434</v>
-      </c>
-      <c r="G2241" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2242" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2242" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2242" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2242" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2242" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2242" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="F2242" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="G2242" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2243" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2243" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2243" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2243" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2243" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="E2243" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="F2243" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="G2243" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2244" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2244" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2244" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2244" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2244" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="E2244" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F2244" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="G2244" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2245" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2245" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2245" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2245" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2245" s="14" t="s">
-        <v>448</v>
-      </c>
-      <c r="E2245" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2245" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="G2245" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2246" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2246" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2246" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2246" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2246" s="14" t="s">
-        <v>448</v>
-      </c>
-      <c r="E2246" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="F2246" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="G2246" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2247" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2247" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2247" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2247" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2247" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2247" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F2247" s="13" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="2248" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2248" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2248" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2248" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2248" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2248" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2248" s="13" t="s">
-        <v>428</v>
-      </c>
-      <c r="G2248" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2249" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2249" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2249" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2249" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2249" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2249" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2249" s="13" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="2250" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2250" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2250" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2250" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2250" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2250" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2250" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2250" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2251" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2251" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2251" s="87" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2251" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2251" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2251" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2251" s="13" t="s">
-        <v>330</v>
-      </c>
-      <c r="G2251" s="88" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="2252" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2252" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2252" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2252" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2252" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2252" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F2252" s="13" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="2253" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2253" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2253" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2253" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2253" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2253" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2253" s="13" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="2254" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2254" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2254" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2254" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2254" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2254" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2254" s="13" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="2255" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2255" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2255" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2255" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2255" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2255" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F2255" s="13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2256" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2256" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2256" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2256" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2256" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2256" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F2256" s="13" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="2257" spans="1:8" s="104" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2257" s="105"/>
-      <c r="C2257" s="106"/>
-      <c r="D2257" s="107" t="s">
-        <v>415</v>
-      </c>
-      <c r="F2257" s="108"/>
-      <c r="G2257" s="109"/>
-      <c r="H2257" s="110"/>
-    </row>
-    <row r="2258" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2258" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2258" s="87" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2258" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2258" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2258" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="F2258" s="13" t="s">
-        <v>446</v>
-      </c>
-      <c r="G2258" s="88" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="2259" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2259" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2259" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2259" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2259" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2259" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2259" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2259" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2260" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2260" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2260" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2260" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2260" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2260" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2260" s="13" t="s">
-        <v>297</v>
-      </c>
-      <c r="G2260" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2261" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2261" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2261" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2261" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2261" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2261" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2261" s="13" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="2262" spans="1:8" s="104" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2262" s="105"/>
-      <c r="C2262" s="106"/>
-      <c r="D2262" s="107" t="s">
-        <v>415</v>
-      </c>
-      <c r="F2262" s="108"/>
-      <c r="G2262" s="109"/>
-      <c r="H2262" s="110"/>
-    </row>
-    <row r="2263" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2263" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2263" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2263" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2263" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2263" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F2263" s="13" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="2264" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2264" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2264" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2264" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2264" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2264" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F2264" s="13" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="2265" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2265" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2265" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2265" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2265" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2265" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F2265" s="13" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="2266" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2266" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2266" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2266" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2266" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2266" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F2266" s="13" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="2267" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2267" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2267" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2267" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2267" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2267" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F2267" s="13" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="2268" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2268" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2268" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2268" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2268" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2268" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="F2268" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2269" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2269" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2269" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2269" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2269" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2269" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2269" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2269" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2270" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2270" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2270" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2270" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2270" s="14" t="s">
-        <v>448</v>
-      </c>
-      <c r="E2270" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="F2270" s="13" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="2271" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2271" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2271" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2271" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2271" s="14" t="s">
-        <v>448</v>
-      </c>
-      <c r="E2271" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="F2271" s="13" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="2272" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2272" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2272" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2272" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2272" s="14" t="s">
-        <v>448</v>
-      </c>
-      <c r="E2272" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="F2272" s="13" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="2273" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2273" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2273" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2273" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2273" s="14" t="s">
-        <v>448</v>
-      </c>
-      <c r="E2273" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="F2273" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="G2273" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2274" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2274" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2274" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2274" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2274" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2274" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="G2274" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2275" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2275" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2275" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2275" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2275" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F2275" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="G2275" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2276" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2276" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2276" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2276" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2276" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F2276" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="G2276" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2277" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2277" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2277" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2277" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2277" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="F2277" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="G2277" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2278" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2278" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2278" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2278" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2278" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="F2278" s="13" t="s">
-        <v>434</v>
-      </c>
-      <c r="G2278" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2279" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2279" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2279" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2279" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2279" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="F2279" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="G2279" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2280" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2280" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2280" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2280" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="E2280" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="F2280" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="G2280" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2281" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2281" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2281" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2281" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="E2281" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F2281" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="G2281" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2282" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2282" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2282" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2282" s="14" t="s">
-        <v>448</v>
-      </c>
-      <c r="E2282" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2282" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="G2282" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2283" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2283" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2283" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2283" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2283" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F2283" s="13" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="2284" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2284" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2284" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2284" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2284" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2284" s="13" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="2285" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2285" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2285" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2285" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2285" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2285" s="13" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="2286" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2286" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2286" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2286" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2286" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F2286" s="13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2287" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2287" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2287" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2287" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2287" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F2287" s="13" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="2288" spans="1:8" s="104" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2288" s="105"/>
-      <c r="C2288" s="106"/>
-      <c r="D2288" s="107" t="s">
-        <v>415</v>
-      </c>
-      <c r="F2288" s="108"/>
-      <c r="G2288" s="109"/>
-      <c r="H2288" s="110"/>
-    </row>
-    <row r="2289" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2289" s="10" t="s">
-        <v>456</v>
-      </c>
-      <c r="B2289" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2289" s="11">
-        <v>42601</v>
-      </c>
-      <c r="D2289" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2289" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F2289" s="13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2290" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2290" s="10" t="s">
-        <v>456</v>
-      </c>
-      <c r="B2290" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2290" s="11">
-        <v>42601</v>
-      </c>
-      <c r="D2290" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2290" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F2290" s="13" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="2291" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2291" s="10" t="s">
-        <v>456</v>
-      </c>
-      <c r="B2291" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2291" s="11">
-        <v>42601</v>
-      </c>
-      <c r="D2291" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2291" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="F2291" s="13" t="s">
-        <v>434</v>
-      </c>
-      <c r="G2291" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2292" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2292" s="10" t="s">
-        <v>456</v>
-      </c>
-      <c r="B2292" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2292" s="11">
-        <v>42601</v>
-      </c>
-      <c r="D2292" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2292" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="F2292" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="G2292" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2293" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2293" s="10" t="s">
-        <v>456</v>
-      </c>
-      <c r="B2293" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2293" s="11">
-        <v>42601</v>
-      </c>
-      <c r="D2293" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="E2293" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="F2293" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="G2293" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2294" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2294" s="10" t="s">
-        <v>456</v>
-      </c>
-      <c r="B2294" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2294" s="11">
-        <v>42601</v>
-      </c>
-      <c r="D2294" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="E2294" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F2294" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="G2294" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2295" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2295" s="10" t="s">
-        <v>456</v>
-      </c>
-      <c r="B2295" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2295" s="11">
-        <v>42601</v>
-      </c>
-      <c r="D2295" s="14" t="s">
-        <v>448</v>
-      </c>
-      <c r="E2295" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2295" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="G2295" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2296" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2296" s="10" t="s">
-        <v>456</v>
-      </c>
-      <c r="B2296" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2296" s="11">
-        <v>42601</v>
-      </c>
-      <c r="D2296" s="14" t="s">
-        <v>448</v>
-      </c>
-      <c r="E2296" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="F2296" s="13" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="2297" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2297" s="10" t="s">
-        <v>456</v>
-      </c>
-      <c r="B2297" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2297" s="11">
-        <v>42601</v>
-      </c>
-      <c r="D2297" s="14" t="s">
-        <v>448</v>
-      </c>
-      <c r="E2297" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="F2297" s="13" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="2298" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2298" s="10" t="s">
-        <v>456</v>
-      </c>
-      <c r="B2298" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2298" s="11">
-        <v>42601</v>
-      </c>
-      <c r="D2298" s="14" t="s">
-        <v>448</v>
-      </c>
-      <c r="E2298" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="F2298" s="13" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="2299" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2299" s="10" t="s">
-        <v>456</v>
-      </c>
-      <c r="B2299" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2299" s="11">
-        <v>42601</v>
-      </c>
-      <c r="D2299" s="14" t="s">
-        <v>448</v>
-      </c>
-      <c r="E2299" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="F2299" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="G2299" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2300" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2300" s="10" t="s">
-        <v>456</v>
-      </c>
-      <c r="B2300" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2300" s="11">
-        <v>42601</v>
-      </c>
-      <c r="D2300" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="E2300" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2300" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2300" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2301" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2301" s="10" t="s">
-        <v>456</v>
-      </c>
-      <c r="B2301" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2301" s="11">
-        <v>42601</v>
-      </c>
-      <c r="D2301" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="E2301" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2301" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="G2301" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2302" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2302" s="10" t="s">
-        <v>456</v>
-      </c>
-      <c r="B2302" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2302" s="11">
-        <v>42601</v>
-      </c>
-      <c r="D2302" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="E2302" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2302" s="13" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="2303" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2303" s="10" t="s">
-        <v>456</v>
-      </c>
-      <c r="B2303" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2303" s="11">
-        <v>42601</v>
-      </c>
-      <c r="D2303" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="E2303" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2303" s="13" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="2304" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2304" s="10" t="s">
-        <v>456</v>
-      </c>
-      <c r="B2304" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2304" s="11">
-        <v>42601</v>
-      </c>
-      <c r="D2304" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="E2304" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2304" s="13" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="2305" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2305" s="10" t="s">
-        <v>456</v>
-      </c>
-      <c r="B2305" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2305" s="11">
-        <v>42601</v>
-      </c>
-      <c r="D2305" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="E2305" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2305" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="G2305" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2306" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2306" s="10" t="s">
-        <v>456</v>
-      </c>
-      <c r="B2306" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2306" s="11">
-        <v>42601</v>
-      </c>
-      <c r="D2306" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="E2306" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2306" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="G2306" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2307" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2307" s="10" t="s">
-        <v>456</v>
-      </c>
-      <c r="B2307" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2307" s="11">
-        <v>42601</v>
-      </c>
-      <c r="D2307" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="E2307" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="F2307" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2307" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2308" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2308" s="10" t="s">
-        <v>456</v>
-      </c>
-      <c r="B2308" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2308" s="11">
-        <v>42601</v>
-      </c>
-      <c r="D2308" s="14" t="s">
-        <v>454</v>
-      </c>
-      <c r="E2308" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="F2308" s="13" t="s">
-        <v>455</v>
-      </c>
-      <c r="G2308" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2309" spans="1:8" s="104" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2309" s="105"/>
-      <c r="C2309" s="106"/>
-      <c r="D2309" s="107" t="s">
-        <v>415</v>
-      </c>
-      <c r="F2309" s="108"/>
-      <c r="G2309" s="109"/>
-      <c r="H2309" s="110"/>
-    </row>
-    <row r="2310" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2310" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2310" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2310" s="11">
-        <v>42601</v>
-      </c>
-      <c r="D2310" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2310" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F2310" s="13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2311" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2311" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2311" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2311" s="11">
-        <v>42601</v>
-      </c>
-      <c r="D2311" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2311" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F2311" s="13" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="2312" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2312" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2312" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2312" s="11">
-        <v>42601</v>
-      </c>
-      <c r="D2312" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2312" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="F2312" s="13" t="s">
-        <v>434</v>
-      </c>
-      <c r="G2312" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2313" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2313" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2313" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2313" s="11">
-        <v>42601</v>
-      </c>
-      <c r="D2313" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2313" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="F2313" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="G2313" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2314" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2314" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2314" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2314" s="11">
-        <v>42601</v>
-      </c>
-      <c r="D2314" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="E2314" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="F2314" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="G2314" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2315" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2315" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2315" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2315" s="11">
-        <v>42601</v>
-      </c>
-      <c r="D2315" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="E2315" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F2315" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="G2315" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2316" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2316" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2316" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2316" s="11">
-        <v>42601</v>
-      </c>
-      <c r="D2316" s="14" t="s">
-        <v>448</v>
-      </c>
-      <c r="E2316" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2316" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="G2316" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2317" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2317" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2317" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2317" s="11">
-        <v>42601</v>
-      </c>
-      <c r="D2317" s="14" t="s">
-        <v>448</v>
-      </c>
-      <c r="E2317" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="F2317" s="13" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="2318" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2318" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2318" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2318" s="11">
-        <v>42601</v>
-      </c>
-      <c r="D2318" s="14" t="s">
-        <v>448</v>
-      </c>
-      <c r="E2318" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="F2318" s="13" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="2319" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2319" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2319" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2319" s="11">
-        <v>42601</v>
-      </c>
-      <c r="D2319" s="14" t="s">
-        <v>448</v>
-      </c>
-      <c r="E2319" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="F2319" s="13" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="2320" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2320" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2320" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2320" s="11">
-        <v>42601</v>
-      </c>
-      <c r="D2320" s="14" t="s">
-        <v>448</v>
-      </c>
-      <c r="E2320" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="F2320" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="G2320" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2321" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2321" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2321" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2321" s="11">
-        <v>42601</v>
-      </c>
-      <c r="D2321" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="E2321" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2321" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2321" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2322" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2322" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2322" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2322" s="11">
-        <v>42601</v>
-      </c>
-      <c r="D2322" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="E2322" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2322" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="G2322" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2323" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2323" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2323" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2323" s="11">
-        <v>42601</v>
-      </c>
-      <c r="D2323" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="E2323" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2323" s="13" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="2324" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2324" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2324" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2324" s="11">
-        <v>42601</v>
-      </c>
-      <c r="D2324" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="E2324" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2324" s="13" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="2325" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2325" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2325" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2325" s="11">
-        <v>42601</v>
-      </c>
-      <c r="D2325" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="E2325" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2325" s="13" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="2326" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2326" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2326" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2326" s="11">
-        <v>42601</v>
-      </c>
-      <c r="D2326" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="E2326" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2326" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="G2326" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2327" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2327" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2327" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2327" s="11">
-        <v>42601</v>
-      </c>
-      <c r="D2327" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="E2327" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2327" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="G2327" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2328" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2328" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2328" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2328" s="11">
-        <v>42601</v>
-      </c>
-      <c r="D2328" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="E2328" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="F2328" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2328" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2329" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2329" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2329" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2329" s="11">
-        <v>42601</v>
-      </c>
-      <c r="D2329" s="14" t="s">
-        <v>454</v>
-      </c>
-      <c r="E2329" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="F2329" s="13" t="s">
-        <v>455</v>
-      </c>
-      <c r="G2329" s="89" t="s">
+      <c r="G2171" s="89" t="s">
         <v>162</v>
       </c>
     </row>
@@ -51806,9 +48600,9 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="75" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="69" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;R&amp;"-,Bold"&amp;22&amp;D&amp;C&amp;"Calibri,Bold"&amp;22Jhan, 4:30PM to 4:45PM</oddHeader>
+    <oddHeader>&amp;R&amp;"-,Bold"&amp;22&amp;D&amp;C&amp;"Calibri,Bold"&amp;22Jhan, 6:30PM to 9:30PM</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
@@ -52135,7 +48929,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>88</v>
       </c>
@@ -52143,7 +48937,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>8</v>
       </c>
@@ -52151,7 +48945,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>89</v>
       </c>
@@ -52159,7 +48953,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>79</v>
       </c>
@@ -52167,7 +48961,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>9</v>
       </c>
@@ -52175,7 +48969,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>10</v>
       </c>
@@ -52183,7 +48977,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>90</v>
       </c>
@@ -52191,7 +48985,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>159</v>
       </c>
@@ -52199,7 +48993,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>160</v>
       </c>
@@ -52207,37 +49001,37 @@
         <v>101</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="C39" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="C40" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="C41" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A50" s="5"/>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">

--- a/PW/masterlog.xlsx
+++ b/PW/masterlog.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12745" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13512" uniqueCount="466">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1392,6 +1392,36 @@
   <si>
     <t>Return podium mic, cable and stand to OSG 1014 L</t>
   </si>
+  <si>
+    <t>2130</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>2200</t>
+  </si>
+  <si>
+    <t>328A</t>
+  </si>
+  <si>
+    <t>2300</t>
+  </si>
+  <si>
+    <t>038</t>
+  </si>
+  <si>
+    <t>JHan</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
 </sst>
 </file>
 
@@ -2358,7 +2388,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H2171"/>
+  <dimension ref="A1:H2307"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A1972" activePane="bottomLeft" state="frozenSplit"/>
@@ -48578,6 +48608,2719 @@
         <v>242</v>
       </c>
       <c r="G2171" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2172" spans="1:8" s="104" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2172" s="105"/>
+      <c r="C2172" s="106"/>
+      <c r="D2172" s="107" t="s">
+        <v>387</v>
+      </c>
+      <c r="F2172" s="108"/>
+      <c r="G2172" s="109"/>
+      <c r="H2172" s="110"/>
+    </row>
+    <row r="2173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2173" s="87" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2173" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2173" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2173" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2173" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="G2173" s="88" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="2174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2174" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2174" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2174" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2174" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2174" s="13" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="2175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2175" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2175" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2175" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2175" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2175" s="13" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="2176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2176" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2176" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2176" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2176" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2176" s="13" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="2177" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2177" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2177" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2177" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2177" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2177" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="G2177" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2178" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2178" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2178" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2178" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2178" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2178" s="13" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="2179" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2179" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2179" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2179" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2179" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2179" s="13" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2180" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2180" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2180" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2180" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2180" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2180" s="13" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="2181" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2181" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2181" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2181" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2181" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2181" s="13" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="2182" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2182" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2182" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2182" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2182" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2182" s="13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2183" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2183" s="87" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2183" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2183" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2183" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2183" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="G2183" s="88" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="2184" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2184" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2184" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2184" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2184" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2184" s="13" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="2185" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2185" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2185" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2185" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2185" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2185" s="13" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="2186" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2186" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2186" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2186" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2186" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2186" s="13" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="2187" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2187" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2187" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2187" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2187" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2187" s="13" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="2188" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2188" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2188" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2188" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2188" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2188" s="13" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="2189" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2189" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2189" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2189" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2189" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2189" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2190" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2190" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2190" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2190" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2190" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2190" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2190" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2191" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2191" s="87" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2191" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2191" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2191" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2191" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="G2191" s="88" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="2192" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2192" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2192" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2192" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2192" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2192" s="13" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="2193" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2193" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2193" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2193" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2193" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2193" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2193" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2194" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2194" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2194" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2194" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2194" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2194" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="G2194" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2195" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2195" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2195" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2195" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2195" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2195" s="13" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="2196" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2196" s="87" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2196" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2196" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2196" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2196" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="G2196" s="88" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="2197" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2197" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2197" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2197" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2197" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2197" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="G2197" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2198" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2198" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2198" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2198" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2198" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2198" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="G2198" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2199" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2199" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2199" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2199" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2199" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2199" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="G2199" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2200" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2200" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2200" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2200" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2200" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2200" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="G2200" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2201" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2201" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2201" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2201" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2201" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2201" s="13" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2202" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2202" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2202" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2202" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2202" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2202" s="13" t="s">
+        <v>428</v>
+      </c>
+      <c r="G2202" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2203" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2203" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2203" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2203" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2203" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2203" s="13" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="2204" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2204" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2204" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2204" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2204" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2204" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2204" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2205" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2205" s="87" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2205" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2205" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2205" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="F2205" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="G2205" s="88" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="2206" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B2206" s="87" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2206" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2206" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2206" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2206" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="G2206" s="88" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="2207" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2207" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2207" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2207" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2207" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2207" s="13" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2208" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2208" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2208" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2208" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2208" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2208" s="13" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="2209" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2209" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2209" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2209" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2209" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2209" s="13" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="2210" spans="1:8" s="111" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2210" s="132"/>
+      <c r="C2210" s="133"/>
+      <c r="D2210" s="134"/>
+      <c r="F2210" s="134"/>
+      <c r="G2210" s="135"/>
+      <c r="H2210" s="134"/>
+    </row>
+    <row r="2211" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2211" s="87" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2211" s="11">
+        <v>42604</v>
+      </c>
+      <c r="D2211" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="E2211" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2211" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2211" s="88" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="2212" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2212" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2212" s="11">
+        <v>42604</v>
+      </c>
+      <c r="D2212" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2212" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2212" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2213" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2213" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2213" s="11">
+        <v>42604</v>
+      </c>
+      <c r="D2213" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2213" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2213" s="13" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="2214" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2214" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2214" s="11">
+        <v>42604</v>
+      </c>
+      <c r="D2214" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2214" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2214" s="13" t="s">
+        <v>434</v>
+      </c>
+      <c r="G2214" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2215" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2215" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2215" s="11">
+        <v>42604</v>
+      </c>
+      <c r="D2215" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2215" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2215" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="G2215" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2216" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2216" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2216" s="11">
+        <v>42604</v>
+      </c>
+      <c r="D2216" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="E2216" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2216" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2216" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2217" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2217" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2217" s="11">
+        <v>42604</v>
+      </c>
+      <c r="D2217" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E2217" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2217" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="G2217" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2218" spans="1:8" s="104" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2218" s="105"/>
+      <c r="C2218" s="106"/>
+      <c r="D2218" s="107" t="s">
+        <v>387</v>
+      </c>
+      <c r="F2218" s="108"/>
+      <c r="G2218" s="109"/>
+      <c r="H2218" s="110"/>
+    </row>
+    <row r="2219" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2219" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="B2219" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2219" s="11">
+        <v>42604</v>
+      </c>
+      <c r="D2219" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2219" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2219" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2219" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2220" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2220" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="B2220" s="87" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2220" s="11">
+        <v>42604</v>
+      </c>
+      <c r="D2220" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="E2220" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2220" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2220" s="88" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="2221" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2221" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="B2221" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2221" s="11">
+        <v>42604</v>
+      </c>
+      <c r="D2221" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2221" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2221" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2222" spans="1:8" s="111" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2222" s="132"/>
+      <c r="C2222" s="133"/>
+      <c r="D2222" s="134"/>
+      <c r="F2222" s="134"/>
+      <c r="G2222" s="135"/>
+      <c r="H2222" s="134"/>
+    </row>
+    <row r="2223" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2223" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2223" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2223" s="11">
+        <v>42604</v>
+      </c>
+      <c r="D2223" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2223" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2223" s="13" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="2224" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2224" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2224" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2224" s="11">
+        <v>42604</v>
+      </c>
+      <c r="D2224" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2224" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2224" s="13" t="s">
+        <v>434</v>
+      </c>
+      <c r="G2224" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2225" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2225" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2225" s="11">
+        <v>42604</v>
+      </c>
+      <c r="D2225" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2225" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2225" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="G2225" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2226" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2226" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2226" s="11">
+        <v>42604</v>
+      </c>
+      <c r="D2226" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="E2226" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2226" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2226" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2227" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2227" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2227" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2227" s="11">
+        <v>42604</v>
+      </c>
+      <c r="D2227" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E2227" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2227" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="G2227" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2228" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2228" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2228" s="11">
+        <v>42604</v>
+      </c>
+      <c r="D2228" s="14" t="s">
+        <v>456</v>
+      </c>
+      <c r="E2228" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2228" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="G2228" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2229" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2229" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2229" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2229" s="11">
+        <v>42604</v>
+      </c>
+      <c r="D2229" s="14" t="s">
+        <v>456</v>
+      </c>
+      <c r="E2229" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2229" s="13" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="2230" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2230" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2230" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2230" s="11">
+        <v>42604</v>
+      </c>
+      <c r="D2230" s="14" t="s">
+        <v>456</v>
+      </c>
+      <c r="E2230" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2230" s="13" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="2231" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2231" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2231" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2231" s="11">
+        <v>42604</v>
+      </c>
+      <c r="D2231" s="14" t="s">
+        <v>456</v>
+      </c>
+      <c r="E2231" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2231" s="13" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="2232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2232" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2232" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2232" s="11">
+        <v>42604</v>
+      </c>
+      <c r="D2232" s="14" t="s">
+        <v>456</v>
+      </c>
+      <c r="E2232" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="F2232" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="G2232" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2233" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2233" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2233" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2233" s="11">
+        <v>42604</v>
+      </c>
+      <c r="D2233" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="E2233" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2233" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2233" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2234" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2234" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2234" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2234" s="11">
+        <v>42604</v>
+      </c>
+      <c r="D2234" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="E2234" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2234" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2234" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2235" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2235" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2235" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2235" s="11">
+        <v>42604</v>
+      </c>
+      <c r="D2235" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="E2235" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2235" s="13" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2236" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2236" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2236" s="11">
+        <v>42604</v>
+      </c>
+      <c r="D2236" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="E2236" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2236" s="13" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="2237" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2237" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2237" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2237" s="11">
+        <v>42604</v>
+      </c>
+      <c r="D2237" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="E2237" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2237" s="13" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="2238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2238" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2238" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2238" s="11">
+        <v>42604</v>
+      </c>
+      <c r="D2238" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="E2238" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2238" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="G2238" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2239" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2239" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2239" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2239" s="11">
+        <v>42604</v>
+      </c>
+      <c r="D2239" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="E2239" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2239" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="G2239" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2240" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2240" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2240" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2240" s="11">
+        <v>42604</v>
+      </c>
+      <c r="D2240" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="E2240" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2240" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2240" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2241" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2241" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2241" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2241" s="11">
+        <v>42604</v>
+      </c>
+      <c r="D2241" s="14" t="s">
+        <v>462</v>
+      </c>
+      <c r="E2241" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2241" s="13" t="s">
+        <v>463</v>
+      </c>
+      <c r="G2241" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2242" spans="1:8" s="104" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2242" s="105"/>
+      <c r="C2242" s="106"/>
+      <c r="D2242" s="107" t="s">
+        <v>387</v>
+      </c>
+      <c r="F2242" s="108"/>
+      <c r="G2242" s="109"/>
+      <c r="H2242" s="110"/>
+    </row>
+    <row r="2243" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2243" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2243" s="87" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2243" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2243" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2243" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2243" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="G2243" s="88" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="2244" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2244" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2244" s="87" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2244" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2244" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2244" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2244" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="G2244" s="88" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="2245" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2245" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2245" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2245" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2245" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2245" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2245" s="13" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="2246" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2246" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2246" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2246" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2246" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2246" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2246" s="13" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="2247" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2247" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2247" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2247" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2247" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2247" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2247" s="13" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="2248" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2248" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2248" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2248" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2248" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2248" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2248" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="G2248" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2249" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2249" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2249" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2249" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2249" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2249" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2249" s="13" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="2250" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2250" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2250" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2250" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2250" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2250" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2250" s="13" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2251" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2251" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2251" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2251" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2251" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2251" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2251" s="13" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="2252" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2252" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2252" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2252" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2252" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2252" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2252" s="13" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="2253" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2253" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2253" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2253" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2253" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2253" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2253" s="13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2254" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2254" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2254" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2254" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2254" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2254" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2254" s="13" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="2255" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2255" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2255" s="87" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2255" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2255" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2255" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2255" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="G2255" s="88" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="2256" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2256" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2256" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2256" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2256" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2256" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2256" s="13" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="2257" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2257" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2257" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2257" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2257" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2257" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2257" s="13" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="2258" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2258" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2258" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2258" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2258" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2258" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2258" s="13" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="2259" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2259" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2259" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2259" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2259" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2259" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2259" s="13" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="2260" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2260" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2260" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2260" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2260" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2260" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2260" s="13" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="2261" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2261" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2261" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2261" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2261" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2261" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2261" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2262" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2262" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2262" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2262" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2262" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2262" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2262" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="G2262" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2263" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2263" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2263" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2263" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2263" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2263" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2263" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2263" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2264" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2264" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2264" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2264" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2264" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2264" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2264" s="13" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2265" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2265" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2265" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2265" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2265" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2265" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2265" s="13" t="s">
+        <v>428</v>
+      </c>
+      <c r="G2265" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2266" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2266" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2266" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2266" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2266" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2266" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2266" s="13" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="2267" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2267" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2267" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2267" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2267" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2267" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2267" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2267" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2268" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2268" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2268" s="87" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2268" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2268" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2268" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="F2268" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="G2268" s="88" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="2269" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2269" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2269" s="87" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2269" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2269" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2269" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2269" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="G2269" s="88" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="2270" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2270" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2270" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2270" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2270" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2270" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2270" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2270" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2271" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2271" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2271" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2271" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2271" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2271" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2271" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="G2271" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2272" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2272" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2272" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2272" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2272" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2272" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2272" s="13" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="2273" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2273" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2273" s="87" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2273" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2273" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2273" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2273" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="G2273" s="88" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="2274" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2274" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2274" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2274" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2274" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2274" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2274" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="G2274" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2275" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2275" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2275" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2275" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2275" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2275" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2275" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="G2275" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2276" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2276" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2276" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2276" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2276" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2276" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2276" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="G2276" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2277" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2277" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2277" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2277" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2277" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2277" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2277" s="13" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2278" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2278" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2278" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2278" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2278" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2278" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2278" s="13" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="2279" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2279" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2279" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2279" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2279" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2279" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2279" s="13" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="2280" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2280" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2280" s="87" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2280" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2280" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="E2280" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2280" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2280" s="88" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="2281" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2281" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2281" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2281" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2281" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2281" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2281" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2282" spans="1:8" s="111" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2282" s="132"/>
+      <c r="C2282" s="133"/>
+      <c r="D2282" s="134"/>
+      <c r="F2282" s="134"/>
+      <c r="G2282" s="135"/>
+      <c r="H2282" s="134"/>
+    </row>
+    <row r="2283" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2283" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2283" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2283" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2283" s="14" t="s">
+        <v>456</v>
+      </c>
+      <c r="E2283" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2283" s="13" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="2284" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2284" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2284" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2284" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2284" s="14" t="s">
+        <v>456</v>
+      </c>
+      <c r="E2284" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2284" s="13" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="2285" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2285" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2285" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2285" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2285" s="14" t="s">
+        <v>456</v>
+      </c>
+      <c r="E2285" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2285" s="13" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="2286" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2286" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2286" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2286" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2286" s="14" t="s">
+        <v>456</v>
+      </c>
+      <c r="E2286" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="F2286" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="G2286" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2287" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2287" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2287" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2287" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2287" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2287" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2287" s="13" t="s">
+        <v>434</v>
+      </c>
+      <c r="G2287" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2288" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2288" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2288" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2288" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2288" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2288" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2288" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="G2288" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2289" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2289" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2289" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2289" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2289" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="E2289" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2289" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2289" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2290" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2290" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2290" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2290" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2290" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E2290" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2290" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="G2290" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2291" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2291" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2291" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2291" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2291" s="14" t="s">
+        <v>456</v>
+      </c>
+      <c r="E2291" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2291" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="G2291" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2292" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2292" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2292" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2292" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2292" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="E2292" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2292" s="13" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="2293" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2293" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2293" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2293" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2293" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="E2293" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2293" s="13" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="2294" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2294" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2294" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2294" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2294" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="E2294" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2294" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="G2294" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2295" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2295" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2295" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2295" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2295" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="E2295" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2295" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="G2295" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2296" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2296" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2296" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2296" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2296" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="E2296" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2296" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2296" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2297" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2297" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2297" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2297" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2297" s="14" t="s">
+        <v>462</v>
+      </c>
+      <c r="E2297" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2297" s="13" t="s">
+        <v>463</v>
+      </c>
+      <c r="G2297" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2298" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2298" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2298" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2298" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2298" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2298" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2298" s="13" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="2299" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2299" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2299" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2299" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2299" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="E2299" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2299" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2299" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2300" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2300" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2300" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2300" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2300" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="E2300" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2300" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2300" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2301" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2301" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2301" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2301" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2301" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="E2301" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2301" s="13" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2302" spans="1:8" s="104" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2302" s="105"/>
+      <c r="C2302" s="106"/>
+      <c r="D2302" s="107" t="s">
+        <v>387</v>
+      </c>
+      <c r="F2302" s="108"/>
+      <c r="G2302" s="109"/>
+      <c r="H2302" s="110"/>
+    </row>
+    <row r="2303" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2303" s="10" t="s">
+        <v>465</v>
+      </c>
+      <c r="B2303" s="87" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2303" s="11">
+        <v>42604</v>
+      </c>
+      <c r="D2303" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="E2303" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2303" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2303" s="88" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="2304" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2304" s="10" t="s">
+        <v>465</v>
+      </c>
+      <c r="B2304" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2304" s="11">
+        <v>42604</v>
+      </c>
+      <c r="D2304" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2304" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2304" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2305" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2305" s="10" t="s">
+        <v>465</v>
+      </c>
+      <c r="B2305" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2305" s="11">
+        <v>42604</v>
+      </c>
+      <c r="D2305" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2305" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2305" s="13" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="2306" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2306" s="10" t="s">
+        <v>465</v>
+      </c>
+      <c r="B2306" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2306" s="11">
+        <v>42604</v>
+      </c>
+      <c r="D2306" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2306" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2306" s="13" t="s">
+        <v>434</v>
+      </c>
+      <c r="G2306" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2307" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2307" s="10" t="s">
+        <v>465</v>
+      </c>
+      <c r="B2307" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2307" s="11">
+        <v>42604</v>
+      </c>
+      <c r="D2307" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2307" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2307" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="G2307" s="89" t="s">
         <v>162</v>
       </c>
     </row>

--- a/PW/masterlog.xlsx
+++ b/PW/masterlog.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17030"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhan\Documents\Visual Studio 2015\Projects\ClassOpsLogCreator\CLASSOPS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="270" yWindow="30" windowWidth="14865" windowHeight="10785" tabRatio="440"/>
   </bookViews>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13512" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13002" uniqueCount="461">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1393,40 +1398,25 @@
     <t>Return podium mic, cable and stand to OSG 1014 L</t>
   </si>
   <si>
-    <t>2130</t>
+    <t>8/23/16</t>
   </si>
   <si>
-    <t>120</t>
+    <t>Please check room - lock room - key for room in Fdrs 164 storeroom.</t>
   </si>
   <si>
-    <t>121</t>
+    <t>S538</t>
   </si>
   <si>
-    <t>129</t>
+    <t>Pick up flat screen TV. Return wireless keyboard to bag attached to flat screen. Turn off and return to Ross S120 storeroom.</t>
   </si>
   <si>
-    <t>2200</t>
-  </si>
-  <si>
-    <t>328A</t>
-  </si>
-  <si>
-    <t>2300</t>
-  </si>
-  <si>
-    <t>038</t>
-  </si>
-  <si>
-    <t>JHan</t>
-  </si>
-  <si>
-    <t>Name</t>
+    <t>Get key from S561 office for this room. Be on time.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
@@ -2094,6 +2084,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -2141,7 +2134,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2174,9 +2167,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2209,6 +2219,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2388,7 +2415,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H2307"/>
+  <dimension ref="A1:H2214"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A1972" activePane="bottomLeft" state="frozenSplit"/>
@@ -2409,7 +2436,7 @@
     <col min="9" max="16384" width="22.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -2435,7 +2462,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>85</v>
       </c>
@@ -2458,7 +2485,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>85</v>
       </c>
@@ -2479,7 +2506,7 @@
       </c>
       <c r="G3" s="77"/>
     </row>
-    <row r="4" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>85</v>
       </c>
@@ -2502,7 +2529,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>85</v>
       </c>
@@ -2523,7 +2550,7 @@
       </c>
       <c r="G5" s="77"/>
     </row>
-    <row r="6" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>85</v>
       </c>
@@ -2546,7 +2573,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>85</v>
       </c>
@@ -2609,7 +2636,7 @@
       </c>
       <c r="G9" s="77"/>
     </row>
-    <row r="10" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>85</v>
       </c>
@@ -2630,7 +2657,7 @@
       </c>
       <c r="G10" s="77"/>
     </row>
-    <row r="11" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>85</v>
       </c>
@@ -2651,7 +2678,7 @@
       </c>
       <c r="G11" s="77"/>
     </row>
-    <row r="12" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>85</v>
       </c>
@@ -2674,7 +2701,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>85</v>
       </c>
@@ -2697,7 +2724,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>85</v>
       </c>
@@ -2720,7 +2747,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>95</v>
       </c>
@@ -2743,7 +2770,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>95</v>
       </c>
@@ -2766,7 +2793,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>95</v>
       </c>
@@ -2808,7 +2835,7 @@
       </c>
       <c r="G18" s="77"/>
     </row>
-    <row r="19" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>95</v>
       </c>
@@ -2831,7 +2858,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="43.15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>95</v>
       </c>
@@ -2854,7 +2881,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>95</v>
       </c>
@@ -2877,7 +2904,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>95</v>
       </c>
@@ -2898,7 +2925,7 @@
       </c>
       <c r="G22" s="77"/>
     </row>
-    <row r="23" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>95</v>
       </c>
@@ -2919,7 +2946,7 @@
       </c>
       <c r="G23" s="77"/>
     </row>
-    <row r="24" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>95</v>
       </c>
@@ -2984,7 +3011,7 @@
       </c>
       <c r="G26" s="77"/>
     </row>
-    <row r="27" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>95</v>
       </c>
@@ -3007,7 +3034,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>95</v>
       </c>
@@ -3030,7 +3057,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>95</v>
       </c>
@@ -3053,7 +3080,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>95</v>
       </c>
@@ -3139,7 +3166,7 @@
       </c>
       <c r="G33" s="77"/>
     </row>
-    <row r="34" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>90</v>
       </c>
@@ -3160,7 +3187,7 @@
       </c>
       <c r="G34" s="77"/>
     </row>
-    <row r="35" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>90</v>
       </c>
@@ -3183,7 +3210,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>90</v>
       </c>
@@ -3206,7 +3233,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>90</v>
       </c>
@@ -3229,7 +3256,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>90</v>
       </c>
@@ -3252,7 +3279,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>90</v>
       </c>
@@ -3273,7 +3300,7 @@
       </c>
       <c r="G39" s="29"/>
     </row>
-    <row r="40" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
         <v>90</v>
       </c>
@@ -3296,7 +3323,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
         <v>90</v>
       </c>
@@ -3317,7 +3344,7 @@
       </c>
       <c r="G41" s="29"/>
     </row>
-    <row r="42" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
         <v>90</v>
       </c>
@@ -3340,7 +3367,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
         <v>90</v>
       </c>
@@ -3426,7 +3453,7 @@
       </c>
       <c r="G46" s="77"/>
     </row>
-    <row r="47" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
         <v>90</v>
       </c>
@@ -3449,7 +3476,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
         <v>90</v>
       </c>
@@ -3472,7 +3499,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
         <v>90</v>
       </c>
@@ -38841,7 +38868,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="1703" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1703" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A1703" s="10" t="s">
         <v>83</v>
       </c>
@@ -38984,7 +39011,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="1710" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1710" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1710" s="10" t="s">
         <v>83</v>
       </c>
@@ -39047,7 +39074,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="1713" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1713" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1713" s="10" t="s">
         <v>154</v>
       </c>
@@ -39070,7 +39097,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1714" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1714" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1714" s="10" t="s">
         <v>154</v>
       </c>
@@ -39093,7 +39120,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1715" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1715" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1715" s="10" t="s">
         <v>86</v>
       </c>
@@ -39113,7 +39140,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="1716" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1716" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A1716" s="10" t="s">
         <v>86</v>
       </c>
@@ -39136,7 +39163,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="1717" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1717" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1717" s="10" t="s">
         <v>86</v>
       </c>
@@ -39156,7 +39183,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1718" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1718" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1718" s="10" t="s">
         <v>86</v>
       </c>
@@ -39176,7 +39203,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1719" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1719" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1719" s="10" t="s">
         <v>86</v>
       </c>
@@ -39199,7 +39226,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1720" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1720" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1720" s="10" t="s">
         <v>86</v>
       </c>
@@ -39222,7 +39249,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1721" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1721" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1721" s="10" t="s">
         <v>88</v>
       </c>
@@ -39242,7 +39269,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="1722" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1722" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1722" s="10" t="s">
         <v>88</v>
       </c>
@@ -39262,7 +39289,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="1723" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1723" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1723" s="10" t="s">
         <v>88</v>
       </c>
@@ -39302,7 +39329,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="1725" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1725" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1725" s="10" t="s">
         <v>88</v>
       </c>
@@ -39325,7 +39352,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1726" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1726" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1726" s="10" t="s">
         <v>88</v>
       </c>
@@ -39348,7 +39375,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1727" spans="1:8" s="111" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1727" spans="1:8" s="111" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1727" s="127" t="s">
         <v>88</v>
       </c>
@@ -39372,7 +39399,7 @@
       </c>
       <c r="H1727" s="131"/>
     </row>
-    <row r="1728" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1728" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1728" s="10" t="s">
         <v>88</v>
       </c>
@@ -39395,7 +39422,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1729" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1729" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1729" s="10" t="s">
         <v>88</v>
       </c>
@@ -39418,7 +39445,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1730" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1730" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1730" s="10" t="s">
         <v>88</v>
       </c>
@@ -39441,7 +39468,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1731" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1731" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1731" s="10" t="s">
         <v>8</v>
       </c>
@@ -39461,7 +39488,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="1732" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1732" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1732" s="10" t="s">
         <v>8</v>
       </c>
@@ -42818,7 +42845,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1893" spans="1:8" s="104" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1893" spans="1:8" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1893" s="105"/>
       <c r="C1893" s="106"/>
       <c r="D1893" s="107" t="s">
@@ -42828,7 +42855,7 @@
       <c r="G1893" s="109"/>
       <c r="H1893" s="110"/>
     </row>
-    <row r="1894" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1894" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1894" s="10" t="s">
         <v>90</v>
       </c>
@@ -42848,7 +42875,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="1895" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1895" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1895" s="10" t="s">
         <v>90</v>
       </c>
@@ -42868,7 +42895,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="1896" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1896" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1896" s="10" t="s">
         <v>90</v>
       </c>
@@ -42888,7 +42915,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="1897" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1897" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1897" s="10" t="s">
         <v>90</v>
       </c>
@@ -42911,7 +42938,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1898" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1898" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1898" s="10" t="s">
         <v>90</v>
       </c>
@@ -42931,7 +42958,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="1899" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1899" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1899" s="10" t="s">
         <v>90</v>
       </c>
@@ -42951,7 +42978,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="1900" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1900" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1900" s="10" t="s">
         <v>90</v>
       </c>
@@ -42971,7 +42998,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="1901" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1901" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1901" s="10" t="s">
         <v>90</v>
       </c>
@@ -42991,7 +43018,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="1902" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1902" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1902" s="10" t="s">
         <v>90</v>
       </c>
@@ -43011,7 +43038,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="1903" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1903" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1903" s="10" t="s">
         <v>90</v>
       </c>
@@ -43031,7 +43058,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="1904" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="1904" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A1904" s="10" t="s">
         <v>90</v>
       </c>
@@ -43054,7 +43081,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="1905" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1905" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1905" s="10" t="s">
         <v>90</v>
       </c>
@@ -43074,7 +43101,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="1906" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1906" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1906" s="10" t="s">
         <v>90</v>
       </c>
@@ -43094,7 +43121,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="1907" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1907" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1907" s="10" t="s">
         <v>90</v>
       </c>
@@ -43114,7 +43141,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="1908" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1908" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1908" s="10" t="s">
         <v>90</v>
       </c>
@@ -43134,7 +43161,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="1909" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1909" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1909" s="10" t="s">
         <v>90</v>
       </c>
@@ -43154,7 +43181,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="1910" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1910" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1910" s="10" t="s">
         <v>90</v>
       </c>
@@ -43174,7 +43201,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="1911" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1911" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1911" s="10" t="s">
         <v>90</v>
       </c>
@@ -43197,7 +43224,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1912" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1912" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1912" s="10" t="s">
         <v>90</v>
       </c>
@@ -43220,7 +43247,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="1913" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1913" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1913" s="10" t="s">
         <v>90</v>
       </c>
@@ -43243,7 +43270,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="1914" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1914" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1914" s="10" t="s">
         <v>90</v>
       </c>
@@ -43681,7 +43708,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="1935" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1935" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1935" s="10" t="s">
         <v>85</v>
       </c>
@@ -43704,7 +43731,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1936" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1936" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1936" s="10" t="s">
         <v>85</v>
       </c>
@@ -43727,7 +43754,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1937" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1937" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1937" s="10" t="s">
         <v>85</v>
       </c>
@@ -43750,7 +43777,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1938" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1938" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1938" s="10" t="s">
         <v>85</v>
       </c>
@@ -43773,7 +43800,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1939" spans="1:8" s="104" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1939" spans="1:8" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1939" s="105"/>
       <c r="C1939" s="106"/>
       <c r="D1939" s="107" t="s">
@@ -43783,7 +43810,7 @@
       <c r="G1939" s="109"/>
       <c r="H1939" s="110"/>
     </row>
-    <row r="1940" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1940" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1940" s="10" t="s">
         <v>154</v>
       </c>
@@ -43803,7 +43830,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="1941" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1941" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1941" s="10" t="s">
         <v>154</v>
       </c>
@@ -43823,7 +43850,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="1942" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1942" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1942" s="10" t="s">
         <v>154</v>
       </c>
@@ -43843,7 +43870,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="1943" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1943" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1943" s="10" t="s">
         <v>154</v>
       </c>
@@ -43863,7 +43890,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="1944" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1944" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1944" s="10" t="s">
         <v>154</v>
       </c>
@@ -43886,7 +43913,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1945" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1945" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1945" s="10" t="s">
         <v>154</v>
       </c>
@@ -43906,7 +43933,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="1946" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1946" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1946" s="10" t="s">
         <v>154</v>
       </c>
@@ -43926,7 +43953,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="1947" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1947" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1947" s="10" t="s">
         <v>154</v>
       </c>
@@ -43946,7 +43973,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="1948" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1948" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1948" s="10" t="s">
         <v>154</v>
       </c>
@@ -43966,7 +43993,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="1949" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1949" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1949" s="10" t="s">
         <v>154</v>
       </c>
@@ -43986,7 +44013,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="1950" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1950" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1950" s="10" t="s">
         <v>154</v>
       </c>
@@ -44006,7 +44033,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="1951" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1951" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1951" s="10" t="s">
         <v>154</v>
       </c>
@@ -44026,7 +44053,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="1952" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1952" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1952" s="10" t="s">
         <v>154</v>
       </c>
@@ -44046,7 +44073,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="1953" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1953" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1953" s="10" t="s">
         <v>154</v>
       </c>
@@ -44066,7 +44093,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="1954" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1954" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1954" s="10" t="s">
         <v>154</v>
       </c>
@@ -44086,7 +44113,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="1955" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1955" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1955" s="10" t="s">
         <v>154</v>
       </c>
@@ -44192,7 +44219,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="1960" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1960" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1960" s="10" t="s">
         <v>91</v>
       </c>
@@ -44212,7 +44239,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="1961" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1961" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1961" s="10" t="s">
         <v>91</v>
       </c>
@@ -44232,7 +44259,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="1962" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1962" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1962" s="10" t="s">
         <v>91</v>
       </c>
@@ -44255,7 +44282,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1963" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1963" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1963" s="10" t="s">
         <v>91</v>
       </c>
@@ -44275,7 +44302,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="1964" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1964" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1964" s="10" t="s">
         <v>91</v>
       </c>
@@ -44298,7 +44325,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1965" spans="1:7" ht="43.15" x14ac:dyDescent="0.3">
+    <row r="1965" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A1965" s="10" t="s">
         <v>91</v>
       </c>
@@ -44321,7 +44348,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="1966" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1966" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1966" s="10" t="s">
         <v>91</v>
       </c>
@@ -44344,7 +44371,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1967" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1967" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1967" s="10" t="s">
         <v>91</v>
       </c>
@@ -44367,7 +44394,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1968" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1968" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1968" s="10" t="s">
         <v>91</v>
       </c>
@@ -44387,7 +44414,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="1969" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1969" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1969" s="10" t="s">
         <v>91</v>
       </c>
@@ -44410,7 +44437,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1970" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1970" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1970" s="10" t="s">
         <v>91</v>
       </c>
@@ -44433,7 +44460,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1971" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1971" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1971" s="10" t="s">
         <v>91</v>
       </c>
@@ -44456,7 +44483,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1972" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1972" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1972" s="10" t="s">
         <v>91</v>
       </c>
@@ -44476,7 +44503,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="1973" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1973" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1973" s="10" t="s">
         <v>91</v>
       </c>
@@ -44496,7 +44523,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="1974" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1974" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1974" s="10" t="s">
         <v>91</v>
       </c>
@@ -44516,7 +44543,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="1975" spans="1:8" s="111" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1975" spans="1:8" s="111" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1975" s="132"/>
       <c r="C1975" s="133"/>
       <c r="D1975" s="134"/>
@@ -44524,7 +44551,7 @@
       <c r="G1975" s="135"/>
       <c r="H1975" s="134"/>
     </row>
-    <row r="1976" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1976" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1976" s="10" t="s">
         <v>85</v>
       </c>
@@ -44544,7 +44571,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="1977" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1977" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1977" s="10" t="s">
         <v>85</v>
       </c>
@@ -44564,7 +44591,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="1978" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1978" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1978" s="10" t="s">
         <v>85</v>
       </c>
@@ -44587,7 +44614,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1979" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1979" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1979" s="10" t="s">
         <v>85</v>
       </c>
@@ -44610,7 +44637,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1980" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1980" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1980" s="10" t="s">
         <v>85</v>
       </c>
@@ -44633,7 +44660,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1981" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1981" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1981" s="10" t="s">
         <v>85</v>
       </c>
@@ -44656,7 +44683,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1982" spans="1:8" s="104" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1982" spans="1:8" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1982" s="105"/>
       <c r="C1982" s="106"/>
       <c r="D1982" s="107" t="s">
@@ -44666,7 +44693,7 @@
       <c r="G1982" s="109"/>
       <c r="H1982" s="110"/>
     </row>
-    <row r="1983" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1983" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1983" s="10" t="s">
         <v>95</v>
       </c>
@@ -44686,7 +44713,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="1984" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1984" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1984" s="10" t="s">
         <v>95</v>
       </c>
@@ -44706,7 +44733,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="1985" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1985" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1985" s="10" t="s">
         <v>95</v>
       </c>
@@ -44726,7 +44753,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="1986" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1986" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1986" s="10" t="s">
         <v>95</v>
       </c>
@@ -44746,7 +44773,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="1987" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1987" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1987" s="10" t="s">
         <v>95</v>
       </c>
@@ -44769,7 +44796,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="1988" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1988" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1988" s="10" t="s">
         <v>95</v>
       </c>
@@ -44789,7 +44816,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="1989" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1989" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1989" s="10" t="s">
         <v>95</v>
       </c>
@@ -44809,7 +44836,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="1990" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1990" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1990" s="10" t="s">
         <v>95</v>
       </c>
@@ -44829,7 +44856,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="1991" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1991" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1991" s="10" t="s">
         <v>95</v>
       </c>
@@ -44849,7 +44876,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="1992" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1992" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1992" s="10" t="s">
         <v>95</v>
       </c>
@@ -44869,7 +44896,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="1993" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1993" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1993" s="10" t="s">
         <v>95</v>
       </c>
@@ -44889,7 +44916,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="1994" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1994" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1994" s="10" t="s">
         <v>95</v>
       </c>
@@ -44912,7 +44939,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="1995" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1995" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1995" s="10" t="s">
         <v>95</v>
       </c>
@@ -44932,7 +44959,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="1996" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1996" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1996" s="10" t="s">
         <v>95</v>
       </c>
@@ -44952,7 +44979,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="1997" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1997" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1997" s="10" t="s">
         <v>95</v>
       </c>
@@ -44972,7 +44999,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="1998" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1998" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1998" s="10" t="s">
         <v>95</v>
       </c>
@@ -44992,7 +45019,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="1999" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1999" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1999" s="10" t="s">
         <v>95</v>
       </c>
@@ -45012,7 +45039,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="2000" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2000" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2000" s="10" t="s">
         <v>95</v>
       </c>
@@ -45032,7 +45059,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2001" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2001" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2001" s="10" t="s">
         <v>95</v>
       </c>
@@ -45055,7 +45082,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2002" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2002" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2002" s="10" t="s">
         <v>95</v>
       </c>
@@ -45078,7 +45105,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="2003" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2003" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2003" s="10" t="s">
         <v>95</v>
       </c>
@@ -45101,7 +45128,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="2004" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2004" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2004" s="10" t="s">
         <v>95</v>
       </c>
@@ -45124,7 +45151,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2005" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2005" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2005" s="10" t="s">
         <v>8</v>
       </c>
@@ -45144,7 +45171,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2006" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2006" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2006" s="10" t="s">
         <v>8</v>
       </c>
@@ -45164,7 +45191,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="2007" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2007" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2007" s="10" t="s">
         <v>8</v>
       </c>
@@ -45184,7 +45211,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="2008" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2008" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2008" s="10" t="s">
         <v>8</v>
       </c>
@@ -45207,7 +45234,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2009" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2009" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2009" s="10" t="s">
         <v>8</v>
       </c>
@@ -45227,7 +45254,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="2010" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2010" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2010" s="10" t="s">
         <v>8</v>
       </c>
@@ -45250,7 +45277,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2011" spans="1:7" ht="43.15" x14ac:dyDescent="0.3">
+    <row r="2011" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A2011" s="10" t="s">
         <v>8</v>
       </c>
@@ -45273,7 +45300,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="2012" spans="1:7" ht="43.15" x14ac:dyDescent="0.3">
+    <row r="2012" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A2012" s="10" t="s">
         <v>8</v>
       </c>
@@ -45296,7 +45323,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="2013" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2013" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2013" s="10" t="s">
         <v>8</v>
       </c>
@@ -45319,7 +45346,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2014" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2014" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2014" s="10" t="s">
         <v>8</v>
       </c>
@@ -45342,7 +45369,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2015" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2015" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2015" s="10" t="s">
         <v>8</v>
       </c>
@@ -45362,7 +45389,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="2016" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2016" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2016" s="10" t="s">
         <v>8</v>
       </c>
@@ -45385,7 +45412,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2017" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2017" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2017" s="10" t="s">
         <v>8</v>
       </c>
@@ -45408,7 +45435,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2018" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2018" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2018" s="10" t="s">
         <v>8</v>
       </c>
@@ -45431,7 +45458,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2019" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2019" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2019" s="10" t="s">
         <v>8</v>
       </c>
@@ -47654,7 +47681,7 @@
       <c r="B2126" s="105"/>
       <c r="C2126" s="106"/>
       <c r="D2126" s="107" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="F2126" s="108"/>
       <c r="G2126" s="109"/>
@@ -47662,36 +47689,33 @@
     </row>
     <row r="2127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2127" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2127" s="87" t="s">
-        <v>19</v>
+        <v>91</v>
+      </c>
+      <c r="B2127" s="47" t="s">
+        <v>27</v>
       </c>
       <c r="C2127" s="11" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="D2127" s="14" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="E2127" s="9" t="s">
         <v>105</v>
       </c>
       <c r="F2127" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="G2127" s="88" t="s">
-        <v>366</v>
+        <v>436</v>
       </c>
     </row>
     <row r="2128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2128" s="10" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="B2128" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C2128" s="11" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="D2128" s="14" t="s">
         <v>43</v>
@@ -47705,13 +47729,13 @@
     </row>
     <row r="2129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2129" s="10" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="B2129" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C2129" s="11" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="D2129" s="14" t="s">
         <v>43</v>
@@ -47725,13 +47749,13 @@
     </row>
     <row r="2130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2130" s="10" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="B2130" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C2130" s="11" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="D2130" s="14" t="s">
         <v>43</v>
@@ -47745,13 +47769,13 @@
     </row>
     <row r="2131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2131" s="10" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="B2131" s="65" t="s">
         <v>27</v>
       </c>
       <c r="C2131" s="11" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="D2131" s="14" t="s">
         <v>43</v>
@@ -47768,13 +47792,13 @@
     </row>
     <row r="2132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2132" s="10" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="B2132" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C2132" s="11" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="D2132" s="14" t="s">
         <v>43</v>
@@ -47788,13 +47812,13 @@
     </row>
     <row r="2133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2133" s="10" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="B2133" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C2133" s="11" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="D2133" s="14" t="s">
         <v>43</v>
@@ -47808,13 +47832,13 @@
     </row>
     <row r="2134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2134" s="10" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="B2134" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C2134" s="11" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="D2134" s="14" t="s">
         <v>43</v>
@@ -47828,13 +47852,13 @@
     </row>
     <row r="2135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2135" s="10" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="B2135" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C2135" s="11" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="D2135" s="14" t="s">
         <v>43</v>
@@ -47848,13 +47872,13 @@
     </row>
     <row r="2136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2136" s="10" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="B2136" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C2136" s="11" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="D2136" s="14" t="s">
         <v>43</v>
@@ -47868,13 +47892,13 @@
     </row>
     <row r="2137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2137" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2137" s="87" t="s">
-        <v>19</v>
+        <v>91</v>
+      </c>
+      <c r="B2137" s="47" t="s">
+        <v>27</v>
       </c>
       <c r="C2137" s="11" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="D2137" s="14" t="s">
         <v>43</v>
@@ -47885,39 +47909,39 @@
       <c r="F2137" s="13" t="s">
         <v>407</v>
       </c>
-      <c r="G2137" s="88" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="2138" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2138" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2138" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2138" s="47" t="s">
-        <v>27</v>
+        <v>91</v>
+      </c>
+      <c r="B2138" s="87" t="s">
+        <v>19</v>
       </c>
       <c r="C2138" s="11" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="D2138" s="14" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E2138" s="9" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F2138" s="13" t="s">
-        <v>408</v>
+        <v>419</v>
+      </c>
+      <c r="G2138" s="88" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="2139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2139" s="10" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="B2139" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C2139" s="11" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="D2139" s="14" t="s">
         <v>46</v>
@@ -47926,18 +47950,18 @@
         <v>105</v>
       </c>
       <c r="F2139" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="2140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2140" s="10" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="B2140" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C2140" s="11" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="D2140" s="14" t="s">
         <v>46</v>
@@ -47946,18 +47970,18 @@
         <v>105</v>
       </c>
       <c r="F2140" s="13" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="2141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2141" s="10" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="B2141" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C2141" s="11" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="D2141" s="14" t="s">
         <v>46</v>
@@ -47966,18 +47990,18 @@
         <v>105</v>
       </c>
       <c r="F2141" s="13" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="2142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2142" s="10" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="B2142" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C2142" s="11" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="D2142" s="14" t="s">
         <v>46</v>
@@ -47986,314 +48010,308 @@
         <v>105</v>
       </c>
       <c r="F2142" s="13" t="s">
-        <v>368</v>
+        <v>411</v>
       </c>
     </row>
     <row r="2143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2143" s="10" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="B2143" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C2143" s="11" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="D2143" s="14" t="s">
         <v>46</v>
       </c>
       <c r="E2143" s="9" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="F2143" s="13" t="s">
-        <v>38</v>
+        <v>368</v>
       </c>
     </row>
     <row r="2144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2144" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2144" s="65" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2144" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C2144" s="11" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="D2144" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E2144" s="9" t="s">
-        <v>26</v>
+        <v>137</v>
       </c>
       <c r="F2144" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2144" s="89" t="s">
-        <v>162</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2145" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2145" s="87" t="s">
-        <v>19</v>
+        <v>91</v>
+      </c>
+      <c r="B2145" s="65" t="s">
+        <v>27</v>
       </c>
       <c r="C2145" s="11" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="D2145" s="14" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="E2145" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F2145" s="13" t="s">
-        <v>449</v>
-      </c>
-      <c r="G2145" s="88" t="s">
-        <v>450</v>
+        <v>184</v>
+      </c>
+      <c r="G2145" s="89" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="2146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2146" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2146" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2146" s="65" t="s">
         <v>27</v>
       </c>
       <c r="C2146" s="11" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="D2146" s="14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E2146" s="9" t="s">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="F2146" s="13" t="s">
-        <v>407</v>
+        <v>37</v>
+      </c>
+      <c r="G2146" s="89" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="2147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2147" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2147" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2147" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C2147" s="11" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="D2147" s="14" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E2147" s="9" t="s">
-        <v>22</v>
+        <v>129</v>
       </c>
       <c r="F2147" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2147" s="89" t="s">
-        <v>162</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2148" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2148" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2148" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C2148" s="11" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="D2148" s="14" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E2148" s="9" t="s">
-        <v>22</v>
+        <v>129</v>
       </c>
       <c r="F2148" s="13" t="s">
-        <v>297</v>
-      </c>
-      <c r="G2148" s="89" t="s">
-        <v>162</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2149" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B2149" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C2149" s="11" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="D2149" s="14" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E2149" s="9" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="F2149" s="13" t="s">
-        <v>254</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2150" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2150" s="87" t="s">
-        <v>150</v>
+        <v>79</v>
+      </c>
+      <c r="B2150" s="65" t="s">
+        <v>27</v>
       </c>
       <c r="C2150" s="11" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="D2150" s="14" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E2150" s="9" t="s">
-        <v>129</v>
+        <v>25</v>
       </c>
       <c r="F2150" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="G2150" s="88" t="s">
-        <v>454</v>
+        <v>428</v>
+      </c>
+      <c r="G2150" s="89" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="2151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2151" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2151" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2151" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C2151" s="11" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="D2151" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E2151" s="9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F2151" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="G2151" s="89" t="s">
-        <v>162</v>
+        <v>334</v>
       </c>
     </row>
     <row r="2152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2152" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B2152" s="65" t="s">
         <v>27</v>
       </c>
       <c r="C2152" s="11" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="D2152" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E2152" s="9" t="s">
-        <v>129</v>
+        <v>25</v>
       </c>
       <c r="F2152" s="13" t="s">
-        <v>195</v>
+        <v>64</v>
       </c>
       <c r="G2152" s="89" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="2153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2153" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2153" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2153" s="65" t="s">
-        <v>27</v>
+        <v>79</v>
+      </c>
+      <c r="B2153" s="87" t="s">
+        <v>146</v>
       </c>
       <c r="C2153" s="11" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="D2153" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E2153" s="9" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="F2153" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="G2153" s="89" t="s">
-        <v>162</v>
+        <v>458</v>
+      </c>
+      <c r="G2153" s="88" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="2154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2154" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2154" s="65" t="s">
-        <v>27</v>
+        <v>79</v>
+      </c>
+      <c r="B2154" s="87" t="s">
+        <v>19</v>
       </c>
       <c r="C2154" s="11" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="D2154" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E2154" s="9" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="F2154" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="G2154" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2155" spans="1:7" x14ac:dyDescent="0.25">
+        <v>458</v>
+      </c>
+      <c r="G2154" s="88" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="2155" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A2155" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2155" s="47" t="s">
-        <v>27</v>
+        <v>79</v>
+      </c>
+      <c r="B2155" s="87" t="s">
+        <v>77</v>
       </c>
       <c r="C2155" s="11" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="D2155" s="14" t="s">
         <v>43</v>
       </c>
       <c r="E2155" s="9" t="s">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="F2155" s="13" t="s">
-        <v>172</v>
+        <v>330</v>
+      </c>
+      <c r="G2155" s="88" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="2156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2156" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B2156" s="65" t="s">
         <v>27</v>
       </c>
       <c r="C2156" s="11" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="D2156" s="14" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E2156" s="9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F2156" s="13" t="s">
-        <v>428</v>
+        <v>37</v>
       </c>
       <c r="G2156" s="89" t="s">
         <v>162</v>
@@ -48301,142 +48319,145 @@
     </row>
     <row r="2157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2157" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2157" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2157" s="65" t="s">
         <v>27</v>
       </c>
       <c r="C2157" s="11" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="D2157" s="14" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E2157" s="9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F2157" s="13" t="s">
-        <v>334</v>
+        <v>297</v>
+      </c>
+      <c r="G2157" s="89" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="2158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2158" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2158" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2158" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C2158" s="11" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="D2158" s="14" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E2158" s="9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F2158" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2158" s="89" t="s">
-        <v>162</v>
+        <v>254</v>
       </c>
     </row>
     <row r="2159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2159" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2159" s="87" t="s">
-        <v>150</v>
+        <v>79</v>
+      </c>
+      <c r="B2159" s="65" t="s">
+        <v>27</v>
       </c>
       <c r="C2159" s="11" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="D2159" s="14" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E2159" s="9" t="s">
-        <v>130</v>
+        <v>22</v>
       </c>
       <c r="F2159" s="13" t="s">
-        <v>452</v>
-      </c>
-      <c r="G2159" s="88" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="2160" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+      <c r="G2159" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2160" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2160" s="87" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="B2160" s="65" t="s">
+        <v>27</v>
       </c>
       <c r="C2160" s="11" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="D2160" s="14" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E2160" s="9" t="s">
-        <v>21</v>
+        <v>129</v>
       </c>
       <c r="F2160" s="13" t="s">
-        <v>330</v>
-      </c>
-      <c r="G2160" s="88" t="s">
-        <v>361</v>
+        <v>195</v>
+      </c>
+      <c r="G2160" s="89" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="2161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2161" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2161" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2161" s="65" t="s">
         <v>27</v>
       </c>
       <c r="C2161" s="11" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="D2161" s="14" t="s">
         <v>46</v>
       </c>
       <c r="E2161" s="9" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="F2161" s="13" t="s">
-        <v>273</v>
+        <v>196</v>
+      </c>
+      <c r="G2161" s="89" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="2162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2162" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B2162" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C2162" s="11" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="D2162" s="14" t="s">
         <v>46</v>
       </c>
       <c r="E2162" s="9" t="s">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="F2162" s="13" t="s">
-        <v>432</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2163" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B2163" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C2163" s="11" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="D2163" s="14" t="s">
         <v>46</v>
@@ -48445,49 +48466,46 @@
         <v>25</v>
       </c>
       <c r="F2163" s="13" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="2164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2164" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2164" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2164" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="D2164" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2164" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2164" s="13" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="2164" spans="1:8" s="111" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2164" s="132"/>
-      <c r="C2164" s="133"/>
-      <c r="D2164" s="134"/>
-      <c r="F2164" s="134"/>
-      <c r="G2164" s="135"/>
-      <c r="H2164" s="134"/>
-    </row>
-    <row r="2165" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2165" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2165" s="87" t="s">
-        <v>150</v>
-      </c>
-      <c r="C2165" s="11">
-        <v>42604</v>
-      </c>
-      <c r="D2165" s="14" t="s">
-        <v>249</v>
-      </c>
-      <c r="E2165" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F2165" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="G2165" s="88" t="s">
-        <v>455</v>
-      </c>
+    <row r="2165" spans="1:8" s="111" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2165" s="132"/>
+      <c r="C2165" s="133"/>
+      <c r="D2165" s="134"/>
+      <c r="F2165" s="134"/>
+      <c r="G2165" s="135"/>
+      <c r="H2165" s="134"/>
     </row>
     <row r="2166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2166" s="10" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B2166" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C2166" s="11">
-        <v>42604</v>
+        <v>42605</v>
       </c>
       <c r="D2166" s="14" t="s">
         <v>30</v>
@@ -48501,13 +48519,13 @@
     </row>
     <row r="2167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2167" s="10" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B2167" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C2167" s="11">
-        <v>42604</v>
+        <v>42605</v>
       </c>
       <c r="D2167" s="14" t="s">
         <v>32</v>
@@ -48521,13 +48539,13 @@
     </row>
     <row r="2168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2168" s="10" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B2168" s="65" t="s">
         <v>27</v>
       </c>
       <c r="C2168" s="11">
-        <v>42604</v>
+        <v>42605</v>
       </c>
       <c r="D2168" s="14" t="s">
         <v>32</v>
@@ -48544,13 +48562,13 @@
     </row>
     <row r="2169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2169" s="10" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B2169" s="65" t="s">
         <v>27</v>
       </c>
       <c r="C2169" s="11">
-        <v>42604</v>
+        <v>42605</v>
       </c>
       <c r="D2169" s="14" t="s">
         <v>32</v>
@@ -48567,13 +48585,13 @@
     </row>
     <row r="2170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2170" s="10" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B2170" s="65" t="s">
         <v>27</v>
       </c>
       <c r="C2170" s="11">
-        <v>42604</v>
+        <v>42605</v>
       </c>
       <c r="D2170" s="14" t="s">
         <v>216</v>
@@ -48590,13 +48608,13 @@
     </row>
     <row r="2171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2171" s="10" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B2171" s="65" t="s">
         <v>27</v>
       </c>
       <c r="C2171" s="11">
-        <v>42604</v>
+        <v>42605</v>
       </c>
       <c r="D2171" s="14" t="s">
         <v>220</v>
@@ -48615,38 +48633,41 @@
       <c r="B2172" s="105"/>
       <c r="C2172" s="106"/>
       <c r="D2172" s="107" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="F2172" s="108"/>
       <c r="G2172" s="109"/>
       <c r="H2172" s="110"/>
     </row>
     <row r="2173" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2173" s="87" t="s">
-        <v>19</v>
+      <c r="A2173" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2173" s="47" t="s">
+        <v>27</v>
       </c>
       <c r="C2173" s="11" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="D2173" s="14" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E2173" s="9" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="F2173" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="G2173" s="88" t="s">
-        <v>366</v>
+        <v>411</v>
       </c>
     </row>
     <row r="2174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2174" s="10" t="s">
+        <v>80</v>
+      </c>
       <c r="B2174" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C2174" s="11" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="D2174" s="14" t="s">
         <v>43</v>
@@ -48655,15 +48676,18 @@
         <v>114</v>
       </c>
       <c r="F2174" s="13" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
     </row>
     <row r="2175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2175" s="10" t="s">
+        <v>80</v>
+      </c>
       <c r="B2175" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C2175" s="11" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="D2175" s="14" t="s">
         <v>43</v>
@@ -48672,32 +48696,41 @@
         <v>114</v>
       </c>
       <c r="F2175" s="13" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
     </row>
     <row r="2176" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2176" s="47" t="s">
+      <c r="A2176" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2176" s="65" t="s">
         <v>27</v>
       </c>
       <c r="C2176" s="11" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="D2176" s="14" t="s">
         <v>43</v>
       </c>
       <c r="E2176" s="9" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F2176" s="13" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="2177" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2177" s="65" t="s">
+        <v>403</v>
+      </c>
+      <c r="G2176" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2177" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2177" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C2177" s="11" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="D2177" s="14" t="s">
         <v>43</v>
@@ -48706,35 +48739,38 @@
         <v>110</v>
       </c>
       <c r="F2177" s="13" t="s">
-        <v>403</v>
-      </c>
-      <c r="G2177" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2178" spans="2:7" x14ac:dyDescent="0.25">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="2178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2178" s="10" t="s">
+        <v>80</v>
+      </c>
       <c r="B2178" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C2178" s="11" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="D2178" s="14" t="s">
         <v>43</v>
       </c>
       <c r="E2178" s="9" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F2178" s="13" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="2179" spans="2:7" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2179" s="10" t="s">
+        <v>80</v>
+      </c>
       <c r="B2179" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C2179" s="11" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="D2179" s="14" t="s">
         <v>43</v>
@@ -48743,15 +48779,18 @@
         <v>105</v>
       </c>
       <c r="F2179" s="13" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="2180" spans="2:7" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="2180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2180" s="10" t="s">
+        <v>80</v>
+      </c>
       <c r="B2180" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C2180" s="11" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="D2180" s="14" t="s">
         <v>43</v>
@@ -48760,69 +48799,81 @@
         <v>105</v>
       </c>
       <c r="F2180" s="13" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="2181" spans="2:7" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="2181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2181" s="10" t="s">
+        <v>80</v>
+      </c>
       <c r="B2181" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C2181" s="11" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="D2181" s="14" t="s">
         <v>43</v>
       </c>
       <c r="E2181" s="9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="F2181" s="13" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="2182" spans="2:7" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2182" s="10" t="s">
+        <v>80</v>
+      </c>
       <c r="B2182" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C2182" s="11" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="D2182" s="14" t="s">
         <v>43</v>
       </c>
       <c r="E2182" s="9" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="F2182" s="13" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="2183" spans="2:7" x14ac:dyDescent="0.25">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="2183" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2183" s="10" t="s">
+        <v>80</v>
+      </c>
       <c r="B2183" s="87" t="s">
         <v>19</v>
       </c>
       <c r="C2183" s="11" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="D2183" s="14" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E2183" s="9" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F2183" s="13" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="G2183" s="88" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="2184" spans="2:7" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="2184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2184" s="10" t="s">
+        <v>80</v>
+      </c>
       <c r="B2184" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C2184" s="11" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="D2184" s="14" t="s">
         <v>46</v>
@@ -48834,12 +48885,15 @@
         <v>408</v>
       </c>
     </row>
-    <row r="2185" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2185" s="10" t="s">
+        <v>80</v>
+      </c>
       <c r="B2185" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C2185" s="11" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="D2185" s="14" t="s">
         <v>46</v>
@@ -48851,12 +48905,15 @@
         <v>409</v>
       </c>
     </row>
-    <row r="2186" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2186" s="10" t="s">
+        <v>80</v>
+      </c>
       <c r="B2186" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C2186" s="11" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="D2186" s="14" t="s">
         <v>46</v>
@@ -48868,12 +48925,15 @@
         <v>410</v>
       </c>
     </row>
-    <row r="2187" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2187" s="10" t="s">
+        <v>80</v>
+      </c>
       <c r="B2187" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C2187" s="11" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="D2187" s="14" t="s">
         <v>46</v>
@@ -48885,12 +48945,15 @@
         <v>411</v>
       </c>
     </row>
-    <row r="2188" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2188" s="10" t="s">
+        <v>80</v>
+      </c>
       <c r="B2188" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C2188" s="11" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="D2188" s="14" t="s">
         <v>46</v>
@@ -48902,12 +48965,15 @@
         <v>368</v>
       </c>
     </row>
-    <row r="2189" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2189" s="10" t="s">
+        <v>80</v>
+      </c>
       <c r="B2189" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C2189" s="11" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="D2189" s="14" t="s">
         <v>46</v>
@@ -48919,12 +48985,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2190" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2190" s="10" t="s">
+        <v>80</v>
+      </c>
       <c r="B2190" s="65" t="s">
         <v>27</v>
       </c>
       <c r="C2190" s="11" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="D2190" s="14" t="s">
         <v>45</v>
@@ -48939,49 +49008,61 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2191" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2191" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2191" s="10" t="s">
+        <v>80</v>
+      </c>
       <c r="B2191" s="87" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2191" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="D2191" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2191" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2191" s="13" t="s">
+        <v>458</v>
+      </c>
+      <c r="G2191" s="88" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="2192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2192" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2192" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="C2191" s="11" t="s">
-        <v>448</v>
-      </c>
-      <c r="D2191" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2191" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="F2191" s="13" t="s">
-        <v>449</v>
-      </c>
-      <c r="G2191" s="88" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="2192" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2192" s="47" t="s">
-        <v>27</v>
-      </c>
       <c r="C2192" s="11" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="D2192" s="14" t="s">
         <v>43</v>
       </c>
       <c r="E2192" s="9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="F2192" s="13" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="2193" spans="2:7" x14ac:dyDescent="0.25">
+        <v>458</v>
+      </c>
+      <c r="G2192" s="88" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="2193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2193" s="10" t="s">
+        <v>80</v>
+      </c>
       <c r="B2193" s="65" t="s">
         <v>27</v>
       </c>
       <c r="C2193" s="11" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="D2193" s="14" t="s">
         <v>35</v>
@@ -48996,12 +49077,15 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2194" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2194" s="10" t="s">
+        <v>80</v>
+      </c>
       <c r="B2194" s="65" t="s">
         <v>27</v>
       </c>
       <c r="C2194" s="11" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="D2194" s="14" t="s">
         <v>35</v>
@@ -49016,12 +49100,15 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2195" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2195" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2195" s="10" t="s">
+        <v>80</v>
+      </c>
       <c r="B2195" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C2195" s="11" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="D2195" s="14" t="s">
         <v>35</v>
@@ -49033,52 +49120,61 @@
         <v>254</v>
       </c>
     </row>
-    <row r="2196" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2196" s="87" t="s">
-        <v>150</v>
+    <row r="2196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2196" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2196" s="65" t="s">
+        <v>27</v>
       </c>
       <c r="C2196" s="11" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="D2196" s="14" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="E2196" s="9" t="s">
-        <v>129</v>
+        <v>22</v>
       </c>
       <c r="F2196" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="G2196" s="88" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="2197" spans="2:7" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+      <c r="G2196" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2197" s="10" t="s">
+        <v>80</v>
+      </c>
       <c r="B2197" s="65" t="s">
         <v>27</v>
       </c>
       <c r="C2197" s="11" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="D2197" s="14" t="s">
         <v>46</v>
       </c>
       <c r="E2197" s="9" t="s">
-        <v>22</v>
+        <v>129</v>
       </c>
       <c r="F2197" s="13" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="G2197" s="89" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="2198" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2198" s="10" t="s">
+        <v>80</v>
+      </c>
       <c r="B2198" s="65" t="s">
         <v>27</v>
       </c>
       <c r="C2198" s="11" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="D2198" s="14" t="s">
         <v>46</v>
@@ -49087,75 +49183,87 @@
         <v>129</v>
       </c>
       <c r="F2198" s="13" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G2198" s="89" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="2199" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2199" s="10" t="s">
+        <v>80</v>
+      </c>
       <c r="B2199" s="65" t="s">
         <v>27</v>
       </c>
       <c r="C2199" s="11" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="D2199" s="14" t="s">
         <v>46</v>
       </c>
       <c r="E2199" s="9" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="F2199" s="13" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="G2199" s="89" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="2200" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2200" s="65" t="s">
+    <row r="2200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2200" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2200" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C2200" s="11" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="D2200" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E2200" s="9" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F2200" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="G2200" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2201" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2201" s="47" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2201" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2201" s="65" t="s">
         <v>27</v>
       </c>
       <c r="C2201" s="11" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="D2201" s="14" t="s">
         <v>43</v>
       </c>
       <c r="E2201" s="9" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="F2201" s="13" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="2202" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2202" s="65" t="s">
+        <v>428</v>
+      </c>
+      <c r="G2201" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2202" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2202" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C2202" s="11" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="D2202" s="14" t="s">
         <v>43</v>
@@ -49164,18 +49272,18 @@
         <v>25</v>
       </c>
       <c r="F2202" s="13" t="s">
-        <v>428</v>
-      </c>
-      <c r="G2202" s="89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2203" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2203" s="47" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="2203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2203" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2203" s="65" t="s">
         <v>27</v>
       </c>
       <c r="C2203" s="11" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="D2203" s="14" t="s">
         <v>43</v>
@@ -49184,2143 +49292,232 @@
         <v>25</v>
       </c>
       <c r="F2203" s="13" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="2204" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2204" s="65" t="s">
-        <v>27</v>
+        <v>64</v>
+      </c>
+      <c r="G2203" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2204" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2204" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2204" s="87" t="s">
+        <v>77</v>
       </c>
       <c r="C2204" s="11" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="D2204" s="14" t="s">
         <v>43</v>
       </c>
       <c r="E2204" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2204" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="G2204" s="88" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="2205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2205" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2205" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2205" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="D2205" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2205" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2205" s="13" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2206" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2206" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2206" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="D2206" s=